--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="2169">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -6521,6 +6521,22 @@
   </si>
   <si>
     <t>searching_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐서플로RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐서플로우RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflowRT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6853,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2010" workbookViewId="0">
+      <selection activeCell="C2029" sqref="C2029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29169,7 +29185,7 @@
         <v>617</v>
       </c>
       <c r="C2028" t="s">
-        <v>1573</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="2029" spans="1:3" x14ac:dyDescent="0.3">
@@ -29180,7 +29196,7 @@
         <v>617</v>
       </c>
       <c r="C2029" t="s">
-        <v>1574</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="2030" spans="1:3" x14ac:dyDescent="0.3">
@@ -29191,7 +29207,7 @@
         <v>617</v>
       </c>
       <c r="C2030" t="s">
-        <v>1576</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="2031" spans="1:3" x14ac:dyDescent="0.3">
@@ -29202,7 +29218,7 @@
         <v>617</v>
       </c>
       <c r="C2031" t="s">
-        <v>1575</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="2032" spans="1:3" x14ac:dyDescent="0.3">

--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="2455">
   <si>
     <t>가상화 솔루션</t>
   </si>
@@ -7718,10 +7718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2483"/>
+  <dimension ref="A1:C2482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35028,17 +35028,6 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="2483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2483">
-        <v>2482</v>
-      </c>
-      <c r="B2483">
-        <v>777</v>
-      </c>
-      <c r="C2483" t="s">
-        <v>2451</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="2529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="2531">
   <si>
     <t>searching_keyword_sn</t>
   </si>
@@ -2646,6 +2646,12 @@
   </si>
   <si>
     <t>Graphics processing unit</t>
+  </si>
+  <si>
+    <t>지피유</t>
+  </si>
+  <si>
+    <t>쥐피유</t>
   </si>
   <si>
     <t>GUI</t>
@@ -7940,10 +7946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2538"/>
+  <dimension ref="A1:C2540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2538"/>
+      <selection sqref="A1:C2540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17633,7 +17639,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C881" t="s">
         <v>874</v>
@@ -17644,7 +17650,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C882" t="s">
         <v>875</v>
@@ -17699,7 +17705,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C887" t="s">
         <v>880</v>
@@ -17710,7 +17716,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C888" t="s">
         <v>881</v>
@@ -17721,7 +17727,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C889" t="s">
         <v>882</v>
@@ -17732,7 +17738,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C890" t="s">
         <v>883</v>
@@ -17787,7 +17793,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C895" t="s">
         <v>888</v>
@@ -17798,7 +17804,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C896" t="s">
         <v>889</v>
@@ -17831,7 +17837,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C899" t="s">
         <v>892</v>
@@ -17842,7 +17848,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C900" t="s">
         <v>893</v>
@@ -17875,7 +17881,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C903" t="s">
         <v>896</v>
@@ -17886,7 +17892,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C904" t="s">
         <v>897</v>
@@ -17941,7 +17947,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C909" t="s">
         <v>902</v>
@@ -17952,7 +17958,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C910" t="s">
         <v>903</v>
@@ -17985,7 +17991,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C913" t="s">
         <v>906</v>
@@ -17996,7 +18002,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C914" t="s">
         <v>907</v>
@@ -18007,7 +18013,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C915" t="s">
         <v>908</v>
@@ -18018,7 +18024,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C916" t="s">
         <v>909</v>
@@ -18040,7 +18046,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C918" t="s">
         <v>911</v>
@@ -18051,7 +18057,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C919" t="s">
         <v>912</v>
@@ -18073,7 +18079,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C921" t="s">
         <v>914</v>
@@ -18084,7 +18090,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C922" t="s">
         <v>915</v>
@@ -18139,7 +18145,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C927" t="s">
         <v>920</v>
@@ -18150,7 +18156,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C928" t="s">
         <v>921</v>
@@ -18172,7 +18178,7 @@
         <v>929</v>
       </c>
       <c r="B930">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C930" t="s">
         <v>923</v>
@@ -18183,7 +18189,7 @@
         <v>930</v>
       </c>
       <c r="B931">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C931" t="s">
         <v>924</v>
@@ -18249,7 +18255,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C937" t="s">
         <v>930</v>
@@ -18260,7 +18266,7 @@
         <v>937</v>
       </c>
       <c r="B938">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C938" t="s">
         <v>931</v>
@@ -18304,7 +18310,7 @@
         <v>941</v>
       </c>
       <c r="B942">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C942" t="s">
         <v>935</v>
@@ -18315,7 +18321,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C943" t="s">
         <v>936</v>
@@ -18348,7 +18354,7 @@
         <v>945</v>
       </c>
       <c r="B946">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C946" t="s">
         <v>939</v>
@@ -18359,7 +18365,7 @@
         <v>946</v>
       </c>
       <c r="B947">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C947" t="s">
         <v>940</v>
@@ -18370,7 +18376,7 @@
         <v>947</v>
       </c>
       <c r="B948">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C948" t="s">
         <v>941</v>
@@ -18381,7 +18387,7 @@
         <v>948</v>
       </c>
       <c r="B949">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C949" t="s">
         <v>942</v>
@@ -18436,7 +18442,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C954" t="s">
         <v>947</v>
@@ -18447,7 +18453,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C955" t="s">
         <v>948</v>
@@ -18480,7 +18486,7 @@
         <v>957</v>
       </c>
       <c r="B958">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C958" t="s">
         <v>951</v>
@@ -18491,7 +18497,7 @@
         <v>958</v>
       </c>
       <c r="B959">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C959" t="s">
         <v>952</v>
@@ -18513,7 +18519,7 @@
         <v>960</v>
       </c>
       <c r="B961">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C961" t="s">
         <v>954</v>
@@ -18524,7 +18530,7 @@
         <v>961</v>
       </c>
       <c r="B962">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C962" t="s">
         <v>955</v>
@@ -18557,7 +18563,7 @@
         <v>964</v>
       </c>
       <c r="B965">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C965" t="s">
         <v>958</v>
@@ -18568,7 +18574,7 @@
         <v>965</v>
       </c>
       <c r="B966">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C966" t="s">
         <v>959</v>
@@ -18601,7 +18607,7 @@
         <v>968</v>
       </c>
       <c r="B969">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C969" t="s">
         <v>962</v>
@@ -18612,7 +18618,7 @@
         <v>969</v>
       </c>
       <c r="B970">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C970" t="s">
         <v>963</v>
@@ -18634,7 +18640,7 @@
         <v>971</v>
       </c>
       <c r="B972">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C972" t="s">
         <v>965</v>
@@ -18645,7 +18651,7 @@
         <v>972</v>
       </c>
       <c r="B973">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C973" t="s">
         <v>966</v>
@@ -18656,7 +18662,7 @@
         <v>973</v>
       </c>
       <c r="B974">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C974" t="s">
         <v>967</v>
@@ -18667,7 +18673,7 @@
         <v>974</v>
       </c>
       <c r="B975">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C975" t="s">
         <v>968</v>
@@ -18700,7 +18706,7 @@
         <v>977</v>
       </c>
       <c r="B978">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C978" t="s">
         <v>971</v>
@@ -18711,7 +18717,7 @@
         <v>978</v>
       </c>
       <c r="B979">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C979" t="s">
         <v>972</v>
@@ -18766,7 +18772,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C984" t="s">
         <v>977</v>
@@ -18777,7 +18783,7 @@
         <v>984</v>
       </c>
       <c r="B985">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C985" t="s">
         <v>978</v>
@@ -18799,7 +18805,7 @@
         <v>986</v>
       </c>
       <c r="B987">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C987" t="s">
         <v>980</v>
@@ -18810,7 +18816,7 @@
         <v>987</v>
       </c>
       <c r="B988">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C988" t="s">
         <v>981</v>
@@ -18832,7 +18838,7 @@
         <v>989</v>
       </c>
       <c r="B990">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C990" t="s">
         <v>983</v>
@@ -18843,7 +18849,7 @@
         <v>990</v>
       </c>
       <c r="B991">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C991" t="s">
         <v>984</v>
@@ -18854,7 +18860,7 @@
         <v>991</v>
       </c>
       <c r="B992">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C992" t="s">
         <v>985</v>
@@ -18865,7 +18871,7 @@
         <v>992</v>
       </c>
       <c r="B993">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C993" t="s">
         <v>986</v>
@@ -18887,7 +18893,7 @@
         <v>994</v>
       </c>
       <c r="B995">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C995" t="s">
         <v>988</v>
@@ -18898,7 +18904,7 @@
         <v>995</v>
       </c>
       <c r="B996">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C996" t="s">
         <v>989</v>
@@ -18909,7 +18915,7 @@
         <v>996</v>
       </c>
       <c r="B997">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C997" t="s">
         <v>990</v>
@@ -18975,7 +18981,7 @@
         <v>1002</v>
       </c>
       <c r="B1003">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1003" t="s">
         <v>996</v>
@@ -18986,7 +18992,7 @@
         <v>1003</v>
       </c>
       <c r="B1004">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1004" t="s">
         <v>997</v>
@@ -19008,7 +19014,7 @@
         <v>1005</v>
       </c>
       <c r="B1006">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1006" t="s">
         <v>999</v>
@@ -19019,7 +19025,7 @@
         <v>1006</v>
       </c>
       <c r="B1007">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1007" t="s">
         <v>1000</v>
@@ -19030,7 +19036,7 @@
         <v>1007</v>
       </c>
       <c r="B1008">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1008" t="s">
         <v>1001</v>
@@ -19041,7 +19047,7 @@
         <v>1008</v>
       </c>
       <c r="B1009">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1009" t="s">
         <v>1002</v>
@@ -19052,7 +19058,7 @@
         <v>1009</v>
       </c>
       <c r="B1010">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1010" t="s">
         <v>1003</v>
@@ -19063,7 +19069,7 @@
         <v>1010</v>
       </c>
       <c r="B1011">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1011" t="s">
         <v>1004</v>
@@ -19085,7 +19091,7 @@
         <v>1012</v>
       </c>
       <c r="B1013">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1013" t="s">
         <v>1006</v>
@@ -19096,7 +19102,7 @@
         <v>1013</v>
       </c>
       <c r="B1014">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1014" t="s">
         <v>1007</v>
@@ -19118,7 +19124,7 @@
         <v>1015</v>
       </c>
       <c r="B1016">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1016" t="s">
         <v>1009</v>
@@ -19129,7 +19135,7 @@
         <v>1016</v>
       </c>
       <c r="B1017">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1017" t="s">
         <v>1010</v>
@@ -19140,7 +19146,7 @@
         <v>1017</v>
       </c>
       <c r="B1018">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1018" t="s">
         <v>1011</v>
@@ -19151,7 +19157,7 @@
         <v>1018</v>
       </c>
       <c r="B1019">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1019" t="s">
         <v>1012</v>
@@ -19173,7 +19179,7 @@
         <v>1020</v>
       </c>
       <c r="B1021">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1021" t="s">
         <v>1014</v>
@@ -19184,7 +19190,7 @@
         <v>1021</v>
       </c>
       <c r="B1022">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1022" t="s">
         <v>1015</v>
@@ -19206,10 +19212,10 @@
         <v>1023</v>
       </c>
       <c r="B1024">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1024" t="s">
-        <v>31</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
@@ -19217,10 +19223,10 @@
         <v>1024</v>
       </c>
       <c r="B1025">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1025" t="s">
-        <v>30</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
@@ -19228,10 +19234,10 @@
         <v>1025</v>
       </c>
       <c r="B1026">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1026" t="s">
-        <v>1017</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
@@ -19239,10 +19245,10 @@
         <v>1026</v>
       </c>
       <c r="B1027">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1027" t="s">
-        <v>1018</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
@@ -19261,7 +19267,7 @@
         <v>1028</v>
       </c>
       <c r="B1029">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1029" t="s">
         <v>1020</v>
@@ -19272,7 +19278,7 @@
         <v>1029</v>
       </c>
       <c r="B1030">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1030" t="s">
         <v>1021</v>
@@ -19316,7 +19322,7 @@
         <v>1033</v>
       </c>
       <c r="B1034">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1034" t="s">
         <v>1025</v>
@@ -19327,7 +19333,7 @@
         <v>1034</v>
       </c>
       <c r="B1035">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1035" t="s">
         <v>1026</v>
@@ -19349,7 +19355,7 @@
         <v>1036</v>
       </c>
       <c r="B1037">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1037" t="s">
         <v>1028</v>
@@ -19360,7 +19366,7 @@
         <v>1037</v>
       </c>
       <c r="B1038">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1038" t="s">
         <v>1029</v>
@@ -19382,7 +19388,7 @@
         <v>1039</v>
       </c>
       <c r="B1040">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1040" t="s">
         <v>1031</v>
@@ -19393,7 +19399,7 @@
         <v>1040</v>
       </c>
       <c r="B1041">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1041" t="s">
         <v>1032</v>
@@ -19415,7 +19421,7 @@
         <v>1042</v>
       </c>
       <c r="B1043">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1043" t="s">
         <v>1034</v>
@@ -19426,7 +19432,7 @@
         <v>1043</v>
       </c>
       <c r="B1044">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1044" t="s">
         <v>1035</v>
@@ -19437,7 +19443,7 @@
         <v>1044</v>
       </c>
       <c r="B1045">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1045" t="s">
         <v>1036</v>
@@ -19448,7 +19454,7 @@
         <v>1045</v>
       </c>
       <c r="B1046">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1046" t="s">
         <v>1037</v>
@@ -19459,7 +19465,7 @@
         <v>1046</v>
       </c>
       <c r="B1047">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1047" t="s">
         <v>1038</v>
@@ -19470,7 +19476,7 @@
         <v>1047</v>
       </c>
       <c r="B1048">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1048" t="s">
         <v>1039</v>
@@ -19481,7 +19487,7 @@
         <v>1048</v>
       </c>
       <c r="B1049">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1049" t="s">
         <v>1040</v>
@@ -19492,7 +19498,7 @@
         <v>1049</v>
       </c>
       <c r="B1050">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1050" t="s">
         <v>1041</v>
@@ -19503,7 +19509,7 @@
         <v>1050</v>
       </c>
       <c r="B1051">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1051" t="s">
         <v>1042</v>
@@ -19514,7 +19520,7 @@
         <v>1051</v>
       </c>
       <c r="B1052">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1052" t="s">
         <v>1043</v>
@@ -19536,7 +19542,7 @@
         <v>1053</v>
       </c>
       <c r="B1054">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1054" t="s">
         <v>1045</v>
@@ -19547,7 +19553,7 @@
         <v>1054</v>
       </c>
       <c r="B1055">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1055" t="s">
         <v>1046</v>
@@ -19558,7 +19564,7 @@
         <v>1055</v>
       </c>
       <c r="B1056">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1056" t="s">
         <v>1047</v>
@@ -19569,7 +19575,7 @@
         <v>1056</v>
       </c>
       <c r="B1057">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1057" t="s">
         <v>1048</v>
@@ -19591,7 +19597,7 @@
         <v>1058</v>
       </c>
       <c r="B1059">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1059" t="s">
         <v>1050</v>
@@ -19602,7 +19608,7 @@
         <v>1059</v>
       </c>
       <c r="B1060">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1060" t="s">
         <v>1051</v>
@@ -19624,7 +19630,7 @@
         <v>1061</v>
       </c>
       <c r="B1062">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1062" t="s">
         <v>1053</v>
@@ -19635,7 +19641,7 @@
         <v>1062</v>
       </c>
       <c r="B1063">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1063" t="s">
         <v>1054</v>
@@ -19646,7 +19652,7 @@
         <v>1063</v>
       </c>
       <c r="B1064">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1064" t="s">
         <v>1055</v>
@@ -19657,7 +19663,7 @@
         <v>1064</v>
       </c>
       <c r="B1065">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1065" t="s">
         <v>1056</v>
@@ -19679,7 +19685,7 @@
         <v>1066</v>
       </c>
       <c r="B1067">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1067" t="s">
         <v>1058</v>
@@ -19690,7 +19696,7 @@
         <v>1067</v>
       </c>
       <c r="B1068">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1068" t="s">
         <v>1059</v>
@@ -19734,7 +19740,7 @@
         <v>1071</v>
       </c>
       <c r="B1072">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1072" t="s">
         <v>1063</v>
@@ -19745,7 +19751,7 @@
         <v>1072</v>
       </c>
       <c r="B1073">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1073" t="s">
         <v>1064</v>
@@ -19756,7 +19762,7 @@
         <v>1073</v>
       </c>
       <c r="B1074">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1074" t="s">
         <v>1065</v>
@@ -19767,7 +19773,7 @@
         <v>1074</v>
       </c>
       <c r="B1075">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1075" t="s">
         <v>1066</v>
@@ -19789,7 +19795,7 @@
         <v>1076</v>
       </c>
       <c r="B1077">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1077" t="s">
         <v>1068</v>
@@ -19800,7 +19806,7 @@
         <v>1077</v>
       </c>
       <c r="B1078">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1078" t="s">
         <v>1069</v>
@@ -19844,7 +19850,7 @@
         <v>1081</v>
       </c>
       <c r="B1082">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1082" t="s">
         <v>1073</v>
@@ -19855,7 +19861,7 @@
         <v>1082</v>
       </c>
       <c r="B1083">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1083" t="s">
         <v>1074</v>
@@ -19888,7 +19894,7 @@
         <v>1085</v>
       </c>
       <c r="B1086">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1086" t="s">
         <v>1077</v>
@@ -19899,7 +19905,7 @@
         <v>1086</v>
       </c>
       <c r="B1087">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1087" t="s">
         <v>1078</v>
@@ -19910,7 +19916,7 @@
         <v>1087</v>
       </c>
       <c r="B1088">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1088" t="s">
         <v>1079</v>
@@ -19921,7 +19927,7 @@
         <v>1088</v>
       </c>
       <c r="B1089">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1089" t="s">
         <v>1080</v>
@@ -19954,7 +19960,7 @@
         <v>1091</v>
       </c>
       <c r="B1092">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1092" t="s">
         <v>1083</v>
@@ -19965,7 +19971,7 @@
         <v>1092</v>
       </c>
       <c r="B1093">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1093" t="s">
         <v>1084</v>
@@ -19987,7 +19993,7 @@
         <v>1094</v>
       </c>
       <c r="B1095">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1095" t="s">
         <v>1086</v>
@@ -19998,7 +20004,7 @@
         <v>1095</v>
       </c>
       <c r="B1096">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1096" t="s">
         <v>1087</v>
@@ -20009,7 +20015,7 @@
         <v>1096</v>
       </c>
       <c r="B1097">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1097" t="s">
         <v>1088</v>
@@ -20020,7 +20026,7 @@
         <v>1097</v>
       </c>
       <c r="B1098">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1098" t="s">
         <v>1089</v>
@@ -20042,7 +20048,7 @@
         <v>1099</v>
       </c>
       <c r="B1100">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1100" t="s">
         <v>1091</v>
@@ -20053,7 +20059,7 @@
         <v>1100</v>
       </c>
       <c r="B1101">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1101" t="s">
         <v>1092</v>
@@ -20064,7 +20070,7 @@
         <v>1101</v>
       </c>
       <c r="B1102">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1102" t="s">
         <v>1093</v>
@@ -20075,7 +20081,7 @@
         <v>1102</v>
       </c>
       <c r="B1103">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1103" t="s">
         <v>1094</v>
@@ -20086,7 +20092,7 @@
         <v>1103</v>
       </c>
       <c r="B1104">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1104" t="s">
         <v>1095</v>
@@ -20097,7 +20103,7 @@
         <v>1104</v>
       </c>
       <c r="B1105">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1105" t="s">
         <v>1096</v>
@@ -20119,7 +20125,7 @@
         <v>1106</v>
       </c>
       <c r="B1107">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1107" t="s">
         <v>1098</v>
@@ -20130,7 +20136,7 @@
         <v>1107</v>
       </c>
       <c r="B1108">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1108" t="s">
         <v>1099</v>
@@ -20152,7 +20158,7 @@
         <v>1109</v>
       </c>
       <c r="B1110">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1110" t="s">
         <v>1101</v>
@@ -20163,7 +20169,7 @@
         <v>1110</v>
       </c>
       <c r="B1111">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1111" t="s">
         <v>1102</v>
@@ -20174,7 +20180,7 @@
         <v>1111</v>
       </c>
       <c r="B1112">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1112" t="s">
         <v>1103</v>
@@ -20185,7 +20191,7 @@
         <v>1112</v>
       </c>
       <c r="B1113">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1113" t="s">
         <v>1104</v>
@@ -20240,7 +20246,7 @@
         <v>1117</v>
       </c>
       <c r="B1118">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1118" t="s">
         <v>1109</v>
@@ -20251,7 +20257,7 @@
         <v>1118</v>
       </c>
       <c r="B1119">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1119" t="s">
         <v>1110</v>
@@ -20284,7 +20290,7 @@
         <v>1121</v>
       </c>
       <c r="B1122">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1122" t="s">
         <v>1113</v>
@@ -20295,7 +20301,7 @@
         <v>1122</v>
       </c>
       <c r="B1123">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1123" t="s">
         <v>1114</v>
@@ -20328,7 +20334,7 @@
         <v>1125</v>
       </c>
       <c r="B1126">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1126" t="s">
         <v>1117</v>
@@ -20339,7 +20345,7 @@
         <v>1126</v>
       </c>
       <c r="B1127">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1127" t="s">
         <v>1118</v>
@@ -20350,7 +20356,7 @@
         <v>1127</v>
       </c>
       <c r="B1128">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1128" t="s">
         <v>1119</v>
@@ -20361,7 +20367,7 @@
         <v>1128</v>
       </c>
       <c r="B1129">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1129" t="s">
         <v>1120</v>
@@ -20405,7 +20411,7 @@
         <v>1132</v>
       </c>
       <c r="B1133">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1133" t="s">
         <v>1124</v>
@@ -20416,7 +20422,7 @@
         <v>1133</v>
       </c>
       <c r="B1134">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1134" t="s">
         <v>1125</v>
@@ -20449,7 +20455,7 @@
         <v>1136</v>
       </c>
       <c r="B1137">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1137" t="s">
         <v>1128</v>
@@ -20460,7 +20466,7 @@
         <v>1137</v>
       </c>
       <c r="B1138">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1138" t="s">
         <v>1129</v>
@@ -20471,7 +20477,7 @@
         <v>1138</v>
       </c>
       <c r="B1139">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1139" t="s">
         <v>1130</v>
@@ -20482,7 +20488,7 @@
         <v>1139</v>
       </c>
       <c r="B1140">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1140" t="s">
         <v>1131</v>
@@ -20504,7 +20510,7 @@
         <v>1141</v>
       </c>
       <c r="B1142">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1142" t="s">
         <v>1133</v>
@@ -20515,7 +20521,7 @@
         <v>1142</v>
       </c>
       <c r="B1143">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1143" t="s">
         <v>1134</v>
@@ -20537,7 +20543,7 @@
         <v>1144</v>
       </c>
       <c r="B1145">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1145" t="s">
         <v>1136</v>
@@ -20548,7 +20554,7 @@
         <v>1145</v>
       </c>
       <c r="B1146">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1146" t="s">
         <v>1137</v>
@@ -20592,7 +20598,7 @@
         <v>1149</v>
       </c>
       <c r="B1150">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1150" t="s">
         <v>1141</v>
@@ -20603,7 +20609,7 @@
         <v>1150</v>
       </c>
       <c r="B1151">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1151" t="s">
         <v>1142</v>
@@ -20614,7 +20620,7 @@
         <v>1151</v>
       </c>
       <c r="B1152">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1152" t="s">
         <v>1143</v>
@@ -20625,7 +20631,7 @@
         <v>1152</v>
       </c>
       <c r="B1153">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1153" t="s">
         <v>1144</v>
@@ -20691,7 +20697,7 @@
         <v>1158</v>
       </c>
       <c r="B1159">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1159" t="s">
         <v>1150</v>
@@ -20702,7 +20708,7 @@
         <v>1159</v>
       </c>
       <c r="B1160">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1160" t="s">
         <v>1151</v>
@@ -20768,7 +20774,7 @@
         <v>1165</v>
       </c>
       <c r="B1166">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1166" t="s">
         <v>1157</v>
@@ -20779,7 +20785,7 @@
         <v>1166</v>
       </c>
       <c r="B1167">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1167" t="s">
         <v>1158</v>
@@ -20801,7 +20807,7 @@
         <v>1168</v>
       </c>
       <c r="B1169">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1169" t="s">
         <v>1160</v>
@@ -20812,7 +20818,7 @@
         <v>1169</v>
       </c>
       <c r="B1170">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1170" t="s">
         <v>1161</v>
@@ -20856,7 +20862,7 @@
         <v>1173</v>
       </c>
       <c r="B1174">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1174" t="s">
         <v>1165</v>
@@ -20867,7 +20873,7 @@
         <v>1174</v>
       </c>
       <c r="B1175">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1175" t="s">
         <v>1166</v>
@@ -20911,7 +20917,7 @@
         <v>1178</v>
       </c>
       <c r="B1179">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1179" t="s">
         <v>1170</v>
@@ -20922,7 +20928,7 @@
         <v>1179</v>
       </c>
       <c r="B1180">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1180" t="s">
         <v>1171</v>
@@ -20966,7 +20972,7 @@
         <v>1183</v>
       </c>
       <c r="B1184">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1184" t="s">
         <v>1175</v>
@@ -20977,7 +20983,7 @@
         <v>1184</v>
       </c>
       <c r="B1185">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1185" t="s">
         <v>1176</v>
@@ -21021,7 +21027,7 @@
         <v>1188</v>
       </c>
       <c r="B1189">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1189" t="s">
         <v>1180</v>
@@ -21032,7 +21038,7 @@
         <v>1189</v>
       </c>
       <c r="B1190">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1190" t="s">
         <v>1181</v>
@@ -21076,7 +21082,7 @@
         <v>1193</v>
       </c>
       <c r="B1194">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1194" t="s">
         <v>1185</v>
@@ -21087,7 +21093,7 @@
         <v>1194</v>
       </c>
       <c r="B1195">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1195" t="s">
         <v>1186</v>
@@ -21120,7 +21126,7 @@
         <v>1197</v>
       </c>
       <c r="B1198">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1198" t="s">
         <v>1189</v>
@@ -21131,7 +21137,7 @@
         <v>1198</v>
       </c>
       <c r="B1199">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1199" t="s">
         <v>1190</v>
@@ -21142,7 +21148,7 @@
         <v>1199</v>
       </c>
       <c r="B1200">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1200" t="s">
         <v>1191</v>
@@ -21153,7 +21159,7 @@
         <v>1200</v>
       </c>
       <c r="B1201">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1201" t="s">
         <v>1192</v>
@@ -21233,7 +21239,7 @@
         <v>375</v>
       </c>
       <c r="C1208" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
@@ -21244,7 +21250,7 @@
         <v>375</v>
       </c>
       <c r="C1209" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
@@ -21252,10 +21258,10 @@
         <v>1209</v>
       </c>
       <c r="B1210">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1210" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
@@ -21263,7 +21269,7 @@
         <v>1210</v>
       </c>
       <c r="B1211">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1211" t="s">
         <v>1201</v>
@@ -21329,7 +21335,7 @@
         <v>1216</v>
       </c>
       <c r="B1217">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1217" t="s">
         <v>1207</v>
@@ -21340,7 +21346,7 @@
         <v>1217</v>
       </c>
       <c r="B1218">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1218" t="s">
         <v>1208</v>
@@ -21406,7 +21412,7 @@
         <v>1223</v>
       </c>
       <c r="B1224">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1224" t="s">
         <v>1214</v>
@@ -21417,7 +21423,7 @@
         <v>1224</v>
       </c>
       <c r="B1225">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1225" t="s">
         <v>1215</v>
@@ -21472,7 +21478,7 @@
         <v>1229</v>
       </c>
       <c r="B1230">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1230" t="s">
         <v>1220</v>
@@ -21483,7 +21489,7 @@
         <v>1230</v>
       </c>
       <c r="B1231">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1231" t="s">
         <v>1221</v>
@@ -21527,7 +21533,7 @@
         <v>1234</v>
       </c>
       <c r="B1235">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1235" t="s">
         <v>1225</v>
@@ -21538,7 +21544,7 @@
         <v>1235</v>
       </c>
       <c r="B1236">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1236" t="s">
         <v>1226</v>
@@ -21593,7 +21599,7 @@
         <v>1240</v>
       </c>
       <c r="B1241">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1241" t="s">
         <v>1231</v>
@@ -21604,7 +21610,7 @@
         <v>1241</v>
       </c>
       <c r="B1242">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1242" t="s">
         <v>1232</v>
@@ -21659,7 +21665,7 @@
         <v>1246</v>
       </c>
       <c r="B1247">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C1247" t="s">
         <v>1237</v>
@@ -21670,7 +21676,7 @@
         <v>1247</v>
       </c>
       <c r="B1248">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C1248" t="s">
         <v>1238</v>
@@ -21725,7 +21731,7 @@
         <v>1252</v>
       </c>
       <c r="B1253">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1253" t="s">
         <v>1243</v>
@@ -21736,7 +21742,7 @@
         <v>1253</v>
       </c>
       <c r="B1254">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1254" t="s">
         <v>1244</v>
@@ -21802,7 +21808,7 @@
         <v>1259</v>
       </c>
       <c r="B1260">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1260" t="s">
         <v>1250</v>
@@ -21813,7 +21819,7 @@
         <v>1260</v>
       </c>
       <c r="B1261">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1261" t="s">
         <v>1251</v>
@@ -21879,7 +21885,7 @@
         <v>1266</v>
       </c>
       <c r="B1267">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1267" t="s">
         <v>1257</v>
@@ -21890,7 +21896,7 @@
         <v>1267</v>
       </c>
       <c r="B1268">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1268" t="s">
         <v>1258</v>
@@ -21967,7 +21973,7 @@
         <v>1274</v>
       </c>
       <c r="B1275">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1275" t="s">
         <v>1265</v>
@@ -21978,7 +21984,7 @@
         <v>1275</v>
       </c>
       <c r="B1276">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1276" t="s">
         <v>1266</v>
@@ -22055,7 +22061,7 @@
         <v>1282</v>
       </c>
       <c r="B1283">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1283" t="s">
         <v>1273</v>
@@ -22066,7 +22072,7 @@
         <v>1283</v>
       </c>
       <c r="B1284">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1284" t="s">
         <v>1274</v>
@@ -22110,7 +22116,7 @@
         <v>1287</v>
       </c>
       <c r="B1288">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1288" t="s">
         <v>1278</v>
@@ -22121,7 +22127,7 @@
         <v>1288</v>
       </c>
       <c r="B1289">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1289" t="s">
         <v>1279</v>
@@ -22154,7 +22160,7 @@
         <v>1291</v>
       </c>
       <c r="B1292">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1292" t="s">
         <v>1282</v>
@@ -22165,7 +22171,7 @@
         <v>1292</v>
       </c>
       <c r="B1293">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1293" t="s">
         <v>1283</v>
@@ -22176,7 +22182,7 @@
         <v>1293</v>
       </c>
       <c r="B1294">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1294" t="s">
         <v>1284</v>
@@ -22187,7 +22193,7 @@
         <v>1294</v>
       </c>
       <c r="B1295">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1295" t="s">
         <v>1285</v>
@@ -22242,7 +22248,7 @@
         <v>1299</v>
       </c>
       <c r="B1300">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1300" t="s">
         <v>1290</v>
@@ -22253,7 +22259,7 @@
         <v>1300</v>
       </c>
       <c r="B1301">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1301" t="s">
         <v>1291</v>
@@ -22286,7 +22292,7 @@
         <v>1303</v>
       </c>
       <c r="B1304">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1304" t="s">
         <v>1294</v>
@@ -22297,7 +22303,7 @@
         <v>1304</v>
       </c>
       <c r="B1305">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1305" t="s">
         <v>1295</v>
@@ -22363,7 +22369,7 @@
         <v>1310</v>
       </c>
       <c r="B1311">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1311" t="s">
         <v>1301</v>
@@ -22374,7 +22380,7 @@
         <v>1311</v>
       </c>
       <c r="B1312">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1312" t="s">
         <v>1302</v>
@@ -22407,7 +22413,7 @@
         <v>1314</v>
       </c>
       <c r="B1315">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1315" t="s">
         <v>1305</v>
@@ -22418,7 +22424,7 @@
         <v>1315</v>
       </c>
       <c r="B1316">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1316" t="s">
         <v>1306</v>
@@ -22451,7 +22457,7 @@
         <v>1318</v>
       </c>
       <c r="B1319">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1319" t="s">
         <v>1309</v>
@@ -22462,7 +22468,7 @@
         <v>1319</v>
       </c>
       <c r="B1320">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1320" t="s">
         <v>1310</v>
@@ -22473,7 +22479,7 @@
         <v>1320</v>
       </c>
       <c r="B1321">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1321" t="s">
         <v>1311</v>
@@ -22484,7 +22490,7 @@
         <v>1321</v>
       </c>
       <c r="B1322">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1322" t="s">
         <v>1312</v>
@@ -22517,7 +22523,7 @@
         <v>1324</v>
       </c>
       <c r="B1325">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1325" t="s">
         <v>1315</v>
@@ -22528,7 +22534,7 @@
         <v>1325</v>
       </c>
       <c r="B1326">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1326" t="s">
         <v>1316</v>
@@ -22539,7 +22545,7 @@
         <v>1326</v>
       </c>
       <c r="B1327">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1327" t="s">
         <v>1317</v>
@@ -22550,7 +22556,7 @@
         <v>1327</v>
       </c>
       <c r="B1328">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1328" t="s">
         <v>1318</v>
@@ -22561,7 +22567,7 @@
         <v>1328</v>
       </c>
       <c r="B1329">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1329" t="s">
         <v>1319</v>
@@ -22572,7 +22578,7 @@
         <v>1329</v>
       </c>
       <c r="B1330">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1330" t="s">
         <v>1320</v>
@@ -22649,7 +22655,7 @@
         <v>1336</v>
       </c>
       <c r="B1337">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1337" t="s">
         <v>1327</v>
@@ -22660,7 +22666,7 @@
         <v>1337</v>
       </c>
       <c r="B1338">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1338" t="s">
         <v>1328</v>
@@ -22682,7 +22688,7 @@
         <v>1339</v>
       </c>
       <c r="B1340">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1340" t="s">
         <v>1330</v>
@@ -22693,7 +22699,7 @@
         <v>1340</v>
       </c>
       <c r="B1341">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1341" t="s">
         <v>1331</v>
@@ -22715,7 +22721,7 @@
         <v>1342</v>
       </c>
       <c r="B1343">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1343" t="s">
         <v>1333</v>
@@ -22726,7 +22732,7 @@
         <v>1343</v>
       </c>
       <c r="B1344">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1344" t="s">
         <v>1334</v>
@@ -22792,7 +22798,7 @@
         <v>1349</v>
       </c>
       <c r="B1350">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1350" t="s">
         <v>1340</v>
@@ -22803,7 +22809,7 @@
         <v>1350</v>
       </c>
       <c r="B1351">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1351" t="s">
         <v>1341</v>
@@ -22825,7 +22831,7 @@
         <v>1352</v>
       </c>
       <c r="B1353">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1353" t="s">
         <v>1343</v>
@@ -22836,7 +22842,7 @@
         <v>1353</v>
       </c>
       <c r="B1354">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1354" t="s">
         <v>1344</v>
@@ -22869,7 +22875,7 @@
         <v>1356</v>
       </c>
       <c r="B1357">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1357" t="s">
         <v>1347</v>
@@ -22880,7 +22886,7 @@
         <v>1357</v>
       </c>
       <c r="B1358">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1358" t="s">
         <v>1348</v>
@@ -22891,7 +22897,7 @@
         <v>1358</v>
       </c>
       <c r="B1359">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1359" t="s">
         <v>1349</v>
@@ -22902,7 +22908,7 @@
         <v>1359</v>
       </c>
       <c r="B1360">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1360" t="s">
         <v>1350</v>
@@ -22935,7 +22941,7 @@
         <v>1362</v>
       </c>
       <c r="B1363">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1363" t="s">
         <v>1353</v>
@@ -22946,7 +22952,7 @@
         <v>1363</v>
       </c>
       <c r="B1364">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1364" t="s">
         <v>1354</v>
@@ -22968,7 +22974,7 @@
         <v>1365</v>
       </c>
       <c r="B1366">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1366" t="s">
         <v>1356</v>
@@ -22979,7 +22985,7 @@
         <v>1366</v>
       </c>
       <c r="B1367">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1367" t="s">
         <v>1357</v>
@@ -23001,7 +23007,7 @@
         <v>1368</v>
       </c>
       <c r="B1369">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1369" t="s">
         <v>1359</v>
@@ -23012,7 +23018,7 @@
         <v>1369</v>
       </c>
       <c r="B1370">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1370" t="s">
         <v>1360</v>
@@ -23023,7 +23029,7 @@
         <v>1370</v>
       </c>
       <c r="B1371">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1371" t="s">
         <v>1361</v>
@@ -23034,7 +23040,7 @@
         <v>1371</v>
       </c>
       <c r="B1372">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1372" t="s">
         <v>1362</v>
@@ -23056,7 +23062,7 @@
         <v>1373</v>
       </c>
       <c r="B1374">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1374" t="s">
         <v>1364</v>
@@ -23067,7 +23073,7 @@
         <v>1374</v>
       </c>
       <c r="B1375">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1375" t="s">
         <v>1365</v>
@@ -23089,7 +23095,7 @@
         <v>1376</v>
       </c>
       <c r="B1377">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1377" t="s">
         <v>1367</v>
@@ -23100,7 +23106,7 @@
         <v>1377</v>
       </c>
       <c r="B1378">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1378" t="s">
         <v>1368</v>
@@ -23111,7 +23117,7 @@
         <v>1378</v>
       </c>
       <c r="B1379">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1379" t="s">
         <v>1369</v>
@@ -23122,7 +23128,7 @@
         <v>1379</v>
       </c>
       <c r="B1380">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1380" t="s">
         <v>1370</v>
@@ -23133,7 +23139,7 @@
         <v>1380</v>
       </c>
       <c r="B1381">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1381" t="s">
         <v>1371</v>
@@ -23144,7 +23150,7 @@
         <v>1381</v>
       </c>
       <c r="B1382">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1382" t="s">
         <v>1372</v>
@@ -23155,7 +23161,7 @@
         <v>1382</v>
       </c>
       <c r="B1383">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1383" t="s">
         <v>1373</v>
@@ -23166,7 +23172,7 @@
         <v>1383</v>
       </c>
       <c r="B1384">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1384" t="s">
         <v>1374</v>
@@ -23188,7 +23194,7 @@
         <v>1385</v>
       </c>
       <c r="B1386">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1386" t="s">
         <v>1376</v>
@@ -23199,7 +23205,7 @@
         <v>1386</v>
       </c>
       <c r="B1387">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1387" t="s">
         <v>1377</v>
@@ -23210,7 +23216,7 @@
         <v>1387</v>
       </c>
       <c r="B1388">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1388" t="s">
         <v>1378</v>
@@ -23221,7 +23227,7 @@
         <v>1388</v>
       </c>
       <c r="B1389">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1389" t="s">
         <v>1379</v>
@@ -23232,7 +23238,7 @@
         <v>1389</v>
       </c>
       <c r="B1390">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1390" t="s">
         <v>1380</v>
@@ -23243,7 +23249,7 @@
         <v>1390</v>
       </c>
       <c r="B1391">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1391" t="s">
         <v>1381</v>
@@ -23254,7 +23260,7 @@
         <v>1391</v>
       </c>
       <c r="B1392">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1392" t="s">
         <v>1382</v>
@@ -23265,7 +23271,7 @@
         <v>1392</v>
       </c>
       <c r="B1393">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1393" t="s">
         <v>1383</v>
@@ -23287,7 +23293,7 @@
         <v>1394</v>
       </c>
       <c r="B1395">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1395" t="s">
         <v>1385</v>
@@ -23298,7 +23304,7 @@
         <v>1395</v>
       </c>
       <c r="B1396">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1396" t="s">
         <v>1386</v>
@@ -23309,7 +23315,7 @@
         <v>1396</v>
       </c>
       <c r="B1397">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1397" t="s">
         <v>1387</v>
@@ -23320,7 +23326,7 @@
         <v>1397</v>
       </c>
       <c r="B1398">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1398" t="s">
         <v>1388</v>
@@ -23342,7 +23348,7 @@
         <v>1399</v>
       </c>
       <c r="B1400">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1400" t="s">
         <v>1390</v>
@@ -23353,7 +23359,7 @@
         <v>1400</v>
       </c>
       <c r="B1401">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1401" t="s">
         <v>1391</v>
@@ -23386,7 +23392,7 @@
         <v>1403</v>
       </c>
       <c r="B1404">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1404" t="s">
         <v>1394</v>
@@ -23397,7 +23403,7 @@
         <v>1404</v>
       </c>
       <c r="B1405">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1405" t="s">
         <v>1395</v>
@@ -23408,7 +23414,7 @@
         <v>1405</v>
       </c>
       <c r="B1406">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1406" t="s">
         <v>1396</v>
@@ -23419,7 +23425,7 @@
         <v>1406</v>
       </c>
       <c r="B1407">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1407" t="s">
         <v>1397</v>
@@ -23430,7 +23436,7 @@
         <v>1407</v>
       </c>
       <c r="B1408">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1408" t="s">
         <v>1398</v>
@@ -23441,7 +23447,7 @@
         <v>1408</v>
       </c>
       <c r="B1409">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1409" t="s">
         <v>1399</v>
@@ -23452,7 +23458,7 @@
         <v>1409</v>
       </c>
       <c r="B1410">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1410" t="s">
         <v>1400</v>
@@ -23463,7 +23469,7 @@
         <v>1410</v>
       </c>
       <c r="B1411">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1411" t="s">
         <v>1401</v>
@@ -23474,7 +23480,7 @@
         <v>1411</v>
       </c>
       <c r="B1412">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1412" t="s">
         <v>1402</v>
@@ -23485,7 +23491,7 @@
         <v>1412</v>
       </c>
       <c r="B1413">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1413" t="s">
         <v>1403</v>
@@ -23496,7 +23502,7 @@
         <v>1413</v>
       </c>
       <c r="B1414">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1414" t="s">
         <v>1404</v>
@@ -23507,7 +23513,7 @@
         <v>1414</v>
       </c>
       <c r="B1415">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1415" t="s">
         <v>1405</v>
@@ -23518,7 +23524,7 @@
         <v>1415</v>
       </c>
       <c r="B1416">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1416" t="s">
         <v>1406</v>
@@ -23529,7 +23535,7 @@
         <v>1416</v>
       </c>
       <c r="B1417">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1417" t="s">
         <v>1407</v>
@@ -23540,7 +23546,7 @@
         <v>1417</v>
       </c>
       <c r="B1418">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1418" t="s">
         <v>1408</v>
@@ -23551,7 +23557,7 @@
         <v>1418</v>
       </c>
       <c r="B1419">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1419" t="s">
         <v>1409</v>
@@ -23595,7 +23601,7 @@
         <v>1422</v>
       </c>
       <c r="B1423">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1423" t="s">
         <v>1413</v>
@@ -23606,7 +23612,7 @@
         <v>1423</v>
       </c>
       <c r="B1424">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1424" t="s">
         <v>1414</v>
@@ -23617,7 +23623,7 @@
         <v>1424</v>
       </c>
       <c r="B1425">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1425" t="s">
         <v>1415</v>
@@ -23628,7 +23634,7 @@
         <v>1425</v>
       </c>
       <c r="B1426">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1426" t="s">
         <v>1416</v>
@@ -23639,7 +23645,7 @@
         <v>1426</v>
       </c>
       <c r="B1427">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1427" t="s">
         <v>1417</v>
@@ -23650,7 +23656,7 @@
         <v>1427</v>
       </c>
       <c r="B1428">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1428" t="s">
         <v>1418</v>
@@ -23661,7 +23667,7 @@
         <v>1428</v>
       </c>
       <c r="B1429">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1429" t="s">
         <v>1419</v>
@@ -23672,7 +23678,7 @@
         <v>1429</v>
       </c>
       <c r="B1430">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1430" t="s">
         <v>1420</v>
@@ -23683,7 +23689,7 @@
         <v>1430</v>
       </c>
       <c r="B1431">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1431" t="s">
         <v>1421</v>
@@ -23694,7 +23700,7 @@
         <v>1431</v>
       </c>
       <c r="B1432">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1432" t="s">
         <v>1422</v>
@@ -23705,7 +23711,7 @@
         <v>1432</v>
       </c>
       <c r="B1433">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1433" t="s">
         <v>1423</v>
@@ -23716,7 +23722,7 @@
         <v>1433</v>
       </c>
       <c r="B1434">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1434" t="s">
         <v>1424</v>
@@ -23727,7 +23733,7 @@
         <v>1434</v>
       </c>
       <c r="B1435">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1435" t="s">
         <v>1425</v>
@@ -23738,7 +23744,7 @@
         <v>1435</v>
       </c>
       <c r="B1436">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1436" t="s">
         <v>1426</v>
@@ -23760,7 +23766,7 @@
         <v>1437</v>
       </c>
       <c r="B1438">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1438" t="s">
         <v>1428</v>
@@ -23771,7 +23777,7 @@
         <v>1438</v>
       </c>
       <c r="B1439">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1439" t="s">
         <v>1429</v>
@@ -23804,7 +23810,7 @@
         <v>1441</v>
       </c>
       <c r="B1442">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1442" t="s">
         <v>1432</v>
@@ -23815,7 +23821,7 @@
         <v>1442</v>
       </c>
       <c r="B1443">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1443" t="s">
         <v>1433</v>
@@ -23936,7 +23942,7 @@
         <v>1453</v>
       </c>
       <c r="B1454">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1454" t="s">
         <v>1444</v>
@@ -23947,7 +23953,7 @@
         <v>1454</v>
       </c>
       <c r="B1455">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1455" t="s">
         <v>1445</v>
@@ -24002,7 +24008,7 @@
         <v>1459</v>
       </c>
       <c r="B1460">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1460" t="s">
         <v>1450</v>
@@ -24013,7 +24019,7 @@
         <v>1460</v>
       </c>
       <c r="B1461">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1461" t="s">
         <v>1451</v>
@@ -24057,7 +24063,7 @@
         <v>1464</v>
       </c>
       <c r="B1465">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1465" t="s">
         <v>1455</v>
@@ -24068,7 +24074,7 @@
         <v>1465</v>
       </c>
       <c r="B1466">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1466" t="s">
         <v>1456</v>
@@ -24134,7 +24140,7 @@
         <v>1471</v>
       </c>
       <c r="B1472">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1472" t="s">
         <v>1462</v>
@@ -24145,7 +24151,7 @@
         <v>1472</v>
       </c>
       <c r="B1473">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1473" t="s">
         <v>1463</v>
@@ -24200,7 +24206,7 @@
         <v>1477</v>
       </c>
       <c r="B1478">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1478" t="s">
         <v>1468</v>
@@ -24211,7 +24217,7 @@
         <v>1478</v>
       </c>
       <c r="B1479">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1479" t="s">
         <v>1469</v>
@@ -24310,7 +24316,7 @@
         <v>1487</v>
       </c>
       <c r="B1488">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1488" t="s">
         <v>1478</v>
@@ -24321,7 +24327,7 @@
         <v>1488</v>
       </c>
       <c r="B1489">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1489" t="s">
         <v>1479</v>
@@ -24387,7 +24393,7 @@
         <v>1494</v>
       </c>
       <c r="B1495">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1495" t="s">
         <v>1485</v>
@@ -24398,7 +24404,7 @@
         <v>1495</v>
       </c>
       <c r="B1496">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1496" t="s">
         <v>1486</v>
@@ -24497,7 +24503,7 @@
         <v>1504</v>
       </c>
       <c r="B1505">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1505" t="s">
         <v>1495</v>
@@ -24508,7 +24514,7 @@
         <v>1505</v>
       </c>
       <c r="B1506">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1506" t="s">
         <v>1496</v>
@@ -24563,7 +24569,7 @@
         <v>1510</v>
       </c>
       <c r="B1511">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1511" t="s">
         <v>1501</v>
@@ -24574,7 +24580,7 @@
         <v>1511</v>
       </c>
       <c r="B1512">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1512" t="s">
         <v>1502</v>
@@ -24662,7 +24668,7 @@
         <v>1519</v>
       </c>
       <c r="B1520">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1520" t="s">
         <v>1510</v>
@@ -24673,7 +24679,7 @@
         <v>1520</v>
       </c>
       <c r="B1521">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1521" t="s">
         <v>1511</v>
@@ -24728,7 +24734,7 @@
         <v>1525</v>
       </c>
       <c r="B1526">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C1526" t="s">
         <v>1516</v>
@@ -24739,7 +24745,7 @@
         <v>1526</v>
       </c>
       <c r="B1527">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C1527" t="s">
         <v>1517</v>
@@ -24750,7 +24756,7 @@
         <v>1527</v>
       </c>
       <c r="B1528">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1528" t="s">
         <v>1518</v>
@@ -24761,7 +24767,7 @@
         <v>1528</v>
       </c>
       <c r="B1529">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1529" t="s">
         <v>1519</v>
@@ -24816,7 +24822,7 @@
         <v>1533</v>
       </c>
       <c r="B1534">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1534" t="s">
         <v>1524</v>
@@ -24827,7 +24833,7 @@
         <v>1534</v>
       </c>
       <c r="B1535">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1535" t="s">
         <v>1525</v>
@@ -24860,7 +24866,7 @@
         <v>1537</v>
       </c>
       <c r="B1538">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1538" t="s">
         <v>1528</v>
@@ -24871,7 +24877,7 @@
         <v>1538</v>
       </c>
       <c r="B1539">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1539" t="s">
         <v>1529</v>
@@ -24904,7 +24910,7 @@
         <v>1541</v>
       </c>
       <c r="B1542">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1542" t="s">
         <v>1532</v>
@@ -24915,7 +24921,7 @@
         <v>1542</v>
       </c>
       <c r="B1543">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1543" t="s">
         <v>1533</v>
@@ -24948,7 +24954,7 @@
         <v>1545</v>
       </c>
       <c r="B1546">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1546" t="s">
         <v>1536</v>
@@ -24959,7 +24965,7 @@
         <v>1546</v>
       </c>
       <c r="B1547">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1547" t="s">
         <v>1537</v>
@@ -24992,7 +24998,7 @@
         <v>1549</v>
       </c>
       <c r="B1550">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1550" t="s">
         <v>1540</v>
@@ -25003,7 +25009,7 @@
         <v>1550</v>
       </c>
       <c r="B1551">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1551" t="s">
         <v>1541</v>
@@ -25036,7 +25042,7 @@
         <v>1553</v>
       </c>
       <c r="B1554">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1554" t="s">
         <v>1544</v>
@@ -25047,7 +25053,7 @@
         <v>1554</v>
       </c>
       <c r="B1555">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1555" t="s">
         <v>1545</v>
@@ -25102,7 +25108,7 @@
         <v>1559</v>
       </c>
       <c r="B1560">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1560" t="s">
         <v>1550</v>
@@ -25113,7 +25119,7 @@
         <v>1560</v>
       </c>
       <c r="B1561">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1561" t="s">
         <v>1551</v>
@@ -25168,7 +25174,7 @@
         <v>1565</v>
       </c>
       <c r="B1566">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1566" t="s">
         <v>1556</v>
@@ -25179,7 +25185,7 @@
         <v>1566</v>
       </c>
       <c r="B1567">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1567" t="s">
         <v>1557</v>
@@ -25245,7 +25251,7 @@
         <v>1572</v>
       </c>
       <c r="B1573">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1573" t="s">
         <v>1563</v>
@@ -25256,7 +25262,7 @@
         <v>1573</v>
       </c>
       <c r="B1574">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1574" t="s">
         <v>1564</v>
@@ -25322,7 +25328,7 @@
         <v>1579</v>
       </c>
       <c r="B1580">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1580" t="s">
         <v>1570</v>
@@ -25333,7 +25339,7 @@
         <v>1580</v>
       </c>
       <c r="B1581">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1581" t="s">
         <v>1571</v>
@@ -25388,7 +25394,7 @@
         <v>1585</v>
       </c>
       <c r="B1586">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1586" t="s">
         <v>1576</v>
@@ -25399,7 +25405,7 @@
         <v>1586</v>
       </c>
       <c r="B1587">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1587" t="s">
         <v>1577</v>
@@ -25421,7 +25427,7 @@
         <v>1588</v>
       </c>
       <c r="B1589">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1589" t="s">
         <v>1579</v>
@@ -25432,7 +25438,7 @@
         <v>1589</v>
       </c>
       <c r="B1590">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1590" t="s">
         <v>1580</v>
@@ -25487,7 +25493,7 @@
         <v>1594</v>
       </c>
       <c r="B1595">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1595" t="s">
         <v>1585</v>
@@ -25498,7 +25504,7 @@
         <v>1595</v>
       </c>
       <c r="B1596">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1596" t="s">
         <v>1586</v>
@@ -25575,7 +25581,7 @@
         <v>1602</v>
       </c>
       <c r="B1603">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1603" t="s">
         <v>1593</v>
@@ -25586,7 +25592,7 @@
         <v>1603</v>
       </c>
       <c r="B1604">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1604" t="s">
         <v>1594</v>
@@ -25608,7 +25614,7 @@
         <v>1605</v>
       </c>
       <c r="B1606">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1606" t="s">
         <v>1596</v>
@@ -25619,7 +25625,7 @@
         <v>1606</v>
       </c>
       <c r="B1607">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1607" t="s">
         <v>1597</v>
@@ -25630,7 +25636,7 @@
         <v>1607</v>
       </c>
       <c r="B1608">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1608" t="s">
         <v>1598</v>
@@ -25641,7 +25647,7 @@
         <v>1608</v>
       </c>
       <c r="B1609">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1609" t="s">
         <v>1599</v>
@@ -25685,7 +25691,7 @@
         <v>1612</v>
       </c>
       <c r="B1613">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C1613" t="s">
         <v>1603</v>
@@ -25696,7 +25702,7 @@
         <v>1613</v>
       </c>
       <c r="B1614">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C1614" t="s">
         <v>1604</v>
@@ -25707,7 +25713,7 @@
         <v>1614</v>
       </c>
       <c r="B1615">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1615" t="s">
         <v>1605</v>
@@ -25718,7 +25724,7 @@
         <v>1615</v>
       </c>
       <c r="B1616">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1616" t="s">
         <v>1606</v>
@@ -25817,7 +25823,7 @@
         <v>1624</v>
       </c>
       <c r="B1625">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1625" t="s">
         <v>1615</v>
@@ -25828,7 +25834,7 @@
         <v>1625</v>
       </c>
       <c r="B1626">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1626" t="s">
         <v>1616</v>
@@ -25850,7 +25856,7 @@
         <v>1627</v>
       </c>
       <c r="B1628">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1628" t="s">
         <v>1618</v>
@@ -25861,7 +25867,7 @@
         <v>1628</v>
       </c>
       <c r="B1629">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1629" t="s">
         <v>1619</v>
@@ -25916,7 +25922,7 @@
         <v>1633</v>
       </c>
       <c r="B1634">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1634" t="s">
         <v>1624</v>
@@ -25927,7 +25933,7 @@
         <v>1634</v>
       </c>
       <c r="B1635">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1635" t="s">
         <v>1625</v>
@@ -25982,7 +25988,7 @@
         <v>1639</v>
       </c>
       <c r="B1640">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1640" t="s">
         <v>1630</v>
@@ -25993,7 +25999,7 @@
         <v>1640</v>
       </c>
       <c r="B1641">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1641" t="s">
         <v>1631</v>
@@ -26015,7 +26021,7 @@
         <v>1642</v>
       </c>
       <c r="B1643">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1643" t="s">
         <v>1633</v>
@@ -26026,7 +26032,7 @@
         <v>1643</v>
       </c>
       <c r="B1644">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1644" t="s">
         <v>1634</v>
@@ -26037,7 +26043,7 @@
         <v>1644</v>
       </c>
       <c r="B1645">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1645" t="s">
         <v>1635</v>
@@ -26048,7 +26054,7 @@
         <v>1645</v>
       </c>
       <c r="B1646">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1646" t="s">
         <v>1636</v>
@@ -26059,7 +26065,7 @@
         <v>1646</v>
       </c>
       <c r="B1647">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1647" t="s">
         <v>1637</v>
@@ -26070,7 +26076,7 @@
         <v>1647</v>
       </c>
       <c r="B1648">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1648" t="s">
         <v>1638</v>
@@ -26081,7 +26087,7 @@
         <v>1648</v>
       </c>
       <c r="B1649">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1649" t="s">
         <v>1639</v>
@@ -26092,7 +26098,7 @@
         <v>1649</v>
       </c>
       <c r="B1650">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1650" t="s">
         <v>1640</v>
@@ -26103,7 +26109,7 @@
         <v>1650</v>
       </c>
       <c r="B1651">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1651" t="s">
         <v>1641</v>
@@ -26114,7 +26120,7 @@
         <v>1651</v>
       </c>
       <c r="B1652">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1652" t="s">
         <v>1642</v>
@@ -26147,7 +26153,7 @@
         <v>1654</v>
       </c>
       <c r="B1655">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C1655" t="s">
         <v>1645</v>
@@ -26158,7 +26164,7 @@
         <v>1655</v>
       </c>
       <c r="B1656">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C1656" t="s">
         <v>1646</v>
@@ -26169,7 +26175,7 @@
         <v>1656</v>
       </c>
       <c r="B1657">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1657" t="s">
         <v>1647</v>
@@ -26180,7 +26186,7 @@
         <v>1657</v>
       </c>
       <c r="B1658">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1658" t="s">
         <v>1648</v>
@@ -26202,7 +26208,7 @@
         <v>1659</v>
       </c>
       <c r="B1660">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1660" t="s">
         <v>1650</v>
@@ -26213,7 +26219,7 @@
         <v>1660</v>
       </c>
       <c r="B1661">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1661" t="s">
         <v>1651</v>
@@ -26257,7 +26263,7 @@
         <v>1664</v>
       </c>
       <c r="B1665">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C1665" t="s">
         <v>1655</v>
@@ -26268,7 +26274,7 @@
         <v>1665</v>
       </c>
       <c r="B1666">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C1666" t="s">
         <v>1656</v>
@@ -26290,7 +26296,7 @@
         <v>1667</v>
       </c>
       <c r="B1668">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C1668" t="s">
         <v>1658</v>
@@ -26301,7 +26307,7 @@
         <v>1668</v>
       </c>
       <c r="B1669">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C1669" t="s">
         <v>1659</v>
@@ -26356,7 +26362,7 @@
         <v>1673</v>
       </c>
       <c r="B1674">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C1674" t="s">
         <v>1664</v>
@@ -26367,7 +26373,7 @@
         <v>1674</v>
       </c>
       <c r="B1675">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C1675" t="s">
         <v>1665</v>
@@ -26389,7 +26395,7 @@
         <v>1676</v>
       </c>
       <c r="B1677">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1677" t="s">
         <v>1667</v>
@@ -26400,7 +26406,7 @@
         <v>1677</v>
       </c>
       <c r="B1678">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1678" t="s">
         <v>1668</v>
@@ -26444,7 +26450,7 @@
         <v>1681</v>
       </c>
       <c r="B1682">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1682" t="s">
         <v>1672</v>
@@ -26455,7 +26461,7 @@
         <v>1682</v>
       </c>
       <c r="B1683">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1683" t="s">
         <v>1673</v>
@@ -26510,7 +26516,7 @@
         <v>1687</v>
       </c>
       <c r="B1688">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1688" t="s">
         <v>1678</v>
@@ -26521,7 +26527,7 @@
         <v>1688</v>
       </c>
       <c r="B1689">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1689" t="s">
         <v>1679</v>
@@ -26554,7 +26560,7 @@
         <v>1691</v>
       </c>
       <c r="B1692">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C1692" t="s">
         <v>1682</v>
@@ -26565,7 +26571,7 @@
         <v>1692</v>
       </c>
       <c r="B1693">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C1693" t="s">
         <v>1683</v>
@@ -26576,7 +26582,7 @@
         <v>1693</v>
       </c>
       <c r="B1694">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1694" t="s">
         <v>1684</v>
@@ -26587,7 +26593,7 @@
         <v>1694</v>
       </c>
       <c r="B1695">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1695" t="s">
         <v>1685</v>
@@ -26609,7 +26615,7 @@
         <v>1696</v>
       </c>
       <c r="B1697">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1697" t="s">
         <v>1687</v>
@@ -26620,7 +26626,7 @@
         <v>1697</v>
       </c>
       <c r="B1698">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1698" t="s">
         <v>1688</v>
@@ -26631,7 +26637,7 @@
         <v>1698</v>
       </c>
       <c r="B1699">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1699" t="s">
         <v>1689</v>
@@ -26642,7 +26648,7 @@
         <v>1699</v>
       </c>
       <c r="B1700">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1700" t="s">
         <v>1690</v>
@@ -26653,7 +26659,7 @@
         <v>1700</v>
       </c>
       <c r="B1701">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1701" t="s">
         <v>1691</v>
@@ -26664,7 +26670,7 @@
         <v>1701</v>
       </c>
       <c r="B1702">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1702" t="s">
         <v>1692</v>
@@ -26675,7 +26681,7 @@
         <v>1702</v>
       </c>
       <c r="B1703">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1703" t="s">
         <v>1693</v>
@@ -26686,7 +26692,7 @@
         <v>1703</v>
       </c>
       <c r="B1704">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1704" t="s">
         <v>1694</v>
@@ -26697,7 +26703,7 @@
         <v>1704</v>
       </c>
       <c r="B1705">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1705" t="s">
         <v>1695</v>
@@ -26708,7 +26714,7 @@
         <v>1705</v>
       </c>
       <c r="B1706">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1706" t="s">
         <v>1696</v>
@@ -26719,7 +26725,7 @@
         <v>1706</v>
       </c>
       <c r="B1707">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1707" t="s">
         <v>1697</v>
@@ -26730,7 +26736,7 @@
         <v>1707</v>
       </c>
       <c r="B1708">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1708" t="s">
         <v>1698</v>
@@ -26741,7 +26747,7 @@
         <v>1708</v>
       </c>
       <c r="B1709">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1709" t="s">
         <v>1699</v>
@@ -26752,7 +26758,7 @@
         <v>1709</v>
       </c>
       <c r="B1710">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1710" t="s">
         <v>1700</v>
@@ -26763,7 +26769,7 @@
         <v>1710</v>
       </c>
       <c r="B1711">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1711" t="s">
         <v>1701</v>
@@ -26774,7 +26780,7 @@
         <v>1711</v>
       </c>
       <c r="B1712">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1712" t="s">
         <v>1702</v>
@@ -26785,7 +26791,7 @@
         <v>1712</v>
       </c>
       <c r="B1713">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1713" t="s">
         <v>1703</v>
@@ -26796,7 +26802,7 @@
         <v>1713</v>
       </c>
       <c r="B1714">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1714" t="s">
         <v>1704</v>
@@ -26829,7 +26835,7 @@
         <v>1716</v>
       </c>
       <c r="B1717">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1717" t="s">
         <v>1707</v>
@@ -26840,7 +26846,7 @@
         <v>1717</v>
       </c>
       <c r="B1718">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1718" t="s">
         <v>1708</v>
@@ -26862,7 +26868,7 @@
         <v>1719</v>
       </c>
       <c r="B1720">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1720" t="s">
         <v>1710</v>
@@ -26873,7 +26879,7 @@
         <v>1720</v>
       </c>
       <c r="B1721">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1721" t="s">
         <v>1711</v>
@@ -26895,7 +26901,7 @@
         <v>1722</v>
       </c>
       <c r="B1723">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1723" t="s">
         <v>1713</v>
@@ -26906,7 +26912,7 @@
         <v>1723</v>
       </c>
       <c r="B1724">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1724" t="s">
         <v>1714</v>
@@ -26950,7 +26956,7 @@
         <v>1727</v>
       </c>
       <c r="B1728">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1728" t="s">
         <v>1718</v>
@@ -26961,7 +26967,7 @@
         <v>1728</v>
       </c>
       <c r="B1729">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1729" t="s">
         <v>1719</v>
@@ -26983,7 +26989,7 @@
         <v>1730</v>
       </c>
       <c r="B1731">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1731" t="s">
         <v>1721</v>
@@ -26994,7 +27000,7 @@
         <v>1731</v>
       </c>
       <c r="B1732">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1732" t="s">
         <v>1722</v>
@@ -27005,7 +27011,7 @@
         <v>1732</v>
       </c>
       <c r="B1733">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1733" t="s">
         <v>1723</v>
@@ -27016,7 +27022,7 @@
         <v>1733</v>
       </c>
       <c r="B1734">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1734" t="s">
         <v>1724</v>
@@ -27038,7 +27044,7 @@
         <v>1735</v>
       </c>
       <c r="B1736">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1736" t="s">
         <v>1726</v>
@@ -27049,7 +27055,7 @@
         <v>1736</v>
       </c>
       <c r="B1737">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1737" t="s">
         <v>1727</v>
@@ -27071,7 +27077,7 @@
         <v>1738</v>
       </c>
       <c r="B1739">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1739" t="s">
         <v>1729</v>
@@ -27082,7 +27088,7 @@
         <v>1739</v>
       </c>
       <c r="B1740">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1740" t="s">
         <v>1730</v>
@@ -27104,7 +27110,7 @@
         <v>1741</v>
       </c>
       <c r="B1742">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1742" t="s">
         <v>1732</v>
@@ -27115,7 +27121,7 @@
         <v>1742</v>
       </c>
       <c r="B1743">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1743" t="s">
         <v>1733</v>
@@ -27148,7 +27154,7 @@
         <v>1745</v>
       </c>
       <c r="B1746">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1746" t="s">
         <v>1736</v>
@@ -27159,7 +27165,7 @@
         <v>1746</v>
       </c>
       <c r="B1747">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1747" t="s">
         <v>1737</v>
@@ -27181,7 +27187,7 @@
         <v>1748</v>
       </c>
       <c r="B1749">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1749" t="s">
         <v>1739</v>
@@ -27192,7 +27198,7 @@
         <v>1749</v>
       </c>
       <c r="B1750">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1750" t="s">
         <v>1740</v>
@@ -27214,7 +27220,7 @@
         <v>1751</v>
       </c>
       <c r="B1752">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1752" t="s">
         <v>1742</v>
@@ -27225,7 +27231,7 @@
         <v>1752</v>
       </c>
       <c r="B1753">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1753" t="s">
         <v>1743</v>
@@ -27258,7 +27264,7 @@
         <v>1755</v>
       </c>
       <c r="B1756">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1756" t="s">
         <v>1746</v>
@@ -27269,7 +27275,7 @@
         <v>1756</v>
       </c>
       <c r="B1757">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1757" t="s">
         <v>1747</v>
@@ -27280,7 +27286,7 @@
         <v>1757</v>
       </c>
       <c r="B1758">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1758" t="s">
         <v>1748</v>
@@ -27291,7 +27297,7 @@
         <v>1758</v>
       </c>
       <c r="B1759">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1759" t="s">
         <v>1749</v>
@@ -27313,7 +27319,7 @@
         <v>1760</v>
       </c>
       <c r="B1761">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1761" t="s">
         <v>1751</v>
@@ -27324,7 +27330,7 @@
         <v>1761</v>
       </c>
       <c r="B1762">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1762" t="s">
         <v>1752</v>
@@ -27390,7 +27396,7 @@
         <v>1767</v>
       </c>
       <c r="B1768">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1768" t="s">
         <v>1758</v>
@@ -27401,7 +27407,7 @@
         <v>1768</v>
       </c>
       <c r="B1769">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1769" t="s">
         <v>1759</v>
@@ -27412,7 +27418,7 @@
         <v>1769</v>
       </c>
       <c r="B1770">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1770" t="s">
         <v>1760</v>
@@ -27423,7 +27429,7 @@
         <v>1770</v>
       </c>
       <c r="B1771">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1771" t="s">
         <v>1761</v>
@@ -27445,7 +27451,7 @@
         <v>1772</v>
       </c>
       <c r="B1773">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1773" t="s">
         <v>1763</v>
@@ -27456,7 +27462,7 @@
         <v>1773</v>
       </c>
       <c r="B1774">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1774" t="s">
         <v>1764</v>
@@ -27467,7 +27473,7 @@
         <v>1774</v>
       </c>
       <c r="B1775">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1775" t="s">
         <v>1765</v>
@@ -27478,7 +27484,7 @@
         <v>1775</v>
       </c>
       <c r="B1776">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1776" t="s">
         <v>1766</v>
@@ -27489,7 +27495,7 @@
         <v>1776</v>
       </c>
       <c r="B1777">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1777" t="s">
         <v>1767</v>
@@ -27500,7 +27506,7 @@
         <v>1777</v>
       </c>
       <c r="B1778">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1778" t="s">
         <v>1768</v>
@@ -27544,7 +27550,7 @@
         <v>1781</v>
       </c>
       <c r="B1782">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1782" t="s">
         <v>1772</v>
@@ -27555,7 +27561,7 @@
         <v>1782</v>
       </c>
       <c r="B1783">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1783" t="s">
         <v>1773</v>
@@ -27577,7 +27583,7 @@
         <v>1784</v>
       </c>
       <c r="B1785">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1785" t="s">
         <v>1775</v>
@@ -27588,7 +27594,7 @@
         <v>1785</v>
       </c>
       <c r="B1786">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1786" t="s">
         <v>1776</v>
@@ -27610,7 +27616,7 @@
         <v>1787</v>
       </c>
       <c r="B1788">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1788" t="s">
         <v>1778</v>
@@ -27621,7 +27627,7 @@
         <v>1788</v>
       </c>
       <c r="B1789">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1789" t="s">
         <v>1779</v>
@@ -27632,7 +27638,7 @@
         <v>1789</v>
       </c>
       <c r="B1790">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1790" t="s">
         <v>1780</v>
@@ -27643,7 +27649,7 @@
         <v>1790</v>
       </c>
       <c r="B1791">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1791" t="s">
         <v>1781</v>
@@ -27665,7 +27671,7 @@
         <v>1792</v>
       </c>
       <c r="B1793">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1793" t="s">
         <v>1783</v>
@@ -27676,7 +27682,7 @@
         <v>1793</v>
       </c>
       <c r="B1794">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1794" t="s">
         <v>1784</v>
@@ -27731,7 +27737,7 @@
         <v>1798</v>
       </c>
       <c r="B1799">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C1799" t="s">
         <v>1789</v>
@@ -27742,7 +27748,7 @@
         <v>1799</v>
       </c>
       <c r="B1800">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C1800" t="s">
         <v>1790</v>
@@ -27808,7 +27814,7 @@
         <v>1805</v>
       </c>
       <c r="B1806">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1806" t="s">
         <v>1796</v>
@@ -27819,7 +27825,7 @@
         <v>1806</v>
       </c>
       <c r="B1807">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1807" t="s">
         <v>1797</v>
@@ -27841,7 +27847,7 @@
         <v>1808</v>
       </c>
       <c r="B1809">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1809" t="s">
         <v>1799</v>
@@ -27852,7 +27858,7 @@
         <v>1809</v>
       </c>
       <c r="B1810">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1810" t="s">
         <v>1800</v>
@@ -27874,7 +27880,7 @@
         <v>1811</v>
       </c>
       <c r="B1812">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1812" t="s">
         <v>1802</v>
@@ -27885,7 +27891,7 @@
         <v>1812</v>
       </c>
       <c r="B1813">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1813" t="s">
         <v>1803</v>
@@ -27896,7 +27902,7 @@
         <v>1813</v>
       </c>
       <c r="B1814">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1814" t="s">
         <v>1804</v>
@@ -27907,7 +27913,7 @@
         <v>1814</v>
       </c>
       <c r="B1815">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1815" t="s">
         <v>1805</v>
@@ -27918,7 +27924,7 @@
         <v>1815</v>
       </c>
       <c r="B1816">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1816" t="s">
         <v>1806</v>
@@ -27929,7 +27935,7 @@
         <v>1816</v>
       </c>
       <c r="B1817">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1817" t="s">
         <v>1807</v>
@@ -27951,7 +27957,7 @@
         <v>1818</v>
       </c>
       <c r="B1819">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1819" t="s">
         <v>1809</v>
@@ -27962,7 +27968,7 @@
         <v>1819</v>
       </c>
       <c r="B1820">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1820" t="s">
         <v>1810</v>
@@ -27995,7 +28001,7 @@
         <v>1822</v>
       </c>
       <c r="B1823">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C1823" t="s">
         <v>1813</v>
@@ -28006,7 +28012,7 @@
         <v>1823</v>
       </c>
       <c r="B1824">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C1824" t="s">
         <v>1814</v>
@@ -28017,7 +28023,7 @@
         <v>1824</v>
       </c>
       <c r="B1825">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1825" t="s">
         <v>1815</v>
@@ -28028,7 +28034,7 @@
         <v>1825</v>
       </c>
       <c r="B1826">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1826" t="s">
         <v>1816</v>
@@ -28039,7 +28045,7 @@
         <v>1826</v>
       </c>
       <c r="B1827">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1827" t="s">
         <v>1817</v>
@@ -28050,7 +28056,7 @@
         <v>1827</v>
       </c>
       <c r="B1828">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1828" t="s">
         <v>1818</v>
@@ -28061,7 +28067,7 @@
         <v>1828</v>
       </c>
       <c r="B1829">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1829" t="s">
         <v>1819</v>
@@ -28072,7 +28078,7 @@
         <v>1829</v>
       </c>
       <c r="B1830">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1830" t="s">
         <v>1820</v>
@@ -28105,7 +28111,7 @@
         <v>1832</v>
       </c>
       <c r="B1833">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1833" t="s">
         <v>1823</v>
@@ -28116,7 +28122,7 @@
         <v>1833</v>
       </c>
       <c r="B1834">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1834" t="s">
         <v>1824</v>
@@ -28149,7 +28155,7 @@
         <v>1836</v>
       </c>
       <c r="B1837">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1837" t="s">
         <v>1827</v>
@@ -28160,7 +28166,7 @@
         <v>1837</v>
       </c>
       <c r="B1838">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1838" t="s">
         <v>1828</v>
@@ -28182,7 +28188,7 @@
         <v>1839</v>
       </c>
       <c r="B1840">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C1840" t="s">
         <v>1830</v>
@@ -28193,7 +28199,7 @@
         <v>1840</v>
       </c>
       <c r="B1841">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C1841" t="s">
         <v>1831</v>
@@ -28204,7 +28210,7 @@
         <v>1841</v>
       </c>
       <c r="B1842">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1842" t="s">
         <v>1832</v>
@@ -28215,7 +28221,7 @@
         <v>1842</v>
       </c>
       <c r="B1843">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1843" t="s">
         <v>1833</v>
@@ -28226,7 +28232,7 @@
         <v>1843</v>
       </c>
       <c r="B1844">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1844" t="s">
         <v>1834</v>
@@ -28237,7 +28243,7 @@
         <v>1844</v>
       </c>
       <c r="B1845">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1845" t="s">
         <v>1835</v>
@@ -28248,7 +28254,7 @@
         <v>1845</v>
       </c>
       <c r="B1846">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1846" t="s">
         <v>1836</v>
@@ -28259,7 +28265,7 @@
         <v>1846</v>
       </c>
       <c r="B1847">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1847" t="s">
         <v>1837</v>
@@ -28292,7 +28298,7 @@
         <v>1849</v>
       </c>
       <c r="B1850">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1850" t="s">
         <v>1840</v>
@@ -28303,7 +28309,7 @@
         <v>1850</v>
       </c>
       <c r="B1851">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1851" t="s">
         <v>1841</v>
@@ -28325,7 +28331,7 @@
         <v>1852</v>
       </c>
       <c r="B1853">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C1853" t="s">
         <v>1843</v>
@@ -28336,7 +28342,7 @@
         <v>1853</v>
       </c>
       <c r="B1854">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C1854" t="s">
         <v>1844</v>
@@ -28347,7 +28353,7 @@
         <v>1854</v>
       </c>
       <c r="B1855">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1855" t="s">
         <v>1845</v>
@@ -28358,7 +28364,7 @@
         <v>1855</v>
       </c>
       <c r="B1856">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1856" t="s">
         <v>1846</v>
@@ -28424,7 +28430,7 @@
         <v>1861</v>
       </c>
       <c r="B1862">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C1862" t="s">
         <v>1852</v>
@@ -28435,7 +28441,7 @@
         <v>1862</v>
       </c>
       <c r="B1863">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C1863" t="s">
         <v>1853</v>
@@ -28457,7 +28463,7 @@
         <v>1864</v>
       </c>
       <c r="B1865">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1865" t="s">
         <v>1855</v>
@@ -28468,7 +28474,7 @@
         <v>1865</v>
       </c>
       <c r="B1866">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1866" t="s">
         <v>1856</v>
@@ -28479,7 +28485,7 @@
         <v>1866</v>
       </c>
       <c r="B1867">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1867" t="s">
         <v>1857</v>
@@ -28490,7 +28496,7 @@
         <v>1867</v>
       </c>
       <c r="B1868">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1868" t="s">
         <v>1858</v>
@@ -28501,7 +28507,7 @@
         <v>1868</v>
       </c>
       <c r="B1869">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1869" t="s">
         <v>1859</v>
@@ -28512,7 +28518,7 @@
         <v>1869</v>
       </c>
       <c r="B1870">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1870" t="s">
         <v>1860</v>
@@ -28523,7 +28529,7 @@
         <v>1870</v>
       </c>
       <c r="B1871">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1871" t="s">
         <v>1861</v>
@@ -28534,7 +28540,7 @@
         <v>1871</v>
       </c>
       <c r="B1872">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1872" t="s">
         <v>1862</v>
@@ -28556,7 +28562,7 @@
         <v>1873</v>
       </c>
       <c r="B1874">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1874" t="s">
         <v>1864</v>
@@ -28567,7 +28573,7 @@
         <v>1874</v>
       </c>
       <c r="B1875">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1875" t="s">
         <v>1865</v>
@@ -28589,7 +28595,7 @@
         <v>1876</v>
       </c>
       <c r="B1877">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C1877" t="s">
         <v>1867</v>
@@ -28600,7 +28606,7 @@
         <v>1877</v>
       </c>
       <c r="B1878">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C1878" t="s">
         <v>1868</v>
@@ -28622,7 +28628,7 @@
         <v>1879</v>
       </c>
       <c r="B1880">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C1880" t="s">
         <v>1870</v>
@@ -28633,7 +28639,7 @@
         <v>1880</v>
       </c>
       <c r="B1881">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C1881" t="s">
         <v>1871</v>
@@ -28644,7 +28650,7 @@
         <v>1881</v>
       </c>
       <c r="B1882">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1882" t="s">
         <v>1872</v>
@@ -28655,7 +28661,7 @@
         <v>1882</v>
       </c>
       <c r="B1883">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1883" t="s">
         <v>1873</v>
@@ -28666,7 +28672,7 @@
         <v>1883</v>
       </c>
       <c r="B1884">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1884" t="s">
         <v>1874</v>
@@ -28677,7 +28683,7 @@
         <v>1884</v>
       </c>
       <c r="B1885">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1885" t="s">
         <v>1875</v>
@@ -28699,7 +28705,7 @@
         <v>1886</v>
       </c>
       <c r="B1887">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1887" t="s">
         <v>1877</v>
@@ -28710,7 +28716,7 @@
         <v>1887</v>
       </c>
       <c r="B1888">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1888" t="s">
         <v>1878</v>
@@ -28765,7 +28771,7 @@
         <v>1892</v>
       </c>
       <c r="B1893">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C1893" t="s">
         <v>1883</v>
@@ -28776,7 +28782,7 @@
         <v>1893</v>
       </c>
       <c r="B1894">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C1894" t="s">
         <v>1884</v>
@@ -28809,7 +28815,7 @@
         <v>1896</v>
       </c>
       <c r="B1897">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C1897" t="s">
         <v>1887</v>
@@ -28820,7 +28826,7 @@
         <v>1897</v>
       </c>
       <c r="B1898">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C1898" t="s">
         <v>1888</v>
@@ -28842,7 +28848,7 @@
         <v>1899</v>
       </c>
       <c r="B1900">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1900" t="s">
         <v>1890</v>
@@ -28853,7 +28859,7 @@
         <v>1900</v>
       </c>
       <c r="B1901">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1901" t="s">
         <v>1891</v>
@@ -28875,7 +28881,7 @@
         <v>1902</v>
       </c>
       <c r="B1903">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1903" t="s">
         <v>1893</v>
@@ -28886,7 +28892,7 @@
         <v>1903</v>
       </c>
       <c r="B1904">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1904" t="s">
         <v>1894</v>
@@ -28919,7 +28925,7 @@
         <v>1906</v>
       </c>
       <c r="B1907">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C1907" t="s">
         <v>1897</v>
@@ -28930,7 +28936,7 @@
         <v>1907</v>
       </c>
       <c r="B1908">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C1908" t="s">
         <v>1898</v>
@@ -28941,7 +28947,7 @@
         <v>1908</v>
       </c>
       <c r="B1909">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1909" t="s">
         <v>1899</v>
@@ -28996,7 +29002,7 @@
         <v>1913</v>
       </c>
       <c r="B1914">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C1914" t="s">
         <v>1904</v>
@@ -29007,7 +29013,7 @@
         <v>1914</v>
       </c>
       <c r="B1915">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C1915" t="s">
         <v>1905</v>
@@ -29018,7 +29024,7 @@
         <v>1915</v>
       </c>
       <c r="B1916">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1916" t="s">
         <v>1906</v>
@@ -29095,7 +29101,7 @@
         <v>1922</v>
       </c>
       <c r="B1923">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C1923" t="s">
         <v>1913</v>
@@ -29106,7 +29112,7 @@
         <v>1923</v>
       </c>
       <c r="B1924">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C1924" t="s">
         <v>1914</v>
@@ -29117,7 +29123,7 @@
         <v>1924</v>
       </c>
       <c r="B1925">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1925" t="s">
         <v>1915</v>
@@ -29128,7 +29134,7 @@
         <v>1925</v>
       </c>
       <c r="B1926">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1926" t="s">
         <v>1916</v>
@@ -29150,7 +29156,7 @@
         <v>1927</v>
       </c>
       <c r="B1928">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C1928" t="s">
         <v>1918</v>
@@ -29161,7 +29167,7 @@
         <v>1928</v>
       </c>
       <c r="B1929">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C1929" t="s">
         <v>1919</v>
@@ -29172,7 +29178,7 @@
         <v>1929</v>
       </c>
       <c r="B1930">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1930" t="s">
         <v>1920</v>
@@ -29227,7 +29233,7 @@
         <v>1934</v>
       </c>
       <c r="B1935">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1935" t="s">
         <v>1925</v>
@@ -29238,7 +29244,7 @@
         <v>1935</v>
       </c>
       <c r="B1936">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1936" t="s">
         <v>1926</v>
@@ -29271,7 +29277,7 @@
         <v>1938</v>
       </c>
       <c r="B1939">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1939" t="s">
         <v>1929</v>
@@ -29282,7 +29288,7 @@
         <v>1939</v>
       </c>
       <c r="B1940">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1940" t="s">
         <v>1930</v>
@@ -29348,7 +29354,7 @@
         <v>1945</v>
       </c>
       <c r="B1946">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1946" t="s">
         <v>1936</v>
@@ -29359,7 +29365,7 @@
         <v>1946</v>
       </c>
       <c r="B1947">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1947" t="s">
         <v>1937</v>
@@ -29392,7 +29398,7 @@
         <v>1949</v>
       </c>
       <c r="B1950">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1950" t="s">
         <v>1940</v>
@@ -29403,7 +29409,7 @@
         <v>1950</v>
       </c>
       <c r="B1951">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1951" t="s">
         <v>1941</v>
@@ -29546,7 +29552,7 @@
         <v>1963</v>
       </c>
       <c r="B1964">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1964" t="s">
         <v>1954</v>
@@ -29557,7 +29563,7 @@
         <v>1964</v>
       </c>
       <c r="B1965">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1965" t="s">
         <v>1955</v>
@@ -29579,7 +29585,7 @@
         <v>1966</v>
       </c>
       <c r="B1967">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1967" t="s">
         <v>1957</v>
@@ -29590,7 +29596,7 @@
         <v>1967</v>
       </c>
       <c r="B1968">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1968" t="s">
         <v>1958</v>
@@ -29689,7 +29695,7 @@
         <v>1976</v>
       </c>
       <c r="B1977">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1977" t="s">
         <v>1967</v>
@@ -29700,7 +29706,7 @@
         <v>1977</v>
       </c>
       <c r="B1978">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1978" t="s">
         <v>1968</v>
@@ -29810,7 +29816,7 @@
         <v>1987</v>
       </c>
       <c r="B1988">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1988" t="s">
         <v>1978</v>
@@ -29821,7 +29827,7 @@
         <v>1988</v>
       </c>
       <c r="B1989">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1989" t="s">
         <v>1979</v>
@@ -29887,7 +29893,7 @@
         <v>1994</v>
       </c>
       <c r="B1995">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1995" t="s">
         <v>1985</v>
@@ -29898,7 +29904,7 @@
         <v>1995</v>
       </c>
       <c r="B1996">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1996" t="s">
         <v>1986</v>
@@ -29931,7 +29937,7 @@
         <v>1998</v>
       </c>
       <c r="B1999">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C1999" t="s">
         <v>1989</v>
@@ -29942,7 +29948,7 @@
         <v>1999</v>
       </c>
       <c r="B2000">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2000" t="s">
         <v>1990</v>
@@ -29975,7 +29981,7 @@
         <v>2002</v>
       </c>
       <c r="B2003">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2003" t="s">
         <v>1993</v>
@@ -29986,7 +29992,7 @@
         <v>2003</v>
       </c>
       <c r="B2004">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2004" t="s">
         <v>1994</v>
@@ -29997,7 +30003,7 @@
         <v>2004</v>
       </c>
       <c r="B2005">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2005" t="s">
         <v>1995</v>
@@ -30008,7 +30014,7 @@
         <v>2005</v>
       </c>
       <c r="B2006">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2006" t="s">
         <v>1996</v>
@@ -30052,7 +30058,7 @@
         <v>2009</v>
       </c>
       <c r="B2010">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2010" t="s">
         <v>2000</v>
@@ -30063,7 +30069,7 @@
         <v>2010</v>
       </c>
       <c r="B2011">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2011" t="s">
         <v>2001</v>
@@ -30096,7 +30102,7 @@
         <v>2013</v>
       </c>
       <c r="B2014">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2014" t="s">
         <v>2004</v>
@@ -30107,7 +30113,7 @@
         <v>2014</v>
       </c>
       <c r="B2015">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2015" t="s">
         <v>2005</v>
@@ -30129,7 +30135,7 @@
         <v>2016</v>
       </c>
       <c r="B2017">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2017" t="s">
         <v>2007</v>
@@ -30140,7 +30146,7 @@
         <v>2017</v>
       </c>
       <c r="B2018">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C2018" t="s">
         <v>2008</v>
@@ -30151,7 +30157,7 @@
         <v>2018</v>
       </c>
       <c r="B2019">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2019" t="s">
         <v>2009</v>
@@ -30184,7 +30190,7 @@
         <v>2021</v>
       </c>
       <c r="B2022">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C2022" t="s">
         <v>2012</v>
@@ -30195,7 +30201,7 @@
         <v>2022</v>
       </c>
       <c r="B2023">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C2023" t="s">
         <v>2013</v>
@@ -30217,7 +30223,7 @@
         <v>2024</v>
       </c>
       <c r="B2025">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C2025" t="s">
         <v>2015</v>
@@ -30228,7 +30234,7 @@
         <v>2025</v>
       </c>
       <c r="B2026">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C2026" t="s">
         <v>2016</v>
@@ -30239,7 +30245,7 @@
         <v>2026</v>
       </c>
       <c r="B2027">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2027" t="s">
         <v>2017</v>
@@ -30250,7 +30256,7 @@
         <v>2027</v>
       </c>
       <c r="B2028">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2028" t="s">
         <v>2018</v>
@@ -30272,7 +30278,7 @@
         <v>2029</v>
       </c>
       <c r="B2030">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2030" t="s">
         <v>2020</v>
@@ -30283,7 +30289,7 @@
         <v>2030</v>
       </c>
       <c r="B2031">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C2031" t="s">
         <v>2021</v>
@@ -30294,7 +30300,7 @@
         <v>2031</v>
       </c>
       <c r="B2032">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2032" t="s">
         <v>2022</v>
@@ -30316,7 +30322,7 @@
         <v>2033</v>
       </c>
       <c r="B2034">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2034" t="s">
         <v>2024</v>
@@ -30327,7 +30333,7 @@
         <v>2034</v>
       </c>
       <c r="B2035">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2035" t="s">
         <v>2025</v>
@@ -30349,7 +30355,7 @@
         <v>2036</v>
       </c>
       <c r="B2037">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2037" t="s">
         <v>2027</v>
@@ -30360,7 +30366,7 @@
         <v>2037</v>
       </c>
       <c r="B2038">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2038" t="s">
         <v>2028</v>
@@ -30371,7 +30377,7 @@
         <v>2038</v>
       </c>
       <c r="B2039">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2039" t="s">
         <v>2029</v>
@@ -30382,7 +30388,7 @@
         <v>2039</v>
       </c>
       <c r="B2040">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2040" t="s">
         <v>2030</v>
@@ -30415,7 +30421,7 @@
         <v>2042</v>
       </c>
       <c r="B2043">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C2043" t="s">
         <v>2033</v>
@@ -30426,7 +30432,7 @@
         <v>2043</v>
       </c>
       <c r="B2044">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C2044" t="s">
         <v>2034</v>
@@ -30459,7 +30465,7 @@
         <v>2046</v>
       </c>
       <c r="B2047">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2047" t="s">
         <v>2037</v>
@@ -30470,7 +30476,7 @@
         <v>2047</v>
       </c>
       <c r="B2048">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2048" t="s">
         <v>2038</v>
@@ -30503,7 +30509,7 @@
         <v>2050</v>
       </c>
       <c r="B2051">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2051" t="s">
         <v>2041</v>
@@ -30514,7 +30520,7 @@
         <v>2051</v>
       </c>
       <c r="B2052">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C2052" t="s">
         <v>2042</v>
@@ -30525,7 +30531,7 @@
         <v>2052</v>
       </c>
       <c r="B2053">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C2053" t="s">
         <v>2043</v>
@@ -30536,7 +30542,7 @@
         <v>2053</v>
       </c>
       <c r="B2054">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2054" t="s">
         <v>2044</v>
@@ -30591,7 +30597,7 @@
         <v>2058</v>
       </c>
       <c r="B2059">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C2059" t="s">
         <v>2049</v>
@@ -30602,7 +30608,7 @@
         <v>2059</v>
       </c>
       <c r="B2060">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C2060" t="s">
         <v>2050</v>
@@ -30624,7 +30630,7 @@
         <v>2061</v>
       </c>
       <c r="B2062">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2062" t="s">
         <v>2052</v>
@@ -30635,7 +30641,7 @@
         <v>2062</v>
       </c>
       <c r="B2063">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2063" t="s">
         <v>2053</v>
@@ -30679,7 +30685,7 @@
         <v>2066</v>
       </c>
       <c r="B2067">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C2067" t="s">
         <v>2057</v>
@@ -30690,7 +30696,7 @@
         <v>2067</v>
       </c>
       <c r="B2068">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C2068" t="s">
         <v>2058</v>
@@ -30701,7 +30707,7 @@
         <v>2068</v>
       </c>
       <c r="B2069">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C2069" t="s">
         <v>2059</v>
@@ -30712,7 +30718,7 @@
         <v>2069</v>
       </c>
       <c r="B2070">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2070" t="s">
         <v>2060</v>
@@ -30723,7 +30729,7 @@
         <v>2070</v>
       </c>
       <c r="B2071">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2071" t="s">
         <v>2061</v>
@@ -30822,7 +30828,7 @@
         <v>2079</v>
       </c>
       <c r="B2080">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2080" t="s">
         <v>2070</v>
@@ -30833,7 +30839,7 @@
         <v>2080</v>
       </c>
       <c r="B2081">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2081" t="s">
         <v>2071</v>
@@ -30844,7 +30850,7 @@
         <v>2081</v>
       </c>
       <c r="B2082">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2082" t="s">
         <v>2072</v>
@@ -30855,7 +30861,7 @@
         <v>2082</v>
       </c>
       <c r="B2083">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2083" t="s">
         <v>2073</v>
@@ -30899,7 +30905,7 @@
         <v>2086</v>
       </c>
       <c r="B2087">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2087" t="s">
         <v>2077</v>
@@ -30910,7 +30916,7 @@
         <v>2087</v>
       </c>
       <c r="B2088">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2088" t="s">
         <v>2078</v>
@@ -30943,7 +30949,7 @@
         <v>2090</v>
       </c>
       <c r="B2091">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2091" t="s">
         <v>2081</v>
@@ -30954,7 +30960,7 @@
         <v>2091</v>
       </c>
       <c r="B2092">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2092" t="s">
         <v>2082</v>
@@ -30976,7 +30982,7 @@
         <v>2093</v>
       </c>
       <c r="B2094">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2094" t="s">
         <v>2084</v>
@@ -30987,7 +30993,7 @@
         <v>2094</v>
       </c>
       <c r="B2095">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2095" t="s">
         <v>2085</v>
@@ -31020,7 +31026,7 @@
         <v>2097</v>
       </c>
       <c r="B2098">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2098" t="s">
         <v>2088</v>
@@ -31031,7 +31037,7 @@
         <v>2098</v>
       </c>
       <c r="B2099">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2099" t="s">
         <v>2089</v>
@@ -31042,7 +31048,7 @@
         <v>2099</v>
       </c>
       <c r="B2100">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2100" t="s">
         <v>2090</v>
@@ -31053,7 +31059,7 @@
         <v>2100</v>
       </c>
       <c r="B2101">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2101" t="s">
         <v>2091</v>
@@ -31064,7 +31070,7 @@
         <v>2101</v>
       </c>
       <c r="B2102">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2102" t="s">
         <v>2092</v>
@@ -31075,7 +31081,7 @@
         <v>2102</v>
       </c>
       <c r="B2103">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2103" t="s">
         <v>2093</v>
@@ -31108,7 +31114,7 @@
         <v>2105</v>
       </c>
       <c r="B2106">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2106" t="s">
         <v>2096</v>
@@ -31119,7 +31125,7 @@
         <v>2106</v>
       </c>
       <c r="B2107">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2107" t="s">
         <v>2097</v>
@@ -31130,7 +31136,7 @@
         <v>2107</v>
       </c>
       <c r="B2108">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2108" t="s">
         <v>2098</v>
@@ -31141,7 +31147,7 @@
         <v>2108</v>
       </c>
       <c r="B2109">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2109" t="s">
         <v>2099</v>
@@ -31185,7 +31191,7 @@
         <v>2112</v>
       </c>
       <c r="B2113">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C2113" t="s">
         <v>2103</v>
@@ -31196,7 +31202,7 @@
         <v>2113</v>
       </c>
       <c r="B2114">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C2114" t="s">
         <v>2104</v>
@@ -31218,7 +31224,7 @@
         <v>2115</v>
       </c>
       <c r="B2116">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2116" t="s">
         <v>2106</v>
@@ -31229,7 +31235,7 @@
         <v>2116</v>
       </c>
       <c r="B2117">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2117" t="s">
         <v>2107</v>
@@ -31273,7 +31279,7 @@
         <v>2120</v>
       </c>
       <c r="B2121">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2121" t="s">
         <v>2111</v>
@@ -31284,7 +31290,7 @@
         <v>2121</v>
       </c>
       <c r="B2122">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2122" t="s">
         <v>2112</v>
@@ -31295,7 +31301,7 @@
         <v>2122</v>
       </c>
       <c r="B2123">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2123" t="s">
         <v>2113</v>
@@ -31306,7 +31312,7 @@
         <v>2123</v>
       </c>
       <c r="B2124">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C2124" t="s">
         <v>2114</v>
@@ -31317,7 +31323,7 @@
         <v>2124</v>
       </c>
       <c r="B2125">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2125" t="s">
         <v>2115</v>
@@ -31328,7 +31334,7 @@
         <v>2125</v>
       </c>
       <c r="B2126">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C2126" t="s">
         <v>2116</v>
@@ -31372,7 +31378,7 @@
         <v>2129</v>
       </c>
       <c r="B2130">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C2130" t="s">
         <v>2120</v>
@@ -31383,7 +31389,7 @@
         <v>2130</v>
       </c>
       <c r="B2131">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C2131" t="s">
         <v>2121</v>
@@ -31449,7 +31455,7 @@
         <v>2136</v>
       </c>
       <c r="B2137">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2137" t="s">
         <v>2127</v>
@@ -31460,7 +31466,7 @@
         <v>2137</v>
       </c>
       <c r="B2138">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2138" t="s">
         <v>2128</v>
@@ -31471,7 +31477,7 @@
         <v>2138</v>
       </c>
       <c r="B2139">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2139" t="s">
         <v>2129</v>
@@ -31482,7 +31488,7 @@
         <v>2139</v>
       </c>
       <c r="B2140">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2140" t="s">
         <v>2130</v>
@@ -31526,7 +31532,7 @@
         <v>2143</v>
       </c>
       <c r="B2144">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C2144" t="s">
         <v>2134</v>
@@ -31537,7 +31543,7 @@
         <v>2144</v>
       </c>
       <c r="B2145">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C2145" t="s">
         <v>2135</v>
@@ -31559,7 +31565,7 @@
         <v>2146</v>
       </c>
       <c r="B2147">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C2147" t="s">
         <v>2137</v>
@@ -31570,7 +31576,7 @@
         <v>2147</v>
       </c>
       <c r="B2148">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C2148" t="s">
         <v>2138</v>
@@ -31592,7 +31598,7 @@
         <v>2149</v>
       </c>
       <c r="B2150">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C2150" t="s">
         <v>2140</v>
@@ -31603,7 +31609,7 @@
         <v>2150</v>
       </c>
       <c r="B2151">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C2151" t="s">
         <v>2141</v>
@@ -31614,7 +31620,7 @@
         <v>2151</v>
       </c>
       <c r="B2152">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2152" t="s">
         <v>2142</v>
@@ -31625,7 +31631,7 @@
         <v>2152</v>
       </c>
       <c r="B2153">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2153" t="s">
         <v>2143</v>
@@ -31647,7 +31653,7 @@
         <v>2154</v>
       </c>
       <c r="B2155">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2155" t="s">
         <v>2145</v>
@@ -31658,7 +31664,7 @@
         <v>2155</v>
       </c>
       <c r="B2156">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2156" t="s">
         <v>2146</v>
@@ -31691,7 +31697,7 @@
         <v>2158</v>
       </c>
       <c r="B2159">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2159" t="s">
         <v>2149</v>
@@ -31702,7 +31708,7 @@
         <v>2159</v>
       </c>
       <c r="B2160">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2160" t="s">
         <v>2150</v>
@@ -31735,7 +31741,7 @@
         <v>2162</v>
       </c>
       <c r="B2163">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2163" t="s">
         <v>2153</v>
@@ -31746,7 +31752,7 @@
         <v>2163</v>
       </c>
       <c r="B2164">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2164" t="s">
         <v>2154</v>
@@ -31790,7 +31796,7 @@
         <v>2167</v>
       </c>
       <c r="B2168">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2168" t="s">
         <v>2158</v>
@@ -31801,7 +31807,7 @@
         <v>2168</v>
       </c>
       <c r="B2169">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C2169" t="s">
         <v>2159</v>
@@ -31812,7 +31818,7 @@
         <v>2169</v>
       </c>
       <c r="B2170">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2170" t="s">
         <v>2160</v>
@@ -31845,7 +31851,7 @@
         <v>2172</v>
       </c>
       <c r="B2173">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2173" t="s">
         <v>2163</v>
@@ -31856,7 +31862,7 @@
         <v>2173</v>
       </c>
       <c r="B2174">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2174" t="s">
         <v>2164</v>
@@ -31889,7 +31895,7 @@
         <v>2176</v>
       </c>
       <c r="B2177">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2177" t="s">
         <v>2167</v>
@@ -31900,7 +31906,7 @@
         <v>2177</v>
       </c>
       <c r="B2178">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2178" t="s">
         <v>2168</v>
@@ -31922,7 +31928,7 @@
         <v>2179</v>
       </c>
       <c r="B2180">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2180" t="s">
         <v>2170</v>
@@ -31933,7 +31939,7 @@
         <v>2180</v>
       </c>
       <c r="B2181">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2181" t="s">
         <v>2171</v>
@@ -31988,7 +31994,7 @@
         <v>2185</v>
       </c>
       <c r="B2186">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C2186" t="s">
         <v>2176</v>
@@ -31999,7 +32005,7 @@
         <v>2186</v>
       </c>
       <c r="B2187">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C2187" t="s">
         <v>2177</v>
@@ -32010,7 +32016,7 @@
         <v>2187</v>
       </c>
       <c r="B2188">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2188" t="s">
         <v>2178</v>
@@ -32021,7 +32027,7 @@
         <v>2188</v>
       </c>
       <c r="B2189">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2189" t="s">
         <v>2179</v>
@@ -32032,7 +32038,7 @@
         <v>2189</v>
       </c>
       <c r="B2190">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2190" t="s">
         <v>2180</v>
@@ -32054,7 +32060,7 @@
         <v>2191</v>
       </c>
       <c r="B2192">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2192" t="s">
         <v>2182</v>
@@ -32065,7 +32071,7 @@
         <v>2192</v>
       </c>
       <c r="B2193">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2193" t="s">
         <v>2183</v>
@@ -32076,7 +32082,7 @@
         <v>2193</v>
       </c>
       <c r="B2194">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2194" t="s">
         <v>2184</v>
@@ -32087,7 +32093,7 @@
         <v>2194</v>
       </c>
       <c r="B2195">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2195" t="s">
         <v>2185</v>
@@ -32120,7 +32126,7 @@
         <v>2197</v>
       </c>
       <c r="B2198">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2198" t="s">
         <v>2188</v>
@@ -32131,7 +32137,7 @@
         <v>2198</v>
       </c>
       <c r="B2199">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2199" t="s">
         <v>2189</v>
@@ -32175,7 +32181,7 @@
         <v>2202</v>
       </c>
       <c r="B2203">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C2203" t="s">
         <v>2193</v>
@@ -32186,7 +32192,7 @@
         <v>2203</v>
       </c>
       <c r="B2204">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C2204" t="s">
         <v>2194</v>
@@ -32219,7 +32225,7 @@
         <v>2206</v>
       </c>
       <c r="B2207">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2207" t="s">
         <v>2197</v>
@@ -32230,7 +32236,7 @@
         <v>2207</v>
       </c>
       <c r="B2208">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2208" t="s">
         <v>2198</v>
@@ -32241,7 +32247,7 @@
         <v>2208</v>
       </c>
       <c r="B2209">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2209" t="s">
         <v>2199</v>
@@ -32252,7 +32258,7 @@
         <v>2209</v>
       </c>
       <c r="B2210">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2210" t="s">
         <v>2200</v>
@@ -32274,7 +32280,7 @@
         <v>2211</v>
       </c>
       <c r="B2212">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2212" t="s">
         <v>2202</v>
@@ -32285,7 +32291,7 @@
         <v>2212</v>
       </c>
       <c r="B2213">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C2213" t="s">
         <v>2203</v>
@@ -32296,7 +32302,7 @@
         <v>2213</v>
       </c>
       <c r="B2214">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2214" t="s">
         <v>2204</v>
@@ -32351,7 +32357,7 @@
         <v>2218</v>
       </c>
       <c r="B2219">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2219" t="s">
         <v>2209</v>
@@ -32362,7 +32368,7 @@
         <v>2219</v>
       </c>
       <c r="B2220">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C2220" t="s">
         <v>2210</v>
@@ -32373,7 +32379,7 @@
         <v>2220</v>
       </c>
       <c r="B2221">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2221" t="s">
         <v>2211</v>
@@ -32417,7 +32423,7 @@
         <v>2224</v>
       </c>
       <c r="B2225">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2225" t="s">
         <v>2215</v>
@@ -32428,7 +32434,7 @@
         <v>2225</v>
       </c>
       <c r="B2226">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2226" t="s">
         <v>2216</v>
@@ -32483,7 +32489,7 @@
         <v>2230</v>
       </c>
       <c r="B2231">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2231" t="s">
         <v>2221</v>
@@ -32494,7 +32500,7 @@
         <v>2231</v>
       </c>
       <c r="B2232">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2232" t="s">
         <v>2222</v>
@@ -32527,7 +32533,7 @@
         <v>2234</v>
       </c>
       <c r="B2235">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2235" t="s">
         <v>2225</v>
@@ -32538,7 +32544,7 @@
         <v>2235</v>
       </c>
       <c r="B2236">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2236" t="s">
         <v>2226</v>
@@ -32571,7 +32577,7 @@
         <v>2238</v>
       </c>
       <c r="B2239">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2239" t="s">
         <v>2229</v>
@@ -32582,7 +32588,7 @@
         <v>2239</v>
       </c>
       <c r="B2240">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2240" t="s">
         <v>2230</v>
@@ -32593,7 +32599,7 @@
         <v>2240</v>
       </c>
       <c r="B2241">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2241" t="s">
         <v>2231</v>
@@ -32604,7 +32610,7 @@
         <v>2241</v>
       </c>
       <c r="B2242">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2242" t="s">
         <v>2232</v>
@@ -32637,7 +32643,7 @@
         <v>2244</v>
       </c>
       <c r="B2245">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2245" t="s">
         <v>2235</v>
@@ -32648,7 +32654,7 @@
         <v>2245</v>
       </c>
       <c r="B2246">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2246" t="s">
         <v>2236</v>
@@ -32659,7 +32665,7 @@
         <v>2246</v>
       </c>
       <c r="B2247">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2247" t="s">
         <v>2237</v>
@@ -32670,7 +32676,7 @@
         <v>2247</v>
       </c>
       <c r="B2248">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2248" t="s">
         <v>2238</v>
@@ -32714,7 +32720,7 @@
         <v>2251</v>
       </c>
       <c r="B2252">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2252" t="s">
         <v>2242</v>
@@ -32725,7 +32731,7 @@
         <v>2252</v>
       </c>
       <c r="B2253">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2253" t="s">
         <v>2243</v>
@@ -32736,7 +32742,7 @@
         <v>2253</v>
       </c>
       <c r="B2254">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2254" t="s">
         <v>2244</v>
@@ -32747,7 +32753,7 @@
         <v>2254</v>
       </c>
       <c r="B2255">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C2255" t="s">
         <v>2245</v>
@@ -32758,7 +32764,7 @@
         <v>2255</v>
       </c>
       <c r="B2256">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2256" t="s">
         <v>2246</v>
@@ -32769,7 +32775,7 @@
         <v>2256</v>
       </c>
       <c r="B2257">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C2257" t="s">
         <v>2247</v>
@@ -32780,7 +32786,7 @@
         <v>2257</v>
       </c>
       <c r="B2258">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C2258" t="s">
         <v>2248</v>
@@ -32791,7 +32797,7 @@
         <v>2258</v>
       </c>
       <c r="B2259">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2259" t="s">
         <v>2249</v>
@@ -32802,7 +32808,7 @@
         <v>2259</v>
       </c>
       <c r="B2260">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2260" t="s">
         <v>2250</v>
@@ -32824,7 +32830,7 @@
         <v>2261</v>
       </c>
       <c r="B2262">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2262" t="s">
         <v>2252</v>
@@ -32835,7 +32841,7 @@
         <v>2262</v>
       </c>
       <c r="B2263">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2263" t="s">
         <v>2253</v>
@@ -32868,7 +32874,7 @@
         <v>2265</v>
       </c>
       <c r="B2266">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2266" t="s">
         <v>2256</v>
@@ -32879,7 +32885,7 @@
         <v>2266</v>
       </c>
       <c r="B2267">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2267" t="s">
         <v>2257</v>
@@ -32901,7 +32907,7 @@
         <v>2268</v>
       </c>
       <c r="B2269">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2269" t="s">
         <v>2259</v>
@@ -32912,7 +32918,7 @@
         <v>2269</v>
       </c>
       <c r="B2270">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2270" t="s">
         <v>2260</v>
@@ -32934,7 +32940,7 @@
         <v>2271</v>
       </c>
       <c r="B2272">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2272" t="s">
         <v>2262</v>
@@ -32945,7 +32951,7 @@
         <v>2272</v>
       </c>
       <c r="B2273">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2273" t="s">
         <v>2263</v>
@@ -32978,7 +32984,7 @@
         <v>2275</v>
       </c>
       <c r="B2276">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2276" t="s">
         <v>2266</v>
@@ -32989,7 +32995,7 @@
         <v>2276</v>
       </c>
       <c r="B2277">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2277" t="s">
         <v>2267</v>
@@ -33022,7 +33028,7 @@
         <v>2279</v>
       </c>
       <c r="B2280">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2280" t="s">
         <v>2270</v>
@@ -33033,7 +33039,7 @@
         <v>2280</v>
       </c>
       <c r="B2281">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2281" t="s">
         <v>2271</v>
@@ -33099,7 +33105,7 @@
         <v>2286</v>
       </c>
       <c r="B2287">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C2287" t="s">
         <v>2277</v>
@@ -33110,7 +33116,7 @@
         <v>2287</v>
       </c>
       <c r="B2288">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2288" t="s">
         <v>2278</v>
@@ -33121,7 +33127,7 @@
         <v>2288</v>
       </c>
       <c r="B2289">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2289" t="s">
         <v>2279</v>
@@ -33154,7 +33160,7 @@
         <v>2291</v>
       </c>
       <c r="B2292">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2292" t="s">
         <v>2282</v>
@@ -33165,7 +33171,7 @@
         <v>2292</v>
       </c>
       <c r="B2293">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2293" t="s">
         <v>2283</v>
@@ -33198,7 +33204,7 @@
         <v>2295</v>
       </c>
       <c r="B2296">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2296" t="s">
         <v>2286</v>
@@ -33209,7 +33215,7 @@
         <v>2296</v>
       </c>
       <c r="B2297">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2297" t="s">
         <v>2287</v>
@@ -33220,7 +33226,7 @@
         <v>2297</v>
       </c>
       <c r="B2298">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2298" t="s">
         <v>2288</v>
@@ -33231,7 +33237,7 @@
         <v>2298</v>
       </c>
       <c r="B2299">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2299" t="s">
         <v>2289</v>
@@ -33242,7 +33248,7 @@
         <v>2299</v>
       </c>
       <c r="B2300">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2300" t="s">
         <v>2290</v>
@@ -33253,7 +33259,7 @@
         <v>2300</v>
       </c>
       <c r="B2301">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2301" t="s">
         <v>2291</v>
@@ -33286,7 +33292,7 @@
         <v>2303</v>
       </c>
       <c r="B2304">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C2304" t="s">
         <v>2294</v>
@@ -33297,7 +33303,7 @@
         <v>2304</v>
       </c>
       <c r="B2305">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C2305" t="s">
         <v>2295</v>
@@ -33330,7 +33336,7 @@
         <v>2307</v>
       </c>
       <c r="B2308">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2308" t="s">
         <v>2298</v>
@@ -33341,7 +33347,7 @@
         <v>2308</v>
       </c>
       <c r="B2309">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2309" t="s">
         <v>2299</v>
@@ -33374,7 +33380,7 @@
         <v>2311</v>
       </c>
       <c r="B2312">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2312" t="s">
         <v>2302</v>
@@ -33385,7 +33391,7 @@
         <v>2312</v>
       </c>
       <c r="B2313">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2313" t="s">
         <v>2303</v>
@@ -33396,7 +33402,7 @@
         <v>2313</v>
       </c>
       <c r="B2314">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2314" t="s">
         <v>2304</v>
@@ -33407,7 +33413,7 @@
         <v>2314</v>
       </c>
       <c r="B2315">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C2315" t="s">
         <v>2305</v>
@@ -33418,7 +33424,7 @@
         <v>2315</v>
       </c>
       <c r="B2316">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2316" t="s">
         <v>2306</v>
@@ -33429,7 +33435,7 @@
         <v>2316</v>
       </c>
       <c r="B2317">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C2317" t="s">
         <v>2307</v>
@@ -33440,7 +33446,7 @@
         <v>2317</v>
       </c>
       <c r="B2318">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C2318" t="s">
         <v>2308</v>
@@ -33473,7 +33479,7 @@
         <v>2320</v>
       </c>
       <c r="B2321">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C2321" t="s">
         <v>2311</v>
@@ -33484,7 +33490,7 @@
         <v>2321</v>
       </c>
       <c r="B2322">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2322" t="s">
         <v>2312</v>
@@ -33495,7 +33501,7 @@
         <v>2322</v>
       </c>
       <c r="B2323">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2323" t="s">
         <v>2313</v>
@@ -33517,7 +33523,7 @@
         <v>2324</v>
       </c>
       <c r="B2325">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2325" t="s">
         <v>2315</v>
@@ -33528,7 +33534,7 @@
         <v>2325</v>
       </c>
       <c r="B2326">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C2326" t="s">
         <v>2316</v>
@@ -33539,7 +33545,7 @@
         <v>2326</v>
       </c>
       <c r="B2327">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2327" t="s">
         <v>2317</v>
@@ -33550,7 +33556,7 @@
         <v>2327</v>
       </c>
       <c r="B2328">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2328" t="s">
         <v>2318</v>
@@ -33561,7 +33567,7 @@
         <v>2328</v>
       </c>
       <c r="B2329">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2329" t="s">
         <v>2319</v>
@@ -33572,7 +33578,7 @@
         <v>2329</v>
       </c>
       <c r="B2330">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2330" t="s">
         <v>2320</v>
@@ -33605,7 +33611,7 @@
         <v>2332</v>
       </c>
       <c r="B2333">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2333" t="s">
         <v>2323</v>
@@ -33616,7 +33622,7 @@
         <v>2333</v>
       </c>
       <c r="B2334">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2334" t="s">
         <v>2324</v>
@@ -33638,7 +33644,7 @@
         <v>2335</v>
       </c>
       <c r="B2336">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2336" t="s">
         <v>2326</v>
@@ -33649,7 +33655,7 @@
         <v>2336</v>
       </c>
       <c r="B2337">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C2337" t="s">
         <v>2327</v>
@@ -33660,7 +33666,7 @@
         <v>2337</v>
       </c>
       <c r="B2338">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2338" t="s">
         <v>2328</v>
@@ -33704,7 +33710,7 @@
         <v>2341</v>
       </c>
       <c r="B2342">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2342" t="s">
         <v>2332</v>
@@ -33715,7 +33721,7 @@
         <v>2342</v>
       </c>
       <c r="B2343">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C2343" t="s">
         <v>2333</v>
@@ -33726,7 +33732,7 @@
         <v>2343</v>
       </c>
       <c r="B2344">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2344" t="s">
         <v>2334</v>
@@ -33737,7 +33743,7 @@
         <v>2344</v>
       </c>
       <c r="B2345">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C2345" t="s">
         <v>2335</v>
@@ -33748,7 +33754,7 @@
         <v>2345</v>
       </c>
       <c r="B2346">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C2346" t="s">
         <v>2336</v>
@@ -33759,7 +33765,7 @@
         <v>2346</v>
       </c>
       <c r="B2347">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2347" t="s">
         <v>2337</v>
@@ -33770,7 +33776,7 @@
         <v>2347</v>
       </c>
       <c r="B2348">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2348" t="s">
         <v>2338</v>
@@ -33781,7 +33787,7 @@
         <v>2348</v>
       </c>
       <c r="B2349">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2349" t="s">
         <v>2339</v>
@@ -33814,7 +33820,7 @@
         <v>2351</v>
       </c>
       <c r="B2352">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2352" t="s">
         <v>2342</v>
@@ -33825,7 +33831,7 @@
         <v>2352</v>
       </c>
       <c r="B2353">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2353" t="s">
         <v>2343</v>
@@ -33847,7 +33853,7 @@
         <v>2354</v>
       </c>
       <c r="B2355">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2355" t="s">
         <v>2345</v>
@@ -33858,7 +33864,7 @@
         <v>2355</v>
       </c>
       <c r="B2356">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2356" t="s">
         <v>2346</v>
@@ -33869,7 +33875,7 @@
         <v>2356</v>
       </c>
       <c r="B2357">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2357" t="s">
         <v>2347</v>
@@ -33880,7 +33886,7 @@
         <v>2357</v>
       </c>
       <c r="B2358">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2358" t="s">
         <v>2348</v>
@@ -33891,7 +33897,7 @@
         <v>2358</v>
       </c>
       <c r="B2359">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2359" t="s">
         <v>2349</v>
@@ -33902,7 +33908,7 @@
         <v>2359</v>
       </c>
       <c r="B2360">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C2360" t="s">
         <v>2350</v>
@@ -33913,7 +33919,7 @@
         <v>2360</v>
       </c>
       <c r="B2361">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C2361" t="s">
         <v>2351</v>
@@ -33924,7 +33930,7 @@
         <v>2361</v>
       </c>
       <c r="B2362">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2362" t="s">
         <v>2352</v>
@@ -33935,7 +33941,7 @@
         <v>2362</v>
       </c>
       <c r="B2363">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2363" t="s">
         <v>2353</v>
@@ -33957,7 +33963,7 @@
         <v>2364</v>
       </c>
       <c r="B2365">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2365" t="s">
         <v>2355</v>
@@ -33968,7 +33974,7 @@
         <v>2365</v>
       </c>
       <c r="B2366">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2366" t="s">
         <v>2356</v>
@@ -33979,7 +33985,7 @@
         <v>2366</v>
       </c>
       <c r="B2367">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2367" t="s">
         <v>2357</v>
@@ -33990,7 +33996,7 @@
         <v>2367</v>
       </c>
       <c r="B2368">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2368" t="s">
         <v>2358</v>
@@ -34001,7 +34007,7 @@
         <v>2368</v>
       </c>
       <c r="B2369">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2369" t="s">
         <v>2359</v>
@@ -34012,7 +34018,7 @@
         <v>2369</v>
       </c>
       <c r="B2370">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2370" t="s">
         <v>2360</v>
@@ -34045,7 +34051,7 @@
         <v>2372</v>
       </c>
       <c r="B2373">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2373" t="s">
         <v>2363</v>
@@ -34056,7 +34062,7 @@
         <v>2373</v>
       </c>
       <c r="B2374">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2374" t="s">
         <v>2364</v>
@@ -34078,7 +34084,7 @@
         <v>2375</v>
       </c>
       <c r="B2376">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2376" t="s">
         <v>2366</v>
@@ -34089,7 +34095,7 @@
         <v>2376</v>
       </c>
       <c r="B2377">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2377" t="s">
         <v>2367</v>
@@ -34133,7 +34139,7 @@
         <v>2380</v>
       </c>
       <c r="B2381">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2381" t="s">
         <v>2371</v>
@@ -34144,7 +34150,7 @@
         <v>2381</v>
       </c>
       <c r="B2382">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C2382" t="s">
         <v>2372</v>
@@ -34155,7 +34161,7 @@
         <v>2382</v>
       </c>
       <c r="B2383">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C2383" t="s">
         <v>2373</v>
@@ -34166,7 +34172,7 @@
         <v>2383</v>
       </c>
       <c r="B2384">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C2384" t="s">
         <v>2374</v>
@@ -34177,7 +34183,7 @@
         <v>2384</v>
       </c>
       <c r="B2385">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C2385" t="s">
         <v>2375</v>
@@ -34188,7 +34194,7 @@
         <v>2385</v>
       </c>
       <c r="B2386">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C2386" t="s">
         <v>2376</v>
@@ -34199,7 +34205,7 @@
         <v>2386</v>
       </c>
       <c r="B2387">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C2387" t="s">
         <v>2377</v>
@@ -34221,7 +34227,7 @@
         <v>2388</v>
       </c>
       <c r="B2389">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C2389" t="s">
         <v>2379</v>
@@ -34232,7 +34238,7 @@
         <v>2389</v>
       </c>
       <c r="B2390">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C2390" t="s">
         <v>2380</v>
@@ -34243,7 +34249,7 @@
         <v>2390</v>
       </c>
       <c r="B2391">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2391" t="s">
         <v>2381</v>
@@ -34254,7 +34260,7 @@
         <v>2391</v>
       </c>
       <c r="B2392">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C2392" t="s">
         <v>2382</v>
@@ -34265,7 +34271,7 @@
         <v>2392</v>
       </c>
       <c r="B2393">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2393" t="s">
         <v>2383</v>
@@ -34276,7 +34282,7 @@
         <v>2393</v>
       </c>
       <c r="B2394">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C2394" t="s">
         <v>2384</v>
@@ -34287,7 +34293,7 @@
         <v>2394</v>
       </c>
       <c r="B2395">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C2395" t="s">
         <v>2385</v>
@@ -34298,7 +34304,7 @@
         <v>2395</v>
       </c>
       <c r="B2396">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C2396" t="s">
         <v>2386</v>
@@ -34309,7 +34315,7 @@
         <v>2396</v>
       </c>
       <c r="B2397">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C2397" t="s">
         <v>2387</v>
@@ -34320,7 +34326,7 @@
         <v>2397</v>
       </c>
       <c r="B2398">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2398" t="s">
         <v>2388</v>
@@ -34375,7 +34381,7 @@
         <v>2402</v>
       </c>
       <c r="B2403">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C2403" t="s">
         <v>2393</v>
@@ -34386,7 +34392,7 @@
         <v>2403</v>
       </c>
       <c r="B2404">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C2404" t="s">
         <v>2394</v>
@@ -34397,7 +34403,7 @@
         <v>2404</v>
       </c>
       <c r="B2405">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2405" t="s">
         <v>2395</v>
@@ -34408,7 +34414,7 @@
         <v>2405</v>
       </c>
       <c r="B2406">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2406" t="s">
         <v>2396</v>
@@ -34441,7 +34447,7 @@
         <v>2408</v>
       </c>
       <c r="B2409">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2409" t="s">
         <v>2399</v>
@@ -34452,7 +34458,7 @@
         <v>2409</v>
       </c>
       <c r="B2410">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C2410" t="s">
         <v>2400</v>
@@ -34463,7 +34469,7 @@
         <v>2410</v>
       </c>
       <c r="B2411">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2411" t="s">
         <v>2401</v>
@@ -34474,7 +34480,7 @@
         <v>2411</v>
       </c>
       <c r="B2412">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C2412" t="s">
         <v>2402</v>
@@ -34485,7 +34491,7 @@
         <v>2412</v>
       </c>
       <c r="B2413">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C2413" t="s">
         <v>2403</v>
@@ -34496,7 +34502,7 @@
         <v>2413</v>
       </c>
       <c r="B2414">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C2414" t="s">
         <v>2404</v>
@@ -34507,7 +34513,7 @@
         <v>2414</v>
       </c>
       <c r="B2415">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2415" t="s">
         <v>2405</v>
@@ -34529,7 +34535,7 @@
         <v>2416</v>
       </c>
       <c r="B2417">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2417" t="s">
         <v>2407</v>
@@ -34540,7 +34546,7 @@
         <v>2417</v>
       </c>
       <c r="B2418">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2418" t="s">
         <v>2408</v>
@@ -34551,7 +34557,7 @@
         <v>2418</v>
       </c>
       <c r="B2419">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2419" t="s">
         <v>2409</v>
@@ -34562,7 +34568,7 @@
         <v>2419</v>
       </c>
       <c r="B2420">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C2420" t="s">
         <v>2410</v>
@@ -34573,7 +34579,7 @@
         <v>2420</v>
       </c>
       <c r="B2421">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C2421" t="s">
         <v>2411</v>
@@ -34584,7 +34590,7 @@
         <v>2421</v>
       </c>
       <c r="B2422">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C2422" t="s">
         <v>2412</v>
@@ -34595,7 +34601,7 @@
         <v>2422</v>
       </c>
       <c r="B2423">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C2423" t="s">
         <v>2413</v>
@@ -34606,7 +34612,7 @@
         <v>2423</v>
       </c>
       <c r="B2424">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C2424" t="s">
         <v>2414</v>
@@ -34617,7 +34623,7 @@
         <v>2424</v>
       </c>
       <c r="B2425">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C2425" t="s">
         <v>2415</v>
@@ -34628,7 +34634,7 @@
         <v>2425</v>
       </c>
       <c r="B2426">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C2426" t="s">
         <v>2416</v>
@@ -34639,7 +34645,7 @@
         <v>2426</v>
       </c>
       <c r="B2427">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2427" t="s">
         <v>2417</v>
@@ -34650,7 +34656,7 @@
         <v>2427</v>
       </c>
       <c r="B2428">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2428" t="s">
         <v>2418</v>
@@ -34683,7 +34689,7 @@
         <v>2430</v>
       </c>
       <c r="B2431">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2431" t="s">
         <v>2421</v>
@@ -34694,7 +34700,7 @@
         <v>2431</v>
       </c>
       <c r="B2432">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C2432" t="s">
         <v>2422</v>
@@ -34705,7 +34711,7 @@
         <v>2432</v>
       </c>
       <c r="B2433">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2433" t="s">
         <v>2423</v>
@@ -34716,7 +34722,7 @@
         <v>2433</v>
       </c>
       <c r="B2434">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C2434" t="s">
         <v>2424</v>
@@ -34727,7 +34733,7 @@
         <v>2434</v>
       </c>
       <c r="B2435">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2435" t="s">
         <v>2425</v>
@@ -34738,7 +34744,7 @@
         <v>2435</v>
       </c>
       <c r="B2436">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2436" t="s">
         <v>2426</v>
@@ -34749,7 +34755,7 @@
         <v>2436</v>
       </c>
       <c r="B2437">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2437" t="s">
         <v>2427</v>
@@ -34760,7 +34766,7 @@
         <v>2437</v>
       </c>
       <c r="B2438">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2438" t="s">
         <v>2428</v>
@@ -34771,7 +34777,7 @@
         <v>2438</v>
       </c>
       <c r="B2439">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2439" t="s">
         <v>2429</v>
@@ -34782,7 +34788,7 @@
         <v>2439</v>
       </c>
       <c r="B2440">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2440" t="s">
         <v>2430</v>
@@ -34793,7 +34799,7 @@
         <v>2440</v>
       </c>
       <c r="B2441">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2441" t="s">
         <v>2431</v>
@@ -34804,7 +34810,7 @@
         <v>2441</v>
       </c>
       <c r="B2442">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2442" t="s">
         <v>2432</v>
@@ -34815,7 +34821,7 @@
         <v>2442</v>
       </c>
       <c r="B2443">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2443" t="s">
         <v>2433</v>
@@ -34826,7 +34832,7 @@
         <v>2443</v>
       </c>
       <c r="B2444">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2444" t="s">
         <v>2434</v>
@@ -34837,7 +34843,7 @@
         <v>2444</v>
       </c>
       <c r="B2445">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2445" t="s">
         <v>2435</v>
@@ -34848,7 +34854,7 @@
         <v>2445</v>
       </c>
       <c r="B2446">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C2446" t="s">
         <v>2436</v>
@@ -34859,7 +34865,7 @@
         <v>2446</v>
       </c>
       <c r="B2447">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2447" t="s">
         <v>2437</v>
@@ -34870,7 +34876,7 @@
         <v>2447</v>
       </c>
       <c r="B2448">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C2448" t="s">
         <v>2438</v>
@@ -34881,7 +34887,7 @@
         <v>2448</v>
       </c>
       <c r="B2449">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2449" t="s">
         <v>2439</v>
@@ -34903,7 +34909,7 @@
         <v>2450</v>
       </c>
       <c r="B2451">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2451" t="s">
         <v>2441</v>
@@ -34914,7 +34920,7 @@
         <v>2451</v>
       </c>
       <c r="B2452">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2452" t="s">
         <v>2442</v>
@@ -34947,7 +34953,7 @@
         <v>2454</v>
       </c>
       <c r="B2455">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2455" t="s">
         <v>2445</v>
@@ -34958,7 +34964,7 @@
         <v>2455</v>
       </c>
       <c r="B2456">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2456" t="s">
         <v>2446</v>
@@ -34991,7 +34997,7 @@
         <v>2458</v>
       </c>
       <c r="B2459">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C2459" t="s">
         <v>2449</v>
@@ -35002,7 +35008,7 @@
         <v>2459</v>
       </c>
       <c r="B2460">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C2460" t="s">
         <v>2450</v>
@@ -35013,7 +35019,7 @@
         <v>2460</v>
       </c>
       <c r="B2461">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C2461" t="s">
         <v>2451</v>
@@ -35024,7 +35030,7 @@
         <v>2461</v>
       </c>
       <c r="B2462">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C2462" t="s">
         <v>2452</v>
@@ -35035,7 +35041,7 @@
         <v>2462</v>
       </c>
       <c r="B2463">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C2463" t="s">
         <v>2453</v>
@@ -35046,7 +35052,7 @@
         <v>2463</v>
       </c>
       <c r="B2464">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C2464" t="s">
         <v>2454</v>
@@ -35057,7 +35063,7 @@
         <v>2464</v>
       </c>
       <c r="B2465">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C2465" t="s">
         <v>2455</v>
@@ -35079,7 +35085,7 @@
         <v>2466</v>
       </c>
       <c r="B2467">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2467" t="s">
         <v>2457</v>
@@ -35090,7 +35096,7 @@
         <v>2467</v>
       </c>
       <c r="B2468">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2468" t="s">
         <v>2458</v>
@@ -35101,7 +35107,7 @@
         <v>2468</v>
       </c>
       <c r="B2469">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2469" t="s">
         <v>2459</v>
@@ -35112,7 +35118,7 @@
         <v>2469</v>
       </c>
       <c r="B2470">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2470" t="s">
         <v>2460</v>
@@ -35134,7 +35140,7 @@
         <v>2471</v>
       </c>
       <c r="B2472">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2472" t="s">
         <v>2462</v>
@@ -35145,7 +35151,7 @@
         <v>2472</v>
       </c>
       <c r="B2473">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2473" t="s">
         <v>2463</v>
@@ -35156,7 +35162,7 @@
         <v>2473</v>
       </c>
       <c r="B2474">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2474" t="s">
         <v>2464</v>
@@ -35167,7 +35173,7 @@
         <v>2474</v>
       </c>
       <c r="B2475">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C2475" t="s">
         <v>2465</v>
@@ -35178,7 +35184,7 @@
         <v>2475</v>
       </c>
       <c r="B2476">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2476" t="s">
         <v>2466</v>
@@ -35189,7 +35195,7 @@
         <v>2476</v>
       </c>
       <c r="B2477">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2477" t="s">
         <v>2467</v>
@@ -35222,7 +35228,7 @@
         <v>2479</v>
       </c>
       <c r="B2480">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2480" t="s">
         <v>2470</v>
@@ -35233,7 +35239,7 @@
         <v>2480</v>
       </c>
       <c r="B2481">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C2481" t="s">
         <v>2471</v>
@@ -35244,7 +35250,7 @@
         <v>2481</v>
       </c>
       <c r="B2482">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C2482" t="s">
         <v>2472</v>
@@ -35255,7 +35261,7 @@
         <v>2482</v>
       </c>
       <c r="B2483">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C2483" t="s">
         <v>2473</v>
@@ -35288,7 +35294,7 @@
         <v>2485</v>
       </c>
       <c r="B2486">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C2486" t="s">
         <v>2476</v>
@@ -35299,7 +35305,7 @@
         <v>2486</v>
       </c>
       <c r="B2487">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C2487" t="s">
         <v>2477</v>
@@ -35321,7 +35327,7 @@
         <v>2488</v>
       </c>
       <c r="B2489">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2489" t="s">
         <v>2479</v>
@@ -35332,7 +35338,7 @@
         <v>2489</v>
       </c>
       <c r="B2490">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C2490" t="s">
         <v>2480</v>
@@ -35343,7 +35349,7 @@
         <v>2490</v>
       </c>
       <c r="B2491">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2491" t="s">
         <v>2481</v>
@@ -35431,7 +35437,7 @@
         <v>2498</v>
       </c>
       <c r="B2499">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2499" t="s">
         <v>2489</v>
@@ -35442,7 +35448,7 @@
         <v>2499</v>
       </c>
       <c r="B2500">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C2500" t="s">
         <v>2490</v>
@@ -35453,7 +35459,7 @@
         <v>2500</v>
       </c>
       <c r="B2501">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2501" t="s">
         <v>2491</v>
@@ -35464,7 +35470,7 @@
         <v>2501</v>
       </c>
       <c r="B2502">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2502" t="s">
         <v>2492</v>
@@ -35475,7 +35481,7 @@
         <v>2502</v>
       </c>
       <c r="B2503">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2503" t="s">
         <v>2493</v>
@@ -35486,7 +35492,7 @@
         <v>2503</v>
       </c>
       <c r="B2504">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2504" t="s">
         <v>2494</v>
@@ -35497,7 +35503,7 @@
         <v>2504</v>
       </c>
       <c r="B2505">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C2505" t="s">
         <v>2495</v>
@@ -35508,7 +35514,7 @@
         <v>2505</v>
       </c>
       <c r="B2506">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C2506" t="s">
         <v>2496</v>
@@ -35519,7 +35525,7 @@
         <v>2506</v>
       </c>
       <c r="B2507">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2507" t="s">
         <v>2497</v>
@@ -35530,7 +35536,7 @@
         <v>2507</v>
       </c>
       <c r="B2508">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2508" t="s">
         <v>2498</v>
@@ -35541,7 +35547,7 @@
         <v>2508</v>
       </c>
       <c r="B2509">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2509" t="s">
         <v>2499</v>
@@ -35552,7 +35558,7 @@
         <v>2509</v>
       </c>
       <c r="B2510">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2510" t="s">
         <v>2500</v>
@@ -35563,7 +35569,7 @@
         <v>2510</v>
       </c>
       <c r="B2511">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2511" t="s">
         <v>2501</v>
@@ -35574,7 +35580,7 @@
         <v>2511</v>
       </c>
       <c r="B2512">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2512" t="s">
         <v>2502</v>
@@ -35585,7 +35591,7 @@
         <v>2512</v>
       </c>
       <c r="B2513">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2513" t="s">
         <v>2503</v>
@@ -35596,7 +35602,7 @@
         <v>2513</v>
       </c>
       <c r="B2514">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2514" t="s">
         <v>2504</v>
@@ -35607,7 +35613,7 @@
         <v>2514</v>
       </c>
       <c r="B2515">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2515" t="s">
         <v>2505</v>
@@ -35618,7 +35624,7 @@
         <v>2515</v>
       </c>
       <c r="B2516">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C2516" t="s">
         <v>2506</v>
@@ -35629,7 +35635,7 @@
         <v>2516</v>
       </c>
       <c r="B2517">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2517" t="s">
         <v>2507</v>
@@ -35640,7 +35646,7 @@
         <v>2517</v>
       </c>
       <c r="B2518">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C2518" t="s">
         <v>2508</v>
@@ -35651,7 +35657,7 @@
         <v>2518</v>
       </c>
       <c r="B2519">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2519" t="s">
         <v>2509</v>
@@ -35662,7 +35668,7 @@
         <v>2519</v>
       </c>
       <c r="B2520">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C2520" t="s">
         <v>2510</v>
@@ -35673,7 +35679,7 @@
         <v>2520</v>
       </c>
       <c r="B2521">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2521" t="s">
         <v>2511</v>
@@ -35706,7 +35712,7 @@
         <v>2523</v>
       </c>
       <c r="B2524">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2524" t="s">
         <v>2514</v>
@@ -35717,7 +35723,7 @@
         <v>2524</v>
       </c>
       <c r="B2525">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C2525" t="s">
         <v>2515</v>
@@ -35728,7 +35734,7 @@
         <v>2525</v>
       </c>
       <c r="B2526">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C2526" t="s">
         <v>2516</v>
@@ -35739,7 +35745,7 @@
         <v>2526</v>
       </c>
       <c r="B2527">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C2527" t="s">
         <v>2517</v>
@@ -35750,7 +35756,7 @@
         <v>2527</v>
       </c>
       <c r="B2528">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C2528" t="s">
         <v>2518</v>
@@ -35761,7 +35767,7 @@
         <v>2528</v>
       </c>
       <c r="B2529">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C2529" t="s">
         <v>2519</v>
@@ -35772,7 +35778,7 @@
         <v>2529</v>
       </c>
       <c r="B2530">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C2530" t="s">
         <v>2520</v>
@@ -35794,7 +35800,7 @@
         <v>2531</v>
       </c>
       <c r="B2532">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2532" t="s">
         <v>2522</v>
@@ -35805,7 +35811,7 @@
         <v>2532</v>
       </c>
       <c r="B2533">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2533" t="s">
         <v>2523</v>
@@ -35827,7 +35833,7 @@
         <v>2534</v>
       </c>
       <c r="B2535">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2535" t="s">
         <v>2525</v>
@@ -35838,7 +35844,7 @@
         <v>2535</v>
       </c>
       <c r="B2536">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2536" t="s">
         <v>2526</v>
@@ -35849,7 +35855,7 @@
         <v>2536</v>
       </c>
       <c r="B2537">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2537" t="s">
         <v>2527</v>
@@ -35860,10 +35866,32 @@
         <v>2537</v>
       </c>
       <c r="B2538">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C2538" t="s">
         <v>2528</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2539">
+        <v>2538</v>
+      </c>
+      <c r="B2539">
+        <v>782</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2540">
+        <v>2539</v>
+      </c>
+      <c r="B2540">
+        <v>783</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>2530</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="2531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="2535">
   <si>
     <t>searching_keyword_sn</t>
   </si>
@@ -1941,6 +1941,18 @@
   </si>
   <si>
     <t>code review</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>쿼리</t>
+  </si>
+  <si>
+    <t>쿼리문</t>
+  </si>
+  <si>
+    <t>Query문</t>
   </si>
   <si>
     <t>쿼리 최적화</t>
@@ -7946,10 +7958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2540"/>
+  <dimension ref="A1:C2544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2540"/>
+      <selection sqref="A1:C2544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15076,7 +15088,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C648" t="s">
         <v>642</v>
@@ -15098,7 +15110,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C650" t="s">
         <v>644</v>
@@ -15109,7 +15121,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C651" t="s">
         <v>645</v>
@@ -15120,7 +15132,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C652" t="s">
         <v>646</v>
@@ -15131,7 +15143,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C653" t="s">
         <v>647</v>
@@ -15142,7 +15154,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C654" t="s">
         <v>648</v>
@@ -15153,7 +15165,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C655" t="s">
         <v>649</v>
@@ -15164,7 +15176,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C656" t="s">
         <v>650</v>
@@ -15175,7 +15187,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C657" t="s">
         <v>651</v>
@@ -15186,7 +15198,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C658" t="s">
         <v>652</v>
@@ -15197,7 +15209,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C659" t="s">
         <v>653</v>
@@ -15208,7 +15220,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C660" t="s">
         <v>654</v>
@@ -15219,7 +15231,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C661" t="s">
         <v>655</v>
@@ -15241,7 +15253,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C663" t="s">
         <v>657</v>
@@ -15252,7 +15264,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C664" t="s">
         <v>658</v>
@@ -15263,7 +15275,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C665" t="s">
         <v>659</v>
@@ -15274,7 +15286,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C666" t="s">
         <v>660</v>
@@ -15285,7 +15297,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C667" t="s">
         <v>661</v>
@@ -15307,7 +15319,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C669" t="s">
         <v>663</v>
@@ -15318,7 +15330,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C670" t="s">
         <v>664</v>
@@ -15329,7 +15341,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C671" t="s">
         <v>665</v>
@@ -15340,7 +15352,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C672" t="s">
         <v>666</v>
@@ -15351,7 +15363,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C673" t="s">
         <v>667</v>
@@ -15362,7 +15374,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C674" t="s">
         <v>668</v>
@@ -15384,7 +15396,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C676" t="s">
         <v>670</v>
@@ -15417,7 +15429,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C679" t="s">
         <v>673</v>
@@ -15450,7 +15462,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C682" t="s">
         <v>676</v>
@@ -15494,7 +15506,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C686" t="s">
         <v>680</v>
@@ -15527,7 +15539,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C689" t="s">
         <v>683</v>
@@ -15538,7 +15550,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C690" t="s">
         <v>684</v>
@@ -15560,7 +15572,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C692" t="s">
         <v>686</v>
@@ -15758,7 +15770,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C710" t="s">
         <v>704</v>
@@ -15769,7 +15781,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C711" t="s">
         <v>705</v>
@@ -15791,7 +15803,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C713" t="s">
         <v>707</v>
@@ -15835,7 +15847,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C717" t="s">
         <v>711</v>
@@ -15846,7 +15858,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C718" t="s">
         <v>712</v>
@@ -15857,7 +15869,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C719" t="s">
         <v>713</v>
@@ -15868,7 +15880,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C720" t="s">
         <v>714</v>
@@ -15879,7 +15891,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C721" t="s">
         <v>715</v>
@@ -15912,7 +15924,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C724" t="s">
         <v>718</v>
@@ -15923,7 +15935,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C725" t="s">
         <v>719</v>
@@ -15934,7 +15946,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C726" t="s">
         <v>720</v>
@@ -15945,7 +15957,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C727" t="s">
         <v>721</v>
@@ -15956,7 +15968,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C728" t="s">
         <v>722</v>
@@ -15967,7 +15979,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C729" t="s">
         <v>723</v>
@@ -15978,7 +15990,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C730" t="s">
         <v>724</v>
@@ -15989,7 +16001,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C731" t="s">
         <v>725</v>
@@ -16000,7 +16012,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C732" t="s">
         <v>726</v>
@@ -16011,7 +16023,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C733" t="s">
         <v>727</v>
@@ -16033,7 +16045,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C735" t="s">
         <v>729</v>
@@ -16110,7 +16122,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C742" t="s">
         <v>736</v>
@@ -16176,7 +16188,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C748" t="s">
         <v>742</v>
@@ -16187,7 +16199,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C749" t="s">
         <v>743</v>
@@ -16220,7 +16232,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C752" t="s">
         <v>746</v>
@@ -16231,7 +16243,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C753" t="s">
         <v>747</v>
@@ -16451,7 +16463,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C773" t="s">
         <v>767</v>
@@ -16495,7 +16507,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C777" t="s">
         <v>771</v>
@@ -16550,7 +16562,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C782" t="s">
         <v>776</v>
@@ -16583,7 +16595,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C785" t="s">
         <v>779</v>
@@ -16594,7 +16606,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C786" t="s">
         <v>780</v>
@@ -16616,7 +16628,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C788" t="s">
         <v>782</v>
@@ -16649,7 +16661,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C791" t="s">
         <v>785</v>
@@ -16693,7 +16705,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C795" t="s">
         <v>789</v>
@@ -16704,7 +16716,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C796" t="s">
         <v>790</v>
@@ -16715,7 +16727,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C797" t="s">
         <v>791</v>
@@ -16770,7 +16782,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C802" t="s">
         <v>796</v>
@@ -16781,7 +16793,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C803" t="s">
         <v>797</v>
@@ -16792,7 +16804,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C804" t="s">
         <v>798</v>
@@ -16803,7 +16815,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C805" t="s">
         <v>799</v>
@@ -16858,7 +16870,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C810" t="s">
         <v>804</v>
@@ -16869,7 +16881,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C811" t="s">
         <v>805</v>
@@ -16880,7 +16892,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C812" t="s">
         <v>806</v>
@@ -16891,7 +16903,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C813" t="s">
         <v>807</v>
@@ -16902,7 +16914,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C814" t="s">
         <v>808</v>
@@ -16957,7 +16969,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C819" t="s">
         <v>813</v>
@@ -16968,10 +16980,10 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C820" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
@@ -16979,10 +16991,10 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C821" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
@@ -16993,7 +17005,7 @@
         <v>269</v>
       </c>
       <c r="C822" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
@@ -17004,7 +17016,7 @@
         <v>269</v>
       </c>
       <c r="C823" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
@@ -17015,7 +17027,7 @@
         <v>269</v>
       </c>
       <c r="C824" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
@@ -17100,7 +17112,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C832" t="s">
         <v>825</v>
@@ -17111,7 +17123,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C833" t="s">
         <v>826</v>
@@ -17144,7 +17156,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C836" t="s">
         <v>829</v>
@@ -17155,7 +17167,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C837" t="s">
         <v>830</v>
@@ -17166,7 +17178,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C838" t="s">
         <v>831</v>
@@ -17177,7 +17189,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C839" t="s">
         <v>832</v>
@@ -17188,7 +17200,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C840" t="s">
         <v>833</v>
@@ -17199,7 +17211,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C841" t="s">
         <v>834</v>
@@ -17287,7 +17299,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C849" t="s">
         <v>842</v>
@@ -17309,7 +17321,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C851" t="s">
         <v>844</v>
@@ -17320,7 +17332,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C852" t="s">
         <v>845</v>
@@ -17331,7 +17343,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C853" t="s">
         <v>846</v>
@@ -17342,7 +17354,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C854" t="s">
         <v>847</v>
@@ -17364,7 +17376,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C856" t="s">
         <v>849</v>
@@ -17375,7 +17387,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C857" t="s">
         <v>850</v>
@@ -17386,7 +17398,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C858" t="s">
         <v>851</v>
@@ -17430,7 +17442,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C862" t="s">
         <v>855</v>
@@ -17463,7 +17475,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C865" t="s">
         <v>858</v>
@@ -17496,7 +17508,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C868" t="s">
         <v>861</v>
@@ -17540,7 +17552,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C872" t="s">
         <v>865</v>
@@ -17551,7 +17563,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C873" t="s">
         <v>866</v>
@@ -17562,7 +17574,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C874" t="s">
         <v>867</v>
@@ -17573,7 +17585,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C875" t="s">
         <v>868</v>
@@ -17584,7 +17596,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C876" t="s">
         <v>869</v>
@@ -17639,7 +17651,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C881" t="s">
         <v>874</v>
@@ -17650,7 +17662,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C882" t="s">
         <v>875</v>
@@ -17705,7 +17717,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C887" t="s">
         <v>880</v>
@@ -17716,7 +17728,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C888" t="s">
         <v>881</v>
@@ -17749,7 +17761,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C891" t="s">
         <v>884</v>
@@ -17760,7 +17772,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C892" t="s">
         <v>885</v>
@@ -17793,7 +17805,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C895" t="s">
         <v>888</v>
@@ -17804,7 +17816,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C896" t="s">
         <v>889</v>
@@ -17947,7 +17959,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C909" t="s">
         <v>902</v>
@@ -17958,7 +17970,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C910" t="s">
         <v>903</v>
@@ -18024,7 +18036,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C916" t="s">
         <v>909</v>
@@ -18035,7 +18047,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C917" t="s">
         <v>910</v>
@@ -18046,7 +18058,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C918" t="s">
         <v>911</v>
@@ -18057,7 +18069,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C919" t="s">
         <v>912</v>
@@ -18068,7 +18080,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C920" t="s">
         <v>913</v>
@@ -18101,7 +18113,7 @@
         <v>922</v>
       </c>
       <c r="B923">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C923" t="s">
         <v>916</v>
@@ -18145,7 +18157,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C927" t="s">
         <v>920</v>
@@ -18156,7 +18168,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C928" t="s">
         <v>921</v>
@@ -18200,7 +18212,7 @@
         <v>931</v>
       </c>
       <c r="B932">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C932" t="s">
         <v>925</v>
@@ -18244,7 +18256,7 @@
         <v>935</v>
       </c>
       <c r="B936">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C936" t="s">
         <v>929</v>
@@ -18255,7 +18267,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C937" t="s">
         <v>930</v>
@@ -18266,7 +18278,7 @@
         <v>937</v>
       </c>
       <c r="B938">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C938" t="s">
         <v>931</v>
@@ -18321,7 +18333,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C943" t="s">
         <v>936</v>
@@ -18398,7 +18410,7 @@
         <v>949</v>
       </c>
       <c r="B950">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C950" t="s">
         <v>943</v>
@@ -18409,7 +18421,7 @@
         <v>950</v>
       </c>
       <c r="B951">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C951" t="s">
         <v>944</v>
@@ -18442,7 +18454,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C954" t="s">
         <v>947</v>
@@ -18453,7 +18465,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C955" t="s">
         <v>948</v>
@@ -18541,7 +18553,7 @@
         <v>962</v>
       </c>
       <c r="B963">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C963" t="s">
         <v>956</v>
@@ -18662,7 +18674,7 @@
         <v>973</v>
       </c>
       <c r="B974">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C974" t="s">
         <v>967</v>
@@ -18684,7 +18696,7 @@
         <v>975</v>
       </c>
       <c r="B976">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C976" t="s">
         <v>969</v>
@@ -18695,7 +18707,7 @@
         <v>976</v>
       </c>
       <c r="B977">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C977" t="s">
         <v>970</v>
@@ -18772,7 +18784,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C984" t="s">
         <v>977</v>
@@ -18783,7 +18795,7 @@
         <v>984</v>
       </c>
       <c r="B985">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C985" t="s">
         <v>978</v>
@@ -18827,7 +18839,7 @@
         <v>988</v>
       </c>
       <c r="B989">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C989" t="s">
         <v>982</v>
@@ -18860,7 +18872,7 @@
         <v>991</v>
       </c>
       <c r="B992">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C992" t="s">
         <v>985</v>
@@ -18882,7 +18894,7 @@
         <v>993</v>
       </c>
       <c r="B994">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C994" t="s">
         <v>987</v>
@@ -18893,7 +18905,7 @@
         <v>994</v>
       </c>
       <c r="B995">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C995" t="s">
         <v>988</v>
@@ -18915,7 +18927,7 @@
         <v>996</v>
       </c>
       <c r="B997">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C997" t="s">
         <v>990</v>
@@ -18926,7 +18938,7 @@
         <v>997</v>
       </c>
       <c r="B998">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C998" t="s">
         <v>991</v>
@@ -18937,7 +18949,7 @@
         <v>998</v>
       </c>
       <c r="B999">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C999" t="s">
         <v>992</v>
@@ -18948,7 +18960,7 @@
         <v>999</v>
       </c>
       <c r="B1000">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1000" t="s">
         <v>993</v>
@@ -18970,7 +18982,7 @@
         <v>1001</v>
       </c>
       <c r="B1002">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1002" t="s">
         <v>995</v>
@@ -18981,7 +18993,7 @@
         <v>1002</v>
       </c>
       <c r="B1003">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1003" t="s">
         <v>996</v>
@@ -18992,7 +19004,7 @@
         <v>1003</v>
       </c>
       <c r="B1004">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1004" t="s">
         <v>997</v>
@@ -19036,7 +19048,7 @@
         <v>1007</v>
       </c>
       <c r="B1008">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1008" t="s">
         <v>1001</v>
@@ -19058,7 +19070,7 @@
         <v>1009</v>
       </c>
       <c r="B1010">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1010" t="s">
         <v>1003</v>
@@ -19069,7 +19081,7 @@
         <v>1010</v>
       </c>
       <c r="B1011">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1011" t="s">
         <v>1004</v>
@@ -19080,7 +19092,7 @@
         <v>1011</v>
       </c>
       <c r="B1012">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1012" t="s">
         <v>1005</v>
@@ -19091,7 +19103,7 @@
         <v>1012</v>
       </c>
       <c r="B1013">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1013" t="s">
         <v>1006</v>
@@ -19113,7 +19125,7 @@
         <v>1014</v>
       </c>
       <c r="B1015">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1015" t="s">
         <v>1008</v>
@@ -19146,7 +19158,7 @@
         <v>1017</v>
       </c>
       <c r="B1018">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1018" t="s">
         <v>1011</v>
@@ -19168,7 +19180,7 @@
         <v>1019</v>
       </c>
       <c r="B1020">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1020" t="s">
         <v>1013</v>
@@ -19179,7 +19191,7 @@
         <v>1020</v>
       </c>
       <c r="B1021">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1021" t="s">
         <v>1014</v>
@@ -19201,7 +19213,7 @@
         <v>1022</v>
       </c>
       <c r="B1023">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1023" t="s">
         <v>1016</v>
@@ -19234,10 +19246,10 @@
         <v>1025</v>
       </c>
       <c r="B1026">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1026" t="s">
-        <v>31</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
@@ -19248,7 +19260,7 @@
         <v>323</v>
       </c>
       <c r="C1027" t="s">
-        <v>30</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
@@ -19256,10 +19268,10 @@
         <v>1027</v>
       </c>
       <c r="B1028">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1028" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
@@ -19267,10 +19279,10 @@
         <v>1028</v>
       </c>
       <c r="B1029">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1029" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
@@ -19281,7 +19293,7 @@
         <v>324</v>
       </c>
       <c r="C1030" t="s">
-        <v>1021</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
@@ -19289,10 +19301,10 @@
         <v>1030</v>
       </c>
       <c r="B1031">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1031" t="s">
-        <v>1022</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
@@ -19333,7 +19345,7 @@
         <v>1034</v>
       </c>
       <c r="B1035">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C1035" t="s">
         <v>1026</v>
@@ -19377,7 +19389,7 @@
         <v>1038</v>
       </c>
       <c r="B1039">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1039" t="s">
         <v>1030</v>
@@ -19410,7 +19422,7 @@
         <v>1041</v>
       </c>
       <c r="B1042">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1042" t="s">
         <v>1033</v>
@@ -19443,7 +19455,7 @@
         <v>1044</v>
       </c>
       <c r="B1045">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1045" t="s">
         <v>1036</v>
@@ -19465,7 +19477,7 @@
         <v>1046</v>
       </c>
       <c r="B1047">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1047" t="s">
         <v>1038</v>
@@ -19476,7 +19488,7 @@
         <v>1047</v>
       </c>
       <c r="B1048">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1048" t="s">
         <v>1039</v>
@@ -19487,7 +19499,7 @@
         <v>1048</v>
       </c>
       <c r="B1049">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1049" t="s">
         <v>1040</v>
@@ -19498,7 +19510,7 @@
         <v>1049</v>
       </c>
       <c r="B1050">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1050" t="s">
         <v>1041</v>
@@ -19509,7 +19521,7 @@
         <v>1050</v>
       </c>
       <c r="B1051">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1051" t="s">
         <v>1042</v>
@@ -19520,7 +19532,7 @@
         <v>1051</v>
       </c>
       <c r="B1052">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1052" t="s">
         <v>1043</v>
@@ -19531,7 +19543,7 @@
         <v>1052</v>
       </c>
       <c r="B1053">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1053" t="s">
         <v>1044</v>
@@ -19542,7 +19554,7 @@
         <v>1053</v>
       </c>
       <c r="B1054">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1054" t="s">
         <v>1045</v>
@@ -19564,7 +19576,7 @@
         <v>1055</v>
       </c>
       <c r="B1056">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1056" t="s">
         <v>1047</v>
@@ -19586,7 +19598,7 @@
         <v>1057</v>
       </c>
       <c r="B1058">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1058" t="s">
         <v>1049</v>
@@ -19597,7 +19609,7 @@
         <v>1058</v>
       </c>
       <c r="B1059">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1059" t="s">
         <v>1050</v>
@@ -19619,7 +19631,7 @@
         <v>1060</v>
       </c>
       <c r="B1061">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1061" t="s">
         <v>1052</v>
@@ -19652,7 +19664,7 @@
         <v>1063</v>
       </c>
       <c r="B1064">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1064" t="s">
         <v>1055</v>
@@ -19674,7 +19686,7 @@
         <v>1065</v>
       </c>
       <c r="B1066">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1066" t="s">
         <v>1057</v>
@@ -19685,7 +19697,7 @@
         <v>1066</v>
       </c>
       <c r="B1067">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1067" t="s">
         <v>1058</v>
@@ -19707,7 +19719,7 @@
         <v>1068</v>
       </c>
       <c r="B1069">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1069" t="s">
         <v>1060</v>
@@ -19751,7 +19763,7 @@
         <v>1072</v>
       </c>
       <c r="B1073">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C1073" t="s">
         <v>1064</v>
@@ -19784,7 +19796,7 @@
         <v>1075</v>
       </c>
       <c r="B1076">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1076" t="s">
         <v>1067</v>
@@ -19795,7 +19807,7 @@
         <v>1076</v>
       </c>
       <c r="B1077">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1077" t="s">
         <v>1068</v>
@@ -19817,7 +19829,7 @@
         <v>1078</v>
       </c>
       <c r="B1079">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1079" t="s">
         <v>1070</v>
@@ -19861,7 +19873,7 @@
         <v>1082</v>
       </c>
       <c r="B1083">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C1083" t="s">
         <v>1074</v>
@@ -19938,7 +19950,7 @@
         <v>1089</v>
       </c>
       <c r="B1090">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1090" t="s">
         <v>1081</v>
@@ -19949,7 +19961,7 @@
         <v>1090</v>
       </c>
       <c r="B1091">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1091" t="s">
         <v>1082</v>
@@ -20015,7 +20027,7 @@
         <v>1096</v>
       </c>
       <c r="B1097">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1097" t="s">
         <v>1088</v>
@@ -20037,7 +20049,7 @@
         <v>1098</v>
       </c>
       <c r="B1099">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1099" t="s">
         <v>1090</v>
@@ -20048,7 +20060,7 @@
         <v>1099</v>
       </c>
       <c r="B1100">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1100" t="s">
         <v>1091</v>
@@ -20070,7 +20082,7 @@
         <v>1101</v>
       </c>
       <c r="B1102">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1102" t="s">
         <v>1093</v>
@@ -20092,7 +20104,7 @@
         <v>1103</v>
       </c>
       <c r="B1104">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1104" t="s">
         <v>1095</v>
@@ -20103,7 +20115,7 @@
         <v>1104</v>
       </c>
       <c r="B1105">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1105" t="s">
         <v>1096</v>
@@ -20114,7 +20126,7 @@
         <v>1105</v>
       </c>
       <c r="B1106">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1106" t="s">
         <v>1097</v>
@@ -20125,7 +20137,7 @@
         <v>1106</v>
       </c>
       <c r="B1107">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1107" t="s">
         <v>1098</v>
@@ -20147,7 +20159,7 @@
         <v>1108</v>
       </c>
       <c r="B1109">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1109" t="s">
         <v>1100</v>
@@ -20180,7 +20192,7 @@
         <v>1111</v>
       </c>
       <c r="B1112">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1112" t="s">
         <v>1103</v>
@@ -20202,7 +20214,7 @@
         <v>1113</v>
       </c>
       <c r="B1114">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1114" t="s">
         <v>1105</v>
@@ -20213,7 +20225,7 @@
         <v>1114</v>
       </c>
       <c r="B1115">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1115" t="s">
         <v>1106</v>
@@ -20246,7 +20258,7 @@
         <v>1117</v>
       </c>
       <c r="B1118">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C1118" t="s">
         <v>1109</v>
@@ -20257,7 +20269,7 @@
         <v>1118</v>
       </c>
       <c r="B1119">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C1119" t="s">
         <v>1110</v>
@@ -20378,7 +20390,7 @@
         <v>1129</v>
       </c>
       <c r="B1130">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1130" t="s">
         <v>1121</v>
@@ -20389,7 +20401,7 @@
         <v>1130</v>
       </c>
       <c r="B1131">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1131" t="s">
         <v>1122</v>
@@ -20422,7 +20434,7 @@
         <v>1133</v>
       </c>
       <c r="B1134">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C1134" t="s">
         <v>1125</v>
@@ -20499,7 +20511,7 @@
         <v>1140</v>
       </c>
       <c r="B1141">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1141" t="s">
         <v>1132</v>
@@ -20510,7 +20522,7 @@
         <v>1141</v>
       </c>
       <c r="B1142">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1142" t="s">
         <v>1133</v>
@@ -20532,7 +20544,7 @@
         <v>1143</v>
       </c>
       <c r="B1144">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1144" t="s">
         <v>1135</v>
@@ -20565,7 +20577,7 @@
         <v>1146</v>
       </c>
       <c r="B1147">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1147" t="s">
         <v>1138</v>
@@ -20609,7 +20621,7 @@
         <v>1150</v>
       </c>
       <c r="B1151">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C1151" t="s">
         <v>1142</v>
@@ -20642,7 +20654,7 @@
         <v>1153</v>
       </c>
       <c r="B1154">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1154" t="s">
         <v>1145</v>
@@ -20653,7 +20665,7 @@
         <v>1154</v>
       </c>
       <c r="B1155">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1155" t="s">
         <v>1146</v>
@@ -20686,7 +20698,7 @@
         <v>1157</v>
       </c>
       <c r="B1158">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1158" t="s">
         <v>1149</v>
@@ -20697,7 +20709,7 @@
         <v>1158</v>
       </c>
       <c r="B1159">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1159" t="s">
         <v>1150</v>
@@ -20708,7 +20720,7 @@
         <v>1159</v>
       </c>
       <c r="B1160">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1160" t="s">
         <v>1151</v>
@@ -20763,7 +20775,7 @@
         <v>1164</v>
       </c>
       <c r="B1165">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1165" t="s">
         <v>1156</v>
@@ -20774,7 +20786,7 @@
         <v>1165</v>
       </c>
       <c r="B1166">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1166" t="s">
         <v>1157</v>
@@ -20785,7 +20797,7 @@
         <v>1166</v>
       </c>
       <c r="B1167">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1167" t="s">
         <v>1158</v>
@@ -20829,7 +20841,7 @@
         <v>1170</v>
       </c>
       <c r="B1171">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1171" t="s">
         <v>1162</v>
@@ -20873,7 +20885,7 @@
         <v>1174</v>
       </c>
       <c r="B1175">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1175" t="s">
         <v>1166</v>
@@ -20928,7 +20940,7 @@
         <v>1179</v>
       </c>
       <c r="B1180">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C1180" t="s">
         <v>1171</v>
@@ -20983,7 +20995,7 @@
         <v>1184</v>
       </c>
       <c r="B1185">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1185" t="s">
         <v>1176</v>
@@ -21038,7 +21050,7 @@
         <v>1189</v>
       </c>
       <c r="B1190">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C1190" t="s">
         <v>1181</v>
@@ -21093,7 +21105,7 @@
         <v>1194</v>
       </c>
       <c r="B1195">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C1195" t="s">
         <v>1186</v>
@@ -21170,7 +21182,7 @@
         <v>1201</v>
       </c>
       <c r="B1202">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1202" t="s">
         <v>1193</v>
@@ -21181,7 +21193,7 @@
         <v>1202</v>
       </c>
       <c r="B1203">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1203" t="s">
         <v>1194</v>
@@ -21214,7 +21226,7 @@
         <v>1205</v>
       </c>
       <c r="B1206">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1206" t="s">
         <v>1197</v>
@@ -21225,7 +21237,7 @@
         <v>1206</v>
       </c>
       <c r="B1207">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1207" t="s">
         <v>1198</v>
@@ -21236,7 +21248,7 @@
         <v>1207</v>
       </c>
       <c r="B1208">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1208" t="s">
         <v>1199</v>
@@ -21247,7 +21259,7 @@
         <v>1208</v>
       </c>
       <c r="B1209">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1209" t="s">
         <v>1200</v>
@@ -21258,10 +21270,10 @@
         <v>1209</v>
       </c>
       <c r="B1210">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1210" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
@@ -21269,10 +21281,10 @@
         <v>1210</v>
       </c>
       <c r="B1211">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1211" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
@@ -21283,7 +21295,7 @@
         <v>376</v>
       </c>
       <c r="C1212" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
@@ -21294,7 +21306,7 @@
         <v>376</v>
       </c>
       <c r="C1213" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
@@ -21305,7 +21317,7 @@
         <v>376</v>
       </c>
       <c r="C1214" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
@@ -21324,7 +21336,7 @@
         <v>1215</v>
       </c>
       <c r="B1216">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1216" t="s">
         <v>1206</v>
@@ -21335,7 +21347,7 @@
         <v>1216</v>
       </c>
       <c r="B1217">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1217" t="s">
         <v>1207</v>
@@ -21346,7 +21358,7 @@
         <v>1217</v>
       </c>
       <c r="B1218">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1218" t="s">
         <v>1208</v>
@@ -21401,7 +21413,7 @@
         <v>1222</v>
       </c>
       <c r="B1223">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1223" t="s">
         <v>1213</v>
@@ -21412,7 +21424,7 @@
         <v>1223</v>
       </c>
       <c r="B1224">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1224" t="s">
         <v>1214</v>
@@ -21423,7 +21435,7 @@
         <v>1224</v>
       </c>
       <c r="B1225">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1225" t="s">
         <v>1215</v>
@@ -21478,7 +21490,7 @@
         <v>1229</v>
       </c>
       <c r="B1230">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C1230" t="s">
         <v>1220</v>
@@ -21489,7 +21501,7 @@
         <v>1230</v>
       </c>
       <c r="B1231">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C1231" t="s">
         <v>1221</v>
@@ -21544,7 +21556,7 @@
         <v>1235</v>
       </c>
       <c r="B1236">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C1236" t="s">
         <v>1226</v>
@@ -21599,7 +21611,7 @@
         <v>1240</v>
       </c>
       <c r="B1241">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1241" t="s">
         <v>1231</v>
@@ -21610,7 +21622,7 @@
         <v>1241</v>
       </c>
       <c r="B1242">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C1242" t="s">
         <v>1232</v>
@@ -21665,7 +21677,7 @@
         <v>1246</v>
       </c>
       <c r="B1247">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C1247" t="s">
         <v>1237</v>
@@ -21676,7 +21688,7 @@
         <v>1247</v>
       </c>
       <c r="B1248">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C1248" t="s">
         <v>1238</v>
@@ -21731,7 +21743,7 @@
         <v>1252</v>
       </c>
       <c r="B1253">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C1253" t="s">
         <v>1243</v>
@@ -21742,7 +21754,7 @@
         <v>1253</v>
       </c>
       <c r="B1254">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C1254" t="s">
         <v>1244</v>
@@ -21797,7 +21809,7 @@
         <v>1258</v>
       </c>
       <c r="B1259">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1259" t="s">
         <v>1249</v>
@@ -21808,7 +21820,7 @@
         <v>1259</v>
       </c>
       <c r="B1260">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1260" t="s">
         <v>1250</v>
@@ -21819,7 +21831,7 @@
         <v>1260</v>
       </c>
       <c r="B1261">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1261" t="s">
         <v>1251</v>
@@ -21874,7 +21886,7 @@
         <v>1265</v>
       </c>
       <c r="B1266">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1266" t="s">
         <v>1256</v>
@@ -21885,7 +21897,7 @@
         <v>1266</v>
       </c>
       <c r="B1267">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1267" t="s">
         <v>1257</v>
@@ -21896,7 +21908,7 @@
         <v>1267</v>
       </c>
       <c r="B1268">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1268" t="s">
         <v>1258</v>
@@ -21951,7 +21963,7 @@
         <v>1272</v>
       </c>
       <c r="B1273">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1273" t="s">
         <v>1263</v>
@@ -21962,7 +21974,7 @@
         <v>1273</v>
       </c>
       <c r="B1274">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1274" t="s">
         <v>1264</v>
@@ -21973,7 +21985,7 @@
         <v>1274</v>
       </c>
       <c r="B1275">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1275" t="s">
         <v>1265</v>
@@ -21984,7 +21996,7 @@
         <v>1275</v>
       </c>
       <c r="B1276">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1276" t="s">
         <v>1266</v>
@@ -22039,7 +22051,7 @@
         <v>1280</v>
       </c>
       <c r="B1281">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C1281" t="s">
         <v>1271</v>
@@ -22050,7 +22062,7 @@
         <v>1281</v>
       </c>
       <c r="B1282">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C1282" t="s">
         <v>1272</v>
@@ -22061,7 +22073,7 @@
         <v>1282</v>
       </c>
       <c r="B1283">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C1283" t="s">
         <v>1273</v>
@@ -22072,7 +22084,7 @@
         <v>1283</v>
       </c>
       <c r="B1284">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C1284" t="s">
         <v>1274</v>
@@ -22127,7 +22139,7 @@
         <v>1288</v>
       </c>
       <c r="B1289">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C1289" t="s">
         <v>1279</v>
@@ -22204,7 +22216,7 @@
         <v>1295</v>
       </c>
       <c r="B1296">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1296" t="s">
         <v>1286</v>
@@ -22215,7 +22227,7 @@
         <v>1296</v>
       </c>
       <c r="B1297">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1297" t="s">
         <v>1287</v>
@@ -22248,7 +22260,7 @@
         <v>1299</v>
       </c>
       <c r="B1300">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C1300" t="s">
         <v>1290</v>
@@ -22259,7 +22271,7 @@
         <v>1300</v>
       </c>
       <c r="B1301">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C1301" t="s">
         <v>1291</v>
@@ -22358,7 +22370,7 @@
         <v>1309</v>
       </c>
       <c r="B1310">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1310" t="s">
         <v>1300</v>
@@ -22369,7 +22381,7 @@
         <v>1310</v>
       </c>
       <c r="B1311">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1311" t="s">
         <v>1301</v>
@@ -22380,7 +22392,7 @@
         <v>1311</v>
       </c>
       <c r="B1312">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1312" t="s">
         <v>1302</v>
@@ -22501,7 +22513,7 @@
         <v>1322</v>
       </c>
       <c r="B1323">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1323" t="s">
         <v>1313</v>
@@ -22512,7 +22524,7 @@
         <v>1323</v>
       </c>
       <c r="B1324">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1324" t="s">
         <v>1314</v>
@@ -22567,7 +22579,7 @@
         <v>1328</v>
       </c>
       <c r="B1329">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1329" t="s">
         <v>1319</v>
@@ -22578,7 +22590,7 @@
         <v>1329</v>
       </c>
       <c r="B1330">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1330" t="s">
         <v>1320</v>
@@ -22589,7 +22601,7 @@
         <v>1330</v>
       </c>
       <c r="B1331">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1331" t="s">
         <v>1321</v>
@@ -22600,7 +22612,7 @@
         <v>1331</v>
       </c>
       <c r="B1332">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1332" t="s">
         <v>1322</v>
@@ -22633,7 +22645,7 @@
         <v>1334</v>
       </c>
       <c r="B1335">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1335" t="s">
         <v>1325</v>
@@ -22644,7 +22656,7 @@
         <v>1335</v>
       </c>
       <c r="B1336">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1336" t="s">
         <v>1326</v>
@@ -22655,7 +22667,7 @@
         <v>1336</v>
       </c>
       <c r="B1337">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1337" t="s">
         <v>1327</v>
@@ -22666,7 +22678,7 @@
         <v>1337</v>
       </c>
       <c r="B1338">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1338" t="s">
         <v>1328</v>
@@ -22710,7 +22722,7 @@
         <v>1341</v>
       </c>
       <c r="B1342">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1342" t="s">
         <v>1332</v>
@@ -22743,7 +22755,7 @@
         <v>1344</v>
       </c>
       <c r="B1345">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1345" t="s">
         <v>1335</v>
@@ -22787,7 +22799,7 @@
         <v>1348</v>
       </c>
       <c r="B1349">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C1349" t="s">
         <v>1339</v>
@@ -22798,7 +22810,7 @@
         <v>1349</v>
       </c>
       <c r="B1350">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C1350" t="s">
         <v>1340</v>
@@ -22809,7 +22821,7 @@
         <v>1350</v>
       </c>
       <c r="B1351">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C1351" t="s">
         <v>1341</v>
@@ -22853,7 +22865,7 @@
         <v>1354</v>
       </c>
       <c r="B1355">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1355" t="s">
         <v>1345</v>
@@ -22919,7 +22931,7 @@
         <v>1360</v>
       </c>
       <c r="B1361">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1361" t="s">
         <v>1351</v>
@@ -22930,7 +22942,7 @@
         <v>1361</v>
       </c>
       <c r="B1362">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1362" t="s">
         <v>1352</v>
@@ -22996,7 +23008,7 @@
         <v>1367</v>
       </c>
       <c r="B1368">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1368" t="s">
         <v>1358</v>
@@ -23029,7 +23041,7 @@
         <v>1370</v>
       </c>
       <c r="B1371">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1371" t="s">
         <v>1361</v>
@@ -23051,7 +23063,7 @@
         <v>1372</v>
       </c>
       <c r="B1373">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1373" t="s">
         <v>1363</v>
@@ -23062,7 +23074,7 @@
         <v>1373</v>
       </c>
       <c r="B1374">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1374" t="s">
         <v>1364</v>
@@ -23084,7 +23096,7 @@
         <v>1375</v>
       </c>
       <c r="B1376">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1376" t="s">
         <v>1366</v>
@@ -23117,7 +23129,7 @@
         <v>1378</v>
       </c>
       <c r="B1379">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1379" t="s">
         <v>1369</v>
@@ -23139,7 +23151,7 @@
         <v>1380</v>
       </c>
       <c r="B1381">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1381" t="s">
         <v>1371</v>
@@ -23150,7 +23162,7 @@
         <v>1381</v>
       </c>
       <c r="B1382">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1382" t="s">
         <v>1372</v>
@@ -23161,7 +23173,7 @@
         <v>1382</v>
       </c>
       <c r="B1383">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1383" t="s">
         <v>1373</v>
@@ -23172,7 +23184,7 @@
         <v>1383</v>
       </c>
       <c r="B1384">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1384" t="s">
         <v>1374</v>
@@ -23183,7 +23195,7 @@
         <v>1384</v>
       </c>
       <c r="B1385">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1385" t="s">
         <v>1375</v>
@@ -23194,7 +23206,7 @@
         <v>1385</v>
       </c>
       <c r="B1386">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1386" t="s">
         <v>1376</v>
@@ -23216,7 +23228,7 @@
         <v>1387</v>
       </c>
       <c r="B1388">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1388" t="s">
         <v>1378</v>
@@ -23238,7 +23250,7 @@
         <v>1389</v>
       </c>
       <c r="B1390">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1390" t="s">
         <v>1380</v>
@@ -23249,7 +23261,7 @@
         <v>1390</v>
       </c>
       <c r="B1391">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1391" t="s">
         <v>1381</v>
@@ -23260,7 +23272,7 @@
         <v>1391</v>
       </c>
       <c r="B1392">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1392" t="s">
         <v>1382</v>
@@ -23271,7 +23283,7 @@
         <v>1392</v>
       </c>
       <c r="B1393">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1393" t="s">
         <v>1383</v>
@@ -23282,7 +23294,7 @@
         <v>1393</v>
       </c>
       <c r="B1394">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1394" t="s">
         <v>1384</v>
@@ -23293,7 +23305,7 @@
         <v>1394</v>
       </c>
       <c r="B1395">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1395" t="s">
         <v>1385</v>
@@ -23315,7 +23327,7 @@
         <v>1396</v>
       </c>
       <c r="B1397">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1397" t="s">
         <v>1387</v>
@@ -23337,7 +23349,7 @@
         <v>1398</v>
       </c>
       <c r="B1399">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1399" t="s">
         <v>1389</v>
@@ -23348,7 +23360,7 @@
         <v>1399</v>
       </c>
       <c r="B1400">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1400" t="s">
         <v>1390</v>
@@ -23370,7 +23382,7 @@
         <v>1401</v>
       </c>
       <c r="B1402">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1402" t="s">
         <v>1392</v>
@@ -23436,7 +23448,7 @@
         <v>1407</v>
       </c>
       <c r="B1408">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1408" t="s">
         <v>1398</v>
@@ -23447,7 +23459,7 @@
         <v>1408</v>
       </c>
       <c r="B1409">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1409" t="s">
         <v>1399</v>
@@ -23458,7 +23470,7 @@
         <v>1409</v>
       </c>
       <c r="B1410">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1410" t="s">
         <v>1400</v>
@@ -23469,7 +23481,7 @@
         <v>1410</v>
       </c>
       <c r="B1411">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1411" t="s">
         <v>1401</v>
@@ -23480,7 +23492,7 @@
         <v>1411</v>
       </c>
       <c r="B1412">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1412" t="s">
         <v>1402</v>
@@ -23491,7 +23503,7 @@
         <v>1412</v>
       </c>
       <c r="B1413">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1413" t="s">
         <v>1403</v>
@@ -23502,7 +23514,7 @@
         <v>1413</v>
       </c>
       <c r="B1414">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1414" t="s">
         <v>1404</v>
@@ -23513,7 +23525,7 @@
         <v>1414</v>
       </c>
       <c r="B1415">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1415" t="s">
         <v>1405</v>
@@ -23524,7 +23536,7 @@
         <v>1415</v>
       </c>
       <c r="B1416">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1416" t="s">
         <v>1406</v>
@@ -23535,7 +23547,7 @@
         <v>1416</v>
       </c>
       <c r="B1417">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1417" t="s">
         <v>1407</v>
@@ -23546,7 +23558,7 @@
         <v>1417</v>
       </c>
       <c r="B1418">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1418" t="s">
         <v>1408</v>
@@ -23557,7 +23569,7 @@
         <v>1418</v>
       </c>
       <c r="B1419">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1419" t="s">
         <v>1409</v>
@@ -23568,7 +23580,7 @@
         <v>1419</v>
       </c>
       <c r="B1420">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1420" t="s">
         <v>1410</v>
@@ -23579,7 +23591,7 @@
         <v>1420</v>
       </c>
       <c r="B1421">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1421" t="s">
         <v>1411</v>
@@ -23612,7 +23624,7 @@
         <v>1423</v>
       </c>
       <c r="B1424">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C1424" t="s">
         <v>1414</v>
@@ -23645,7 +23657,7 @@
         <v>1426</v>
       </c>
       <c r="B1427">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1427" t="s">
         <v>1417</v>
@@ -23656,7 +23668,7 @@
         <v>1427</v>
       </c>
       <c r="B1428">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1428" t="s">
         <v>1418</v>
@@ -23667,7 +23679,7 @@
         <v>1428</v>
       </c>
       <c r="B1429">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1429" t="s">
         <v>1419</v>
@@ -23678,7 +23690,7 @@
         <v>1429</v>
       </c>
       <c r="B1430">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1430" t="s">
         <v>1420</v>
@@ -23689,7 +23701,7 @@
         <v>1430</v>
       </c>
       <c r="B1431">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1431" t="s">
         <v>1421</v>
@@ -23700,7 +23712,7 @@
         <v>1431</v>
       </c>
       <c r="B1432">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1432" t="s">
         <v>1422</v>
@@ -23711,7 +23723,7 @@
         <v>1432</v>
       </c>
       <c r="B1433">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1433" t="s">
         <v>1423</v>
@@ -23722,7 +23734,7 @@
         <v>1433</v>
       </c>
       <c r="B1434">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1434" t="s">
         <v>1424</v>
@@ -23733,7 +23745,7 @@
         <v>1434</v>
       </c>
       <c r="B1435">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1435" t="s">
         <v>1425</v>
@@ -23744,7 +23756,7 @@
         <v>1435</v>
       </c>
       <c r="B1436">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1436" t="s">
         <v>1426</v>
@@ -23755,7 +23767,7 @@
         <v>1436</v>
       </c>
       <c r="B1437">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1437" t="s">
         <v>1427</v>
@@ -23766,7 +23778,7 @@
         <v>1437</v>
       </c>
       <c r="B1438">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1438" t="s">
         <v>1428</v>
@@ -23788,7 +23800,7 @@
         <v>1439</v>
       </c>
       <c r="B1440">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1440" t="s">
         <v>1430</v>
@@ -23876,7 +23888,7 @@
         <v>1447</v>
       </c>
       <c r="B1448">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1448" t="s">
         <v>1438</v>
@@ -23887,7 +23899,7 @@
         <v>1448</v>
       </c>
       <c r="B1449">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1449" t="s">
         <v>1439</v>
@@ -23898,7 +23910,7 @@
         <v>1449</v>
       </c>
       <c r="B1450">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1450" t="s">
         <v>1440</v>
@@ -23909,7 +23921,7 @@
         <v>1450</v>
       </c>
       <c r="B1451">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1451" t="s">
         <v>1441</v>
@@ -23920,7 +23932,7 @@
         <v>1451</v>
       </c>
       <c r="B1452">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1452" t="s">
         <v>1442</v>
@@ -23931,7 +23943,7 @@
         <v>1452</v>
       </c>
       <c r="B1453">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1453" t="s">
         <v>1443</v>
@@ -23942,7 +23954,7 @@
         <v>1453</v>
       </c>
       <c r="B1454">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1454" t="s">
         <v>1444</v>
@@ -23953,7 +23965,7 @@
         <v>1454</v>
       </c>
       <c r="B1455">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1455" t="s">
         <v>1445</v>
@@ -24008,7 +24020,7 @@
         <v>1459</v>
       </c>
       <c r="B1460">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C1460" t="s">
         <v>1450</v>
@@ -24019,7 +24031,7 @@
         <v>1460</v>
       </c>
       <c r="B1461">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C1461" t="s">
         <v>1451</v>
@@ -24074,7 +24086,7 @@
         <v>1465</v>
       </c>
       <c r="B1466">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C1466" t="s">
         <v>1456</v>
@@ -24129,7 +24141,7 @@
         <v>1470</v>
       </c>
       <c r="B1471">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1471" t="s">
         <v>1461</v>
@@ -24140,7 +24152,7 @@
         <v>1471</v>
       </c>
       <c r="B1472">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1472" t="s">
         <v>1462</v>
@@ -24151,7 +24163,7 @@
         <v>1472</v>
       </c>
       <c r="B1473">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1473" t="s">
         <v>1463</v>
@@ -24206,7 +24218,7 @@
         <v>1477</v>
       </c>
       <c r="B1478">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C1478" t="s">
         <v>1468</v>
@@ -24217,7 +24229,7 @@
         <v>1478</v>
       </c>
       <c r="B1479">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C1479" t="s">
         <v>1469</v>
@@ -24272,7 +24284,7 @@
         <v>1483</v>
       </c>
       <c r="B1484">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1484" t="s">
         <v>1474</v>
@@ -24283,7 +24295,7 @@
         <v>1484</v>
       </c>
       <c r="B1485">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1485" t="s">
         <v>1475</v>
@@ -24294,7 +24306,7 @@
         <v>1485</v>
       </c>
       <c r="B1486">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1486" t="s">
         <v>1476</v>
@@ -24305,7 +24317,7 @@
         <v>1486</v>
       </c>
       <c r="B1487">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1487" t="s">
         <v>1477</v>
@@ -24316,7 +24328,7 @@
         <v>1487</v>
       </c>
       <c r="B1488">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1488" t="s">
         <v>1478</v>
@@ -24327,7 +24339,7 @@
         <v>1488</v>
       </c>
       <c r="B1489">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1489" t="s">
         <v>1479</v>
@@ -24382,7 +24394,7 @@
         <v>1493</v>
       </c>
       <c r="B1494">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1494" t="s">
         <v>1484</v>
@@ -24393,7 +24405,7 @@
         <v>1494</v>
       </c>
       <c r="B1495">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1495" t="s">
         <v>1485</v>
@@ -24404,7 +24416,7 @@
         <v>1495</v>
       </c>
       <c r="B1496">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1496" t="s">
         <v>1486</v>
@@ -24459,7 +24471,7 @@
         <v>1500</v>
       </c>
       <c r="B1501">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1501" t="s">
         <v>1491</v>
@@ -24470,7 +24482,7 @@
         <v>1501</v>
       </c>
       <c r="B1502">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1502" t="s">
         <v>1492</v>
@@ -24481,7 +24493,7 @@
         <v>1502</v>
       </c>
       <c r="B1503">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1503" t="s">
         <v>1493</v>
@@ -24492,7 +24504,7 @@
         <v>1503</v>
       </c>
       <c r="B1504">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1504" t="s">
         <v>1494</v>
@@ -24503,7 +24515,7 @@
         <v>1504</v>
       </c>
       <c r="B1505">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1505" t="s">
         <v>1495</v>
@@ -24514,7 +24526,7 @@
         <v>1505</v>
       </c>
       <c r="B1506">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1506" t="s">
         <v>1496</v>
@@ -24569,7 +24581,7 @@
         <v>1510</v>
       </c>
       <c r="B1511">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C1511" t="s">
         <v>1501</v>
@@ -24580,7 +24592,7 @@
         <v>1511</v>
       </c>
       <c r="B1512">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C1512" t="s">
         <v>1502</v>
@@ -24635,7 +24647,7 @@
         <v>1516</v>
       </c>
       <c r="B1517">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1517" t="s">
         <v>1507</v>
@@ -24646,7 +24658,7 @@
         <v>1517</v>
       </c>
       <c r="B1518">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1518" t="s">
         <v>1508</v>
@@ -24657,7 +24669,7 @@
         <v>1518</v>
       </c>
       <c r="B1519">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1519" t="s">
         <v>1509</v>
@@ -24668,7 +24680,7 @@
         <v>1519</v>
       </c>
       <c r="B1520">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1520" t="s">
         <v>1510</v>
@@ -24679,7 +24691,7 @@
         <v>1520</v>
       </c>
       <c r="B1521">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1521" t="s">
         <v>1511</v>
@@ -24734,7 +24746,7 @@
         <v>1525</v>
       </c>
       <c r="B1526">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C1526" t="s">
         <v>1516</v>
@@ -24745,7 +24757,7 @@
         <v>1526</v>
       </c>
       <c r="B1527">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C1527" t="s">
         <v>1517</v>
@@ -24778,7 +24790,7 @@
         <v>1529</v>
       </c>
       <c r="B1530">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1530" t="s">
         <v>1520</v>
@@ -24789,7 +24801,7 @@
         <v>1530</v>
       </c>
       <c r="B1531">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1531" t="s">
         <v>1521</v>
@@ -24822,7 +24834,7 @@
         <v>1533</v>
       </c>
       <c r="B1534">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1534" t="s">
         <v>1524</v>
@@ -24833,7 +24845,7 @@
         <v>1534</v>
       </c>
       <c r="B1535">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1535" t="s">
         <v>1525</v>
@@ -25108,7 +25120,7 @@
         <v>1559</v>
       </c>
       <c r="B1560">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1560" t="s">
         <v>1550</v>
@@ -25119,7 +25131,7 @@
         <v>1560</v>
       </c>
       <c r="B1561">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1561" t="s">
         <v>1551</v>
@@ -25174,7 +25186,7 @@
         <v>1565</v>
       </c>
       <c r="B1566">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C1566" t="s">
         <v>1556</v>
@@ -25185,7 +25197,7 @@
         <v>1566</v>
       </c>
       <c r="B1567">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C1567" t="s">
         <v>1557</v>
@@ -25240,7 +25252,7 @@
         <v>1571</v>
       </c>
       <c r="B1572">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1572" t="s">
         <v>1562</v>
@@ -25251,7 +25263,7 @@
         <v>1572</v>
       </c>
       <c r="B1573">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1573" t="s">
         <v>1563</v>
@@ -25262,7 +25274,7 @@
         <v>1573</v>
       </c>
       <c r="B1574">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1574" t="s">
         <v>1564</v>
@@ -25317,7 +25329,7 @@
         <v>1578</v>
       </c>
       <c r="B1579">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C1579" t="s">
         <v>1569</v>
@@ -25328,7 +25340,7 @@
         <v>1579</v>
       </c>
       <c r="B1580">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C1580" t="s">
         <v>1570</v>
@@ -25339,7 +25351,7 @@
         <v>1580</v>
       </c>
       <c r="B1581">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C1581" t="s">
         <v>1571</v>
@@ -25394,7 +25406,7 @@
         <v>1585</v>
       </c>
       <c r="B1586">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C1586" t="s">
         <v>1576</v>
@@ -25405,7 +25417,7 @@
         <v>1586</v>
       </c>
       <c r="B1587">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C1587" t="s">
         <v>1577</v>
@@ -25449,7 +25461,7 @@
         <v>1590</v>
       </c>
       <c r="B1591">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1591" t="s">
         <v>1581</v>
@@ -25493,7 +25505,7 @@
         <v>1594</v>
       </c>
       <c r="B1595">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C1595" t="s">
         <v>1585</v>
@@ -25504,7 +25516,7 @@
         <v>1595</v>
       </c>
       <c r="B1596">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C1596" t="s">
         <v>1586</v>
@@ -25559,7 +25571,7 @@
         <v>1600</v>
       </c>
       <c r="B1601">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1601" t="s">
         <v>1591</v>
@@ -25570,7 +25582,7 @@
         <v>1601</v>
       </c>
       <c r="B1602">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1602" t="s">
         <v>1592</v>
@@ -25581,7 +25593,7 @@
         <v>1602</v>
       </c>
       <c r="B1603">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1603" t="s">
         <v>1593</v>
@@ -25592,7 +25604,7 @@
         <v>1603</v>
       </c>
       <c r="B1604">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1604" t="s">
         <v>1594</v>
@@ -25636,7 +25648,7 @@
         <v>1607</v>
       </c>
       <c r="B1608">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1608" t="s">
         <v>1598</v>
@@ -25658,7 +25670,7 @@
         <v>1609</v>
       </c>
       <c r="B1610">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1610" t="s">
         <v>1600</v>
@@ -25669,7 +25681,7 @@
         <v>1610</v>
       </c>
       <c r="B1611">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1611" t="s">
         <v>1601</v>
@@ -25702,7 +25714,7 @@
         <v>1613</v>
       </c>
       <c r="B1614">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C1614" t="s">
         <v>1604</v>
@@ -25735,7 +25747,7 @@
         <v>1616</v>
       </c>
       <c r="B1617">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1617" t="s">
         <v>1607</v>
@@ -25746,7 +25758,7 @@
         <v>1617</v>
       </c>
       <c r="B1618">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1618" t="s">
         <v>1608</v>
@@ -25779,7 +25791,7 @@
         <v>1620</v>
       </c>
       <c r="B1621">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1621" t="s">
         <v>1611</v>
@@ -25790,7 +25802,7 @@
         <v>1621</v>
       </c>
       <c r="B1622">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1622" t="s">
         <v>1612</v>
@@ -25801,7 +25813,7 @@
         <v>1622</v>
       </c>
       <c r="B1623">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1623" t="s">
         <v>1613</v>
@@ -25812,7 +25824,7 @@
         <v>1623</v>
       </c>
       <c r="B1624">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1624" t="s">
         <v>1614</v>
@@ -25823,7 +25835,7 @@
         <v>1624</v>
       </c>
       <c r="B1625">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1625" t="s">
         <v>1615</v>
@@ -25834,7 +25846,7 @@
         <v>1625</v>
       </c>
       <c r="B1626">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C1626" t="s">
         <v>1616</v>
@@ -25878,7 +25890,7 @@
         <v>1629</v>
       </c>
       <c r="B1630">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1630" t="s">
         <v>1620</v>
@@ -25922,7 +25934,7 @@
         <v>1633</v>
       </c>
       <c r="B1634">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C1634" t="s">
         <v>1624</v>
@@ -25933,7 +25945,7 @@
         <v>1634</v>
       </c>
       <c r="B1635">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C1635" t="s">
         <v>1625</v>
@@ -25988,7 +26000,7 @@
         <v>1639</v>
       </c>
       <c r="B1640">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C1640" t="s">
         <v>1630</v>
@@ -25999,7 +26011,7 @@
         <v>1640</v>
       </c>
       <c r="B1641">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C1641" t="s">
         <v>1631</v>
@@ -26043,7 +26055,7 @@
         <v>1644</v>
       </c>
       <c r="B1645">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1645" t="s">
         <v>1635</v>
@@ -26065,7 +26077,7 @@
         <v>1646</v>
       </c>
       <c r="B1647">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1647" t="s">
         <v>1637</v>
@@ -26076,7 +26088,7 @@
         <v>1647</v>
       </c>
       <c r="B1648">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1648" t="s">
         <v>1638</v>
@@ -26087,7 +26099,7 @@
         <v>1648</v>
       </c>
       <c r="B1649">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1649" t="s">
         <v>1639</v>
@@ -26098,7 +26110,7 @@
         <v>1649</v>
       </c>
       <c r="B1650">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1650" t="s">
         <v>1640</v>
@@ -26109,7 +26121,7 @@
         <v>1650</v>
       </c>
       <c r="B1651">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1651" t="s">
         <v>1641</v>
@@ -26120,7 +26132,7 @@
         <v>1651</v>
       </c>
       <c r="B1652">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1652" t="s">
         <v>1642</v>
@@ -26131,7 +26143,7 @@
         <v>1652</v>
       </c>
       <c r="B1653">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1653" t="s">
         <v>1643</v>
@@ -26142,7 +26154,7 @@
         <v>1653</v>
       </c>
       <c r="B1654">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1654" t="s">
         <v>1644</v>
@@ -26197,7 +26209,7 @@
         <v>1658</v>
       </c>
       <c r="B1659">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1659" t="s">
         <v>1649</v>
@@ -26208,7 +26220,7 @@
         <v>1659</v>
       </c>
       <c r="B1660">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1660" t="s">
         <v>1650</v>
@@ -26230,7 +26242,7 @@
         <v>1661</v>
       </c>
       <c r="B1662">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1662" t="s">
         <v>1652</v>
@@ -26274,7 +26286,7 @@
         <v>1665</v>
       </c>
       <c r="B1666">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C1666" t="s">
         <v>1656</v>
@@ -26318,7 +26330,7 @@
         <v>1669</v>
       </c>
       <c r="B1670">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C1670" t="s">
         <v>1660</v>
@@ -26362,7 +26374,7 @@
         <v>1673</v>
       </c>
       <c r="B1674">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C1674" t="s">
         <v>1664</v>
@@ -26373,7 +26385,7 @@
         <v>1674</v>
       </c>
       <c r="B1675">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C1675" t="s">
         <v>1665</v>
@@ -26417,7 +26429,7 @@
         <v>1678</v>
       </c>
       <c r="B1679">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1679" t="s">
         <v>1669</v>
@@ -26461,7 +26473,7 @@
         <v>1682</v>
       </c>
       <c r="B1683">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C1683" t="s">
         <v>1673</v>
@@ -26516,7 +26528,7 @@
         <v>1687</v>
       </c>
       <c r="B1688">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C1688" t="s">
         <v>1678</v>
@@ -26527,7 +26539,7 @@
         <v>1688</v>
       </c>
       <c r="B1689">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C1689" t="s">
         <v>1679</v>
@@ -26604,7 +26616,7 @@
         <v>1695</v>
       </c>
       <c r="B1696">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1696" t="s">
         <v>1686</v>
@@ -26615,7 +26627,7 @@
         <v>1696</v>
       </c>
       <c r="B1697">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1697" t="s">
         <v>1687</v>
@@ -26637,7 +26649,7 @@
         <v>1698</v>
       </c>
       <c r="B1699">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1699" t="s">
         <v>1689</v>
@@ -26659,7 +26671,7 @@
         <v>1700</v>
       </c>
       <c r="B1701">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1701" t="s">
         <v>1691</v>
@@ -26670,7 +26682,7 @@
         <v>1701</v>
       </c>
       <c r="B1702">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1702" t="s">
         <v>1692</v>
@@ -26681,7 +26693,7 @@
         <v>1702</v>
       </c>
       <c r="B1703">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1703" t="s">
         <v>1693</v>
@@ -26692,7 +26704,7 @@
         <v>1703</v>
       </c>
       <c r="B1704">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1704" t="s">
         <v>1694</v>
@@ -26703,7 +26715,7 @@
         <v>1704</v>
       </c>
       <c r="B1705">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1705" t="s">
         <v>1695</v>
@@ -26714,7 +26726,7 @@
         <v>1705</v>
       </c>
       <c r="B1706">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1706" t="s">
         <v>1696</v>
@@ -26725,7 +26737,7 @@
         <v>1706</v>
       </c>
       <c r="B1707">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1707" t="s">
         <v>1697</v>
@@ -26736,7 +26748,7 @@
         <v>1707</v>
       </c>
       <c r="B1708">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1708" t="s">
         <v>1698</v>
@@ -26747,7 +26759,7 @@
         <v>1708</v>
       </c>
       <c r="B1709">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1709" t="s">
         <v>1699</v>
@@ -26758,7 +26770,7 @@
         <v>1709</v>
       </c>
       <c r="B1710">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1710" t="s">
         <v>1700</v>
@@ -26769,7 +26781,7 @@
         <v>1710</v>
       </c>
       <c r="B1711">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1711" t="s">
         <v>1701</v>
@@ -26780,7 +26792,7 @@
         <v>1711</v>
       </c>
       <c r="B1712">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1712" t="s">
         <v>1702</v>
@@ -26791,7 +26803,7 @@
         <v>1712</v>
       </c>
       <c r="B1713">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1713" t="s">
         <v>1703</v>
@@ -26802,7 +26814,7 @@
         <v>1713</v>
       </c>
       <c r="B1714">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1714" t="s">
         <v>1704</v>
@@ -26813,7 +26825,7 @@
         <v>1714</v>
       </c>
       <c r="B1715">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1715" t="s">
         <v>1705</v>
@@ -26824,7 +26836,7 @@
         <v>1715</v>
       </c>
       <c r="B1716">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1716" t="s">
         <v>1706</v>
@@ -26890,7 +26902,7 @@
         <v>1721</v>
       </c>
       <c r="B1722">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1722" t="s">
         <v>1712</v>
@@ -26923,7 +26935,7 @@
         <v>1724</v>
       </c>
       <c r="B1725">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1725" t="s">
         <v>1715</v>
@@ -26967,7 +26979,7 @@
         <v>1728</v>
       </c>
       <c r="B1729">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C1729" t="s">
         <v>1719</v>
@@ -27011,7 +27023,7 @@
         <v>1732</v>
       </c>
       <c r="B1733">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1733" t="s">
         <v>1723</v>
@@ -27033,7 +27045,7 @@
         <v>1734</v>
       </c>
       <c r="B1735">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1735" t="s">
         <v>1725</v>
@@ -27044,7 +27056,7 @@
         <v>1735</v>
       </c>
       <c r="B1736">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1736" t="s">
         <v>1726</v>
@@ -27066,7 +27078,7 @@
         <v>1737</v>
       </c>
       <c r="B1738">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1738" t="s">
         <v>1728</v>
@@ -27099,7 +27111,7 @@
         <v>1740</v>
       </c>
       <c r="B1741">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1741" t="s">
         <v>1731</v>
@@ -27132,7 +27144,7 @@
         <v>1743</v>
       </c>
       <c r="B1744">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1744" t="s">
         <v>1734</v>
@@ -27209,7 +27221,7 @@
         <v>1750</v>
       </c>
       <c r="B1751">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1751" t="s">
         <v>1741</v>
@@ -27242,7 +27254,7 @@
         <v>1753</v>
       </c>
       <c r="B1754">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1754" t="s">
         <v>1744</v>
@@ -27308,7 +27320,7 @@
         <v>1759</v>
       </c>
       <c r="B1760">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1760" t="s">
         <v>1750</v>
@@ -27319,7 +27331,7 @@
         <v>1760</v>
       </c>
       <c r="B1761">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1761" t="s">
         <v>1751</v>
@@ -27341,7 +27353,7 @@
         <v>1762</v>
       </c>
       <c r="B1763">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1763" t="s">
         <v>1753</v>
@@ -27385,7 +27397,7 @@
         <v>1766</v>
       </c>
       <c r="B1767">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C1767" t="s">
         <v>1757</v>
@@ -27396,7 +27408,7 @@
         <v>1767</v>
       </c>
       <c r="B1768">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C1768" t="s">
         <v>1758</v>
@@ -27407,7 +27419,7 @@
         <v>1768</v>
       </c>
       <c r="B1769">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C1769" t="s">
         <v>1759</v>
@@ -27440,7 +27452,7 @@
         <v>1771</v>
       </c>
       <c r="B1772">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1772" t="s">
         <v>1762</v>
@@ -27451,7 +27463,7 @@
         <v>1772</v>
       </c>
       <c r="B1773">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1773" t="s">
         <v>1763</v>
@@ -27473,7 +27485,7 @@
         <v>1774</v>
       </c>
       <c r="B1775">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1775" t="s">
         <v>1765</v>
@@ -27495,7 +27507,7 @@
         <v>1776</v>
       </c>
       <c r="B1777">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1777" t="s">
         <v>1767</v>
@@ -27506,7 +27518,7 @@
         <v>1777</v>
       </c>
       <c r="B1778">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1778" t="s">
         <v>1768</v>
@@ -27517,7 +27529,7 @@
         <v>1778</v>
       </c>
       <c r="B1779">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1779" t="s">
         <v>1769</v>
@@ -27528,7 +27540,7 @@
         <v>1779</v>
       </c>
       <c r="B1780">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1780" t="s">
         <v>1770</v>
@@ -27561,7 +27573,7 @@
         <v>1782</v>
       </c>
       <c r="B1783">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C1783" t="s">
         <v>1773</v>
@@ -27605,7 +27617,7 @@
         <v>1786</v>
       </c>
       <c r="B1787">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1787" t="s">
         <v>1777</v>
@@ -27638,7 +27650,7 @@
         <v>1789</v>
       </c>
       <c r="B1790">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1790" t="s">
         <v>1780</v>
@@ -27660,7 +27672,7 @@
         <v>1791</v>
       </c>
       <c r="B1792">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1792" t="s">
         <v>1782</v>
@@ -27671,7 +27683,7 @@
         <v>1792</v>
       </c>
       <c r="B1793">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1793" t="s">
         <v>1783</v>
@@ -27693,7 +27705,7 @@
         <v>1794</v>
       </c>
       <c r="B1795">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1795" t="s">
         <v>1785</v>
@@ -27737,7 +27749,7 @@
         <v>1798</v>
       </c>
       <c r="B1799">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1799" t="s">
         <v>1789</v>
@@ -27748,7 +27760,7 @@
         <v>1799</v>
       </c>
       <c r="B1800">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1800" t="s">
         <v>1790</v>
@@ -27803,7 +27815,7 @@
         <v>1804</v>
       </c>
       <c r="B1805">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C1805" t="s">
         <v>1795</v>
@@ -27814,7 +27826,7 @@
         <v>1805</v>
       </c>
       <c r="B1806">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C1806" t="s">
         <v>1796</v>
@@ -27825,7 +27837,7 @@
         <v>1806</v>
       </c>
       <c r="B1807">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C1807" t="s">
         <v>1797</v>
@@ -27869,7 +27881,7 @@
         <v>1810</v>
       </c>
       <c r="B1811">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1811" t="s">
         <v>1801</v>
@@ -27902,7 +27914,7 @@
         <v>1813</v>
       </c>
       <c r="B1814">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1814" t="s">
         <v>1804</v>
@@ -27924,7 +27936,7 @@
         <v>1815</v>
       </c>
       <c r="B1816">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1816" t="s">
         <v>1806</v>
@@ -27935,7 +27947,7 @@
         <v>1816</v>
       </c>
       <c r="B1817">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1817" t="s">
         <v>1807</v>
@@ -27946,7 +27958,7 @@
         <v>1817</v>
       </c>
       <c r="B1818">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1818" t="s">
         <v>1808</v>
@@ -27957,7 +27969,7 @@
         <v>1818</v>
       </c>
       <c r="B1819">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1819" t="s">
         <v>1809</v>
@@ -27979,7 +27991,7 @@
         <v>1820</v>
       </c>
       <c r="B1821">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1821" t="s">
         <v>1811</v>
@@ -28045,7 +28057,7 @@
         <v>1826</v>
       </c>
       <c r="B1827">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1827" t="s">
         <v>1817</v>
@@ -28056,7 +28068,7 @@
         <v>1827</v>
       </c>
       <c r="B1828">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1828" t="s">
         <v>1818</v>
@@ -28067,7 +28079,7 @@
         <v>1828</v>
       </c>
       <c r="B1829">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1829" t="s">
         <v>1819</v>
@@ -28078,7 +28090,7 @@
         <v>1829</v>
       </c>
       <c r="B1830">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1830" t="s">
         <v>1820</v>
@@ -28089,7 +28101,7 @@
         <v>1830</v>
       </c>
       <c r="B1831">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1831" t="s">
         <v>1821</v>
@@ -28100,7 +28112,7 @@
         <v>1831</v>
       </c>
       <c r="B1832">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1832" t="s">
         <v>1822</v>
@@ -28210,7 +28222,7 @@
         <v>1841</v>
       </c>
       <c r="B1842">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C1842" t="s">
         <v>1832</v>
@@ -28232,7 +28244,7 @@
         <v>1843</v>
       </c>
       <c r="B1844">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1844" t="s">
         <v>1834</v>
@@ -28243,7 +28255,7 @@
         <v>1844</v>
       </c>
       <c r="B1845">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1845" t="s">
         <v>1835</v>
@@ -28254,7 +28266,7 @@
         <v>1845</v>
       </c>
       <c r="B1846">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1846" t="s">
         <v>1836</v>
@@ -28265,7 +28277,7 @@
         <v>1846</v>
       </c>
       <c r="B1847">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1847" t="s">
         <v>1837</v>
@@ -28276,7 +28288,7 @@
         <v>1847</v>
       </c>
       <c r="B1848">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1848" t="s">
         <v>1838</v>
@@ -28287,7 +28299,7 @@
         <v>1848</v>
       </c>
       <c r="B1849">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1849" t="s">
         <v>1839</v>
@@ -28353,7 +28365,7 @@
         <v>1854</v>
       </c>
       <c r="B1855">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C1855" t="s">
         <v>1845</v>
@@ -28375,7 +28387,7 @@
         <v>1856</v>
       </c>
       <c r="B1857">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1857" t="s">
         <v>1847</v>
@@ -28386,7 +28398,7 @@
         <v>1857</v>
       </c>
       <c r="B1858">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1858" t="s">
         <v>1848</v>
@@ -28419,7 +28431,7 @@
         <v>1860</v>
       </c>
       <c r="B1861">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C1861" t="s">
         <v>1851</v>
@@ -28430,7 +28442,7 @@
         <v>1861</v>
       </c>
       <c r="B1862">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C1862" t="s">
         <v>1852</v>
@@ -28441,7 +28453,7 @@
         <v>1862</v>
       </c>
       <c r="B1863">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C1863" t="s">
         <v>1853</v>
@@ -28485,7 +28497,7 @@
         <v>1866</v>
       </c>
       <c r="B1867">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1867" t="s">
         <v>1857</v>
@@ -28507,7 +28519,7 @@
         <v>1868</v>
       </c>
       <c r="B1869">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1869" t="s">
         <v>1859</v>
@@ -28518,7 +28530,7 @@
         <v>1869</v>
       </c>
       <c r="B1870">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1870" t="s">
         <v>1860</v>
@@ -28529,7 +28541,7 @@
         <v>1870</v>
       </c>
       <c r="B1871">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1871" t="s">
         <v>1861</v>
@@ -28540,7 +28552,7 @@
         <v>1871</v>
       </c>
       <c r="B1872">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1872" t="s">
         <v>1862</v>
@@ -28551,7 +28563,7 @@
         <v>1872</v>
       </c>
       <c r="B1873">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1873" t="s">
         <v>1863</v>
@@ -28562,7 +28574,7 @@
         <v>1873</v>
       </c>
       <c r="B1874">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1874" t="s">
         <v>1864</v>
@@ -28584,7 +28596,7 @@
         <v>1875</v>
       </c>
       <c r="B1876">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1876" t="s">
         <v>1866</v>
@@ -28617,7 +28629,7 @@
         <v>1878</v>
       </c>
       <c r="B1879">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C1879" t="s">
         <v>1869</v>
@@ -28650,7 +28662,7 @@
         <v>1881</v>
       </c>
       <c r="B1882">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C1882" t="s">
         <v>1872</v>
@@ -28672,7 +28684,7 @@
         <v>1883</v>
       </c>
       <c r="B1884">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1884" t="s">
         <v>1874</v>
@@ -28683,7 +28695,7 @@
         <v>1884</v>
       </c>
       <c r="B1885">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1885" t="s">
         <v>1875</v>
@@ -28694,7 +28706,7 @@
         <v>1885</v>
       </c>
       <c r="B1886">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1886" t="s">
         <v>1876</v>
@@ -28705,7 +28717,7 @@
         <v>1886</v>
       </c>
       <c r="B1887">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1887" t="s">
         <v>1877</v>
@@ -28727,7 +28739,7 @@
         <v>1888</v>
       </c>
       <c r="B1889">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1889" t="s">
         <v>1879</v>
@@ -28771,7 +28783,7 @@
         <v>1892</v>
       </c>
       <c r="B1893">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C1893" t="s">
         <v>1883</v>
@@ -28782,7 +28794,7 @@
         <v>1893</v>
       </c>
       <c r="B1894">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C1894" t="s">
         <v>1884</v>
@@ -28870,7 +28882,7 @@
         <v>1901</v>
       </c>
       <c r="B1902">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1902" t="s">
         <v>1892</v>
@@ -28903,7 +28915,7 @@
         <v>1904</v>
       </c>
       <c r="B1905">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1905" t="s">
         <v>1895</v>
@@ -28958,7 +28970,7 @@
         <v>1909</v>
       </c>
       <c r="B1910">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1910" t="s">
         <v>1900</v>
@@ -28969,7 +28981,7 @@
         <v>1910</v>
       </c>
       <c r="B1911">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1911" t="s">
         <v>1901</v>
@@ -28980,7 +28992,7 @@
         <v>1911</v>
       </c>
       <c r="B1912">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1912" t="s">
         <v>1902</v>
@@ -29002,7 +29014,7 @@
         <v>1913</v>
       </c>
       <c r="B1914">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C1914" t="s">
         <v>1904</v>
@@ -29013,7 +29025,7 @@
         <v>1914</v>
       </c>
       <c r="B1915">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C1915" t="s">
         <v>1905</v>
@@ -29035,7 +29047,7 @@
         <v>1916</v>
       </c>
       <c r="B1917">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1917" t="s">
         <v>1907</v>
@@ -29046,7 +29058,7 @@
         <v>1917</v>
       </c>
       <c r="B1918">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1918" t="s">
         <v>1908</v>
@@ -29057,7 +29069,7 @@
         <v>1918</v>
       </c>
       <c r="B1919">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1919" t="s">
         <v>1909</v>
@@ -29079,7 +29091,7 @@
         <v>1920</v>
       </c>
       <c r="B1921">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C1921" t="s">
         <v>1911</v>
@@ -29090,7 +29102,7 @@
         <v>1921</v>
       </c>
       <c r="B1922">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C1922" t="s">
         <v>1912</v>
@@ -29101,7 +29113,7 @@
         <v>1922</v>
       </c>
       <c r="B1923">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C1923" t="s">
         <v>1913</v>
@@ -29112,7 +29124,7 @@
         <v>1923</v>
       </c>
       <c r="B1924">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C1924" t="s">
         <v>1914</v>
@@ -29134,7 +29146,7 @@
         <v>1925</v>
       </c>
       <c r="B1926">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C1926" t="s">
         <v>1916</v>
@@ -29145,7 +29157,7 @@
         <v>1926</v>
       </c>
       <c r="B1927">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1927" t="s">
         <v>1917</v>
@@ -29156,7 +29168,7 @@
         <v>1927</v>
       </c>
       <c r="B1928">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1928" t="s">
         <v>1918</v>
@@ -29167,7 +29179,7 @@
         <v>1928</v>
       </c>
       <c r="B1929">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1929" t="s">
         <v>1919</v>
@@ -29178,7 +29190,7 @@
         <v>1929</v>
       </c>
       <c r="B1930">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C1930" t="s">
         <v>1920</v>
@@ -29189,7 +29201,7 @@
         <v>1930</v>
       </c>
       <c r="B1931">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1931" t="s">
         <v>1921</v>
@@ -29200,7 +29212,7 @@
         <v>1931</v>
       </c>
       <c r="B1932">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1932" t="s">
         <v>1922</v>
@@ -29211,7 +29223,7 @@
         <v>1932</v>
       </c>
       <c r="B1933">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1933" t="s">
         <v>1923</v>
@@ -29233,7 +29245,7 @@
         <v>1934</v>
       </c>
       <c r="B1935">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C1935" t="s">
         <v>1925</v>
@@ -29244,7 +29256,7 @@
         <v>1935</v>
       </c>
       <c r="B1936">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C1936" t="s">
         <v>1926</v>
@@ -29343,7 +29355,7 @@
         <v>1944</v>
       </c>
       <c r="B1945">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1945" t="s">
         <v>1935</v>
@@ -29354,7 +29366,7 @@
         <v>1945</v>
       </c>
       <c r="B1946">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1946" t="s">
         <v>1936</v>
@@ -29365,7 +29377,7 @@
         <v>1946</v>
       </c>
       <c r="B1947">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1947" t="s">
         <v>1937</v>
@@ -29464,7 +29476,7 @@
         <v>1955</v>
       </c>
       <c r="B1956">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1956" t="s">
         <v>1946</v>
@@ -29475,7 +29487,7 @@
         <v>1956</v>
       </c>
       <c r="B1957">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1957" t="s">
         <v>1947</v>
@@ -29486,7 +29498,7 @@
         <v>1957</v>
       </c>
       <c r="B1958">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1958" t="s">
         <v>1948</v>
@@ -29497,7 +29509,7 @@
         <v>1958</v>
       </c>
       <c r="B1959">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1959" t="s">
         <v>1949</v>
@@ -29508,7 +29520,7 @@
         <v>1959</v>
       </c>
       <c r="B1960">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1960" t="s">
         <v>1950</v>
@@ -29519,7 +29531,7 @@
         <v>1960</v>
       </c>
       <c r="B1961">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1961" t="s">
         <v>1951</v>
@@ -29530,7 +29542,7 @@
         <v>1961</v>
       </c>
       <c r="B1962">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1962" t="s">
         <v>1952</v>
@@ -29541,7 +29553,7 @@
         <v>1962</v>
       </c>
       <c r="B1963">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1963" t="s">
         <v>1953</v>
@@ -29552,7 +29564,7 @@
         <v>1963</v>
       </c>
       <c r="B1964">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1964" t="s">
         <v>1954</v>
@@ -29563,7 +29575,7 @@
         <v>1964</v>
       </c>
       <c r="B1965">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1965" t="s">
         <v>1955</v>
@@ -29607,7 +29619,7 @@
         <v>1968</v>
       </c>
       <c r="B1969">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1969" t="s">
         <v>1959</v>
@@ -29651,7 +29663,7 @@
         <v>1972</v>
       </c>
       <c r="B1973">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1973" t="s">
         <v>1963</v>
@@ -29662,7 +29674,7 @@
         <v>1973</v>
       </c>
       <c r="B1974">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1974" t="s">
         <v>1964</v>
@@ -29673,7 +29685,7 @@
         <v>1974</v>
       </c>
       <c r="B1975">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1975" t="s">
         <v>1965</v>
@@ -29684,7 +29696,7 @@
         <v>1975</v>
       </c>
       <c r="B1976">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1976" t="s">
         <v>1966</v>
@@ -29695,7 +29707,7 @@
         <v>1976</v>
       </c>
       <c r="B1977">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1977" t="s">
         <v>1967</v>
@@ -29706,7 +29718,7 @@
         <v>1977</v>
       </c>
       <c r="B1978">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C1978" t="s">
         <v>1968</v>
@@ -29761,7 +29773,7 @@
         <v>1982</v>
       </c>
       <c r="B1983">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1983" t="s">
         <v>1973</v>
@@ -29772,7 +29784,7 @@
         <v>1983</v>
       </c>
       <c r="B1984">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1984" t="s">
         <v>1974</v>
@@ -29783,7 +29795,7 @@
         <v>1984</v>
       </c>
       <c r="B1985">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1985" t="s">
         <v>1975</v>
@@ -29794,7 +29806,7 @@
         <v>1985</v>
       </c>
       <c r="B1986">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1986" t="s">
         <v>1976</v>
@@ -29805,7 +29817,7 @@
         <v>1986</v>
       </c>
       <c r="B1987">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1987" t="s">
         <v>1977</v>
@@ -29816,7 +29828,7 @@
         <v>1987</v>
       </c>
       <c r="B1988">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1988" t="s">
         <v>1978</v>
@@ -29827,7 +29839,7 @@
         <v>1988</v>
       </c>
       <c r="B1989">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C1989" t="s">
         <v>1979</v>
@@ -29882,7 +29894,7 @@
         <v>1993</v>
       </c>
       <c r="B1994">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C1994" t="s">
         <v>1984</v>
@@ -29893,7 +29905,7 @@
         <v>1994</v>
       </c>
       <c r="B1995">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C1995" t="s">
         <v>1985</v>
@@ -29904,7 +29916,7 @@
         <v>1995</v>
       </c>
       <c r="B1996">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C1996" t="s">
         <v>1986</v>
@@ -30025,7 +30037,7 @@
         <v>2006</v>
       </c>
       <c r="B2007">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2007" t="s">
         <v>1997</v>
@@ -30036,7 +30048,7 @@
         <v>2007</v>
       </c>
       <c r="B2008">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2008" t="s">
         <v>1998</v>
@@ -30069,7 +30081,7 @@
         <v>2010</v>
       </c>
       <c r="B2011">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C2011" t="s">
         <v>2001</v>
@@ -30157,7 +30169,7 @@
         <v>2018</v>
       </c>
       <c r="B2019">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2019" t="s">
         <v>2009</v>
@@ -30168,7 +30180,7 @@
         <v>2019</v>
       </c>
       <c r="B2020">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2020" t="s">
         <v>2010</v>
@@ -30179,7 +30191,7 @@
         <v>2020</v>
       </c>
       <c r="B2021">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2021" t="s">
         <v>2011</v>
@@ -30190,7 +30202,7 @@
         <v>2021</v>
       </c>
       <c r="B2022">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2022" t="s">
         <v>2012</v>
@@ -30245,7 +30257,7 @@
         <v>2026</v>
       </c>
       <c r="B2027">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C2027" t="s">
         <v>2017</v>
@@ -30267,7 +30279,7 @@
         <v>2028</v>
       </c>
       <c r="B2029">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2029" t="s">
         <v>2019</v>
@@ -30278,7 +30290,7 @@
         <v>2029</v>
       </c>
       <c r="B2030">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2030" t="s">
         <v>2020</v>
@@ -30300,7 +30312,7 @@
         <v>2031</v>
       </c>
       <c r="B2032">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2032" t="s">
         <v>2022</v>
@@ -30311,7 +30323,7 @@
         <v>2032</v>
       </c>
       <c r="B2033">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2033" t="s">
         <v>2023</v>
@@ -30322,7 +30334,7 @@
         <v>2033</v>
       </c>
       <c r="B2034">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2034" t="s">
         <v>2024</v>
@@ -30333,7 +30345,7 @@
         <v>2034</v>
       </c>
       <c r="B2035">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2035" t="s">
         <v>2025</v>
@@ -30344,7 +30356,7 @@
         <v>2035</v>
       </c>
       <c r="B2036">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2036" t="s">
         <v>2026</v>
@@ -30377,7 +30389,7 @@
         <v>2038</v>
       </c>
       <c r="B2039">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2039" t="s">
         <v>2029</v>
@@ -30399,7 +30411,7 @@
         <v>2040</v>
       </c>
       <c r="B2041">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2041" t="s">
         <v>2031</v>
@@ -30410,7 +30422,7 @@
         <v>2041</v>
       </c>
       <c r="B2042">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2042" t="s">
         <v>2032</v>
@@ -30542,7 +30554,7 @@
         <v>2053</v>
       </c>
       <c r="B2054">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2054" t="s">
         <v>2044</v>
@@ -30553,7 +30565,7 @@
         <v>2054</v>
       </c>
       <c r="B2055">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C2055" t="s">
         <v>2045</v>
@@ -30564,7 +30576,7 @@
         <v>2055</v>
       </c>
       <c r="B2056">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C2056" t="s">
         <v>2046</v>
@@ -30575,7 +30587,7 @@
         <v>2056</v>
       </c>
       <c r="B2057">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2057" t="s">
         <v>2047</v>
@@ -30597,7 +30609,7 @@
         <v>2058</v>
       </c>
       <c r="B2059">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C2059" t="s">
         <v>2049</v>
@@ -30608,7 +30620,7 @@
         <v>2059</v>
       </c>
       <c r="B2060">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C2060" t="s">
         <v>2050</v>
@@ -30652,7 +30664,7 @@
         <v>2063</v>
       </c>
       <c r="B2064">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2064" t="s">
         <v>2054</v>
@@ -30696,7 +30708,7 @@
         <v>2067</v>
       </c>
       <c r="B2068">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C2068" t="s">
         <v>2058</v>
@@ -30718,7 +30730,7 @@
         <v>2069</v>
       </c>
       <c r="B2070">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C2070" t="s">
         <v>2060</v>
@@ -30729,7 +30741,7 @@
         <v>2070</v>
       </c>
       <c r="B2071">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C2071" t="s">
         <v>2061</v>
@@ -30740,7 +30752,7 @@
         <v>2071</v>
       </c>
       <c r="B2072">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C2072" t="s">
         <v>2062</v>
@@ -30751,7 +30763,7 @@
         <v>2072</v>
       </c>
       <c r="B2073">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2073" t="s">
         <v>2063</v>
@@ -30784,7 +30796,7 @@
         <v>2075</v>
       </c>
       <c r="B2076">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2076" t="s">
         <v>2066</v>
@@ -30795,7 +30807,7 @@
         <v>2076</v>
       </c>
       <c r="B2077">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2077" t="s">
         <v>2067</v>
@@ -30806,7 +30818,7 @@
         <v>2077</v>
       </c>
       <c r="B2078">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2078" t="s">
         <v>2068</v>
@@ -30817,7 +30829,7 @@
         <v>2078</v>
       </c>
       <c r="B2079">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2079" t="s">
         <v>2069</v>
@@ -30828,7 +30840,7 @@
         <v>2079</v>
       </c>
       <c r="B2080">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2080" t="s">
         <v>2070</v>
@@ -30839,7 +30851,7 @@
         <v>2080</v>
       </c>
       <c r="B2081">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C2081" t="s">
         <v>2071</v>
@@ -30872,7 +30884,7 @@
         <v>2083</v>
       </c>
       <c r="B2084">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2084" t="s">
         <v>2074</v>
@@ -30883,7 +30895,7 @@
         <v>2084</v>
       </c>
       <c r="B2085">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2085" t="s">
         <v>2075</v>
@@ -30916,7 +30928,7 @@
         <v>2087</v>
       </c>
       <c r="B2088">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C2088" t="s">
         <v>2078</v>
@@ -31004,7 +31016,7 @@
         <v>2095</v>
       </c>
       <c r="B2096">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2096" t="s">
         <v>2086</v>
@@ -31070,7 +31082,7 @@
         <v>2101</v>
       </c>
       <c r="B2102">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2102" t="s">
         <v>2092</v>
@@ -31081,7 +31093,7 @@
         <v>2102</v>
       </c>
       <c r="B2103">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2103" t="s">
         <v>2093</v>
@@ -31092,7 +31104,7 @@
         <v>2103</v>
       </c>
       <c r="B2104">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2104" t="s">
         <v>2094</v>
@@ -31103,7 +31115,7 @@
         <v>2104</v>
       </c>
       <c r="B2105">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2105" t="s">
         <v>2095</v>
@@ -31158,7 +31170,7 @@
         <v>2109</v>
       </c>
       <c r="B2110">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2110" t="s">
         <v>2100</v>
@@ -31169,7 +31181,7 @@
         <v>2110</v>
       </c>
       <c r="B2111">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2111" t="s">
         <v>2101</v>
@@ -31202,7 +31214,7 @@
         <v>2113</v>
       </c>
       <c r="B2114">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C2114" t="s">
         <v>2104</v>
@@ -31246,7 +31258,7 @@
         <v>2117</v>
       </c>
       <c r="B2118">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2118" t="s">
         <v>2108</v>
@@ -31290,7 +31302,7 @@
         <v>2121</v>
       </c>
       <c r="B2122">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C2122" t="s">
         <v>2112</v>
@@ -31323,7 +31335,7 @@
         <v>2124</v>
       </c>
       <c r="B2125">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2125" t="s">
         <v>2115</v>
@@ -31334,7 +31346,7 @@
         <v>2125</v>
       </c>
       <c r="B2126">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C2126" t="s">
         <v>2116</v>
@@ -31345,7 +31357,7 @@
         <v>2126</v>
       </c>
       <c r="B2127">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2127" t="s">
         <v>2117</v>
@@ -31356,7 +31368,7 @@
         <v>2127</v>
       </c>
       <c r="B2128">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2128" t="s">
         <v>2118</v>
@@ -31367,7 +31379,7 @@
         <v>2128</v>
       </c>
       <c r="B2129">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C2129" t="s">
         <v>2119</v>
@@ -31389,7 +31401,7 @@
         <v>2130</v>
       </c>
       <c r="B2131">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C2131" t="s">
         <v>2121</v>
@@ -31444,7 +31456,7 @@
         <v>2135</v>
       </c>
       <c r="B2136">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2136" t="s">
         <v>2126</v>
@@ -31455,7 +31467,7 @@
         <v>2136</v>
       </c>
       <c r="B2137">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2137" t="s">
         <v>2127</v>
@@ -31466,7 +31478,7 @@
         <v>2137</v>
       </c>
       <c r="B2138">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2138" t="s">
         <v>2128</v>
@@ -31499,7 +31511,7 @@
         <v>2140</v>
       </c>
       <c r="B2141">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2141" t="s">
         <v>2131</v>
@@ -31510,7 +31522,7 @@
         <v>2141</v>
       </c>
       <c r="B2142">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2142" t="s">
         <v>2132</v>
@@ -31543,7 +31555,7 @@
         <v>2144</v>
       </c>
       <c r="B2145">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C2145" t="s">
         <v>2135</v>
@@ -31587,7 +31599,7 @@
         <v>2148</v>
       </c>
       <c r="B2149">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C2149" t="s">
         <v>2139</v>
@@ -31620,7 +31632,7 @@
         <v>2151</v>
       </c>
       <c r="B2152">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C2152" t="s">
         <v>2142</v>
@@ -31642,7 +31654,7 @@
         <v>2153</v>
       </c>
       <c r="B2154">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2154" t="s">
         <v>2144</v>
@@ -31653,7 +31665,7 @@
         <v>2154</v>
       </c>
       <c r="B2155">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2155" t="s">
         <v>2145</v>
@@ -31675,7 +31687,7 @@
         <v>2156</v>
       </c>
       <c r="B2157">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2157" t="s">
         <v>2147</v>
@@ -31807,7 +31819,7 @@
         <v>2168</v>
       </c>
       <c r="B2169">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C2169" t="s">
         <v>2159</v>
@@ -31829,7 +31841,7 @@
         <v>2170</v>
       </c>
       <c r="B2171">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2171" t="s">
         <v>2161</v>
@@ -31840,7 +31852,7 @@
         <v>2171</v>
       </c>
       <c r="B2172">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2172" t="s">
         <v>2162</v>
@@ -31851,7 +31863,7 @@
         <v>2172</v>
       </c>
       <c r="B2173">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2173" t="s">
         <v>2163</v>
@@ -31950,7 +31962,7 @@
         <v>2181</v>
       </c>
       <c r="B2182">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2182" t="s">
         <v>2172</v>
@@ -31994,7 +32006,7 @@
         <v>2185</v>
       </c>
       <c r="B2186">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C2186" t="s">
         <v>2176</v>
@@ -32005,7 +32017,7 @@
         <v>2186</v>
       </c>
       <c r="B2187">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C2187" t="s">
         <v>2177</v>
@@ -32027,7 +32039,7 @@
         <v>2188</v>
       </c>
       <c r="B2189">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2189" t="s">
         <v>2179</v>
@@ -32038,7 +32050,7 @@
         <v>2189</v>
       </c>
       <c r="B2190">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2190" t="s">
         <v>2180</v>
@@ -32049,7 +32061,7 @@
         <v>2190</v>
       </c>
       <c r="B2191">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C2191" t="s">
         <v>2181</v>
@@ -32060,7 +32072,7 @@
         <v>2191</v>
       </c>
       <c r="B2192">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2192" t="s">
         <v>2182</v>
@@ -32082,7 +32094,7 @@
         <v>2193</v>
       </c>
       <c r="B2194">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2194" t="s">
         <v>2184</v>
@@ -32104,7 +32116,7 @@
         <v>2195</v>
       </c>
       <c r="B2196">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2196" t="s">
         <v>2186</v>
@@ -32115,7 +32127,7 @@
         <v>2196</v>
       </c>
       <c r="B2197">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2197" t="s">
         <v>2187</v>
@@ -32192,7 +32204,7 @@
         <v>2203</v>
       </c>
       <c r="B2204">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C2204" t="s">
         <v>2194</v>
@@ -32269,7 +32281,7 @@
         <v>2210</v>
       </c>
       <c r="B2211">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2211" t="s">
         <v>2201</v>
@@ -32280,7 +32292,7 @@
         <v>2211</v>
       </c>
       <c r="B2212">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2212" t="s">
         <v>2202</v>
@@ -32302,7 +32314,7 @@
         <v>2213</v>
       </c>
       <c r="B2214">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2214" t="s">
         <v>2204</v>
@@ -32313,7 +32325,7 @@
         <v>2214</v>
       </c>
       <c r="B2215">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2215" t="s">
         <v>2205</v>
@@ -32324,7 +32336,7 @@
         <v>2215</v>
       </c>
       <c r="B2216">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2216" t="s">
         <v>2206</v>
@@ -32335,7 +32347,7 @@
         <v>2216</v>
       </c>
       <c r="B2217">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2217" t="s">
         <v>2207</v>
@@ -32357,7 +32369,7 @@
         <v>2218</v>
       </c>
       <c r="B2219">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C2219" t="s">
         <v>2209</v>
@@ -32368,7 +32380,7 @@
         <v>2219</v>
       </c>
       <c r="B2220">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C2220" t="s">
         <v>2210</v>
@@ -32390,7 +32402,7 @@
         <v>2221</v>
       </c>
       <c r="B2222">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2222" t="s">
         <v>2212</v>
@@ -32401,7 +32413,7 @@
         <v>2222</v>
       </c>
       <c r="B2223">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2223" t="s">
         <v>2213</v>
@@ -32412,7 +32424,7 @@
         <v>2223</v>
       </c>
       <c r="B2224">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2224" t="s">
         <v>2214</v>
@@ -32434,7 +32446,7 @@
         <v>2225</v>
       </c>
       <c r="B2226">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C2226" t="s">
         <v>2216</v>
@@ -32489,7 +32501,7 @@
         <v>2230</v>
       </c>
       <c r="B2231">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C2231" t="s">
         <v>2221</v>
@@ -32500,7 +32512,7 @@
         <v>2231</v>
       </c>
       <c r="B2232">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C2232" t="s">
         <v>2222</v>
@@ -32621,7 +32633,7 @@
         <v>2242</v>
       </c>
       <c r="B2243">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2243" t="s">
         <v>2233</v>
@@ -32632,7 +32644,7 @@
         <v>2243</v>
       </c>
       <c r="B2244">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2244" t="s">
         <v>2234</v>
@@ -32687,7 +32699,7 @@
         <v>2248</v>
       </c>
       <c r="B2249">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2249" t="s">
         <v>2239</v>
@@ -32698,7 +32710,7 @@
         <v>2249</v>
       </c>
       <c r="B2250">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2250" t="s">
         <v>2240</v>
@@ -32731,7 +32743,7 @@
         <v>2252</v>
       </c>
       <c r="B2253">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C2253" t="s">
         <v>2243</v>
@@ -32764,7 +32776,7 @@
         <v>2255</v>
       </c>
       <c r="B2256">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2256" t="s">
         <v>2246</v>
@@ -32775,7 +32787,7 @@
         <v>2256</v>
       </c>
       <c r="B2257">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C2257" t="s">
         <v>2247</v>
@@ -32786,7 +32798,7 @@
         <v>2257</v>
       </c>
       <c r="B2258">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2258" t="s">
         <v>2248</v>
@@ -32797,7 +32809,7 @@
         <v>2258</v>
       </c>
       <c r="B2259">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2259" t="s">
         <v>2249</v>
@@ -32808,7 +32820,7 @@
         <v>2259</v>
       </c>
       <c r="B2260">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C2260" t="s">
         <v>2250</v>
@@ -32819,7 +32831,7 @@
         <v>2260</v>
       </c>
       <c r="B2261">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2261" t="s">
         <v>2251</v>
@@ -32830,7 +32842,7 @@
         <v>2261</v>
       </c>
       <c r="B2262">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2262" t="s">
         <v>2252</v>
@@ -32852,7 +32864,7 @@
         <v>2263</v>
       </c>
       <c r="B2264">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2264" t="s">
         <v>2254</v>
@@ -32929,7 +32941,7 @@
         <v>2270</v>
       </c>
       <c r="B2271">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2271" t="s">
         <v>2261</v>
@@ -32962,7 +32974,7 @@
         <v>2273</v>
       </c>
       <c r="B2274">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2274" t="s">
         <v>2264</v>
@@ -33094,7 +33106,7 @@
         <v>2285</v>
       </c>
       <c r="B2286">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2286" t="s">
         <v>2276</v>
@@ -33105,7 +33117,7 @@
         <v>2286</v>
       </c>
       <c r="B2287">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2287" t="s">
         <v>2277</v>
@@ -33116,7 +33128,7 @@
         <v>2287</v>
       </c>
       <c r="B2288">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2288" t="s">
         <v>2278</v>
@@ -33138,7 +33150,7 @@
         <v>2289</v>
       </c>
       <c r="B2290">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2290" t="s">
         <v>2280</v>
@@ -33149,7 +33161,7 @@
         <v>2290</v>
       </c>
       <c r="B2291">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2291" t="s">
         <v>2281</v>
@@ -33160,7 +33172,7 @@
         <v>2291</v>
       </c>
       <c r="B2292">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2292" t="s">
         <v>2282</v>
@@ -33248,7 +33260,7 @@
         <v>2299</v>
       </c>
       <c r="B2300">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2300" t="s">
         <v>2290</v>
@@ -33259,7 +33271,7 @@
         <v>2300</v>
       </c>
       <c r="B2301">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2301" t="s">
         <v>2291</v>
@@ -33270,7 +33282,7 @@
         <v>2301</v>
       </c>
       <c r="B2302">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2302" t="s">
         <v>2292</v>
@@ -33281,7 +33293,7 @@
         <v>2302</v>
       </c>
       <c r="B2303">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2303" t="s">
         <v>2293</v>
@@ -33424,7 +33436,7 @@
         <v>2315</v>
       </c>
       <c r="B2316">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2316" t="s">
         <v>2306</v>
@@ -33435,7 +33447,7 @@
         <v>2316</v>
       </c>
       <c r="B2317">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C2317" t="s">
         <v>2307</v>
@@ -33446,7 +33458,7 @@
         <v>2317</v>
       </c>
       <c r="B2318">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2318" t="s">
         <v>2308</v>
@@ -33457,7 +33469,7 @@
         <v>2318</v>
       </c>
       <c r="B2319">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C2319" t="s">
         <v>2309</v>
@@ -33468,7 +33480,7 @@
         <v>2319</v>
       </c>
       <c r="B2320">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C2320" t="s">
         <v>2310</v>
@@ -33512,7 +33524,7 @@
         <v>2323</v>
       </c>
       <c r="B2324">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2324" t="s">
         <v>2314</v>
@@ -33523,7 +33535,7 @@
         <v>2324</v>
       </c>
       <c r="B2325">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2325" t="s">
         <v>2315</v>
@@ -33534,7 +33546,7 @@
         <v>2325</v>
       </c>
       <c r="B2326">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2326" t="s">
         <v>2316</v>
@@ -33545,7 +33557,7 @@
         <v>2326</v>
       </c>
       <c r="B2327">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2327" t="s">
         <v>2317</v>
@@ -33556,7 +33568,7 @@
         <v>2327</v>
       </c>
       <c r="B2328">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2328" t="s">
         <v>2318</v>
@@ -33567,7 +33579,7 @@
         <v>2328</v>
       </c>
       <c r="B2329">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2329" t="s">
         <v>2319</v>
@@ -33578,7 +33590,7 @@
         <v>2329</v>
       </c>
       <c r="B2330">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C2330" t="s">
         <v>2320</v>
@@ -33589,7 +33601,7 @@
         <v>2330</v>
       </c>
       <c r="B2331">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2331" t="s">
         <v>2321</v>
@@ -33600,7 +33612,7 @@
         <v>2331</v>
       </c>
       <c r="B2332">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2332" t="s">
         <v>2322</v>
@@ -33611,7 +33623,7 @@
         <v>2332</v>
       </c>
       <c r="B2333">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2333" t="s">
         <v>2323</v>
@@ -33666,7 +33678,7 @@
         <v>2337</v>
       </c>
       <c r="B2338">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2338" t="s">
         <v>2328</v>
@@ -33677,7 +33689,7 @@
         <v>2338</v>
       </c>
       <c r="B2339">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2339" t="s">
         <v>2329</v>
@@ -33688,7 +33700,7 @@
         <v>2339</v>
       </c>
       <c r="B2340">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2340" t="s">
         <v>2330</v>
@@ -33699,7 +33711,7 @@
         <v>2340</v>
       </c>
       <c r="B2341">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2341" t="s">
         <v>2331</v>
@@ -33721,7 +33733,7 @@
         <v>2342</v>
       </c>
       <c r="B2343">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C2343" t="s">
         <v>2333</v>
@@ -33743,7 +33755,7 @@
         <v>2344</v>
       </c>
       <c r="B2345">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2345" t="s">
         <v>2335</v>
@@ -33754,7 +33766,7 @@
         <v>2345</v>
       </c>
       <c r="B2346">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2346" t="s">
         <v>2336</v>
@@ -33765,7 +33777,7 @@
         <v>2346</v>
       </c>
       <c r="B2347">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C2347" t="s">
         <v>2337</v>
@@ -33776,7 +33788,7 @@
         <v>2347</v>
       </c>
       <c r="B2348">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C2348" t="s">
         <v>2338</v>
@@ -33787,7 +33799,7 @@
         <v>2348</v>
       </c>
       <c r="B2349">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2349" t="s">
         <v>2339</v>
@@ -33798,7 +33810,7 @@
         <v>2349</v>
       </c>
       <c r="B2350">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C2350" t="s">
         <v>2340</v>
@@ -33809,7 +33821,7 @@
         <v>2350</v>
       </c>
       <c r="B2351">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2351" t="s">
         <v>2341</v>
@@ -33875,7 +33887,7 @@
         <v>2356</v>
       </c>
       <c r="B2357">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2357" t="s">
         <v>2347</v>
@@ -33897,7 +33909,7 @@
         <v>2358</v>
       </c>
       <c r="B2359">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2359" t="s">
         <v>2349</v>
@@ -33908,7 +33920,7 @@
         <v>2359</v>
       </c>
       <c r="B2360">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2360" t="s">
         <v>2350</v>
@@ -33919,7 +33931,7 @@
         <v>2360</v>
       </c>
       <c r="B2361">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2361" t="s">
         <v>2351</v>
@@ -33930,7 +33942,7 @@
         <v>2361</v>
       </c>
       <c r="B2362">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C2362" t="s">
         <v>2352</v>
@@ -33941,7 +33953,7 @@
         <v>2362</v>
       </c>
       <c r="B2363">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C2363" t="s">
         <v>2353</v>
@@ -33952,7 +33964,7 @@
         <v>2363</v>
       </c>
       <c r="B2364">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C2364" t="s">
         <v>2354</v>
@@ -33963,7 +33975,7 @@
         <v>2364</v>
       </c>
       <c r="B2365">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2365" t="s">
         <v>2355</v>
@@ -33985,7 +33997,7 @@
         <v>2366</v>
       </c>
       <c r="B2367">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2367" t="s">
         <v>2357</v>
@@ -34007,7 +34019,7 @@
         <v>2368</v>
       </c>
       <c r="B2369">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2369" t="s">
         <v>2359</v>
@@ -34018,7 +34030,7 @@
         <v>2369</v>
       </c>
       <c r="B2370">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2370" t="s">
         <v>2360</v>
@@ -34029,7 +34041,7 @@
         <v>2370</v>
       </c>
       <c r="B2371">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2371" t="s">
         <v>2361</v>
@@ -34040,7 +34052,7 @@
         <v>2371</v>
       </c>
       <c r="B2372">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2372" t="s">
         <v>2362</v>
@@ -34106,7 +34118,7 @@
         <v>2377</v>
       </c>
       <c r="B2378">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2378" t="s">
         <v>2368</v>
@@ -34150,7 +34162,7 @@
         <v>2381</v>
       </c>
       <c r="B2382">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C2382" t="s">
         <v>2372</v>
@@ -34172,7 +34184,7 @@
         <v>2383</v>
       </c>
       <c r="B2384">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2384" t="s">
         <v>2374</v>
@@ -34183,7 +34195,7 @@
         <v>2384</v>
       </c>
       <c r="B2385">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C2385" t="s">
         <v>2375</v>
@@ -34194,7 +34206,7 @@
         <v>2385</v>
       </c>
       <c r="B2386">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C2386" t="s">
         <v>2376</v>
@@ -34205,7 +34217,7 @@
         <v>2386</v>
       </c>
       <c r="B2387">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C2387" t="s">
         <v>2377</v>
@@ -34216,7 +34228,7 @@
         <v>2387</v>
       </c>
       <c r="B2388">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C2388" t="s">
         <v>2378</v>
@@ -34227,7 +34239,7 @@
         <v>2388</v>
       </c>
       <c r="B2389">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C2389" t="s">
         <v>2379</v>
@@ -34238,7 +34250,7 @@
         <v>2389</v>
       </c>
       <c r="B2390">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C2390" t="s">
         <v>2380</v>
@@ -34249,7 +34261,7 @@
         <v>2390</v>
       </c>
       <c r="B2391">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C2391" t="s">
         <v>2381</v>
@@ -34260,7 +34272,7 @@
         <v>2391</v>
       </c>
       <c r="B2392">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C2392" t="s">
         <v>2382</v>
@@ -34271,7 +34283,7 @@
         <v>2392</v>
       </c>
       <c r="B2393">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2393" t="s">
         <v>2383</v>
@@ -34282,7 +34294,7 @@
         <v>2393</v>
       </c>
       <c r="B2394">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2394" t="s">
         <v>2384</v>
@@ -34293,7 +34305,7 @@
         <v>2394</v>
       </c>
       <c r="B2395">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C2395" t="s">
         <v>2385</v>
@@ -34304,7 +34316,7 @@
         <v>2395</v>
       </c>
       <c r="B2396">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C2396" t="s">
         <v>2386</v>
@@ -34315,7 +34327,7 @@
         <v>2396</v>
       </c>
       <c r="B2397">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C2397" t="s">
         <v>2387</v>
@@ -34326,7 +34338,7 @@
         <v>2397</v>
       </c>
       <c r="B2398">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2398" t="s">
         <v>2388</v>
@@ -34337,7 +34349,7 @@
         <v>2398</v>
       </c>
       <c r="B2399">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C2399" t="s">
         <v>2389</v>
@@ -34348,7 +34360,7 @@
         <v>2399</v>
       </c>
       <c r="B2400">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2400" t="s">
         <v>2390</v>
@@ -34359,7 +34371,7 @@
         <v>2400</v>
       </c>
       <c r="B2401">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2401" t="s">
         <v>2391</v>
@@ -34381,7 +34393,7 @@
         <v>2402</v>
       </c>
       <c r="B2403">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C2403" t="s">
         <v>2393</v>
@@ -34392,7 +34404,7 @@
         <v>2403</v>
       </c>
       <c r="B2404">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C2404" t="s">
         <v>2394</v>
@@ -34425,7 +34437,7 @@
         <v>2406</v>
       </c>
       <c r="B2407">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2407" t="s">
         <v>2397</v>
@@ -34436,7 +34448,7 @@
         <v>2407</v>
       </c>
       <c r="B2408">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2408" t="s">
         <v>2398</v>
@@ -34480,7 +34492,7 @@
         <v>2411</v>
       </c>
       <c r="B2412">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C2412" t="s">
         <v>2402</v>
@@ -34491,7 +34503,7 @@
         <v>2412</v>
       </c>
       <c r="B2413">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2413" t="s">
         <v>2403</v>
@@ -34502,7 +34514,7 @@
         <v>2413</v>
       </c>
       <c r="B2414">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C2414" t="s">
         <v>2404</v>
@@ -34513,7 +34525,7 @@
         <v>2414</v>
       </c>
       <c r="B2415">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C2415" t="s">
         <v>2405</v>
@@ -34524,7 +34536,7 @@
         <v>2415</v>
       </c>
       <c r="B2416">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C2416" t="s">
         <v>2406</v>
@@ -34535,7 +34547,7 @@
         <v>2416</v>
       </c>
       <c r="B2417">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C2417" t="s">
         <v>2407</v>
@@ -34546,7 +34558,7 @@
         <v>2417</v>
       </c>
       <c r="B2418">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2418" t="s">
         <v>2408</v>
@@ -34557,7 +34569,7 @@
         <v>2418</v>
       </c>
       <c r="B2419">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2419" t="s">
         <v>2409</v>
@@ -34579,7 +34591,7 @@
         <v>2420</v>
       </c>
       <c r="B2421">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2421" t="s">
         <v>2411</v>
@@ -34590,7 +34602,7 @@
         <v>2421</v>
       </c>
       <c r="B2422">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C2422" t="s">
         <v>2412</v>
@@ -34601,7 +34613,7 @@
         <v>2422</v>
       </c>
       <c r="B2423">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C2423" t="s">
         <v>2413</v>
@@ -34612,7 +34624,7 @@
         <v>2423</v>
       </c>
       <c r="B2424">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C2424" t="s">
         <v>2414</v>
@@ -34623,7 +34635,7 @@
         <v>2424</v>
       </c>
       <c r="B2425">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C2425" t="s">
         <v>2415</v>
@@ -34634,7 +34646,7 @@
         <v>2425</v>
       </c>
       <c r="B2426">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C2426" t="s">
         <v>2416</v>
@@ -34645,7 +34657,7 @@
         <v>2426</v>
       </c>
       <c r="B2427">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C2427" t="s">
         <v>2417</v>
@@ -34656,7 +34668,7 @@
         <v>2427</v>
       </c>
       <c r="B2428">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C2428" t="s">
         <v>2418</v>
@@ -34667,7 +34679,7 @@
         <v>2428</v>
       </c>
       <c r="B2429">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C2429" t="s">
         <v>2419</v>
@@ -34678,7 +34690,7 @@
         <v>2429</v>
       </c>
       <c r="B2430">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2430" t="s">
         <v>2420</v>
@@ -34722,7 +34734,7 @@
         <v>2433</v>
       </c>
       <c r="B2434">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C2434" t="s">
         <v>2424</v>
@@ -34733,7 +34745,7 @@
         <v>2434</v>
       </c>
       <c r="B2435">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2435" t="s">
         <v>2425</v>
@@ -34744,7 +34756,7 @@
         <v>2435</v>
       </c>
       <c r="B2436">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2436" t="s">
         <v>2426</v>
@@ -34755,7 +34767,7 @@
         <v>2436</v>
       </c>
       <c r="B2437">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C2437" t="s">
         <v>2427</v>
@@ -34766,7 +34778,7 @@
         <v>2437</v>
       </c>
       <c r="B2438">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2438" t="s">
         <v>2428</v>
@@ -34777,7 +34789,7 @@
         <v>2438</v>
       </c>
       <c r="B2439">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2439" t="s">
         <v>2429</v>
@@ -34788,7 +34800,7 @@
         <v>2439</v>
       </c>
       <c r="B2440">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2440" t="s">
         <v>2430</v>
@@ -34799,7 +34811,7 @@
         <v>2440</v>
       </c>
       <c r="B2441">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2441" t="s">
         <v>2431</v>
@@ -34810,7 +34822,7 @@
         <v>2441</v>
       </c>
       <c r="B2442">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2442" t="s">
         <v>2432</v>
@@ -34821,7 +34833,7 @@
         <v>2442</v>
       </c>
       <c r="B2443">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2443" t="s">
         <v>2433</v>
@@ -34832,7 +34844,7 @@
         <v>2443</v>
       </c>
       <c r="B2444">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2444" t="s">
         <v>2434</v>
@@ -34843,7 +34855,7 @@
         <v>2444</v>
       </c>
       <c r="B2445">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2445" t="s">
         <v>2435</v>
@@ -34854,7 +34866,7 @@
         <v>2445</v>
       </c>
       <c r="B2446">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2446" t="s">
         <v>2436</v>
@@ -34865,7 +34877,7 @@
         <v>2446</v>
       </c>
       <c r="B2447">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2447" t="s">
         <v>2437</v>
@@ -34876,7 +34888,7 @@
         <v>2447</v>
       </c>
       <c r="B2448">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C2448" t="s">
         <v>2438</v>
@@ -34887,7 +34899,7 @@
         <v>2448</v>
       </c>
       <c r="B2449">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2449" t="s">
         <v>2439</v>
@@ -34898,7 +34910,7 @@
         <v>2449</v>
       </c>
       <c r="B2450">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C2450" t="s">
         <v>2440</v>
@@ -34909,7 +34921,7 @@
         <v>2450</v>
       </c>
       <c r="B2451">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C2451" t="s">
         <v>2441</v>
@@ -34920,7 +34932,7 @@
         <v>2451</v>
       </c>
       <c r="B2452">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2452" t="s">
         <v>2442</v>
@@ -34931,7 +34943,7 @@
         <v>2452</v>
       </c>
       <c r="B2453">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2453" t="s">
         <v>2443</v>
@@ -35030,7 +35042,7 @@
         <v>2461</v>
       </c>
       <c r="B2462">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2462" t="s">
         <v>2452</v>
@@ -35041,7 +35053,7 @@
         <v>2462</v>
       </c>
       <c r="B2463">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C2463" t="s">
         <v>2453</v>
@@ -35052,7 +35064,7 @@
         <v>2463</v>
       </c>
       <c r="B2464">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C2464" t="s">
         <v>2454</v>
@@ -35063,7 +35075,7 @@
         <v>2464</v>
       </c>
       <c r="B2465">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C2465" t="s">
         <v>2455</v>
@@ -35074,7 +35086,7 @@
         <v>2465</v>
       </c>
       <c r="B2466">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C2466" t="s">
         <v>2456</v>
@@ -35085,7 +35097,7 @@
         <v>2466</v>
       </c>
       <c r="B2467">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C2467" t="s">
         <v>2457</v>
@@ -35096,7 +35108,7 @@
         <v>2467</v>
       </c>
       <c r="B2468">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C2468" t="s">
         <v>2458</v>
@@ -35107,7 +35119,7 @@
         <v>2468</v>
       </c>
       <c r="B2469">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2469" t="s">
         <v>2459</v>
@@ -35129,7 +35141,7 @@
         <v>2470</v>
       </c>
       <c r="B2471">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2471" t="s">
         <v>2461</v>
@@ -35140,7 +35152,7 @@
         <v>2471</v>
       </c>
       <c r="B2472">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2472" t="s">
         <v>2462</v>
@@ -35162,7 +35174,7 @@
         <v>2473</v>
       </c>
       <c r="B2474">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2474" t="s">
         <v>2464</v>
@@ -35184,7 +35196,7 @@
         <v>2475</v>
       </c>
       <c r="B2476">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2476" t="s">
         <v>2466</v>
@@ -35195,7 +35207,7 @@
         <v>2476</v>
       </c>
       <c r="B2477">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C2477" t="s">
         <v>2467</v>
@@ -35206,7 +35218,7 @@
         <v>2477</v>
       </c>
       <c r="B2478">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2478" t="s">
         <v>2468</v>
@@ -35217,7 +35229,7 @@
         <v>2478</v>
       </c>
       <c r="B2479">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2479" t="s">
         <v>2469</v>
@@ -35228,7 +35240,7 @@
         <v>2479</v>
       </c>
       <c r="B2480">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2480" t="s">
         <v>2470</v>
@@ -35261,7 +35273,7 @@
         <v>2482</v>
       </c>
       <c r="B2483">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C2483" t="s">
         <v>2473</v>
@@ -35272,7 +35284,7 @@
         <v>2483</v>
       </c>
       <c r="B2484">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C2484" t="s">
         <v>2474</v>
@@ -35283,7 +35295,7 @@
         <v>2484</v>
       </c>
       <c r="B2485">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C2485" t="s">
         <v>2475</v>
@@ -35294,7 +35306,7 @@
         <v>2485</v>
       </c>
       <c r="B2486">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C2486" t="s">
         <v>2476</v>
@@ -35349,7 +35361,7 @@
         <v>2490</v>
       </c>
       <c r="B2491">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2491" t="s">
         <v>2481</v>
@@ -35360,7 +35372,7 @@
         <v>2491</v>
       </c>
       <c r="B2492">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2492" t="s">
         <v>2482</v>
@@ -35371,7 +35383,7 @@
         <v>2492</v>
       </c>
       <c r="B2493">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2493" t="s">
         <v>2483</v>
@@ -35382,7 +35394,7 @@
         <v>2493</v>
       </c>
       <c r="B2494">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2494" t="s">
         <v>2484</v>
@@ -35404,7 +35416,7 @@
         <v>2495</v>
       </c>
       <c r="B2496">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C2496" t="s">
         <v>2486</v>
@@ -35415,7 +35427,7 @@
         <v>2496</v>
       </c>
       <c r="B2497">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C2497" t="s">
         <v>2487</v>
@@ -35426,7 +35438,7 @@
         <v>2497</v>
       </c>
       <c r="B2498">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C2498" t="s">
         <v>2488</v>
@@ -35437,7 +35449,7 @@
         <v>2498</v>
       </c>
       <c r="B2499">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C2499" t="s">
         <v>2489</v>
@@ -35448,7 +35460,7 @@
         <v>2499</v>
       </c>
       <c r="B2500">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C2500" t="s">
         <v>2490</v>
@@ -35470,7 +35482,7 @@
         <v>2501</v>
       </c>
       <c r="B2502">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2502" t="s">
         <v>2492</v>
@@ -35481,7 +35493,7 @@
         <v>2502</v>
       </c>
       <c r="B2503">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2503" t="s">
         <v>2493</v>
@@ -35492,7 +35504,7 @@
         <v>2503</v>
       </c>
       <c r="B2504">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C2504" t="s">
         <v>2494</v>
@@ -35503,7 +35515,7 @@
         <v>2504</v>
       </c>
       <c r="B2505">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2505" t="s">
         <v>2495</v>
@@ -35514,7 +35526,7 @@
         <v>2505</v>
       </c>
       <c r="B2506">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2506" t="s">
         <v>2496</v>
@@ -35525,7 +35537,7 @@
         <v>2506</v>
       </c>
       <c r="B2507">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C2507" t="s">
         <v>2497</v>
@@ -35536,7 +35548,7 @@
         <v>2507</v>
       </c>
       <c r="B2508">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C2508" t="s">
         <v>2498</v>
@@ -35547,7 +35559,7 @@
         <v>2508</v>
       </c>
       <c r="B2509">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C2509" t="s">
         <v>2499</v>
@@ -35558,7 +35570,7 @@
         <v>2509</v>
       </c>
       <c r="B2510">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2510" t="s">
         <v>2500</v>
@@ -35569,7 +35581,7 @@
         <v>2510</v>
       </c>
       <c r="B2511">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2511" t="s">
         <v>2501</v>
@@ -35580,7 +35592,7 @@
         <v>2511</v>
       </c>
       <c r="B2512">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2512" t="s">
         <v>2502</v>
@@ -35591,7 +35603,7 @@
         <v>2512</v>
       </c>
       <c r="B2513">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2513" t="s">
         <v>2503</v>
@@ -35602,7 +35614,7 @@
         <v>2513</v>
       </c>
       <c r="B2514">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2514" t="s">
         <v>2504</v>
@@ -35613,7 +35625,7 @@
         <v>2514</v>
       </c>
       <c r="B2515">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2515" t="s">
         <v>2505</v>
@@ -35624,7 +35636,7 @@
         <v>2515</v>
       </c>
       <c r="B2516">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2516" t="s">
         <v>2506</v>
@@ -35635,7 +35647,7 @@
         <v>2516</v>
       </c>
       <c r="B2517">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2517" t="s">
         <v>2507</v>
@@ -35646,7 +35658,7 @@
         <v>2517</v>
       </c>
       <c r="B2518">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C2518" t="s">
         <v>2508</v>
@@ -35657,7 +35669,7 @@
         <v>2518</v>
       </c>
       <c r="B2519">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2519" t="s">
         <v>2509</v>
@@ -35668,7 +35680,7 @@
         <v>2519</v>
       </c>
       <c r="B2520">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2520" t="s">
         <v>2510</v>
@@ -35679,7 +35691,7 @@
         <v>2520</v>
       </c>
       <c r="B2521">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2521" t="s">
         <v>2511</v>
@@ -35690,7 +35702,7 @@
         <v>2521</v>
       </c>
       <c r="B2522">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C2522" t="s">
         <v>2512</v>
@@ -35701,7 +35713,7 @@
         <v>2522</v>
       </c>
       <c r="B2523">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2523" t="s">
         <v>2513</v>
@@ -35712,7 +35724,7 @@
         <v>2523</v>
       </c>
       <c r="B2524">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2524" t="s">
         <v>2514</v>
@@ -35745,7 +35757,7 @@
         <v>2526</v>
       </c>
       <c r="B2527">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C2527" t="s">
         <v>2517</v>
@@ -35756,7 +35768,7 @@
         <v>2527</v>
       </c>
       <c r="B2528">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C2528" t="s">
         <v>2518</v>
@@ -35767,7 +35779,7 @@
         <v>2528</v>
       </c>
       <c r="B2529">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C2529" t="s">
         <v>2519</v>
@@ -35778,7 +35790,7 @@
         <v>2529</v>
       </c>
       <c r="B2530">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C2530" t="s">
         <v>2520</v>
@@ -35789,7 +35801,7 @@
         <v>2530</v>
       </c>
       <c r="B2531">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C2531" t="s">
         <v>2521</v>
@@ -35800,7 +35812,7 @@
         <v>2531</v>
       </c>
       <c r="B2532">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C2532" t="s">
         <v>2522</v>
@@ -35811,7 +35823,7 @@
         <v>2532</v>
       </c>
       <c r="B2533">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C2533" t="s">
         <v>2523</v>
@@ -35822,7 +35834,7 @@
         <v>2533</v>
       </c>
       <c r="B2534">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2534" t="s">
         <v>2524</v>
@@ -35855,7 +35867,7 @@
         <v>2536</v>
       </c>
       <c r="B2537">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2537" t="s">
         <v>2527</v>
@@ -35877,7 +35889,7 @@
         <v>2538</v>
       </c>
       <c r="B2539">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2539" t="s">
         <v>2529</v>
@@ -35888,10 +35900,54 @@
         <v>2539</v>
       </c>
       <c r="B2540">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C2540" t="s">
         <v>2530</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2541">
+        <v>2540</v>
+      </c>
+      <c r="B2541">
+        <v>782</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2542">
+        <v>2541</v>
+      </c>
+      <c r="B2542">
+        <v>782</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2543">
+        <v>2542</v>
+      </c>
+      <c r="B2543">
+        <v>783</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2544">
+        <v>2543</v>
+      </c>
+      <c r="B2544">
+        <v>784</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>2534</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2537">
   <si>
     <t>searching_keyword_sn</t>
   </si>
@@ -2568,6 +2568,12 @@
   </si>
   <si>
     <t>ELK Stack</t>
+  </si>
+  <si>
+    <t>ELK 스택</t>
+  </si>
+  <si>
+    <t>ELK 스텍</t>
   </si>
   <si>
     <t>esp32</t>
@@ -7958,10 +7964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2544"/>
+  <dimension ref="A1:C2546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2544"/>
+      <selection sqref="A1:C2546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17365,7 +17371,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C855" t="s">
         <v>848</v>
@@ -17376,7 +17382,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C856" t="s">
         <v>849</v>
@@ -17387,7 +17393,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C857" t="s">
         <v>850</v>
@@ -17453,7 +17459,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C863" t="s">
         <v>856</v>
@@ -17464,7 +17470,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C864" t="s">
         <v>857</v>
@@ -17486,7 +17492,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C866" t="s">
         <v>859</v>
@@ -17497,7 +17503,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C867" t="s">
         <v>860</v>
@@ -17519,7 +17525,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C869" t="s">
         <v>862</v>
@@ -17530,7 +17536,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C870" t="s">
         <v>863</v>
@@ -17552,7 +17558,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C872" t="s">
         <v>865</v>
@@ -17563,7 +17569,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C873" t="s">
         <v>866</v>
@@ -17651,7 +17657,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C881" t="s">
         <v>874</v>
@@ -17662,7 +17668,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C882" t="s">
         <v>875</v>
@@ -17717,7 +17723,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C887" t="s">
         <v>880</v>
@@ -17728,7 +17734,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C888" t="s">
         <v>881</v>
@@ -17783,7 +17789,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C893" t="s">
         <v>886</v>
@@ -17794,7 +17800,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C894" t="s">
         <v>887</v>
@@ -17805,7 +17811,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C895" t="s">
         <v>888</v>
@@ -17816,7 +17822,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C896" t="s">
         <v>889</v>
@@ -17871,7 +17877,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C901" t="s">
         <v>894</v>
@@ -17882,7 +17888,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C902" t="s">
         <v>895</v>
@@ -17915,7 +17921,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C905" t="s">
         <v>898</v>
@@ -17926,7 +17932,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C906" t="s">
         <v>899</v>
@@ -17959,7 +17965,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C909" t="s">
         <v>902</v>
@@ -17970,7 +17976,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C910" t="s">
         <v>903</v>
@@ -18025,7 +18031,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C915" t="s">
         <v>908</v>
@@ -18036,7 +18042,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C916" t="s">
         <v>909</v>
@@ -18069,7 +18075,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C919" t="s">
         <v>912</v>
@@ -18080,7 +18086,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C920" t="s">
         <v>913</v>
@@ -18091,7 +18097,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C921" t="s">
         <v>914</v>
@@ -18102,7 +18108,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C922" t="s">
         <v>915</v>
@@ -18124,7 +18130,7 @@
         <v>923</v>
       </c>
       <c r="B924">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C924" t="s">
         <v>917</v>
@@ -18135,7 +18141,7 @@
         <v>924</v>
       </c>
       <c r="B925">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C925" t="s">
         <v>918</v>
@@ -18157,7 +18163,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C927" t="s">
         <v>920</v>
@@ -18168,7 +18174,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C928" t="s">
         <v>921</v>
@@ -18223,7 +18229,7 @@
         <v>932</v>
       </c>
       <c r="B933">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C933" t="s">
         <v>926</v>
@@ -18234,7 +18240,7 @@
         <v>933</v>
       </c>
       <c r="B934">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C934" t="s">
         <v>927</v>
@@ -18256,7 +18262,7 @@
         <v>935</v>
       </c>
       <c r="B936">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C936" t="s">
         <v>929</v>
@@ -18267,7 +18273,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C937" t="s">
         <v>930</v>
@@ -18333,7 +18339,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C943" t="s">
         <v>936</v>
@@ -18344,7 +18350,7 @@
         <v>943</v>
       </c>
       <c r="B944">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C944" t="s">
         <v>937</v>
@@ -18388,7 +18394,7 @@
         <v>947</v>
       </c>
       <c r="B948">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C948" t="s">
         <v>941</v>
@@ -18399,7 +18405,7 @@
         <v>948</v>
       </c>
       <c r="B949">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C949" t="s">
         <v>942</v>
@@ -18432,7 +18438,7 @@
         <v>951</v>
       </c>
       <c r="B952">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C952" t="s">
         <v>945</v>
@@ -18443,7 +18449,7 @@
         <v>952</v>
       </c>
       <c r="B953">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C953" t="s">
         <v>946</v>
@@ -18454,7 +18460,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C954" t="s">
         <v>947</v>
@@ -18465,7 +18471,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C955" t="s">
         <v>948</v>
@@ -18520,7 +18526,7 @@
         <v>959</v>
       </c>
       <c r="B960">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C960" t="s">
         <v>953</v>
@@ -18531,7 +18537,7 @@
         <v>960</v>
       </c>
       <c r="B961">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C961" t="s">
         <v>954</v>
@@ -18564,7 +18570,7 @@
         <v>963</v>
       </c>
       <c r="B964">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C964" t="s">
         <v>957</v>
@@ -18575,7 +18581,7 @@
         <v>964</v>
       </c>
       <c r="B965">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C965" t="s">
         <v>958</v>
@@ -18597,7 +18603,7 @@
         <v>966</v>
       </c>
       <c r="B967">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C967" t="s">
         <v>960</v>
@@ -18608,7 +18614,7 @@
         <v>967</v>
       </c>
       <c r="B968">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C968" t="s">
         <v>961</v>
@@ -18641,7 +18647,7 @@
         <v>970</v>
       </c>
       <c r="B971">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C971" t="s">
         <v>964</v>
@@ -18652,7 +18658,7 @@
         <v>971</v>
       </c>
       <c r="B972">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C972" t="s">
         <v>965</v>
@@ -18685,7 +18691,7 @@
         <v>974</v>
       </c>
       <c r="B975">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C975" t="s">
         <v>968</v>
@@ -18696,7 +18702,7 @@
         <v>975</v>
       </c>
       <c r="B976">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C976" t="s">
         <v>969</v>
@@ -18718,7 +18724,7 @@
         <v>977</v>
       </c>
       <c r="B978">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C978" t="s">
         <v>971</v>
@@ -18729,7 +18735,7 @@
         <v>978</v>
       </c>
       <c r="B979">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C979" t="s">
         <v>972</v>
@@ -18740,7 +18746,7 @@
         <v>979</v>
       </c>
       <c r="B980">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C980" t="s">
         <v>973</v>
@@ -18751,7 +18757,7 @@
         <v>980</v>
       </c>
       <c r="B981">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C981" t="s">
         <v>974</v>
@@ -18784,7 +18790,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C984" t="s">
         <v>977</v>
@@ -18795,7 +18801,7 @@
         <v>984</v>
       </c>
       <c r="B985">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C985" t="s">
         <v>978</v>
@@ -18850,7 +18856,7 @@
         <v>989</v>
       </c>
       <c r="B990">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C990" t="s">
         <v>983</v>
@@ -18861,7 +18867,7 @@
         <v>990</v>
       </c>
       <c r="B991">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C991" t="s">
         <v>984</v>
@@ -18883,7 +18889,7 @@
         <v>992</v>
       </c>
       <c r="B993">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C993" t="s">
         <v>986</v>
@@ -18894,7 +18900,7 @@
         <v>993</v>
       </c>
       <c r="B994">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C994" t="s">
         <v>987</v>
@@ -18916,7 +18922,7 @@
         <v>995</v>
       </c>
       <c r="B996">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C996" t="s">
         <v>989</v>
@@ -18927,7 +18933,7 @@
         <v>996</v>
       </c>
       <c r="B997">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C997" t="s">
         <v>990</v>
@@ -18938,7 +18944,7 @@
         <v>997</v>
       </c>
       <c r="B998">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C998" t="s">
         <v>991</v>
@@ -18949,7 +18955,7 @@
         <v>998</v>
       </c>
       <c r="B999">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C999" t="s">
         <v>992</v>
@@ -18971,7 +18977,7 @@
         <v>1000</v>
       </c>
       <c r="B1001">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1001" t="s">
         <v>994</v>
@@ -18982,7 +18988,7 @@
         <v>1001</v>
       </c>
       <c r="B1002">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C1002" t="s">
         <v>995</v>
@@ -18993,7 +18999,7 @@
         <v>1002</v>
       </c>
       <c r="B1003">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1003" t="s">
         <v>996</v>
@@ -19059,7 +19065,7 @@
         <v>1008</v>
       </c>
       <c r="B1009">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1009" t="s">
         <v>1002</v>
@@ -19070,7 +19076,7 @@
         <v>1009</v>
       </c>
       <c r="B1010">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C1010" t="s">
         <v>1003</v>
@@ -19092,7 +19098,7 @@
         <v>1011</v>
       </c>
       <c r="B1012">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1012" t="s">
         <v>1005</v>
@@ -19103,7 +19109,7 @@
         <v>1012</v>
       </c>
       <c r="B1013">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1013" t="s">
         <v>1006</v>
@@ -19114,7 +19120,7 @@
         <v>1013</v>
       </c>
       <c r="B1014">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1014" t="s">
         <v>1007</v>
@@ -19125,7 +19131,7 @@
         <v>1014</v>
       </c>
       <c r="B1015">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1015" t="s">
         <v>1008</v>
@@ -19136,7 +19142,7 @@
         <v>1015</v>
       </c>
       <c r="B1016">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1016" t="s">
         <v>1009</v>
@@ -19147,7 +19153,7 @@
         <v>1016</v>
       </c>
       <c r="B1017">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1017" t="s">
         <v>1010</v>
@@ -19169,7 +19175,7 @@
         <v>1018</v>
       </c>
       <c r="B1019">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1019" t="s">
         <v>1012</v>
@@ -19180,7 +19186,7 @@
         <v>1019</v>
       </c>
       <c r="B1020">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1020" t="s">
         <v>1013</v>
@@ -19202,7 +19208,7 @@
         <v>1021</v>
       </c>
       <c r="B1022">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1022" t="s">
         <v>1015</v>
@@ -19213,7 +19219,7 @@
         <v>1022</v>
       </c>
       <c r="B1023">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1023" t="s">
         <v>1016</v>
@@ -19224,7 +19230,7 @@
         <v>1023</v>
       </c>
       <c r="B1024">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1024" t="s">
         <v>1017</v>
@@ -19235,7 +19241,7 @@
         <v>1024</v>
       </c>
       <c r="B1025">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1025" t="s">
         <v>1018</v>
@@ -19257,7 +19263,7 @@
         <v>1026</v>
       </c>
       <c r="B1027">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1027" t="s">
         <v>1020</v>
@@ -19268,7 +19274,7 @@
         <v>1027</v>
       </c>
       <c r="B1028">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1028" t="s">
         <v>1021</v>
@@ -19290,10 +19296,10 @@
         <v>1029</v>
       </c>
       <c r="B1030">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1030" t="s">
-        <v>31</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
@@ -19301,10 +19307,10 @@
         <v>1030</v>
       </c>
       <c r="B1031">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1031" t="s">
-        <v>30</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
@@ -19312,10 +19318,10 @@
         <v>1031</v>
       </c>
       <c r="B1032">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1032" t="s">
-        <v>1023</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
@@ -19323,10 +19329,10 @@
         <v>1032</v>
       </c>
       <c r="B1033">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1033" t="s">
-        <v>1024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
@@ -19345,7 +19351,7 @@
         <v>1034</v>
       </c>
       <c r="B1035">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1035" t="s">
         <v>1026</v>
@@ -19356,7 +19362,7 @@
         <v>1035</v>
       </c>
       <c r="B1036">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1036" t="s">
         <v>1027</v>
@@ -19400,7 +19406,7 @@
         <v>1039</v>
       </c>
       <c r="B1040">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1040" t="s">
         <v>1031</v>
@@ -19411,7 +19417,7 @@
         <v>1040</v>
       </c>
       <c r="B1041">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C1041" t="s">
         <v>1032</v>
@@ -19433,7 +19439,7 @@
         <v>1042</v>
       </c>
       <c r="B1043">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1043" t="s">
         <v>1034</v>
@@ -19444,7 +19450,7 @@
         <v>1043</v>
       </c>
       <c r="B1044">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1044" t="s">
         <v>1035</v>
@@ -19466,7 +19472,7 @@
         <v>1045</v>
       </c>
       <c r="B1046">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1046" t="s">
         <v>1037</v>
@@ -19477,7 +19483,7 @@
         <v>1046</v>
       </c>
       <c r="B1047">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1047" t="s">
         <v>1038</v>
@@ -19499,7 +19505,7 @@
         <v>1048</v>
       </c>
       <c r="B1049">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1049" t="s">
         <v>1040</v>
@@ -19510,7 +19516,7 @@
         <v>1049</v>
       </c>
       <c r="B1050">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1050" t="s">
         <v>1041</v>
@@ -19521,7 +19527,7 @@
         <v>1050</v>
       </c>
       <c r="B1051">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1051" t="s">
         <v>1042</v>
@@ -19532,7 +19538,7 @@
         <v>1051</v>
       </c>
       <c r="B1052">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1052" t="s">
         <v>1043</v>
@@ -19543,7 +19549,7 @@
         <v>1052</v>
       </c>
       <c r="B1053">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1053" t="s">
         <v>1044</v>
@@ -19554,7 +19560,7 @@
         <v>1053</v>
       </c>
       <c r="B1054">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1054" t="s">
         <v>1045</v>
@@ -19565,7 +19571,7 @@
         <v>1054</v>
       </c>
       <c r="B1055">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1055" t="s">
         <v>1046</v>
@@ -19576,7 +19582,7 @@
         <v>1055</v>
       </c>
       <c r="B1056">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1056" t="s">
         <v>1047</v>
@@ -19587,7 +19593,7 @@
         <v>1056</v>
       </c>
       <c r="B1057">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1057" t="s">
         <v>1048</v>
@@ -19598,7 +19604,7 @@
         <v>1057</v>
       </c>
       <c r="B1058">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1058" t="s">
         <v>1049</v>
@@ -19620,7 +19626,7 @@
         <v>1059</v>
       </c>
       <c r="B1060">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1060" t="s">
         <v>1051</v>
@@ -19631,7 +19637,7 @@
         <v>1060</v>
       </c>
       <c r="B1061">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C1061" t="s">
         <v>1052</v>
@@ -19642,7 +19648,7 @@
         <v>1061</v>
       </c>
       <c r="B1062">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1062" t="s">
         <v>1053</v>
@@ -19653,7 +19659,7 @@
         <v>1062</v>
       </c>
       <c r="B1063">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1063" t="s">
         <v>1054</v>
@@ -19675,7 +19681,7 @@
         <v>1064</v>
       </c>
       <c r="B1065">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1065" t="s">
         <v>1056</v>
@@ -19686,7 +19692,7 @@
         <v>1065</v>
       </c>
       <c r="B1066">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1066" t="s">
         <v>1057</v>
@@ -19708,7 +19714,7 @@
         <v>1067</v>
       </c>
       <c r="B1068">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1068" t="s">
         <v>1059</v>
@@ -19719,7 +19725,7 @@
         <v>1068</v>
       </c>
       <c r="B1069">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1069" t="s">
         <v>1060</v>
@@ -19730,7 +19736,7 @@
         <v>1069</v>
       </c>
       <c r="B1070">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1070" t="s">
         <v>1061</v>
@@ -19741,7 +19747,7 @@
         <v>1070</v>
       </c>
       <c r="B1071">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1071" t="s">
         <v>1062</v>
@@ -19763,7 +19769,7 @@
         <v>1072</v>
       </c>
       <c r="B1073">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1073" t="s">
         <v>1064</v>
@@ -19774,7 +19780,7 @@
         <v>1073</v>
       </c>
       <c r="B1074">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1074" t="s">
         <v>1065</v>
@@ -19818,7 +19824,7 @@
         <v>1077</v>
       </c>
       <c r="B1078">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1078" t="s">
         <v>1069</v>
@@ -19829,7 +19835,7 @@
         <v>1078</v>
       </c>
       <c r="B1079">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1079" t="s">
         <v>1070</v>
@@ -19840,7 +19846,7 @@
         <v>1079</v>
       </c>
       <c r="B1080">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1080" t="s">
         <v>1071</v>
@@ -19851,7 +19857,7 @@
         <v>1080</v>
       </c>
       <c r="B1081">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1081" t="s">
         <v>1072</v>
@@ -19873,7 +19879,7 @@
         <v>1082</v>
       </c>
       <c r="B1083">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1083" t="s">
         <v>1074</v>
@@ -19884,7 +19890,7 @@
         <v>1083</v>
       </c>
       <c r="B1084">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1084" t="s">
         <v>1075</v>
@@ -19928,7 +19934,7 @@
         <v>1087</v>
       </c>
       <c r="B1088">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1088" t="s">
         <v>1079</v>
@@ -19939,7 +19945,7 @@
         <v>1088</v>
       </c>
       <c r="B1089">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1089" t="s">
         <v>1080</v>
@@ -19972,7 +19978,7 @@
         <v>1091</v>
       </c>
       <c r="B1092">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1092" t="s">
         <v>1083</v>
@@ -19983,7 +19989,7 @@
         <v>1092</v>
       </c>
       <c r="B1093">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1093" t="s">
         <v>1084</v>
@@ -19994,7 +20000,7 @@
         <v>1093</v>
       </c>
       <c r="B1094">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1094" t="s">
         <v>1085</v>
@@ -20005,7 +20011,7 @@
         <v>1094</v>
       </c>
       <c r="B1095">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1095" t="s">
         <v>1086</v>
@@ -20038,7 +20044,7 @@
         <v>1097</v>
       </c>
       <c r="B1098">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1098" t="s">
         <v>1089</v>
@@ -20049,7 +20055,7 @@
         <v>1098</v>
       </c>
       <c r="B1099">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1099" t="s">
         <v>1090</v>
@@ -20071,7 +20077,7 @@
         <v>1100</v>
       </c>
       <c r="B1101">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1101" t="s">
         <v>1092</v>
@@ -20082,7 +20088,7 @@
         <v>1101</v>
       </c>
       <c r="B1102">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1102" t="s">
         <v>1093</v>
@@ -20093,7 +20099,7 @@
         <v>1102</v>
       </c>
       <c r="B1103">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1103" t="s">
         <v>1094</v>
@@ -20104,7 +20110,7 @@
         <v>1103</v>
       </c>
       <c r="B1104">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1104" t="s">
         <v>1095</v>
@@ -20126,7 +20132,7 @@
         <v>1105</v>
       </c>
       <c r="B1106">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1106" t="s">
         <v>1097</v>
@@ -20137,7 +20143,7 @@
         <v>1106</v>
       </c>
       <c r="B1107">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C1107" t="s">
         <v>1098</v>
@@ -20148,7 +20154,7 @@
         <v>1107</v>
       </c>
       <c r="B1108">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1108" t="s">
         <v>1099</v>
@@ -20159,7 +20165,7 @@
         <v>1108</v>
       </c>
       <c r="B1109">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1109" t="s">
         <v>1100</v>
@@ -20170,7 +20176,7 @@
         <v>1109</v>
       </c>
       <c r="B1110">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1110" t="s">
         <v>1101</v>
@@ -20181,7 +20187,7 @@
         <v>1110</v>
       </c>
       <c r="B1111">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C1111" t="s">
         <v>1102</v>
@@ -20203,7 +20209,7 @@
         <v>1112</v>
       </c>
       <c r="B1113">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1113" t="s">
         <v>1104</v>
@@ -20214,7 +20220,7 @@
         <v>1113</v>
       </c>
       <c r="B1114">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1114" t="s">
         <v>1105</v>
@@ -20236,7 +20242,7 @@
         <v>1115</v>
       </c>
       <c r="B1116">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1116" t="s">
         <v>1107</v>
@@ -20247,7 +20253,7 @@
         <v>1116</v>
       </c>
       <c r="B1117">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1117" t="s">
         <v>1108</v>
@@ -20258,7 +20264,7 @@
         <v>1117</v>
       </c>
       <c r="B1118">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1118" t="s">
         <v>1109</v>
@@ -20269,7 +20275,7 @@
         <v>1118</v>
       </c>
       <c r="B1119">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1119" t="s">
         <v>1110</v>
@@ -20324,7 +20330,7 @@
         <v>1123</v>
       </c>
       <c r="B1124">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1124" t="s">
         <v>1115</v>
@@ -20335,7 +20341,7 @@
         <v>1124</v>
       </c>
       <c r="B1125">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1125" t="s">
         <v>1116</v>
@@ -20368,7 +20374,7 @@
         <v>1127</v>
       </c>
       <c r="B1128">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1128" t="s">
         <v>1119</v>
@@ -20379,7 +20385,7 @@
         <v>1128</v>
       </c>
       <c r="B1129">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1129" t="s">
         <v>1120</v>
@@ -20412,7 +20418,7 @@
         <v>1131</v>
       </c>
       <c r="B1132">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1132" t="s">
         <v>1123</v>
@@ -20423,7 +20429,7 @@
         <v>1132</v>
       </c>
       <c r="B1133">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C1133" t="s">
         <v>1124</v>
@@ -20434,7 +20440,7 @@
         <v>1133</v>
       </c>
       <c r="B1134">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1134" t="s">
         <v>1125</v>
@@ -20445,7 +20451,7 @@
         <v>1134</v>
       </c>
       <c r="B1135">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1135" t="s">
         <v>1126</v>
@@ -20489,7 +20495,7 @@
         <v>1138</v>
       </c>
       <c r="B1139">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1139" t="s">
         <v>1130</v>
@@ -20500,7 +20506,7 @@
         <v>1139</v>
       </c>
       <c r="B1140">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1140" t="s">
         <v>1131</v>
@@ -20533,7 +20539,7 @@
         <v>1142</v>
       </c>
       <c r="B1143">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1143" t="s">
         <v>1134</v>
@@ -20544,7 +20550,7 @@
         <v>1143</v>
       </c>
       <c r="B1144">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1144" t="s">
         <v>1135</v>
@@ -20555,7 +20561,7 @@
         <v>1144</v>
       </c>
       <c r="B1145">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1145" t="s">
         <v>1136</v>
@@ -20566,7 +20572,7 @@
         <v>1145</v>
       </c>
       <c r="B1146">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1146" t="s">
         <v>1137</v>
@@ -20588,7 +20594,7 @@
         <v>1147</v>
       </c>
       <c r="B1148">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1148" t="s">
         <v>1139</v>
@@ -20599,7 +20605,7 @@
         <v>1148</v>
       </c>
       <c r="B1149">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1149" t="s">
         <v>1140</v>
@@ -20621,7 +20627,7 @@
         <v>1150</v>
       </c>
       <c r="B1151">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1151" t="s">
         <v>1142</v>
@@ -20632,7 +20638,7 @@
         <v>1151</v>
       </c>
       <c r="B1152">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1152" t="s">
         <v>1143</v>
@@ -20676,7 +20682,7 @@
         <v>1155</v>
       </c>
       <c r="B1156">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1156" t="s">
         <v>1147</v>
@@ -20687,7 +20693,7 @@
         <v>1156</v>
       </c>
       <c r="B1157">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1157" t="s">
         <v>1148</v>
@@ -20698,7 +20704,7 @@
         <v>1157</v>
       </c>
       <c r="B1158">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1158" t="s">
         <v>1149</v>
@@ -20709,7 +20715,7 @@
         <v>1158</v>
       </c>
       <c r="B1159">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1159" t="s">
         <v>1150</v>
@@ -20775,7 +20781,7 @@
         <v>1164</v>
       </c>
       <c r="B1165">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1165" t="s">
         <v>1156</v>
@@ -20786,7 +20792,7 @@
         <v>1165</v>
       </c>
       <c r="B1166">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1166" t="s">
         <v>1157</v>
@@ -20852,7 +20858,7 @@
         <v>1171</v>
       </c>
       <c r="B1172">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1172" t="s">
         <v>1163</v>
@@ -20863,7 +20869,7 @@
         <v>1172</v>
       </c>
       <c r="B1173">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1173" t="s">
         <v>1164</v>
@@ -20885,7 +20891,7 @@
         <v>1174</v>
       </c>
       <c r="B1175">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1175" t="s">
         <v>1166</v>
@@ -20896,7 +20902,7 @@
         <v>1175</v>
       </c>
       <c r="B1176">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1176" t="s">
         <v>1167</v>
@@ -20940,7 +20946,7 @@
         <v>1179</v>
       </c>
       <c r="B1180">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1180" t="s">
         <v>1171</v>
@@ -20951,7 +20957,7 @@
         <v>1180</v>
       </c>
       <c r="B1181">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1181" t="s">
         <v>1172</v>
@@ -20995,7 +21001,7 @@
         <v>1184</v>
       </c>
       <c r="B1185">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1185" t="s">
         <v>1176</v>
@@ -21006,7 +21012,7 @@
         <v>1185</v>
       </c>
       <c r="B1186">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1186" t="s">
         <v>1177</v>
@@ -21050,7 +21056,7 @@
         <v>1189</v>
       </c>
       <c r="B1190">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1190" t="s">
         <v>1181</v>
@@ -21061,7 +21067,7 @@
         <v>1190</v>
       </c>
       <c r="B1191">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1191" t="s">
         <v>1182</v>
@@ -21105,7 +21111,7 @@
         <v>1194</v>
       </c>
       <c r="B1195">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1195" t="s">
         <v>1186</v>
@@ -21116,7 +21122,7 @@
         <v>1195</v>
       </c>
       <c r="B1196">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1196" t="s">
         <v>1187</v>
@@ -21160,7 +21166,7 @@
         <v>1199</v>
       </c>
       <c r="B1200">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1200" t="s">
         <v>1191</v>
@@ -21171,7 +21177,7 @@
         <v>1200</v>
       </c>
       <c r="B1201">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1201" t="s">
         <v>1192</v>
@@ -21204,7 +21210,7 @@
         <v>1203</v>
       </c>
       <c r="B1204">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1204" t="s">
         <v>1195</v>
@@ -21215,7 +21221,7 @@
         <v>1204</v>
       </c>
       <c r="B1205">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1205" t="s">
         <v>1196</v>
@@ -21226,7 +21232,7 @@
         <v>1205</v>
       </c>
       <c r="B1206">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1206" t="s">
         <v>1197</v>
@@ -21237,7 +21243,7 @@
         <v>1206</v>
       </c>
       <c r="B1207">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1207" t="s">
         <v>1198</v>
@@ -21317,7 +21323,7 @@
         <v>376</v>
       </c>
       <c r="C1214" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
@@ -21328,7 +21334,7 @@
         <v>376</v>
       </c>
       <c r="C1215" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
@@ -21336,10 +21342,10 @@
         <v>1215</v>
       </c>
       <c r="B1216">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1216" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
@@ -21347,7 +21353,7 @@
         <v>1216</v>
       </c>
       <c r="B1217">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1217" t="s">
         <v>1207</v>
@@ -21413,7 +21419,7 @@
         <v>1222</v>
       </c>
       <c r="B1223">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1223" t="s">
         <v>1213</v>
@@ -21424,7 +21430,7 @@
         <v>1223</v>
       </c>
       <c r="B1224">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1224" t="s">
         <v>1214</v>
@@ -21490,7 +21496,7 @@
         <v>1229</v>
       </c>
       <c r="B1230">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1230" t="s">
         <v>1220</v>
@@ -21501,7 +21507,7 @@
         <v>1230</v>
       </c>
       <c r="B1231">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1231" t="s">
         <v>1221</v>
@@ -21556,7 +21562,7 @@
         <v>1235</v>
       </c>
       <c r="B1236">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1236" t="s">
         <v>1226</v>
@@ -21567,7 +21573,7 @@
         <v>1236</v>
       </c>
       <c r="B1237">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C1237" t="s">
         <v>1227</v>
@@ -21611,7 +21617,7 @@
         <v>1240</v>
       </c>
       <c r="B1241">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1241" t="s">
         <v>1231</v>
@@ -21622,7 +21628,7 @@
         <v>1241</v>
       </c>
       <c r="B1242">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1242" t="s">
         <v>1232</v>
@@ -21677,7 +21683,7 @@
         <v>1246</v>
       </c>
       <c r="B1247">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C1247" t="s">
         <v>1237</v>
@@ -21688,7 +21694,7 @@
         <v>1247</v>
       </c>
       <c r="B1248">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C1248" t="s">
         <v>1238</v>
@@ -21743,7 +21749,7 @@
         <v>1252</v>
       </c>
       <c r="B1253">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1253" t="s">
         <v>1243</v>
@@ -21754,7 +21760,7 @@
         <v>1253</v>
       </c>
       <c r="B1254">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1254" t="s">
         <v>1244</v>
@@ -21809,7 +21815,7 @@
         <v>1258</v>
       </c>
       <c r="B1259">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1259" t="s">
         <v>1249</v>
@@ -21820,7 +21826,7 @@
         <v>1259</v>
       </c>
       <c r="B1260">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1260" t="s">
         <v>1250</v>
@@ -21886,7 +21892,7 @@
         <v>1265</v>
       </c>
       <c r="B1266">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1266" t="s">
         <v>1256</v>
@@ -21897,7 +21903,7 @@
         <v>1266</v>
       </c>
       <c r="B1267">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1267" t="s">
         <v>1257</v>
@@ -21963,7 +21969,7 @@
         <v>1272</v>
       </c>
       <c r="B1273">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1273" t="s">
         <v>1263</v>
@@ -21974,7 +21980,7 @@
         <v>1273</v>
       </c>
       <c r="B1274">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1274" t="s">
         <v>1264</v>
@@ -22051,7 +22057,7 @@
         <v>1280</v>
       </c>
       <c r="B1281">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1281" t="s">
         <v>1271</v>
@@ -22062,7 +22068,7 @@
         <v>1281</v>
       </c>
       <c r="B1282">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1282" t="s">
         <v>1272</v>
@@ -22139,7 +22145,7 @@
         <v>1288</v>
       </c>
       <c r="B1289">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1289" t="s">
         <v>1279</v>
@@ -22150,7 +22156,7 @@
         <v>1289</v>
       </c>
       <c r="B1290">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C1290" t="s">
         <v>1280</v>
@@ -22194,7 +22200,7 @@
         <v>1293</v>
       </c>
       <c r="B1294">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1294" t="s">
         <v>1284</v>
@@ -22205,7 +22211,7 @@
         <v>1294</v>
       </c>
       <c r="B1295">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1295" t="s">
         <v>1285</v>
@@ -22238,7 +22244,7 @@
         <v>1297</v>
       </c>
       <c r="B1298">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1298" t="s">
         <v>1288</v>
@@ -22249,7 +22255,7 @@
         <v>1298</v>
       </c>
       <c r="B1299">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1299" t="s">
         <v>1289</v>
@@ -22260,7 +22266,7 @@
         <v>1299</v>
       </c>
       <c r="B1300">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1300" t="s">
         <v>1290</v>
@@ -22271,7 +22277,7 @@
         <v>1300</v>
       </c>
       <c r="B1301">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1301" t="s">
         <v>1291</v>
@@ -22326,7 +22332,7 @@
         <v>1305</v>
       </c>
       <c r="B1306">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1306" t="s">
         <v>1296</v>
@@ -22337,7 +22343,7 @@
         <v>1306</v>
       </c>
       <c r="B1307">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C1307" t="s">
         <v>1297</v>
@@ -22370,7 +22376,7 @@
         <v>1309</v>
       </c>
       <c r="B1310">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1310" t="s">
         <v>1300</v>
@@ -22381,7 +22387,7 @@
         <v>1310</v>
       </c>
       <c r="B1311">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1311" t="s">
         <v>1301</v>
@@ -22447,7 +22453,7 @@
         <v>1316</v>
       </c>
       <c r="B1317">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1317" t="s">
         <v>1307</v>
@@ -22458,7 +22464,7 @@
         <v>1317</v>
       </c>
       <c r="B1318">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C1318" t="s">
         <v>1308</v>
@@ -22491,7 +22497,7 @@
         <v>1320</v>
       </c>
       <c r="B1321">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1321" t="s">
         <v>1311</v>
@@ -22502,7 +22508,7 @@
         <v>1321</v>
       </c>
       <c r="B1322">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1322" t="s">
         <v>1312</v>
@@ -22535,7 +22541,7 @@
         <v>1324</v>
       </c>
       <c r="B1325">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1325" t="s">
         <v>1315</v>
@@ -22546,7 +22552,7 @@
         <v>1325</v>
       </c>
       <c r="B1326">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1326" t="s">
         <v>1316</v>
@@ -22557,7 +22563,7 @@
         <v>1326</v>
       </c>
       <c r="B1327">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1327" t="s">
         <v>1317</v>
@@ -22568,7 +22574,7 @@
         <v>1327</v>
       </c>
       <c r="B1328">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1328" t="s">
         <v>1318</v>
@@ -22601,7 +22607,7 @@
         <v>1330</v>
       </c>
       <c r="B1331">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1331" t="s">
         <v>1321</v>
@@ -22612,7 +22618,7 @@
         <v>1331</v>
       </c>
       <c r="B1332">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1332" t="s">
         <v>1322</v>
@@ -22623,7 +22629,7 @@
         <v>1332</v>
       </c>
       <c r="B1333">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1333" t="s">
         <v>1323</v>
@@ -22634,7 +22640,7 @@
         <v>1333</v>
       </c>
       <c r="B1334">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1334" t="s">
         <v>1324</v>
@@ -22645,7 +22651,7 @@
         <v>1334</v>
       </c>
       <c r="B1335">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1335" t="s">
         <v>1325</v>
@@ -22656,7 +22662,7 @@
         <v>1335</v>
       </c>
       <c r="B1336">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1336" t="s">
         <v>1326</v>
@@ -22733,7 +22739,7 @@
         <v>1342</v>
       </c>
       <c r="B1343">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1343" t="s">
         <v>1333</v>
@@ -22744,7 +22750,7 @@
         <v>1343</v>
       </c>
       <c r="B1344">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C1344" t="s">
         <v>1334</v>
@@ -22766,7 +22772,7 @@
         <v>1345</v>
       </c>
       <c r="B1346">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1346" t="s">
         <v>1336</v>
@@ -22777,7 +22783,7 @@
         <v>1346</v>
       </c>
       <c r="B1347">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1347" t="s">
         <v>1337</v>
@@ -22799,7 +22805,7 @@
         <v>1348</v>
       </c>
       <c r="B1349">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1349" t="s">
         <v>1339</v>
@@ -22810,7 +22816,7 @@
         <v>1349</v>
       </c>
       <c r="B1350">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1350" t="s">
         <v>1340</v>
@@ -22876,7 +22882,7 @@
         <v>1355</v>
       </c>
       <c r="B1356">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1356" t="s">
         <v>1346</v>
@@ -22887,7 +22893,7 @@
         <v>1356</v>
       </c>
       <c r="B1357">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1357" t="s">
         <v>1347</v>
@@ -22909,7 +22915,7 @@
         <v>1358</v>
       </c>
       <c r="B1359">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1359" t="s">
         <v>1349</v>
@@ -22920,7 +22926,7 @@
         <v>1359</v>
       </c>
       <c r="B1360">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1360" t="s">
         <v>1350</v>
@@ -22953,7 +22959,7 @@
         <v>1362</v>
       </c>
       <c r="B1363">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1363" t="s">
         <v>1353</v>
@@ -22964,7 +22970,7 @@
         <v>1363</v>
       </c>
       <c r="B1364">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1364" t="s">
         <v>1354</v>
@@ -22975,7 +22981,7 @@
         <v>1364</v>
       </c>
       <c r="B1365">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1365" t="s">
         <v>1355</v>
@@ -22986,7 +22992,7 @@
         <v>1365</v>
       </c>
       <c r="B1366">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1366" t="s">
         <v>1356</v>
@@ -23019,7 +23025,7 @@
         <v>1368</v>
       </c>
       <c r="B1369">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1369" t="s">
         <v>1359</v>
@@ -23030,7 +23036,7 @@
         <v>1369</v>
       </c>
       <c r="B1370">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C1370" t="s">
         <v>1360</v>
@@ -23052,7 +23058,7 @@
         <v>1371</v>
       </c>
       <c r="B1372">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1372" t="s">
         <v>1362</v>
@@ -23063,7 +23069,7 @@
         <v>1372</v>
       </c>
       <c r="B1373">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1373" t="s">
         <v>1363</v>
@@ -23085,7 +23091,7 @@
         <v>1374</v>
       </c>
       <c r="B1375">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1375" t="s">
         <v>1365</v>
@@ -23096,7 +23102,7 @@
         <v>1375</v>
       </c>
       <c r="B1376">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1376" t="s">
         <v>1366</v>
@@ -23107,7 +23113,7 @@
         <v>1376</v>
       </c>
       <c r="B1377">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1377" t="s">
         <v>1367</v>
@@ -23118,7 +23124,7 @@
         <v>1377</v>
       </c>
       <c r="B1378">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1378" t="s">
         <v>1368</v>
@@ -23140,7 +23146,7 @@
         <v>1379</v>
       </c>
       <c r="B1380">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1380" t="s">
         <v>1370</v>
@@ -23151,7 +23157,7 @@
         <v>1380</v>
       </c>
       <c r="B1381">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1381" t="s">
         <v>1371</v>
@@ -23173,7 +23179,7 @@
         <v>1382</v>
       </c>
       <c r="B1383">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1383" t="s">
         <v>1373</v>
@@ -23184,7 +23190,7 @@
         <v>1383</v>
       </c>
       <c r="B1384">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1384" t="s">
         <v>1374</v>
@@ -23195,7 +23201,7 @@
         <v>1384</v>
       </c>
       <c r="B1385">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1385" t="s">
         <v>1375</v>
@@ -23206,7 +23212,7 @@
         <v>1385</v>
       </c>
       <c r="B1386">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1386" t="s">
         <v>1376</v>
@@ -23217,7 +23223,7 @@
         <v>1386</v>
       </c>
       <c r="B1387">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1387" t="s">
         <v>1377</v>
@@ -23228,7 +23234,7 @@
         <v>1387</v>
       </c>
       <c r="B1388">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1388" t="s">
         <v>1378</v>
@@ -23239,7 +23245,7 @@
         <v>1388</v>
       </c>
       <c r="B1389">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1389" t="s">
         <v>1379</v>
@@ -23250,7 +23256,7 @@
         <v>1389</v>
       </c>
       <c r="B1390">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1390" t="s">
         <v>1380</v>
@@ -23272,7 +23278,7 @@
         <v>1391</v>
       </c>
       <c r="B1392">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1392" t="s">
         <v>1382</v>
@@ -23283,7 +23289,7 @@
         <v>1392</v>
       </c>
       <c r="B1393">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C1393" t="s">
         <v>1383</v>
@@ -23294,7 +23300,7 @@
         <v>1393</v>
       </c>
       <c r="B1394">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1394" t="s">
         <v>1384</v>
@@ -23305,7 +23311,7 @@
         <v>1394</v>
       </c>
       <c r="B1395">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1395" t="s">
         <v>1385</v>
@@ -23316,7 +23322,7 @@
         <v>1395</v>
       </c>
       <c r="B1396">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1396" t="s">
         <v>1386</v>
@@ -23327,7 +23333,7 @@
         <v>1396</v>
       </c>
       <c r="B1397">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1397" t="s">
         <v>1387</v>
@@ -23338,7 +23344,7 @@
         <v>1397</v>
       </c>
       <c r="B1398">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1398" t="s">
         <v>1388</v>
@@ -23349,7 +23355,7 @@
         <v>1398</v>
       </c>
       <c r="B1399">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1399" t="s">
         <v>1389</v>
@@ -23371,7 +23377,7 @@
         <v>1400</v>
       </c>
       <c r="B1401">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1401" t="s">
         <v>1391</v>
@@ -23382,7 +23388,7 @@
         <v>1401</v>
       </c>
       <c r="B1402">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1402" t="s">
         <v>1392</v>
@@ -23393,7 +23399,7 @@
         <v>1402</v>
       </c>
       <c r="B1403">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1403" t="s">
         <v>1393</v>
@@ -23404,7 +23410,7 @@
         <v>1403</v>
       </c>
       <c r="B1404">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C1404" t="s">
         <v>1394</v>
@@ -23426,7 +23432,7 @@
         <v>1405</v>
       </c>
       <c r="B1406">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1406" t="s">
         <v>1396</v>
@@ -23437,7 +23443,7 @@
         <v>1406</v>
       </c>
       <c r="B1407">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1407" t="s">
         <v>1397</v>
@@ -23470,7 +23476,7 @@
         <v>1409</v>
       </c>
       <c r="B1410">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1410" t="s">
         <v>1400</v>
@@ -23481,7 +23487,7 @@
         <v>1410</v>
       </c>
       <c r="B1411">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1411" t="s">
         <v>1401</v>
@@ -23492,7 +23498,7 @@
         <v>1411</v>
       </c>
       <c r="B1412">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1412" t="s">
         <v>1402</v>
@@ -23503,7 +23509,7 @@
         <v>1412</v>
       </c>
       <c r="B1413">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1413" t="s">
         <v>1403</v>
@@ -23514,7 +23520,7 @@
         <v>1413</v>
       </c>
       <c r="B1414">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1414" t="s">
         <v>1404</v>
@@ -23525,7 +23531,7 @@
         <v>1414</v>
       </c>
       <c r="B1415">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1415" t="s">
         <v>1405</v>
@@ -23536,7 +23542,7 @@
         <v>1415</v>
       </c>
       <c r="B1416">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1416" t="s">
         <v>1406</v>
@@ -23547,7 +23553,7 @@
         <v>1416</v>
       </c>
       <c r="B1417">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1417" t="s">
         <v>1407</v>
@@ -23558,7 +23564,7 @@
         <v>1417</v>
       </c>
       <c r="B1418">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1418" t="s">
         <v>1408</v>
@@ -23569,7 +23575,7 @@
         <v>1418</v>
       </c>
       <c r="B1419">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1419" t="s">
         <v>1409</v>
@@ -23580,7 +23586,7 @@
         <v>1419</v>
       </c>
       <c r="B1420">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1420" t="s">
         <v>1410</v>
@@ -23591,7 +23597,7 @@
         <v>1420</v>
       </c>
       <c r="B1421">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1421" t="s">
         <v>1411</v>
@@ -23602,7 +23608,7 @@
         <v>1421</v>
       </c>
       <c r="B1422">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1422" t="s">
         <v>1412</v>
@@ -23613,7 +23619,7 @@
         <v>1422</v>
       </c>
       <c r="B1423">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1423" t="s">
         <v>1413</v>
@@ -23624,7 +23630,7 @@
         <v>1423</v>
       </c>
       <c r="B1424">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1424" t="s">
         <v>1414</v>
@@ -23635,7 +23641,7 @@
         <v>1424</v>
       </c>
       <c r="B1425">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1425" t="s">
         <v>1415</v>
@@ -23679,7 +23685,7 @@
         <v>1428</v>
       </c>
       <c r="B1429">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1429" t="s">
         <v>1419</v>
@@ -23690,7 +23696,7 @@
         <v>1429</v>
       </c>
       <c r="B1430">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C1430" t="s">
         <v>1420</v>
@@ -23701,7 +23707,7 @@
         <v>1430</v>
       </c>
       <c r="B1431">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1431" t="s">
         <v>1421</v>
@@ -23712,7 +23718,7 @@
         <v>1431</v>
       </c>
       <c r="B1432">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1432" t="s">
         <v>1422</v>
@@ -23723,7 +23729,7 @@
         <v>1432</v>
       </c>
       <c r="B1433">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1433" t="s">
         <v>1423</v>
@@ -23734,7 +23740,7 @@
         <v>1433</v>
       </c>
       <c r="B1434">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1434" t="s">
         <v>1424</v>
@@ -23745,7 +23751,7 @@
         <v>1434</v>
       </c>
       <c r="B1435">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1435" t="s">
         <v>1425</v>
@@ -23756,7 +23762,7 @@
         <v>1435</v>
       </c>
       <c r="B1436">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1436" t="s">
         <v>1426</v>
@@ -23767,7 +23773,7 @@
         <v>1436</v>
       </c>
       <c r="B1437">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1437" t="s">
         <v>1427</v>
@@ -23778,7 +23784,7 @@
         <v>1437</v>
       </c>
       <c r="B1438">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1438" t="s">
         <v>1428</v>
@@ -23789,7 +23795,7 @@
         <v>1438</v>
       </c>
       <c r="B1439">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1439" t="s">
         <v>1429</v>
@@ -23800,7 +23806,7 @@
         <v>1439</v>
       </c>
       <c r="B1440">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1440" t="s">
         <v>1430</v>
@@ -23811,7 +23817,7 @@
         <v>1440</v>
       </c>
       <c r="B1441">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1441" t="s">
         <v>1431</v>
@@ -23822,7 +23828,7 @@
         <v>1441</v>
       </c>
       <c r="B1442">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1442" t="s">
         <v>1432</v>
@@ -23844,7 +23850,7 @@
         <v>1443</v>
       </c>
       <c r="B1444">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1444" t="s">
         <v>1434</v>
@@ -23855,7 +23861,7 @@
         <v>1444</v>
       </c>
       <c r="B1445">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1445" t="s">
         <v>1435</v>
@@ -23888,7 +23894,7 @@
         <v>1447</v>
       </c>
       <c r="B1448">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1448" t="s">
         <v>1438</v>
@@ -23899,7 +23905,7 @@
         <v>1448</v>
       </c>
       <c r="B1449">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1449" t="s">
         <v>1439</v>
@@ -24020,7 +24026,7 @@
         <v>1459</v>
       </c>
       <c r="B1460">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1460" t="s">
         <v>1450</v>
@@ -24031,7 +24037,7 @@
         <v>1460</v>
       </c>
       <c r="B1461">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1461" t="s">
         <v>1451</v>
@@ -24086,7 +24092,7 @@
         <v>1465</v>
       </c>
       <c r="B1466">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1466" t="s">
         <v>1456</v>
@@ -24097,7 +24103,7 @@
         <v>1466</v>
       </c>
       <c r="B1467">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1467" t="s">
         <v>1457</v>
@@ -24141,7 +24147,7 @@
         <v>1470</v>
       </c>
       <c r="B1471">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1471" t="s">
         <v>1461</v>
@@ -24152,7 +24158,7 @@
         <v>1471</v>
       </c>
       <c r="B1472">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1472" t="s">
         <v>1462</v>
@@ -24218,7 +24224,7 @@
         <v>1477</v>
       </c>
       <c r="B1478">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1478" t="s">
         <v>1468</v>
@@ -24229,7 +24235,7 @@
         <v>1478</v>
       </c>
       <c r="B1479">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1479" t="s">
         <v>1469</v>
@@ -24284,7 +24290,7 @@
         <v>1483</v>
       </c>
       <c r="B1484">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1484" t="s">
         <v>1474</v>
@@ -24295,7 +24301,7 @@
         <v>1484</v>
       </c>
       <c r="B1485">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1485" t="s">
         <v>1475</v>
@@ -24394,7 +24400,7 @@
         <v>1493</v>
       </c>
       <c r="B1494">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1494" t="s">
         <v>1484</v>
@@ -24405,7 +24411,7 @@
         <v>1494</v>
       </c>
       <c r="B1495">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1495" t="s">
         <v>1485</v>
@@ -24471,7 +24477,7 @@
         <v>1500</v>
       </c>
       <c r="B1501">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1501" t="s">
         <v>1491</v>
@@ -24482,7 +24488,7 @@
         <v>1501</v>
       </c>
       <c r="B1502">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1502" t="s">
         <v>1492</v>
@@ -24581,7 +24587,7 @@
         <v>1510</v>
       </c>
       <c r="B1511">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1511" t="s">
         <v>1501</v>
@@ -24592,7 +24598,7 @@
         <v>1511</v>
       </c>
       <c r="B1512">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1512" t="s">
         <v>1502</v>
@@ -24647,7 +24653,7 @@
         <v>1516</v>
       </c>
       <c r="B1517">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1517" t="s">
         <v>1507</v>
@@ -24658,7 +24664,7 @@
         <v>1517</v>
       </c>
       <c r="B1518">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1518" t="s">
         <v>1508</v>
@@ -24746,7 +24752,7 @@
         <v>1525</v>
       </c>
       <c r="B1526">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C1526" t="s">
         <v>1516</v>
@@ -24757,7 +24763,7 @@
         <v>1526</v>
       </c>
       <c r="B1527">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C1527" t="s">
         <v>1517</v>
@@ -24812,7 +24818,7 @@
         <v>1531</v>
       </c>
       <c r="B1532">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1532" t="s">
         <v>1522</v>
@@ -24823,7 +24829,7 @@
         <v>1532</v>
       </c>
       <c r="B1533">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1533" t="s">
         <v>1523</v>
@@ -24834,7 +24840,7 @@
         <v>1533</v>
       </c>
       <c r="B1534">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1534" t="s">
         <v>1524</v>
@@ -24845,7 +24851,7 @@
         <v>1534</v>
       </c>
       <c r="B1535">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1535" t="s">
         <v>1525</v>
@@ -24900,7 +24906,7 @@
         <v>1539</v>
       </c>
       <c r="B1540">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1540" t="s">
         <v>1530</v>
@@ -24911,7 +24917,7 @@
         <v>1540</v>
       </c>
       <c r="B1541">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1541" t="s">
         <v>1531</v>
@@ -24944,7 +24950,7 @@
         <v>1543</v>
       </c>
       <c r="B1544">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1544" t="s">
         <v>1534</v>
@@ -24955,7 +24961,7 @@
         <v>1544</v>
       </c>
       <c r="B1545">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1545" t="s">
         <v>1535</v>
@@ -24988,7 +24994,7 @@
         <v>1547</v>
       </c>
       <c r="B1548">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1548" t="s">
         <v>1538</v>
@@ -24999,7 +25005,7 @@
         <v>1548</v>
       </c>
       <c r="B1549">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1549" t="s">
         <v>1539</v>
@@ -25032,7 +25038,7 @@
         <v>1551</v>
       </c>
       <c r="B1552">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1552" t="s">
         <v>1542</v>
@@ -25043,7 +25049,7 @@
         <v>1552</v>
       </c>
       <c r="B1553">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1553" t="s">
         <v>1543</v>
@@ -25076,7 +25082,7 @@
         <v>1555</v>
       </c>
       <c r="B1556">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1556" t="s">
         <v>1546</v>
@@ -25087,7 +25093,7 @@
         <v>1556</v>
       </c>
       <c r="B1557">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C1557" t="s">
         <v>1547</v>
@@ -25120,7 +25126,7 @@
         <v>1559</v>
       </c>
       <c r="B1560">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1560" t="s">
         <v>1550</v>
@@ -25131,7 +25137,7 @@
         <v>1560</v>
       </c>
       <c r="B1561">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1561" t="s">
         <v>1551</v>
@@ -25186,7 +25192,7 @@
         <v>1565</v>
       </c>
       <c r="B1566">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1566" t="s">
         <v>1556</v>
@@ -25197,7 +25203,7 @@
         <v>1566</v>
       </c>
       <c r="B1567">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1567" t="s">
         <v>1557</v>
@@ -25252,7 +25258,7 @@
         <v>1571</v>
       </c>
       <c r="B1572">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1572" t="s">
         <v>1562</v>
@@ -25263,7 +25269,7 @@
         <v>1572</v>
       </c>
       <c r="B1573">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1573" t="s">
         <v>1563</v>
@@ -25329,7 +25335,7 @@
         <v>1578</v>
       </c>
       <c r="B1579">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1579" t="s">
         <v>1569</v>
@@ -25340,7 +25346,7 @@
         <v>1579</v>
       </c>
       <c r="B1580">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1580" t="s">
         <v>1570</v>
@@ -25406,7 +25412,7 @@
         <v>1585</v>
       </c>
       <c r="B1586">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1586" t="s">
         <v>1576</v>
@@ -25417,7 +25423,7 @@
         <v>1586</v>
       </c>
       <c r="B1587">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1587" t="s">
         <v>1577</v>
@@ -25472,7 +25478,7 @@
         <v>1591</v>
       </c>
       <c r="B1592">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1592" t="s">
         <v>1582</v>
@@ -25483,7 +25489,7 @@
         <v>1592</v>
       </c>
       <c r="B1593">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1593" t="s">
         <v>1583</v>
@@ -25505,7 +25511,7 @@
         <v>1594</v>
       </c>
       <c r="B1595">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1595" t="s">
         <v>1585</v>
@@ -25516,7 +25522,7 @@
         <v>1595</v>
       </c>
       <c r="B1596">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1596" t="s">
         <v>1586</v>
@@ -25571,7 +25577,7 @@
         <v>1600</v>
       </c>
       <c r="B1601">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1601" t="s">
         <v>1591</v>
@@ -25582,7 +25588,7 @@
         <v>1601</v>
       </c>
       <c r="B1602">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1602" t="s">
         <v>1592</v>
@@ -25659,7 +25665,7 @@
         <v>1608</v>
       </c>
       <c r="B1609">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1609" t="s">
         <v>1599</v>
@@ -25670,7 +25676,7 @@
         <v>1609</v>
       </c>
       <c r="B1610">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1610" t="s">
         <v>1600</v>
@@ -25692,7 +25698,7 @@
         <v>1611</v>
       </c>
       <c r="B1612">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1612" t="s">
         <v>1602</v>
@@ -25703,7 +25709,7 @@
         <v>1612</v>
       </c>
       <c r="B1613">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1613" t="s">
         <v>1603</v>
@@ -25714,7 +25720,7 @@
         <v>1613</v>
       </c>
       <c r="B1614">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C1614" t="s">
         <v>1604</v>
@@ -25725,7 +25731,7 @@
         <v>1614</v>
       </c>
       <c r="B1615">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C1615" t="s">
         <v>1605</v>
@@ -25769,7 +25775,7 @@
         <v>1618</v>
       </c>
       <c r="B1619">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1619" t="s">
         <v>1609</v>
@@ -25780,7 +25786,7 @@
         <v>1619</v>
       </c>
       <c r="B1620">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1620" t="s">
         <v>1610</v>
@@ -25791,7 +25797,7 @@
         <v>1620</v>
       </c>
       <c r="B1621">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1621" t="s">
         <v>1611</v>
@@ -25802,7 +25808,7 @@
         <v>1621</v>
       </c>
       <c r="B1622">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1622" t="s">
         <v>1612</v>
@@ -25901,7 +25907,7 @@
         <v>1630</v>
       </c>
       <c r="B1631">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1631" t="s">
         <v>1621</v>
@@ -25912,7 +25918,7 @@
         <v>1631</v>
       </c>
       <c r="B1632">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1632" t="s">
         <v>1622</v>
@@ -25934,7 +25940,7 @@
         <v>1633</v>
       </c>
       <c r="B1634">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1634" t="s">
         <v>1624</v>
@@ -25945,7 +25951,7 @@
         <v>1634</v>
       </c>
       <c r="B1635">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1635" t="s">
         <v>1625</v>
@@ -26000,7 +26006,7 @@
         <v>1639</v>
       </c>
       <c r="B1640">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1640" t="s">
         <v>1630</v>
@@ -26011,7 +26017,7 @@
         <v>1640</v>
       </c>
       <c r="B1641">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1641" t="s">
         <v>1631</v>
@@ -26066,7 +26072,7 @@
         <v>1645</v>
       </c>
       <c r="B1646">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1646" t="s">
         <v>1636</v>
@@ -26077,7 +26083,7 @@
         <v>1646</v>
       </c>
       <c r="B1647">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1647" t="s">
         <v>1637</v>
@@ -26099,7 +26105,7 @@
         <v>1648</v>
       </c>
       <c r="B1649">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1649" t="s">
         <v>1639</v>
@@ -26110,7 +26116,7 @@
         <v>1649</v>
       </c>
       <c r="B1650">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C1650" t="s">
         <v>1640</v>
@@ -26121,7 +26127,7 @@
         <v>1650</v>
       </c>
       <c r="B1651">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1651" t="s">
         <v>1641</v>
@@ -26132,7 +26138,7 @@
         <v>1651</v>
       </c>
       <c r="B1652">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1652" t="s">
         <v>1642</v>
@@ -26143,7 +26149,7 @@
         <v>1652</v>
       </c>
       <c r="B1653">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1653" t="s">
         <v>1643</v>
@@ -26154,7 +26160,7 @@
         <v>1653</v>
       </c>
       <c r="B1654">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1654" t="s">
         <v>1644</v>
@@ -26165,7 +26171,7 @@
         <v>1654</v>
       </c>
       <c r="B1655">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1655" t="s">
         <v>1645</v>
@@ -26176,7 +26182,7 @@
         <v>1655</v>
       </c>
       <c r="B1656">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C1656" t="s">
         <v>1646</v>
@@ -26187,7 +26193,7 @@
         <v>1656</v>
       </c>
       <c r="B1657">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C1657" t="s">
         <v>1647</v>
@@ -26198,7 +26204,7 @@
         <v>1657</v>
       </c>
       <c r="B1658">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C1658" t="s">
         <v>1648</v>
@@ -26231,7 +26237,7 @@
         <v>1660</v>
       </c>
       <c r="B1661">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1661" t="s">
         <v>1651</v>
@@ -26242,7 +26248,7 @@
         <v>1661</v>
       </c>
       <c r="B1662">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C1662" t="s">
         <v>1652</v>
@@ -26253,7 +26259,7 @@
         <v>1662</v>
       </c>
       <c r="B1663">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1663" t="s">
         <v>1653</v>
@@ -26264,7 +26270,7 @@
         <v>1663</v>
       </c>
       <c r="B1664">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1664" t="s">
         <v>1654</v>
@@ -26286,7 +26292,7 @@
         <v>1665</v>
       </c>
       <c r="B1666">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C1666" t="s">
         <v>1656</v>
@@ -26297,7 +26303,7 @@
         <v>1666</v>
       </c>
       <c r="B1667">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C1667" t="s">
         <v>1657</v>
@@ -26341,7 +26347,7 @@
         <v>1670</v>
       </c>
       <c r="B1671">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C1671" t="s">
         <v>1661</v>
@@ -26352,7 +26358,7 @@
         <v>1671</v>
       </c>
       <c r="B1672">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C1672" t="s">
         <v>1662</v>
@@ -26374,7 +26380,7 @@
         <v>1673</v>
       </c>
       <c r="B1674">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C1674" t="s">
         <v>1664</v>
@@ -26385,7 +26391,7 @@
         <v>1674</v>
       </c>
       <c r="B1675">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C1675" t="s">
         <v>1665</v>
@@ -26440,7 +26446,7 @@
         <v>1679</v>
       </c>
       <c r="B1680">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1680" t="s">
         <v>1670</v>
@@ -26451,7 +26457,7 @@
         <v>1680</v>
       </c>
       <c r="B1681">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1681" t="s">
         <v>1671</v>
@@ -26473,7 +26479,7 @@
         <v>1682</v>
       </c>
       <c r="B1683">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1683" t="s">
         <v>1673</v>
@@ -26484,7 +26490,7 @@
         <v>1683</v>
       </c>
       <c r="B1684">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1684" t="s">
         <v>1674</v>
@@ -26528,7 +26534,7 @@
         <v>1687</v>
       </c>
       <c r="B1688">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1688" t="s">
         <v>1678</v>
@@ -26539,7 +26545,7 @@
         <v>1688</v>
       </c>
       <c r="B1689">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1689" t="s">
         <v>1679</v>
@@ -26594,7 +26600,7 @@
         <v>1693</v>
       </c>
       <c r="B1694">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C1694" t="s">
         <v>1684</v>
@@ -26605,7 +26611,7 @@
         <v>1694</v>
       </c>
       <c r="B1695">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C1695" t="s">
         <v>1685</v>
@@ -26638,7 +26644,7 @@
         <v>1697</v>
       </c>
       <c r="B1698">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1698" t="s">
         <v>1688</v>
@@ -26649,7 +26655,7 @@
         <v>1698</v>
       </c>
       <c r="B1699">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1699" t="s">
         <v>1689</v>
@@ -26660,7 +26666,7 @@
         <v>1699</v>
       </c>
       <c r="B1700">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1700" t="s">
         <v>1690</v>
@@ -26671,7 +26677,7 @@
         <v>1700</v>
       </c>
       <c r="B1701">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1701" t="s">
         <v>1691</v>
@@ -26693,7 +26699,7 @@
         <v>1702</v>
       </c>
       <c r="B1703">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1703" t="s">
         <v>1693</v>
@@ -26704,7 +26710,7 @@
         <v>1703</v>
       </c>
       <c r="B1704">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1704" t="s">
         <v>1694</v>
@@ -26715,7 +26721,7 @@
         <v>1704</v>
       </c>
       <c r="B1705">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1705" t="s">
         <v>1695</v>
@@ -26726,7 +26732,7 @@
         <v>1705</v>
       </c>
       <c r="B1706">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1706" t="s">
         <v>1696</v>
@@ -26737,7 +26743,7 @@
         <v>1706</v>
       </c>
       <c r="B1707">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1707" t="s">
         <v>1697</v>
@@ -26748,7 +26754,7 @@
         <v>1707</v>
       </c>
       <c r="B1708">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1708" t="s">
         <v>1698</v>
@@ -26759,7 +26765,7 @@
         <v>1708</v>
       </c>
       <c r="B1709">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1709" t="s">
         <v>1699</v>
@@ -26770,7 +26776,7 @@
         <v>1709</v>
       </c>
       <c r="B1710">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C1710" t="s">
         <v>1700</v>
@@ -26781,7 +26787,7 @@
         <v>1710</v>
       </c>
       <c r="B1711">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1711" t="s">
         <v>1701</v>
@@ -26792,7 +26798,7 @@
         <v>1711</v>
       </c>
       <c r="B1712">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C1712" t="s">
         <v>1702</v>
@@ -26803,7 +26809,7 @@
         <v>1712</v>
       </c>
       <c r="B1713">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1713" t="s">
         <v>1703</v>
@@ -26814,7 +26820,7 @@
         <v>1713</v>
       </c>
       <c r="B1714">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1714" t="s">
         <v>1704</v>
@@ -26825,7 +26831,7 @@
         <v>1714</v>
       </c>
       <c r="B1715">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1715" t="s">
         <v>1705</v>
@@ -26836,7 +26842,7 @@
         <v>1715</v>
       </c>
       <c r="B1716">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C1716" t="s">
         <v>1706</v>
@@ -26847,7 +26853,7 @@
         <v>1716</v>
       </c>
       <c r="B1717">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1717" t="s">
         <v>1707</v>
@@ -26858,7 +26864,7 @@
         <v>1717</v>
       </c>
       <c r="B1718">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1718" t="s">
         <v>1708</v>
@@ -26869,7 +26875,7 @@
         <v>1718</v>
       </c>
       <c r="B1719">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1719" t="s">
         <v>1709</v>
@@ -26880,7 +26886,7 @@
         <v>1719</v>
       </c>
       <c r="B1720">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1720" t="s">
         <v>1710</v>
@@ -26913,7 +26919,7 @@
         <v>1722</v>
       </c>
       <c r="B1723">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1723" t="s">
         <v>1713</v>
@@ -26924,7 +26930,7 @@
         <v>1723</v>
       </c>
       <c r="B1724">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1724" t="s">
         <v>1714</v>
@@ -26946,7 +26952,7 @@
         <v>1725</v>
       </c>
       <c r="B1726">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1726" t="s">
         <v>1716</v>
@@ -26957,7 +26963,7 @@
         <v>1726</v>
       </c>
       <c r="B1727">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1727" t="s">
         <v>1717</v>
@@ -26979,7 +26985,7 @@
         <v>1728</v>
       </c>
       <c r="B1729">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1729" t="s">
         <v>1719</v>
@@ -26990,7 +26996,7 @@
         <v>1729</v>
       </c>
       <c r="B1730">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1730" t="s">
         <v>1720</v>
@@ -27034,7 +27040,7 @@
         <v>1733</v>
       </c>
       <c r="B1734">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1734" t="s">
         <v>1724</v>
@@ -27045,7 +27051,7 @@
         <v>1734</v>
       </c>
       <c r="B1735">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C1735" t="s">
         <v>1725</v>
@@ -27067,7 +27073,7 @@
         <v>1736</v>
       </c>
       <c r="B1737">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1737" t="s">
         <v>1727</v>
@@ -27078,7 +27084,7 @@
         <v>1737</v>
       </c>
       <c r="B1738">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C1738" t="s">
         <v>1728</v>
@@ -27089,7 +27095,7 @@
         <v>1738</v>
       </c>
       <c r="B1739">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1739" t="s">
         <v>1729</v>
@@ -27100,7 +27106,7 @@
         <v>1739</v>
       </c>
       <c r="B1740">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1740" t="s">
         <v>1730</v>
@@ -27122,7 +27128,7 @@
         <v>1741</v>
       </c>
       <c r="B1742">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1742" t="s">
         <v>1732</v>
@@ -27133,7 +27139,7 @@
         <v>1742</v>
       </c>
       <c r="B1743">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C1743" t="s">
         <v>1733</v>
@@ -27155,7 +27161,7 @@
         <v>1744</v>
       </c>
       <c r="B1745">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1745" t="s">
         <v>1735</v>
@@ -27166,7 +27172,7 @@
         <v>1745</v>
       </c>
       <c r="B1746">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1746" t="s">
         <v>1736</v>
@@ -27188,7 +27194,7 @@
         <v>1747</v>
       </c>
       <c r="B1748">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1748" t="s">
         <v>1738</v>
@@ -27199,7 +27205,7 @@
         <v>1748</v>
       </c>
       <c r="B1749">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C1749" t="s">
         <v>1739</v>
@@ -27232,7 +27238,7 @@
         <v>1751</v>
       </c>
       <c r="B1752">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1752" t="s">
         <v>1742</v>
@@ -27243,7 +27249,7 @@
         <v>1752</v>
       </c>
       <c r="B1753">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C1753" t="s">
         <v>1743</v>
@@ -27265,7 +27271,7 @@
         <v>1754</v>
       </c>
       <c r="B1755">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1755" t="s">
         <v>1745</v>
@@ -27276,7 +27282,7 @@
         <v>1755</v>
       </c>
       <c r="B1756">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1756" t="s">
         <v>1746</v>
@@ -27298,7 +27304,7 @@
         <v>1757</v>
       </c>
       <c r="B1758">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1758" t="s">
         <v>1748</v>
@@ -27309,7 +27315,7 @@
         <v>1758</v>
       </c>
       <c r="B1759">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1759" t="s">
         <v>1749</v>
@@ -27342,7 +27348,7 @@
         <v>1761</v>
       </c>
       <c r="B1762">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1762" t="s">
         <v>1752</v>
@@ -27353,7 +27359,7 @@
         <v>1762</v>
       </c>
       <c r="B1763">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1763" t="s">
         <v>1753</v>
@@ -27364,7 +27370,7 @@
         <v>1763</v>
       </c>
       <c r="B1764">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1764" t="s">
         <v>1754</v>
@@ -27375,7 +27381,7 @@
         <v>1764</v>
       </c>
       <c r="B1765">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1765" t="s">
         <v>1755</v>
@@ -27397,7 +27403,7 @@
         <v>1766</v>
       </c>
       <c r="B1767">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1767" t="s">
         <v>1757</v>
@@ -27408,7 +27414,7 @@
         <v>1767</v>
       </c>
       <c r="B1768">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1768" t="s">
         <v>1758</v>
@@ -27474,7 +27480,7 @@
         <v>1773</v>
       </c>
       <c r="B1774">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1774" t="s">
         <v>1764</v>
@@ -27485,7 +27491,7 @@
         <v>1774</v>
       </c>
       <c r="B1775">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1775" t="s">
         <v>1765</v>
@@ -27496,7 +27502,7 @@
         <v>1775</v>
       </c>
       <c r="B1776">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1776" t="s">
         <v>1766</v>
@@ -27507,7 +27513,7 @@
         <v>1776</v>
       </c>
       <c r="B1777">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1777" t="s">
         <v>1767</v>
@@ -27529,7 +27535,7 @@
         <v>1778</v>
       </c>
       <c r="B1779">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1779" t="s">
         <v>1769</v>
@@ -27540,7 +27546,7 @@
         <v>1779</v>
       </c>
       <c r="B1780">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1780" t="s">
         <v>1770</v>
@@ -27551,7 +27557,7 @@
         <v>1780</v>
       </c>
       <c r="B1781">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1781" t="s">
         <v>1771</v>
@@ -27562,7 +27568,7 @@
         <v>1781</v>
       </c>
       <c r="B1782">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1782" t="s">
         <v>1772</v>
@@ -27573,7 +27579,7 @@
         <v>1782</v>
       </c>
       <c r="B1783">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1783" t="s">
         <v>1773</v>
@@ -27584,7 +27590,7 @@
         <v>1783</v>
       </c>
       <c r="B1784">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1784" t="s">
         <v>1774</v>
@@ -27628,7 +27634,7 @@
         <v>1787</v>
       </c>
       <c r="B1788">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1788" t="s">
         <v>1778</v>
@@ -27639,7 +27645,7 @@
         <v>1788</v>
       </c>
       <c r="B1789">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1789" t="s">
         <v>1779</v>
@@ -27661,7 +27667,7 @@
         <v>1790</v>
       </c>
       <c r="B1791">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1791" t="s">
         <v>1781</v>
@@ -27672,7 +27678,7 @@
         <v>1791</v>
       </c>
       <c r="B1792">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1792" t="s">
         <v>1782</v>
@@ -27694,7 +27700,7 @@
         <v>1793</v>
       </c>
       <c r="B1794">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1794" t="s">
         <v>1784</v>
@@ -27705,7 +27711,7 @@
         <v>1794</v>
       </c>
       <c r="B1795">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1795" t="s">
         <v>1785</v>
@@ -27716,7 +27722,7 @@
         <v>1795</v>
       </c>
       <c r="B1796">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1796" t="s">
         <v>1786</v>
@@ -27727,7 +27733,7 @@
         <v>1796</v>
       </c>
       <c r="B1797">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1797" t="s">
         <v>1787</v>
@@ -27749,7 +27755,7 @@
         <v>1798</v>
       </c>
       <c r="B1799">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C1799" t="s">
         <v>1789</v>
@@ -27760,7 +27766,7 @@
         <v>1799</v>
       </c>
       <c r="B1800">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C1800" t="s">
         <v>1790</v>
@@ -27815,7 +27821,7 @@
         <v>1804</v>
       </c>
       <c r="B1805">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1805" t="s">
         <v>1795</v>
@@ -27826,7 +27832,7 @@
         <v>1805</v>
       </c>
       <c r="B1806">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1806" t="s">
         <v>1796</v>
@@ -27892,7 +27898,7 @@
         <v>1811</v>
       </c>
       <c r="B1812">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1812" t="s">
         <v>1802</v>
@@ -27903,7 +27909,7 @@
         <v>1812</v>
       </c>
       <c r="B1813">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1813" t="s">
         <v>1803</v>
@@ -27925,7 +27931,7 @@
         <v>1814</v>
       </c>
       <c r="B1815">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1815" t="s">
         <v>1805</v>
@@ -27936,7 +27942,7 @@
         <v>1815</v>
       </c>
       <c r="B1816">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1816" t="s">
         <v>1806</v>
@@ -27958,7 +27964,7 @@
         <v>1817</v>
       </c>
       <c r="B1818">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1818" t="s">
         <v>1808</v>
@@ -27969,7 +27975,7 @@
         <v>1818</v>
       </c>
       <c r="B1819">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1819" t="s">
         <v>1809</v>
@@ -27980,7 +27986,7 @@
         <v>1819</v>
       </c>
       <c r="B1820">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1820" t="s">
         <v>1810</v>
@@ -27991,7 +27997,7 @@
         <v>1820</v>
       </c>
       <c r="B1821">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1821" t="s">
         <v>1811</v>
@@ -28002,7 +28008,7 @@
         <v>1821</v>
       </c>
       <c r="B1822">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1822" t="s">
         <v>1812</v>
@@ -28013,7 +28019,7 @@
         <v>1822</v>
       </c>
       <c r="B1823">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1823" t="s">
         <v>1813</v>
@@ -28035,7 +28041,7 @@
         <v>1824</v>
       </c>
       <c r="B1825">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C1825" t="s">
         <v>1815</v>
@@ -28046,7 +28052,7 @@
         <v>1825</v>
       </c>
       <c r="B1826">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C1826" t="s">
         <v>1816</v>
@@ -28079,7 +28085,7 @@
         <v>1828</v>
       </c>
       <c r="B1829">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1829" t="s">
         <v>1819</v>
@@ -28090,7 +28096,7 @@
         <v>1829</v>
       </c>
       <c r="B1830">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1830" t="s">
         <v>1820</v>
@@ -28101,7 +28107,7 @@
         <v>1830</v>
       </c>
       <c r="B1831">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1831" t="s">
         <v>1821</v>
@@ -28112,7 +28118,7 @@
         <v>1831</v>
       </c>
       <c r="B1832">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1832" t="s">
         <v>1822</v>
@@ -28123,7 +28129,7 @@
         <v>1832</v>
       </c>
       <c r="B1833">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1833" t="s">
         <v>1823</v>
@@ -28134,7 +28140,7 @@
         <v>1833</v>
       </c>
       <c r="B1834">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C1834" t="s">
         <v>1824</v>
@@ -28145,7 +28151,7 @@
         <v>1834</v>
       </c>
       <c r="B1835">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1835" t="s">
         <v>1825</v>
@@ -28156,7 +28162,7 @@
         <v>1835</v>
       </c>
       <c r="B1836">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1836" t="s">
         <v>1826</v>
@@ -28189,7 +28195,7 @@
         <v>1838</v>
       </c>
       <c r="B1839">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1839" t="s">
         <v>1829</v>
@@ -28200,7 +28206,7 @@
         <v>1839</v>
       </c>
       <c r="B1840">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1840" t="s">
         <v>1830</v>
@@ -28233,7 +28239,7 @@
         <v>1842</v>
       </c>
       <c r="B1843">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C1843" t="s">
         <v>1833</v>
@@ -28244,7 +28250,7 @@
         <v>1843</v>
       </c>
       <c r="B1844">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C1844" t="s">
         <v>1834</v>
@@ -28266,7 +28272,7 @@
         <v>1845</v>
       </c>
       <c r="B1846">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1846" t="s">
         <v>1836</v>
@@ -28277,7 +28283,7 @@
         <v>1846</v>
       </c>
       <c r="B1847">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1847" t="s">
         <v>1837</v>
@@ -28288,7 +28294,7 @@
         <v>1847</v>
       </c>
       <c r="B1848">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1848" t="s">
         <v>1838</v>
@@ -28299,7 +28305,7 @@
         <v>1848</v>
       </c>
       <c r="B1849">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1849" t="s">
         <v>1839</v>
@@ -28310,7 +28316,7 @@
         <v>1849</v>
       </c>
       <c r="B1850">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1850" t="s">
         <v>1840</v>
@@ -28321,7 +28327,7 @@
         <v>1850</v>
       </c>
       <c r="B1851">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1851" t="s">
         <v>1841</v>
@@ -28332,7 +28338,7 @@
         <v>1851</v>
       </c>
       <c r="B1852">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1852" t="s">
         <v>1842</v>
@@ -28343,7 +28349,7 @@
         <v>1852</v>
       </c>
       <c r="B1853">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1853" t="s">
         <v>1843</v>
@@ -28376,7 +28382,7 @@
         <v>1855</v>
       </c>
       <c r="B1856">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C1856" t="s">
         <v>1846</v>
@@ -28387,7 +28393,7 @@
         <v>1856</v>
       </c>
       <c r="B1857">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C1857" t="s">
         <v>1847</v>
@@ -28409,7 +28415,7 @@
         <v>1858</v>
       </c>
       <c r="B1859">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1859" t="s">
         <v>1849</v>
@@ -28420,7 +28426,7 @@
         <v>1859</v>
       </c>
       <c r="B1860">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C1860" t="s">
         <v>1850</v>
@@ -28431,7 +28437,7 @@
         <v>1860</v>
       </c>
       <c r="B1861">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C1861" t="s">
         <v>1851</v>
@@ -28442,7 +28448,7 @@
         <v>1861</v>
       </c>
       <c r="B1862">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C1862" t="s">
         <v>1852</v>
@@ -28508,7 +28514,7 @@
         <v>1867</v>
       </c>
       <c r="B1868">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1868" t="s">
         <v>1858</v>
@@ -28519,7 +28525,7 @@
         <v>1868</v>
       </c>
       <c r="B1869">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1869" t="s">
         <v>1859</v>
@@ -28541,7 +28547,7 @@
         <v>1870</v>
       </c>
       <c r="B1871">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1871" t="s">
         <v>1861</v>
@@ -28552,7 +28558,7 @@
         <v>1871</v>
       </c>
       <c r="B1872">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C1872" t="s">
         <v>1862</v>
@@ -28563,7 +28569,7 @@
         <v>1872</v>
       </c>
       <c r="B1873">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1873" t="s">
         <v>1863</v>
@@ -28574,7 +28580,7 @@
         <v>1873</v>
       </c>
       <c r="B1874">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1874" t="s">
         <v>1864</v>
@@ -28585,7 +28591,7 @@
         <v>1874</v>
       </c>
       <c r="B1875">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1875" t="s">
         <v>1865</v>
@@ -28596,7 +28602,7 @@
         <v>1875</v>
       </c>
       <c r="B1876">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C1876" t="s">
         <v>1866</v>
@@ -28607,7 +28613,7 @@
         <v>1876</v>
       </c>
       <c r="B1877">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1877" t="s">
         <v>1867</v>
@@ -28618,7 +28624,7 @@
         <v>1877</v>
       </c>
       <c r="B1878">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1878" t="s">
         <v>1868</v>
@@ -28640,7 +28646,7 @@
         <v>1879</v>
       </c>
       <c r="B1880">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C1880" t="s">
         <v>1870</v>
@@ -28651,7 +28657,7 @@
         <v>1880</v>
       </c>
       <c r="B1881">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C1881" t="s">
         <v>1871</v>
@@ -28673,7 +28679,7 @@
         <v>1882</v>
       </c>
       <c r="B1883">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C1883" t="s">
         <v>1873</v>
@@ -28684,7 +28690,7 @@
         <v>1883</v>
       </c>
       <c r="B1884">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C1884" t="s">
         <v>1874</v>
@@ -28706,7 +28712,7 @@
         <v>1885</v>
       </c>
       <c r="B1886">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1886" t="s">
         <v>1876</v>
@@ -28717,7 +28723,7 @@
         <v>1886</v>
       </c>
       <c r="B1887">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C1887" t="s">
         <v>1877</v>
@@ -28728,7 +28734,7 @@
         <v>1887</v>
       </c>
       <c r="B1888">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1888" t="s">
         <v>1878</v>
@@ -28739,7 +28745,7 @@
         <v>1888</v>
       </c>
       <c r="B1889">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1889" t="s">
         <v>1879</v>
@@ -28750,7 +28756,7 @@
         <v>1889</v>
       </c>
       <c r="B1890">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1890" t="s">
         <v>1880</v>
@@ -28761,7 +28767,7 @@
         <v>1890</v>
       </c>
       <c r="B1891">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C1891" t="s">
         <v>1881</v>
@@ -28783,7 +28789,7 @@
         <v>1892</v>
       </c>
       <c r="B1893">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C1893" t="s">
         <v>1883</v>
@@ -28794,7 +28800,7 @@
         <v>1893</v>
       </c>
       <c r="B1894">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C1894" t="s">
         <v>1884</v>
@@ -28849,7 +28855,7 @@
         <v>1898</v>
       </c>
       <c r="B1899">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C1899" t="s">
         <v>1889</v>
@@ -28860,7 +28866,7 @@
         <v>1899</v>
       </c>
       <c r="B1900">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C1900" t="s">
         <v>1890</v>
@@ -28893,7 +28899,7 @@
         <v>1902</v>
       </c>
       <c r="B1903">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1903" t="s">
         <v>1893</v>
@@ -28904,7 +28910,7 @@
         <v>1903</v>
       </c>
       <c r="B1904">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1904" t="s">
         <v>1894</v>
@@ -28926,7 +28932,7 @@
         <v>1905</v>
       </c>
       <c r="B1906">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1906" t="s">
         <v>1896</v>
@@ -28937,7 +28943,7 @@
         <v>1906</v>
       </c>
       <c r="B1907">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1907" t="s">
         <v>1897</v>
@@ -28959,7 +28965,7 @@
         <v>1908</v>
       </c>
       <c r="B1909">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C1909" t="s">
         <v>1899</v>
@@ -28970,7 +28976,7 @@
         <v>1909</v>
       </c>
       <c r="B1910">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C1910" t="s">
         <v>1900</v>
@@ -29003,7 +29009,7 @@
         <v>1912</v>
       </c>
       <c r="B1913">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1913" t="s">
         <v>1903</v>
@@ -29014,7 +29020,7 @@
         <v>1913</v>
       </c>
       <c r="B1914">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C1914" t="s">
         <v>1904</v>
@@ -29025,7 +29031,7 @@
         <v>1914</v>
       </c>
       <c r="B1915">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C1915" t="s">
         <v>1905</v>
@@ -29080,7 +29086,7 @@
         <v>1919</v>
       </c>
       <c r="B1920">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1920" t="s">
         <v>1910</v>
@@ -29091,7 +29097,7 @@
         <v>1920</v>
       </c>
       <c r="B1921">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C1921" t="s">
         <v>1911</v>
@@ -29102,7 +29108,7 @@
         <v>1921</v>
       </c>
       <c r="B1922">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C1922" t="s">
         <v>1912</v>
@@ -29179,7 +29185,7 @@
         <v>1928</v>
       </c>
       <c r="B1929">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C1929" t="s">
         <v>1919</v>
@@ -29190,7 +29196,7 @@
         <v>1929</v>
       </c>
       <c r="B1930">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C1930" t="s">
         <v>1920</v>
@@ -29201,7 +29207,7 @@
         <v>1930</v>
       </c>
       <c r="B1931">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C1931" t="s">
         <v>1921</v>
@@ -29212,7 +29218,7 @@
         <v>1931</v>
       </c>
       <c r="B1932">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C1932" t="s">
         <v>1922</v>
@@ -29234,7 +29240,7 @@
         <v>1933</v>
       </c>
       <c r="B1934">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1934" t="s">
         <v>1924</v>
@@ -29245,7 +29251,7 @@
         <v>1934</v>
       </c>
       <c r="B1935">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C1935" t="s">
         <v>1925</v>
@@ -29256,7 +29262,7 @@
         <v>1935</v>
       </c>
       <c r="B1936">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1936" t="s">
         <v>1926</v>
@@ -29311,7 +29317,7 @@
         <v>1940</v>
       </c>
       <c r="B1941">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1941" t="s">
         <v>1931</v>
@@ -29322,7 +29328,7 @@
         <v>1941</v>
       </c>
       <c r="B1942">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C1942" t="s">
         <v>1932</v>
@@ -29355,7 +29361,7 @@
         <v>1944</v>
       </c>
       <c r="B1945">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1945" t="s">
         <v>1935</v>
@@ -29366,7 +29372,7 @@
         <v>1945</v>
       </c>
       <c r="B1946">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1946" t="s">
         <v>1936</v>
@@ -29432,7 +29438,7 @@
         <v>1951</v>
       </c>
       <c r="B1952">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1952" t="s">
         <v>1942</v>
@@ -29443,7 +29449,7 @@
         <v>1952</v>
       </c>
       <c r="B1953">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1953" t="s">
         <v>1943</v>
@@ -29476,7 +29482,7 @@
         <v>1955</v>
       </c>
       <c r="B1956">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1956" t="s">
         <v>1946</v>
@@ -29487,7 +29493,7 @@
         <v>1956</v>
       </c>
       <c r="B1957">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1957" t="s">
         <v>1947</v>
@@ -29630,7 +29636,7 @@
         <v>1969</v>
       </c>
       <c r="B1970">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1970" t="s">
         <v>1960</v>
@@ -29641,7 +29647,7 @@
         <v>1970</v>
       </c>
       <c r="B1971">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1971" t="s">
         <v>1961</v>
@@ -29663,7 +29669,7 @@
         <v>1972</v>
       </c>
       <c r="B1973">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1973" t="s">
         <v>1963</v>
@@ -29674,7 +29680,7 @@
         <v>1973</v>
       </c>
       <c r="B1974">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C1974" t="s">
         <v>1964</v>
@@ -29773,7 +29779,7 @@
         <v>1982</v>
       </c>
       <c r="B1983">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1983" t="s">
         <v>1973</v>
@@ -29784,7 +29790,7 @@
         <v>1983</v>
       </c>
       <c r="B1984">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1984" t="s">
         <v>1974</v>
@@ -29894,7 +29900,7 @@
         <v>1993</v>
       </c>
       <c r="B1994">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1994" t="s">
         <v>1984</v>
@@ -29905,7 +29911,7 @@
         <v>1994</v>
       </c>
       <c r="B1995">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C1995" t="s">
         <v>1985</v>
@@ -29971,7 +29977,7 @@
         <v>2000</v>
       </c>
       <c r="B2001">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2001" t="s">
         <v>1991</v>
@@ -29982,7 +29988,7 @@
         <v>2001</v>
       </c>
       <c r="B2002">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2002" t="s">
         <v>1992</v>
@@ -30015,7 +30021,7 @@
         <v>2004</v>
       </c>
       <c r="B2005">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2005" t="s">
         <v>1995</v>
@@ -30026,7 +30032,7 @@
         <v>2005</v>
       </c>
       <c r="B2006">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2006" t="s">
         <v>1996</v>
@@ -30059,7 +30065,7 @@
         <v>2008</v>
       </c>
       <c r="B2009">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2009" t="s">
         <v>1999</v>
@@ -30070,7 +30076,7 @@
         <v>2009</v>
       </c>
       <c r="B2010">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2010" t="s">
         <v>2000</v>
@@ -30081,7 +30087,7 @@
         <v>2010</v>
       </c>
       <c r="B2011">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2011" t="s">
         <v>2001</v>
@@ -30092,7 +30098,7 @@
         <v>2011</v>
       </c>
       <c r="B2012">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2012" t="s">
         <v>2002</v>
@@ -30136,7 +30142,7 @@
         <v>2015</v>
       </c>
       <c r="B2016">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2016" t="s">
         <v>2006</v>
@@ -30147,7 +30153,7 @@
         <v>2016</v>
       </c>
       <c r="B2017">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C2017" t="s">
         <v>2007</v>
@@ -30180,7 +30186,7 @@
         <v>2019</v>
       </c>
       <c r="B2020">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2020" t="s">
         <v>2010</v>
@@ -30191,7 +30197,7 @@
         <v>2020</v>
       </c>
       <c r="B2021">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2021" t="s">
         <v>2011</v>
@@ -30213,7 +30219,7 @@
         <v>2022</v>
       </c>
       <c r="B2023">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2023" t="s">
         <v>2013</v>
@@ -30224,7 +30230,7 @@
         <v>2023</v>
       </c>
       <c r="B2024">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C2024" t="s">
         <v>2014</v>
@@ -30235,7 +30241,7 @@
         <v>2024</v>
       </c>
       <c r="B2025">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C2025" t="s">
         <v>2015</v>
@@ -30268,7 +30274,7 @@
         <v>2027</v>
       </c>
       <c r="B2028">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C2028" t="s">
         <v>2018</v>
@@ -30279,7 +30285,7 @@
         <v>2028</v>
       </c>
       <c r="B2029">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C2029" t="s">
         <v>2019</v>
@@ -30301,7 +30307,7 @@
         <v>2030</v>
       </c>
       <c r="B2031">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2031" t="s">
         <v>2021</v>
@@ -30312,7 +30318,7 @@
         <v>2031</v>
       </c>
       <c r="B2032">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2032" t="s">
         <v>2022</v>
@@ -30323,7 +30329,7 @@
         <v>2032</v>
       </c>
       <c r="B2033">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2033" t="s">
         <v>2023</v>
@@ -30334,7 +30340,7 @@
         <v>2033</v>
       </c>
       <c r="B2034">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2034" t="s">
         <v>2024</v>
@@ -30356,7 +30362,7 @@
         <v>2035</v>
       </c>
       <c r="B2036">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2036" t="s">
         <v>2026</v>
@@ -30367,7 +30373,7 @@
         <v>2036</v>
       </c>
       <c r="B2037">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2037" t="s">
         <v>2027</v>
@@ -30378,7 +30384,7 @@
         <v>2037</v>
       </c>
       <c r="B2038">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2038" t="s">
         <v>2028</v>
@@ -30400,7 +30406,7 @@
         <v>2039</v>
       </c>
       <c r="B2040">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2040" t="s">
         <v>2030</v>
@@ -30411,7 +30417,7 @@
         <v>2040</v>
       </c>
       <c r="B2041">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C2041" t="s">
         <v>2031</v>
@@ -30433,7 +30439,7 @@
         <v>2042</v>
       </c>
       <c r="B2043">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2043" t="s">
         <v>2033</v>
@@ -30444,7 +30450,7 @@
         <v>2043</v>
       </c>
       <c r="B2044">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C2044" t="s">
         <v>2034</v>
@@ -30455,7 +30461,7 @@
         <v>2044</v>
       </c>
       <c r="B2045">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C2045" t="s">
         <v>2035</v>
@@ -30466,7 +30472,7 @@
         <v>2045</v>
       </c>
       <c r="B2046">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C2046" t="s">
         <v>2036</v>
@@ -30499,7 +30505,7 @@
         <v>2048</v>
       </c>
       <c r="B2049">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2049" t="s">
         <v>2039</v>
@@ -30510,7 +30516,7 @@
         <v>2049</v>
       </c>
       <c r="B2050">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2050" t="s">
         <v>2040</v>
@@ -30543,7 +30549,7 @@
         <v>2052</v>
       </c>
       <c r="B2053">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2053" t="s">
         <v>2043</v>
@@ -30554,7 +30560,7 @@
         <v>2053</v>
       </c>
       <c r="B2054">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2054" t="s">
         <v>2044</v>
@@ -30587,7 +30593,7 @@
         <v>2056</v>
       </c>
       <c r="B2057">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2057" t="s">
         <v>2047</v>
@@ -30598,7 +30604,7 @@
         <v>2057</v>
       </c>
       <c r="B2058">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C2058" t="s">
         <v>2048</v>
@@ -30609,7 +30615,7 @@
         <v>2058</v>
       </c>
       <c r="B2059">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2059" t="s">
         <v>2049</v>
@@ -30620,7 +30626,7 @@
         <v>2059</v>
       </c>
       <c r="B2060">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C2060" t="s">
         <v>2050</v>
@@ -30675,7 +30681,7 @@
         <v>2064</v>
       </c>
       <c r="B2065">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2065" t="s">
         <v>2055</v>
@@ -30686,7 +30692,7 @@
         <v>2065</v>
       </c>
       <c r="B2066">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2066" t="s">
         <v>2056</v>
@@ -30708,7 +30714,7 @@
         <v>2067</v>
       </c>
       <c r="B2068">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C2068" t="s">
         <v>2058</v>
@@ -30719,7 +30725,7 @@
         <v>2068</v>
       </c>
       <c r="B2069">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C2069" t="s">
         <v>2059</v>
@@ -30763,7 +30769,7 @@
         <v>2072</v>
       </c>
       <c r="B2073">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C2073" t="s">
         <v>2063</v>
@@ -30774,7 +30780,7 @@
         <v>2073</v>
       </c>
       <c r="B2074">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C2074" t="s">
         <v>2064</v>
@@ -30785,7 +30791,7 @@
         <v>2074</v>
       </c>
       <c r="B2075">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2075" t="s">
         <v>2065</v>
@@ -30796,7 +30802,7 @@
         <v>2075</v>
       </c>
       <c r="B2076">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2076" t="s">
         <v>2066</v>
@@ -30807,7 +30813,7 @@
         <v>2076</v>
       </c>
       <c r="B2077">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2077" t="s">
         <v>2067</v>
@@ -30906,7 +30912,7 @@
         <v>2085</v>
       </c>
       <c r="B2086">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2086" t="s">
         <v>2076</v>
@@ -30917,7 +30923,7 @@
         <v>2086</v>
       </c>
       <c r="B2087">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2087" t="s">
         <v>2077</v>
@@ -30928,7 +30934,7 @@
         <v>2087</v>
       </c>
       <c r="B2088">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2088" t="s">
         <v>2078</v>
@@ -30939,7 +30945,7 @@
         <v>2088</v>
       </c>
       <c r="B2089">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C2089" t="s">
         <v>2079</v>
@@ -30983,7 +30989,7 @@
         <v>2092</v>
       </c>
       <c r="B2093">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2093" t="s">
         <v>2083</v>
@@ -30994,7 +31000,7 @@
         <v>2093</v>
       </c>
       <c r="B2094">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2094" t="s">
         <v>2084</v>
@@ -31027,7 +31033,7 @@
         <v>2096</v>
       </c>
       <c r="B2097">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2097" t="s">
         <v>2087</v>
@@ -31038,7 +31044,7 @@
         <v>2097</v>
       </c>
       <c r="B2098">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2098" t="s">
         <v>2088</v>
@@ -31060,7 +31066,7 @@
         <v>2099</v>
       </c>
       <c r="B2100">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2100" t="s">
         <v>2090</v>
@@ -31071,7 +31077,7 @@
         <v>2100</v>
       </c>
       <c r="B2101">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2101" t="s">
         <v>2091</v>
@@ -31104,7 +31110,7 @@
         <v>2103</v>
       </c>
       <c r="B2104">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2104" t="s">
         <v>2094</v>
@@ -31115,7 +31121,7 @@
         <v>2104</v>
       </c>
       <c r="B2105">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2105" t="s">
         <v>2095</v>
@@ -31126,7 +31132,7 @@
         <v>2105</v>
       </c>
       <c r="B2106">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2106" t="s">
         <v>2096</v>
@@ -31137,7 +31143,7 @@
         <v>2106</v>
       </c>
       <c r="B2107">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2107" t="s">
         <v>2097</v>
@@ -31148,7 +31154,7 @@
         <v>2107</v>
       </c>
       <c r="B2108">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2108" t="s">
         <v>2098</v>
@@ -31159,7 +31165,7 @@
         <v>2108</v>
       </c>
       <c r="B2109">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2109" t="s">
         <v>2099</v>
@@ -31192,7 +31198,7 @@
         <v>2111</v>
       </c>
       <c r="B2112">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2112" t="s">
         <v>2102</v>
@@ -31203,7 +31209,7 @@
         <v>2112</v>
       </c>
       <c r="B2113">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2113" t="s">
         <v>2103</v>
@@ -31214,7 +31220,7 @@
         <v>2113</v>
       </c>
       <c r="B2114">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C2114" t="s">
         <v>2104</v>
@@ -31225,7 +31231,7 @@
         <v>2114</v>
       </c>
       <c r="B2115">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C2115" t="s">
         <v>2105</v>
@@ -31269,7 +31275,7 @@
         <v>2118</v>
       </c>
       <c r="B2119">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2119" t="s">
         <v>2109</v>
@@ -31280,7 +31286,7 @@
         <v>2119</v>
       </c>
       <c r="B2120">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C2120" t="s">
         <v>2110</v>
@@ -31302,7 +31308,7 @@
         <v>2121</v>
       </c>
       <c r="B2122">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2122" t="s">
         <v>2112</v>
@@ -31313,7 +31319,7 @@
         <v>2122</v>
       </c>
       <c r="B2123">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2123" t="s">
         <v>2113</v>
@@ -31357,7 +31363,7 @@
         <v>2126</v>
       </c>
       <c r="B2127">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2127" t="s">
         <v>2117</v>
@@ -31368,7 +31374,7 @@
         <v>2127</v>
       </c>
       <c r="B2128">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2128" t="s">
         <v>2118</v>
@@ -31379,7 +31385,7 @@
         <v>2128</v>
       </c>
       <c r="B2129">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2129" t="s">
         <v>2119</v>
@@ -31390,7 +31396,7 @@
         <v>2129</v>
       </c>
       <c r="B2130">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C2130" t="s">
         <v>2120</v>
@@ -31401,7 +31407,7 @@
         <v>2130</v>
       </c>
       <c r="B2131">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2131" t="s">
         <v>2121</v>
@@ -31412,7 +31418,7 @@
         <v>2131</v>
       </c>
       <c r="B2132">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C2132" t="s">
         <v>2122</v>
@@ -31456,7 +31462,7 @@
         <v>2135</v>
       </c>
       <c r="B2136">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2136" t="s">
         <v>2126</v>
@@ -31467,7 +31473,7 @@
         <v>2136</v>
       </c>
       <c r="B2137">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2137" t="s">
         <v>2127</v>
@@ -31533,7 +31539,7 @@
         <v>2142</v>
       </c>
       <c r="B2143">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2143" t="s">
         <v>2133</v>
@@ -31544,7 +31550,7 @@
         <v>2143</v>
       </c>
       <c r="B2144">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C2144" t="s">
         <v>2134</v>
@@ -31555,7 +31561,7 @@
         <v>2144</v>
       </c>
       <c r="B2145">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C2145" t="s">
         <v>2135</v>
@@ -31566,7 +31572,7 @@
         <v>2145</v>
       </c>
       <c r="B2146">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C2146" t="s">
         <v>2136</v>
@@ -31610,7 +31616,7 @@
         <v>2149</v>
       </c>
       <c r="B2150">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C2150" t="s">
         <v>2140</v>
@@ -31621,7 +31627,7 @@
         <v>2150</v>
       </c>
       <c r="B2151">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C2151" t="s">
         <v>2141</v>
@@ -31643,7 +31649,7 @@
         <v>2152</v>
       </c>
       <c r="B2153">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C2153" t="s">
         <v>2143</v>
@@ -31654,7 +31660,7 @@
         <v>2153</v>
       </c>
       <c r="B2154">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C2154" t="s">
         <v>2144</v>
@@ -31676,7 +31682,7 @@
         <v>2155</v>
       </c>
       <c r="B2156">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2156" t="s">
         <v>2146</v>
@@ -31687,7 +31693,7 @@
         <v>2156</v>
       </c>
       <c r="B2157">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C2157" t="s">
         <v>2147</v>
@@ -31698,7 +31704,7 @@
         <v>2157</v>
       </c>
       <c r="B2158">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2158" t="s">
         <v>2148</v>
@@ -31709,7 +31715,7 @@
         <v>2158</v>
       </c>
       <c r="B2159">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C2159" t="s">
         <v>2149</v>
@@ -31731,7 +31737,7 @@
         <v>2160</v>
       </c>
       <c r="B2161">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2161" t="s">
         <v>2151</v>
@@ -31742,7 +31748,7 @@
         <v>2161</v>
       </c>
       <c r="B2162">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C2162" t="s">
         <v>2152</v>
@@ -31775,7 +31781,7 @@
         <v>2164</v>
       </c>
       <c r="B2165">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2165" t="s">
         <v>2155</v>
@@ -31786,7 +31792,7 @@
         <v>2165</v>
       </c>
       <c r="B2166">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2166" t="s">
         <v>2156</v>
@@ -31819,7 +31825,7 @@
         <v>2168</v>
       </c>
       <c r="B2169">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2169" t="s">
         <v>2159</v>
@@ -31830,7 +31836,7 @@
         <v>2169</v>
       </c>
       <c r="B2170">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2170" t="s">
         <v>2160</v>
@@ -31874,7 +31880,7 @@
         <v>2173</v>
       </c>
       <c r="B2174">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C2174" t="s">
         <v>2164</v>
@@ -31885,7 +31891,7 @@
         <v>2174</v>
       </c>
       <c r="B2175">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C2175" t="s">
         <v>2165</v>
@@ -31896,7 +31902,7 @@
         <v>2175</v>
       </c>
       <c r="B2176">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C2176" t="s">
         <v>2166</v>
@@ -31929,7 +31935,7 @@
         <v>2178</v>
       </c>
       <c r="B2179">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2179" t="s">
         <v>2169</v>
@@ -31940,7 +31946,7 @@
         <v>2179</v>
       </c>
       <c r="B2180">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C2180" t="s">
         <v>2170</v>
@@ -31973,7 +31979,7 @@
         <v>2182</v>
       </c>
       <c r="B2183">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2183" t="s">
         <v>2173</v>
@@ -31984,7 +31990,7 @@
         <v>2183</v>
       </c>
       <c r="B2184">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C2184" t="s">
         <v>2174</v>
@@ -32006,7 +32012,7 @@
         <v>2185</v>
       </c>
       <c r="B2186">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C2186" t="s">
         <v>2176</v>
@@ -32017,7 +32023,7 @@
         <v>2186</v>
       </c>
       <c r="B2187">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C2187" t="s">
         <v>2177</v>
@@ -32072,7 +32078,7 @@
         <v>2191</v>
       </c>
       <c r="B2192">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2192" t="s">
         <v>2182</v>
@@ -32083,7 +32089,7 @@
         <v>2192</v>
       </c>
       <c r="B2193">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C2193" t="s">
         <v>2183</v>
@@ -32094,7 +32100,7 @@
         <v>2193</v>
       </c>
       <c r="B2194">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C2194" t="s">
         <v>2184</v>
@@ -32105,7 +32111,7 @@
         <v>2194</v>
       </c>
       <c r="B2195">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2195" t="s">
         <v>2185</v>
@@ -32116,7 +32122,7 @@
         <v>2195</v>
       </c>
       <c r="B2196">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2196" t="s">
         <v>2186</v>
@@ -32138,7 +32144,7 @@
         <v>2197</v>
       </c>
       <c r="B2198">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2198" t="s">
         <v>2188</v>
@@ -32149,7 +32155,7 @@
         <v>2198</v>
       </c>
       <c r="B2199">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2199" t="s">
         <v>2189</v>
@@ -32160,7 +32166,7 @@
         <v>2199</v>
       </c>
       <c r="B2200">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2200" t="s">
         <v>2190</v>
@@ -32171,7 +32177,7 @@
         <v>2200</v>
       </c>
       <c r="B2201">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2201" t="s">
         <v>2191</v>
@@ -32204,7 +32210,7 @@
         <v>2203</v>
       </c>
       <c r="B2204">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C2204" t="s">
         <v>2194</v>
@@ -32215,7 +32221,7 @@
         <v>2204</v>
       </c>
       <c r="B2205">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C2205" t="s">
         <v>2195</v>
@@ -32259,7 +32265,7 @@
         <v>2208</v>
       </c>
       <c r="B2209">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2209" t="s">
         <v>2199</v>
@@ -32270,7 +32276,7 @@
         <v>2209</v>
       </c>
       <c r="B2210">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2210" t="s">
         <v>2200</v>
@@ -32303,7 +32309,7 @@
         <v>2212</v>
       </c>
       <c r="B2213">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2213" t="s">
         <v>2203</v>
@@ -32314,7 +32320,7 @@
         <v>2213</v>
       </c>
       <c r="B2214">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2214" t="s">
         <v>2204</v>
@@ -32325,7 +32331,7 @@
         <v>2214</v>
       </c>
       <c r="B2215">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2215" t="s">
         <v>2205</v>
@@ -32336,7 +32342,7 @@
         <v>2215</v>
       </c>
       <c r="B2216">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2216" t="s">
         <v>2206</v>
@@ -32358,7 +32364,7 @@
         <v>2217</v>
       </c>
       <c r="B2218">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2218" t="s">
         <v>2208</v>
@@ -32369,7 +32375,7 @@
         <v>2218</v>
       </c>
       <c r="B2219">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C2219" t="s">
         <v>2209</v>
@@ -32380,7 +32386,7 @@
         <v>2219</v>
       </c>
       <c r="B2220">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2220" t="s">
         <v>2210</v>
@@ -32435,7 +32441,7 @@
         <v>2224</v>
       </c>
       <c r="B2225">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C2225" t="s">
         <v>2215</v>
@@ -32446,7 +32452,7 @@
         <v>2225</v>
       </c>
       <c r="B2226">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C2226" t="s">
         <v>2216</v>
@@ -32457,7 +32463,7 @@
         <v>2226</v>
       </c>
       <c r="B2227">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2227" t="s">
         <v>2217</v>
@@ -32501,7 +32507,7 @@
         <v>2230</v>
       </c>
       <c r="B2231">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2231" t="s">
         <v>2221</v>
@@ -32512,7 +32518,7 @@
         <v>2231</v>
       </c>
       <c r="B2232">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2232" t="s">
         <v>2222</v>
@@ -32567,7 +32573,7 @@
         <v>2236</v>
       </c>
       <c r="B2237">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2237" t="s">
         <v>2227</v>
@@ -32578,7 +32584,7 @@
         <v>2237</v>
       </c>
       <c r="B2238">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2238" t="s">
         <v>2228</v>
@@ -32611,7 +32617,7 @@
         <v>2240</v>
       </c>
       <c r="B2241">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2241" t="s">
         <v>2231</v>
@@ -32622,7 +32628,7 @@
         <v>2241</v>
       </c>
       <c r="B2242">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2242" t="s">
         <v>2232</v>
@@ -32655,7 +32661,7 @@
         <v>2244</v>
       </c>
       <c r="B2245">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2245" t="s">
         <v>2235</v>
@@ -32666,7 +32672,7 @@
         <v>2245</v>
       </c>
       <c r="B2246">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2246" t="s">
         <v>2236</v>
@@ -32677,7 +32683,7 @@
         <v>2246</v>
       </c>
       <c r="B2247">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2247" t="s">
         <v>2237</v>
@@ -32688,7 +32694,7 @@
         <v>2247</v>
       </c>
       <c r="B2248">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2248" t="s">
         <v>2238</v>
@@ -32721,7 +32727,7 @@
         <v>2250</v>
       </c>
       <c r="B2251">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2251" t="s">
         <v>2241</v>
@@ -32732,7 +32738,7 @@
         <v>2251</v>
       </c>
       <c r="B2252">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2252" t="s">
         <v>2242</v>
@@ -32743,7 +32749,7 @@
         <v>2252</v>
       </c>
       <c r="B2253">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2253" t="s">
         <v>2243</v>
@@ -32754,7 +32760,7 @@
         <v>2253</v>
       </c>
       <c r="B2254">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2254" t="s">
         <v>2244</v>
@@ -32798,7 +32804,7 @@
         <v>2257</v>
       </c>
       <c r="B2258">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2258" t="s">
         <v>2248</v>
@@ -32809,7 +32815,7 @@
         <v>2258</v>
       </c>
       <c r="B2259">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2259" t="s">
         <v>2249</v>
@@ -32820,7 +32826,7 @@
         <v>2259</v>
       </c>
       <c r="B2260">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2260" t="s">
         <v>2250</v>
@@ -32831,7 +32837,7 @@
         <v>2260</v>
       </c>
       <c r="B2261">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2261" t="s">
         <v>2251</v>
@@ -32842,7 +32848,7 @@
         <v>2261</v>
       </c>
       <c r="B2262">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C2262" t="s">
         <v>2252</v>
@@ -32853,7 +32859,7 @@
         <v>2262</v>
       </c>
       <c r="B2263">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2263" t="s">
         <v>2253</v>
@@ -32864,7 +32870,7 @@
         <v>2263</v>
       </c>
       <c r="B2264">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2264" t="s">
         <v>2254</v>
@@ -32875,7 +32881,7 @@
         <v>2264</v>
       </c>
       <c r="B2265">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2265" t="s">
         <v>2255</v>
@@ -32886,7 +32892,7 @@
         <v>2265</v>
       </c>
       <c r="B2266">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2266" t="s">
         <v>2256</v>
@@ -32908,7 +32914,7 @@
         <v>2267</v>
       </c>
       <c r="B2268">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2268" t="s">
         <v>2258</v>
@@ -32919,7 +32925,7 @@
         <v>2268</v>
       </c>
       <c r="B2269">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2269" t="s">
         <v>2259</v>
@@ -32952,7 +32958,7 @@
         <v>2271</v>
       </c>
       <c r="B2272">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2272" t="s">
         <v>2262</v>
@@ -32963,7 +32969,7 @@
         <v>2272</v>
       </c>
       <c r="B2273">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2273" t="s">
         <v>2263</v>
@@ -32985,7 +32991,7 @@
         <v>2274</v>
       </c>
       <c r="B2275">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2275" t="s">
         <v>2265</v>
@@ -32996,7 +33002,7 @@
         <v>2275</v>
       </c>
       <c r="B2276">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2276" t="s">
         <v>2266</v>
@@ -33018,7 +33024,7 @@
         <v>2277</v>
       </c>
       <c r="B2278">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2278" t="s">
         <v>2268</v>
@@ -33029,7 +33035,7 @@
         <v>2278</v>
       </c>
       <c r="B2279">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2279" t="s">
         <v>2269</v>
@@ -33062,7 +33068,7 @@
         <v>2281</v>
       </c>
       <c r="B2282">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2282" t="s">
         <v>2272</v>
@@ -33073,7 +33079,7 @@
         <v>2282</v>
       </c>
       <c r="B2283">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2283" t="s">
         <v>2273</v>
@@ -33106,7 +33112,7 @@
         <v>2285</v>
       </c>
       <c r="B2286">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C2286" t="s">
         <v>2276</v>
@@ -33117,7 +33123,7 @@
         <v>2286</v>
       </c>
       <c r="B2287">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C2287" t="s">
         <v>2277</v>
@@ -33183,7 +33189,7 @@
         <v>2292</v>
       </c>
       <c r="B2293">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2293" t="s">
         <v>2283</v>
@@ -33194,7 +33200,7 @@
         <v>2293</v>
       </c>
       <c r="B2294">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C2294" t="s">
         <v>2284</v>
@@ -33205,7 +33211,7 @@
         <v>2294</v>
       </c>
       <c r="B2295">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2295" t="s">
         <v>2285</v>
@@ -33238,7 +33244,7 @@
         <v>2297</v>
       </c>
       <c r="B2298">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2298" t="s">
         <v>2288</v>
@@ -33249,7 +33255,7 @@
         <v>2298</v>
       </c>
       <c r="B2299">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2299" t="s">
         <v>2289</v>
@@ -33282,7 +33288,7 @@
         <v>2301</v>
       </c>
       <c r="B2302">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2302" t="s">
         <v>2292</v>
@@ -33293,7 +33299,7 @@
         <v>2302</v>
       </c>
       <c r="B2303">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2303" t="s">
         <v>2293</v>
@@ -33304,7 +33310,7 @@
         <v>2303</v>
       </c>
       <c r="B2304">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2304" t="s">
         <v>2294</v>
@@ -33315,7 +33321,7 @@
         <v>2304</v>
       </c>
       <c r="B2305">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2305" t="s">
         <v>2295</v>
@@ -33326,7 +33332,7 @@
         <v>2305</v>
       </c>
       <c r="B2306">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C2306" t="s">
         <v>2296</v>
@@ -33337,7 +33343,7 @@
         <v>2306</v>
       </c>
       <c r="B2307">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C2307" t="s">
         <v>2297</v>
@@ -33370,7 +33376,7 @@
         <v>2309</v>
       </c>
       <c r="B2310">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2310" t="s">
         <v>2300</v>
@@ -33381,7 +33387,7 @@
         <v>2310</v>
       </c>
       <c r="B2311">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2311" t="s">
         <v>2301</v>
@@ -33414,7 +33420,7 @@
         <v>2313</v>
       </c>
       <c r="B2314">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2314" t="s">
         <v>2304</v>
@@ -33425,7 +33431,7 @@
         <v>2314</v>
       </c>
       <c r="B2315">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2315" t="s">
         <v>2305</v>
@@ -33458,7 +33464,7 @@
         <v>2317</v>
       </c>
       <c r="B2318">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2318" t="s">
         <v>2308</v>
@@ -33469,7 +33475,7 @@
         <v>2318</v>
       </c>
       <c r="B2319">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2319" t="s">
         <v>2309</v>
@@ -33480,7 +33486,7 @@
         <v>2319</v>
       </c>
       <c r="B2320">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2320" t="s">
         <v>2310</v>
@@ -33491,7 +33497,7 @@
         <v>2320</v>
       </c>
       <c r="B2321">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C2321" t="s">
         <v>2311</v>
@@ -33502,7 +33508,7 @@
         <v>2321</v>
       </c>
       <c r="B2322">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C2322" t="s">
         <v>2312</v>
@@ -33513,7 +33519,7 @@
         <v>2322</v>
       </c>
       <c r="B2323">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C2323" t="s">
         <v>2313</v>
@@ -33524,7 +33530,7 @@
         <v>2323</v>
       </c>
       <c r="B2324">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C2324" t="s">
         <v>2314</v>
@@ -33557,7 +33563,7 @@
         <v>2326</v>
       </c>
       <c r="B2327">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2327" t="s">
         <v>2317</v>
@@ -33568,7 +33574,7 @@
         <v>2327</v>
       </c>
       <c r="B2328">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C2328" t="s">
         <v>2318</v>
@@ -33579,7 +33585,7 @@
         <v>2328</v>
       </c>
       <c r="B2329">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2329" t="s">
         <v>2319</v>
@@ -33601,7 +33607,7 @@
         <v>2330</v>
       </c>
       <c r="B2331">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2331" t="s">
         <v>2321</v>
@@ -33612,7 +33618,7 @@
         <v>2331</v>
       </c>
       <c r="B2332">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C2332" t="s">
         <v>2322</v>
@@ -33623,7 +33629,7 @@
         <v>2332</v>
       </c>
       <c r="B2333">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2333" t="s">
         <v>2323</v>
@@ -33634,7 +33640,7 @@
         <v>2333</v>
       </c>
       <c r="B2334">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2334" t="s">
         <v>2324</v>
@@ -33645,7 +33651,7 @@
         <v>2334</v>
       </c>
       <c r="B2335">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2335" t="s">
         <v>2325</v>
@@ -33656,7 +33662,7 @@
         <v>2335</v>
       </c>
       <c r="B2336">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2336" t="s">
         <v>2326</v>
@@ -33689,7 +33695,7 @@
         <v>2338</v>
       </c>
       <c r="B2339">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2339" t="s">
         <v>2329</v>
@@ -33700,7 +33706,7 @@
         <v>2339</v>
       </c>
       <c r="B2340">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2340" t="s">
         <v>2330</v>
@@ -33722,7 +33728,7 @@
         <v>2341</v>
       </c>
       <c r="B2342">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2342" t="s">
         <v>2332</v>
@@ -33733,7 +33739,7 @@
         <v>2342</v>
       </c>
       <c r="B2343">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C2343" t="s">
         <v>2333</v>
@@ -33744,7 +33750,7 @@
         <v>2343</v>
       </c>
       <c r="B2344">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2344" t="s">
         <v>2334</v>
@@ -33788,7 +33794,7 @@
         <v>2347</v>
       </c>
       <c r="B2348">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2348" t="s">
         <v>2338</v>
@@ -33799,7 +33805,7 @@
         <v>2348</v>
       </c>
       <c r="B2349">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C2349" t="s">
         <v>2339</v>
@@ -33810,7 +33816,7 @@
         <v>2349</v>
       </c>
       <c r="B2350">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C2350" t="s">
         <v>2340</v>
@@ -33821,7 +33827,7 @@
         <v>2350</v>
       </c>
       <c r="B2351">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2351" t="s">
         <v>2341</v>
@@ -33832,7 +33838,7 @@
         <v>2351</v>
       </c>
       <c r="B2352">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C2352" t="s">
         <v>2342</v>
@@ -33843,7 +33849,7 @@
         <v>2352</v>
       </c>
       <c r="B2353">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2353" t="s">
         <v>2343</v>
@@ -33854,7 +33860,7 @@
         <v>2353</v>
       </c>
       <c r="B2354">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2354" t="s">
         <v>2344</v>
@@ -33865,7 +33871,7 @@
         <v>2354</v>
       </c>
       <c r="B2355">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2355" t="s">
         <v>2345</v>
@@ -33898,7 +33904,7 @@
         <v>2357</v>
       </c>
       <c r="B2358">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2358" t="s">
         <v>2348</v>
@@ -33909,7 +33915,7 @@
         <v>2358</v>
       </c>
       <c r="B2359">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2359" t="s">
         <v>2349</v>
@@ -33931,7 +33937,7 @@
         <v>2360</v>
       </c>
       <c r="B2361">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2361" t="s">
         <v>2351</v>
@@ -33942,7 +33948,7 @@
         <v>2361</v>
       </c>
       <c r="B2362">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2362" t="s">
         <v>2352</v>
@@ -33953,7 +33959,7 @@
         <v>2362</v>
       </c>
       <c r="B2363">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2363" t="s">
         <v>2353</v>
@@ -33964,7 +33970,7 @@
         <v>2363</v>
       </c>
       <c r="B2364">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2364" t="s">
         <v>2354</v>
@@ -33975,7 +33981,7 @@
         <v>2364</v>
       </c>
       <c r="B2365">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C2365" t="s">
         <v>2355</v>
@@ -33986,7 +33992,7 @@
         <v>2365</v>
       </c>
       <c r="B2366">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C2366" t="s">
         <v>2356</v>
@@ -33997,7 +34003,7 @@
         <v>2366</v>
       </c>
       <c r="B2367">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2367" t="s">
         <v>2357</v>
@@ -34008,7 +34014,7 @@
         <v>2367</v>
       </c>
       <c r="B2368">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2368" t="s">
         <v>2358</v>
@@ -34019,7 +34025,7 @@
         <v>2368</v>
       </c>
       <c r="B2369">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2369" t="s">
         <v>2359</v>
@@ -34041,7 +34047,7 @@
         <v>2370</v>
       </c>
       <c r="B2371">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2371" t="s">
         <v>2361</v>
@@ -34052,7 +34058,7 @@
         <v>2371</v>
       </c>
       <c r="B2372">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2372" t="s">
         <v>2362</v>
@@ -34063,7 +34069,7 @@
         <v>2372</v>
       </c>
       <c r="B2373">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2373" t="s">
         <v>2363</v>
@@ -34074,7 +34080,7 @@
         <v>2373</v>
       </c>
       <c r="B2374">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2374" t="s">
         <v>2364</v>
@@ -34085,7 +34091,7 @@
         <v>2374</v>
       </c>
       <c r="B2375">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2375" t="s">
         <v>2365</v>
@@ -34096,7 +34102,7 @@
         <v>2375</v>
       </c>
       <c r="B2376">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2376" t="s">
         <v>2366</v>
@@ -34129,7 +34135,7 @@
         <v>2378</v>
       </c>
       <c r="B2379">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2379" t="s">
         <v>2369</v>
@@ -34140,7 +34146,7 @@
         <v>2379</v>
       </c>
       <c r="B2380">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2380" t="s">
         <v>2370</v>
@@ -34162,7 +34168,7 @@
         <v>2381</v>
       </c>
       <c r="B2382">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2382" t="s">
         <v>2372</v>
@@ -34173,7 +34179,7 @@
         <v>2382</v>
       </c>
       <c r="B2383">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2383" t="s">
         <v>2373</v>
@@ -34217,7 +34223,7 @@
         <v>2386</v>
       </c>
       <c r="B2387">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2387" t="s">
         <v>2377</v>
@@ -34228,7 +34234,7 @@
         <v>2387</v>
       </c>
       <c r="B2388">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C2388" t="s">
         <v>2378</v>
@@ -34239,7 +34245,7 @@
         <v>2388</v>
       </c>
       <c r="B2389">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C2389" t="s">
         <v>2379</v>
@@ -34250,7 +34256,7 @@
         <v>2389</v>
       </c>
       <c r="B2390">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C2390" t="s">
         <v>2380</v>
@@ -34261,7 +34267,7 @@
         <v>2390</v>
       </c>
       <c r="B2391">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C2391" t="s">
         <v>2381</v>
@@ -34272,7 +34278,7 @@
         <v>2391</v>
       </c>
       <c r="B2392">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C2392" t="s">
         <v>2382</v>
@@ -34283,7 +34289,7 @@
         <v>2392</v>
       </c>
       <c r="B2393">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C2393" t="s">
         <v>2383</v>
@@ -34305,7 +34311,7 @@
         <v>2394</v>
       </c>
       <c r="B2395">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C2395" t="s">
         <v>2385</v>
@@ -34316,7 +34322,7 @@
         <v>2395</v>
       </c>
       <c r="B2396">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2396" t="s">
         <v>2386</v>
@@ -34327,7 +34333,7 @@
         <v>2396</v>
       </c>
       <c r="B2397">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C2397" t="s">
         <v>2387</v>
@@ -34338,7 +34344,7 @@
         <v>2397</v>
       </c>
       <c r="B2398">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2398" t="s">
         <v>2388</v>
@@ -34349,7 +34355,7 @@
         <v>2398</v>
       </c>
       <c r="B2399">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C2399" t="s">
         <v>2389</v>
@@ -34360,7 +34366,7 @@
         <v>2399</v>
       </c>
       <c r="B2400">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2400" t="s">
         <v>2390</v>
@@ -34371,7 +34377,7 @@
         <v>2400</v>
       </c>
       <c r="B2401">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C2401" t="s">
         <v>2391</v>
@@ -34382,7 +34388,7 @@
         <v>2401</v>
       </c>
       <c r="B2402">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2402" t="s">
         <v>2392</v>
@@ -34393,7 +34399,7 @@
         <v>2402</v>
       </c>
       <c r="B2403">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C2403" t="s">
         <v>2393</v>
@@ -34404,7 +34410,7 @@
         <v>2403</v>
       </c>
       <c r="B2404">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C2404" t="s">
         <v>2394</v>
@@ -34459,7 +34465,7 @@
         <v>2408</v>
       </c>
       <c r="B2409">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2409" t="s">
         <v>2399</v>
@@ -34470,7 +34476,7 @@
         <v>2409</v>
       </c>
       <c r="B2410">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2410" t="s">
         <v>2400</v>
@@ -34481,7 +34487,7 @@
         <v>2410</v>
       </c>
       <c r="B2411">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2411" t="s">
         <v>2401</v>
@@ -34492,7 +34498,7 @@
         <v>2411</v>
       </c>
       <c r="B2412">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2412" t="s">
         <v>2402</v>
@@ -34525,7 +34531,7 @@
         <v>2414</v>
       </c>
       <c r="B2415">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C2415" t="s">
         <v>2405</v>
@@ -34536,7 +34542,7 @@
         <v>2415</v>
       </c>
       <c r="B2416">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2416" t="s">
         <v>2406</v>
@@ -34547,7 +34553,7 @@
         <v>2416</v>
       </c>
       <c r="B2417">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C2417" t="s">
         <v>2407</v>
@@ -34558,7 +34564,7 @@
         <v>2417</v>
       </c>
       <c r="B2418">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C2418" t="s">
         <v>2408</v>
@@ -34569,7 +34575,7 @@
         <v>2418</v>
       </c>
       <c r="B2419">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C2419" t="s">
         <v>2409</v>
@@ -34580,7 +34586,7 @@
         <v>2419</v>
       </c>
       <c r="B2420">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C2420" t="s">
         <v>2410</v>
@@ -34591,7 +34597,7 @@
         <v>2420</v>
       </c>
       <c r="B2421">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2421" t="s">
         <v>2411</v>
@@ -34613,7 +34619,7 @@
         <v>2422</v>
       </c>
       <c r="B2423">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2423" t="s">
         <v>2413</v>
@@ -34624,7 +34630,7 @@
         <v>2423</v>
       </c>
       <c r="B2424">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2424" t="s">
         <v>2414</v>
@@ -34635,7 +34641,7 @@
         <v>2424</v>
       </c>
       <c r="B2425">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C2425" t="s">
         <v>2415</v>
@@ -34646,7 +34652,7 @@
         <v>2425</v>
       </c>
       <c r="B2426">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C2426" t="s">
         <v>2416</v>
@@ -34657,7 +34663,7 @@
         <v>2426</v>
       </c>
       <c r="B2427">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C2427" t="s">
         <v>2417</v>
@@ -34668,7 +34674,7 @@
         <v>2427</v>
       </c>
       <c r="B2428">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C2428" t="s">
         <v>2418</v>
@@ -34679,7 +34685,7 @@
         <v>2428</v>
       </c>
       <c r="B2429">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C2429" t="s">
         <v>2419</v>
@@ -34690,7 +34696,7 @@
         <v>2429</v>
       </c>
       <c r="B2430">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C2430" t="s">
         <v>2420</v>
@@ -34701,7 +34707,7 @@
         <v>2430</v>
       </c>
       <c r="B2431">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C2431" t="s">
         <v>2421</v>
@@ -34712,7 +34718,7 @@
         <v>2431</v>
       </c>
       <c r="B2432">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2432" t="s">
         <v>2422</v>
@@ -34723,7 +34729,7 @@
         <v>2432</v>
       </c>
       <c r="B2433">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2433" t="s">
         <v>2423</v>
@@ -34734,7 +34740,7 @@
         <v>2433</v>
       </c>
       <c r="B2434">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2434" t="s">
         <v>2424</v>
@@ -34767,7 +34773,7 @@
         <v>2436</v>
       </c>
       <c r="B2437">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C2437" t="s">
         <v>2427</v>
@@ -34778,7 +34784,7 @@
         <v>2437</v>
       </c>
       <c r="B2438">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C2438" t="s">
         <v>2428</v>
@@ -34789,7 +34795,7 @@
         <v>2438</v>
       </c>
       <c r="B2439">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C2439" t="s">
         <v>2429</v>
@@ -34800,7 +34806,7 @@
         <v>2439</v>
       </c>
       <c r="B2440">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2440" t="s">
         <v>2430</v>
@@ -34811,7 +34817,7 @@
         <v>2440</v>
       </c>
       <c r="B2441">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2441" t="s">
         <v>2431</v>
@@ -34822,7 +34828,7 @@
         <v>2441</v>
       </c>
       <c r="B2442">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2442" t="s">
         <v>2432</v>
@@ -34833,7 +34839,7 @@
         <v>2442</v>
       </c>
       <c r="B2443">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2443" t="s">
         <v>2433</v>
@@ -34844,7 +34850,7 @@
         <v>2443</v>
       </c>
       <c r="B2444">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2444" t="s">
         <v>2434</v>
@@ -34855,7 +34861,7 @@
         <v>2444</v>
       </c>
       <c r="B2445">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2445" t="s">
         <v>2435</v>
@@ -34866,7 +34872,7 @@
         <v>2445</v>
       </c>
       <c r="B2446">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2446" t="s">
         <v>2436</v>
@@ -34877,7 +34883,7 @@
         <v>2446</v>
       </c>
       <c r="B2447">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2447" t="s">
         <v>2437</v>
@@ -34888,7 +34894,7 @@
         <v>2447</v>
       </c>
       <c r="B2448">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2448" t="s">
         <v>2438</v>
@@ -34899,7 +34905,7 @@
         <v>2448</v>
       </c>
       <c r="B2449">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2449" t="s">
         <v>2439</v>
@@ -34910,7 +34916,7 @@
         <v>2449</v>
       </c>
       <c r="B2450">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2450" t="s">
         <v>2440</v>
@@ -34921,7 +34927,7 @@
         <v>2450</v>
       </c>
       <c r="B2451">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C2451" t="s">
         <v>2441</v>
@@ -34932,7 +34938,7 @@
         <v>2451</v>
       </c>
       <c r="B2452">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2452" t="s">
         <v>2442</v>
@@ -34943,7 +34949,7 @@
         <v>2452</v>
       </c>
       <c r="B2453">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C2453" t="s">
         <v>2443</v>
@@ -34954,7 +34960,7 @@
         <v>2453</v>
       </c>
       <c r="B2454">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C2454" t="s">
         <v>2444</v>
@@ -34965,7 +34971,7 @@
         <v>2454</v>
       </c>
       <c r="B2455">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2455" t="s">
         <v>2445</v>
@@ -34987,7 +34993,7 @@
         <v>2456</v>
       </c>
       <c r="B2457">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2457" t="s">
         <v>2447</v>
@@ -34998,7 +35004,7 @@
         <v>2457</v>
       </c>
       <c r="B2458">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2458" t="s">
         <v>2448</v>
@@ -35031,7 +35037,7 @@
         <v>2460</v>
       </c>
       <c r="B2461">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C2461" t="s">
         <v>2451</v>
@@ -35042,7 +35048,7 @@
         <v>2461</v>
       </c>
       <c r="B2462">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C2462" t="s">
         <v>2452</v>
@@ -35075,7 +35081,7 @@
         <v>2464</v>
       </c>
       <c r="B2465">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2465" t="s">
         <v>2455</v>
@@ -35086,7 +35092,7 @@
         <v>2465</v>
       </c>
       <c r="B2466">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C2466" t="s">
         <v>2456</v>
@@ -35097,7 +35103,7 @@
         <v>2466</v>
       </c>
       <c r="B2467">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C2467" t="s">
         <v>2457</v>
@@ -35108,7 +35114,7 @@
         <v>2467</v>
       </c>
       <c r="B2468">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C2468" t="s">
         <v>2458</v>
@@ -35119,7 +35125,7 @@
         <v>2468</v>
       </c>
       <c r="B2469">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C2469" t="s">
         <v>2459</v>
@@ -35130,7 +35136,7 @@
         <v>2469</v>
       </c>
       <c r="B2470">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C2470" t="s">
         <v>2460</v>
@@ -35141,7 +35147,7 @@
         <v>2470</v>
       </c>
       <c r="B2471">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2471" t="s">
         <v>2461</v>
@@ -35163,7 +35169,7 @@
         <v>2472</v>
       </c>
       <c r="B2473">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2473" t="s">
         <v>2463</v>
@@ -35174,7 +35180,7 @@
         <v>2473</v>
       </c>
       <c r="B2474">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2474" t="s">
         <v>2464</v>
@@ -35185,7 +35191,7 @@
         <v>2474</v>
       </c>
       <c r="B2475">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2475" t="s">
         <v>2465</v>
@@ -35196,7 +35202,7 @@
         <v>2475</v>
       </c>
       <c r="B2476">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2476" t="s">
         <v>2466</v>
@@ -35218,7 +35224,7 @@
         <v>2477</v>
       </c>
       <c r="B2478">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2478" t="s">
         <v>2468</v>
@@ -35229,7 +35235,7 @@
         <v>2478</v>
       </c>
       <c r="B2479">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2479" t="s">
         <v>2469</v>
@@ -35240,7 +35246,7 @@
         <v>2479</v>
       </c>
       <c r="B2480">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2480" t="s">
         <v>2470</v>
@@ -35251,7 +35257,7 @@
         <v>2480</v>
       </c>
       <c r="B2481">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C2481" t="s">
         <v>2471</v>
@@ -35262,7 +35268,7 @@
         <v>2481</v>
       </c>
       <c r="B2482">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C2482" t="s">
         <v>2472</v>
@@ -35273,7 +35279,7 @@
         <v>2482</v>
       </c>
       <c r="B2483">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2483" t="s">
         <v>2473</v>
@@ -35306,7 +35312,7 @@
         <v>2485</v>
       </c>
       <c r="B2486">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C2486" t="s">
         <v>2476</v>
@@ -35317,7 +35323,7 @@
         <v>2486</v>
       </c>
       <c r="B2487">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C2487" t="s">
         <v>2477</v>
@@ -35328,7 +35334,7 @@
         <v>2487</v>
       </c>
       <c r="B2488">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C2488" t="s">
         <v>2478</v>
@@ -35339,7 +35345,7 @@
         <v>2488</v>
       </c>
       <c r="B2489">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C2489" t="s">
         <v>2479</v>
@@ -35372,7 +35378,7 @@
         <v>2491</v>
       </c>
       <c r="B2492">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2492" t="s">
         <v>2482</v>
@@ -35383,7 +35389,7 @@
         <v>2492</v>
       </c>
       <c r="B2493">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2493" t="s">
         <v>2483</v>
@@ -35405,7 +35411,7 @@
         <v>2494</v>
       </c>
       <c r="B2495">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2495" t="s">
         <v>2485</v>
@@ -35416,7 +35422,7 @@
         <v>2495</v>
       </c>
       <c r="B2496">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C2496" t="s">
         <v>2486</v>
@@ -35427,7 +35433,7 @@
         <v>2496</v>
       </c>
       <c r="B2497">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2497" t="s">
         <v>2487</v>
@@ -35515,7 +35521,7 @@
         <v>2504</v>
       </c>
       <c r="B2505">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2505" t="s">
         <v>2495</v>
@@ -35526,7 +35532,7 @@
         <v>2505</v>
       </c>
       <c r="B2506">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C2506" t="s">
         <v>2496</v>
@@ -35537,7 +35543,7 @@
         <v>2506</v>
       </c>
       <c r="B2507">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2507" t="s">
         <v>2497</v>
@@ -35548,7 +35554,7 @@
         <v>2507</v>
       </c>
       <c r="B2508">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2508" t="s">
         <v>2498</v>
@@ -35559,7 +35565,7 @@
         <v>2508</v>
       </c>
       <c r="B2509">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2509" t="s">
         <v>2499</v>
@@ -35570,7 +35576,7 @@
         <v>2509</v>
       </c>
       <c r="B2510">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C2510" t="s">
         <v>2500</v>
@@ -35581,7 +35587,7 @@
         <v>2510</v>
       </c>
       <c r="B2511">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C2511" t="s">
         <v>2501</v>
@@ -35592,7 +35598,7 @@
         <v>2511</v>
       </c>
       <c r="B2512">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2512" t="s">
         <v>2502</v>
@@ -35603,7 +35609,7 @@
         <v>2512</v>
       </c>
       <c r="B2513">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2513" t="s">
         <v>2503</v>
@@ -35614,7 +35620,7 @@
         <v>2513</v>
       </c>
       <c r="B2514">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2514" t="s">
         <v>2504</v>
@@ -35625,7 +35631,7 @@
         <v>2514</v>
       </c>
       <c r="B2515">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2515" t="s">
         <v>2505</v>
@@ -35636,7 +35642,7 @@
         <v>2515</v>
       </c>
       <c r="B2516">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2516" t="s">
         <v>2506</v>
@@ -35647,7 +35653,7 @@
         <v>2516</v>
       </c>
       <c r="B2517">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2517" t="s">
         <v>2507</v>
@@ -35658,7 +35664,7 @@
         <v>2517</v>
       </c>
       <c r="B2518">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2518" t="s">
         <v>2508</v>
@@ -35669,7 +35675,7 @@
         <v>2518</v>
       </c>
       <c r="B2519">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2519" t="s">
         <v>2509</v>
@@ -35680,7 +35686,7 @@
         <v>2519</v>
       </c>
       <c r="B2520">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2520" t="s">
         <v>2510</v>
@@ -35691,7 +35697,7 @@
         <v>2520</v>
       </c>
       <c r="B2521">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C2521" t="s">
         <v>2511</v>
@@ -35702,7 +35708,7 @@
         <v>2521</v>
       </c>
       <c r="B2522">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2522" t="s">
         <v>2512</v>
@@ -35713,7 +35719,7 @@
         <v>2522</v>
       </c>
       <c r="B2523">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2523" t="s">
         <v>2513</v>
@@ -35724,7 +35730,7 @@
         <v>2523</v>
       </c>
       <c r="B2524">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2524" t="s">
         <v>2514</v>
@@ -35735,7 +35741,7 @@
         <v>2524</v>
       </c>
       <c r="B2525">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2525" t="s">
         <v>2515</v>
@@ -35746,7 +35752,7 @@
         <v>2525</v>
       </c>
       <c r="B2526">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C2526" t="s">
         <v>2516</v>
@@ -35757,7 +35763,7 @@
         <v>2526</v>
       </c>
       <c r="B2527">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2527" t="s">
         <v>2517</v>
@@ -35790,7 +35796,7 @@
         <v>2529</v>
       </c>
       <c r="B2530">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C2530" t="s">
         <v>2520</v>
@@ -35801,7 +35807,7 @@
         <v>2530</v>
       </c>
       <c r="B2531">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C2531" t="s">
         <v>2521</v>
@@ -35812,7 +35818,7 @@
         <v>2531</v>
       </c>
       <c r="B2532">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C2532" t="s">
         <v>2522</v>
@@ -35823,7 +35829,7 @@
         <v>2532</v>
       </c>
       <c r="B2533">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C2533" t="s">
         <v>2523</v>
@@ -35834,7 +35840,7 @@
         <v>2533</v>
       </c>
       <c r="B2534">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C2534" t="s">
         <v>2524</v>
@@ -35845,7 +35851,7 @@
         <v>2534</v>
       </c>
       <c r="B2535">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C2535" t="s">
         <v>2525</v>
@@ -35856,7 +35862,7 @@
         <v>2535</v>
       </c>
       <c r="B2536">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2536" t="s">
         <v>2526</v>
@@ -35878,7 +35884,7 @@
         <v>2537</v>
       </c>
       <c r="B2538">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2538" t="s">
         <v>2528</v>
@@ -35889,7 +35895,7 @@
         <v>2538</v>
       </c>
       <c r="B2539">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2539" t="s">
         <v>2529</v>
@@ -35911,7 +35917,7 @@
         <v>2540</v>
       </c>
       <c r="B2541">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2541" t="s">
         <v>2531</v>
@@ -35922,7 +35928,7 @@
         <v>2541</v>
       </c>
       <c r="B2542">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2542" t="s">
         <v>2532</v>
@@ -35933,7 +35939,7 @@
         <v>2542</v>
       </c>
       <c r="B2543">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C2543" t="s">
         <v>2533</v>
@@ -35944,10 +35950,32 @@
         <v>2543</v>
       </c>
       <c r="B2544">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C2544" t="s">
         <v>2534</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2545">
+        <v>2544</v>
+      </c>
+      <c r="B2545">
+        <v>783</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2546">
+        <v>2545</v>
+      </c>
+      <c r="B2546">
+        <v>784</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>2536</v>
       </c>
     </row>
   </sheetData>

--- a/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
+++ b/keyword_table/xlsx/Table_SearchingKeyword_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="2903">
   <si>
     <t>searching_keyword_sn</t>
   </si>
@@ -6905,7 +6905,10 @@
     <t>Identity and Access Management</t>
   </si>
   <si>
-    <t>IAM</t>
+    <t>Amazon IAM</t>
+  </si>
+  <si>
+    <t>아마존 IAM</t>
   </si>
   <si>
     <t>bash</t>
@@ -9059,10 +9062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2915"/>
+  <dimension ref="A1:C2916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2915"/>
+      <selection sqref="A1:C2916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34427,7 +34430,7 @@
         <v>2305</v>
       </c>
       <c r="B2306">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2306" t="s">
         <v>2294</v>
@@ -34460,7 +34463,7 @@
         <v>2308</v>
       </c>
       <c r="B2309">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C2309" t="s">
         <v>2297</v>
@@ -34570,7 +34573,7 @@
         <v>2318</v>
       </c>
       <c r="B2319">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2319" t="s">
         <v>2307</v>
@@ -34691,7 +34694,7 @@
         <v>2329</v>
       </c>
       <c r="B2330">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2330" t="s">
         <v>2318</v>
@@ -34768,7 +34771,7 @@
         <v>2336</v>
       </c>
       <c r="B2337">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2337" t="s">
         <v>2325</v>
@@ -34812,7 +34815,7 @@
         <v>2340</v>
       </c>
       <c r="B2341">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C2341" t="s">
         <v>2329</v>
@@ -34856,7 +34859,7 @@
         <v>2344</v>
       </c>
       <c r="B2345">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2345" t="s">
         <v>2333</v>
@@ -34878,7 +34881,7 @@
         <v>2346</v>
       </c>
       <c r="B2347">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2347" t="s">
         <v>2335</v>
@@ -34922,7 +34925,7 @@
         <v>2350</v>
       </c>
       <c r="B2351">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2351" t="s">
         <v>2339</v>
@@ -34966,7 +34969,7 @@
         <v>2354</v>
       </c>
       <c r="B2355">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C2355" t="s">
         <v>2343</v>
@@ -35021,7 +35024,7 @@
         <v>2359</v>
       </c>
       <c r="B2360">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C2360" t="s">
         <v>2348</v>
@@ -35065,7 +35068,7 @@
         <v>2363</v>
       </c>
       <c r="B2364">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C2364" t="s">
         <v>2352</v>
@@ -35098,7 +35101,7 @@
         <v>2366</v>
       </c>
       <c r="B2367">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C2367" t="s">
         <v>2355</v>
@@ -35109,7 +35112,7 @@
         <v>2367</v>
       </c>
       <c r="B2368">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C2368" t="s">
         <v>2356</v>
@@ -35153,7 +35156,7 @@
         <v>2371</v>
       </c>
       <c r="B2372">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2372" t="s">
         <v>2360</v>
@@ -35186,7 +35189,7 @@
         <v>2374</v>
       </c>
       <c r="B2375">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2375" t="s">
         <v>2363</v>
@@ -35208,7 +35211,7 @@
         <v>2376</v>
       </c>
       <c r="B2377">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2377" t="s">
         <v>2365</v>
@@ -35241,7 +35244,7 @@
         <v>2379</v>
       </c>
       <c r="B2380">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C2380" t="s">
         <v>2368</v>
@@ -35252,7 +35255,7 @@
         <v>2380</v>
       </c>
       <c r="B2381">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C2381" t="s">
         <v>2369</v>
@@ -35285,7 +35288,7 @@
         <v>2383</v>
       </c>
       <c r="B2384">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2384" t="s">
         <v>2372</v>
@@ -35318,7 +35321,7 @@
         <v>2386</v>
       </c>
       <c r="B2387">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2387" t="s">
         <v>2375</v>
@@ -35340,7 +35343,7 @@
         <v>2388</v>
       </c>
       <c r="B2389">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2389" t="s">
         <v>2377</v>
@@ -35384,7 +35387,7 @@
         <v>2392</v>
       </c>
       <c r="B2393">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2393" t="s">
         <v>2381</v>
@@ -35450,7 +35453,7 @@
         <v>2398</v>
       </c>
       <c r="B2399">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C2399" t="s">
         <v>2387</v>
@@ -35516,7 +35519,7 @@
         <v>2404</v>
       </c>
       <c r="B2405">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C2405" t="s">
         <v>2393</v>
@@ -35527,7 +35530,7 @@
         <v>2405</v>
       </c>
       <c r="B2406">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2406" t="s">
         <v>2394</v>
@@ -35538,7 +35541,7 @@
         <v>2406</v>
       </c>
       <c r="B2407">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2407" t="s">
         <v>2395</v>
@@ -35604,7 +35607,7 @@
         <v>2412</v>
       </c>
       <c r="B2413">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2413" t="s">
         <v>2401</v>
@@ -35637,7 +35640,7 @@
         <v>2415</v>
       </c>
       <c r="B2416">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C2416" t="s">
         <v>2404</v>
@@ -35692,7 +35695,7 @@
         <v>2420</v>
       </c>
       <c r="B2421">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C2421" t="s">
         <v>2409</v>
@@ -35703,7 +35706,7 @@
         <v>2421</v>
       </c>
       <c r="B2422">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C2422" t="s">
         <v>2410</v>
@@ -35725,7 +35728,7 @@
         <v>2423</v>
       </c>
       <c r="B2424">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2424" t="s">
         <v>2412</v>
@@ -35835,7 +35838,7 @@
         <v>2433</v>
       </c>
       <c r="B2434">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2434" t="s">
         <v>2422</v>
@@ -35857,7 +35860,7 @@
         <v>2435</v>
       </c>
       <c r="B2436">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2436" t="s">
         <v>2424</v>
@@ -35912,7 +35915,7 @@
         <v>2440</v>
       </c>
       <c r="B2441">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2441" t="s">
         <v>2429</v>
@@ -35956,7 +35959,7 @@
         <v>2444</v>
       </c>
       <c r="B2445">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C2445" t="s">
         <v>2433</v>
@@ -35989,7 +35992,7 @@
         <v>2447</v>
       </c>
       <c r="B2448">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2448" t="s">
         <v>2436</v>
@@ -36033,7 +36036,7 @@
         <v>2451</v>
       </c>
       <c r="B2452">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2452" t="s">
         <v>2440</v>
@@ -36055,7 +36058,7 @@
         <v>2453</v>
       </c>
       <c r="B2454">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C2454" t="s">
         <v>2442</v>
@@ -36077,7 +36080,7 @@
         <v>2455</v>
       </c>
       <c r="B2456">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2456" t="s">
         <v>2444</v>
@@ -36121,7 +36124,7 @@
         <v>2459</v>
       </c>
       <c r="B2460">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2460" t="s">
         <v>2448</v>
@@ -36143,7 +36146,7 @@
         <v>2461</v>
       </c>
       <c r="B2462">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C2462" t="s">
         <v>2450</v>
@@ -36198,7 +36201,7 @@
         <v>2466</v>
       </c>
       <c r="B2467">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2467" t="s">
         <v>2455</v>
@@ -36231,7 +36234,7 @@
         <v>2469</v>
       </c>
       <c r="B2470">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2470" t="s">
         <v>2458</v>
@@ -36253,7 +36256,7 @@
         <v>2471</v>
       </c>
       <c r="B2472">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2472" t="s">
         <v>2460</v>
@@ -36286,7 +36289,7 @@
         <v>2474</v>
       </c>
       <c r="B2475">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C2475" t="s">
         <v>2463</v>
@@ -36341,7 +36344,7 @@
         <v>2479</v>
       </c>
       <c r="B2480">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2480" t="s">
         <v>2468</v>
@@ -36363,7 +36366,7 @@
         <v>2481</v>
       </c>
       <c r="B2482">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C2482" t="s">
         <v>2470</v>
@@ -36374,7 +36377,7 @@
         <v>2482</v>
       </c>
       <c r="B2483">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C2483" t="s">
         <v>2471</v>
@@ -36385,7 +36388,7 @@
         <v>2483</v>
       </c>
       <c r="B2484">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C2484" t="s">
         <v>2472</v>
@@ -36440,7 +36443,7 @@
         <v>2488</v>
       </c>
       <c r="B2489">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2489" t="s">
         <v>2477</v>
@@ -36517,7 +36520,7 @@
         <v>2495</v>
       </c>
       <c r="B2496">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2496" t="s">
         <v>2484</v>
@@ -36539,7 +36542,7 @@
         <v>2497</v>
       </c>
       <c r="B2498">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2498" t="s">
         <v>2486</v>
@@ -36594,7 +36597,7 @@
         <v>2502</v>
       </c>
       <c r="B2503">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2503" t="s">
         <v>2491</v>
@@ -36616,7 +36619,7 @@
         <v>2504</v>
       </c>
       <c r="B2505">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C2505" t="s">
         <v>2493</v>
@@ -36649,7 +36652,7 @@
         <v>2507</v>
       </c>
       <c r="B2508">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2508" t="s">
         <v>2496</v>
@@ -36671,7 +36674,7 @@
         <v>2509</v>
       </c>
       <c r="B2510">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2510" t="s">
         <v>2498</v>
@@ -36704,7 +36707,7 @@
         <v>2512</v>
       </c>
       <c r="B2513">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C2513" t="s">
         <v>2501</v>
@@ -36726,7 +36729,7 @@
         <v>2514</v>
       </c>
       <c r="B2515">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C2515" t="s">
         <v>2503</v>
@@ -36759,7 +36762,7 @@
         <v>2517</v>
       </c>
       <c r="B2518">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C2518" t="s">
         <v>2506</v>
@@ -36803,7 +36806,7 @@
         <v>2521</v>
       </c>
       <c r="B2522">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C2522" t="s">
         <v>2510</v>
@@ -36847,7 +36850,7 @@
         <v>2525</v>
       </c>
       <c r="B2526">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C2526" t="s">
         <v>2514</v>
@@ -36902,7 +36905,7 @@
         <v>2530</v>
       </c>
       <c r="B2531">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C2531" t="s">
         <v>2519</v>
@@ -36913,7 +36916,7 @@
         <v>2531</v>
       </c>
       <c r="B2532">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C2532" t="s">
         <v>2520</v>
@@ -36957,7 +36960,7 @@
         <v>2535</v>
       </c>
       <c r="B2536">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C2536" t="s">
         <v>2524</v>
@@ -37001,7 +37004,7 @@
         <v>2539</v>
       </c>
       <c r="B2540">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C2540" t="s">
         <v>2528</v>
@@ -37034,7 +37037,7 @@
         <v>2542</v>
       </c>
       <c r="B2543">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C2543" t="s">
         <v>2531</v>
@@ -37100,7 +37103,7 @@
         <v>2548</v>
       </c>
       <c r="B2549">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2549" t="s">
         <v>2537</v>
@@ -37111,7 +37114,7 @@
         <v>2549</v>
       </c>
       <c r="B2550">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C2550" t="s">
         <v>2538</v>
@@ -37133,7 +37136,7 @@
         <v>2551</v>
       </c>
       <c r="B2552">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C2552" t="s">
         <v>2540</v>
@@ -37166,7 +37169,7 @@
         <v>2554</v>
       </c>
       <c r="B2555">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2555" t="s">
         <v>2543</v>
@@ -37188,7 +37191,7 @@
         <v>2556</v>
       </c>
       <c r="B2557">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C2557" t="s">
         <v>2545</v>
@@ -37232,7 +37235,7 @@
         <v>2560</v>
       </c>
       <c r="B2561">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C2561" t="s">
         <v>2549</v>
@@ -37287,7 +37290,7 @@
         <v>2565</v>
       </c>
       <c r="B2566">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C2566" t="s">
         <v>2554</v>
@@ -37331,7 +37334,7 @@
         <v>2569</v>
       </c>
       <c r="B2570">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C2570" t="s">
         <v>2558</v>
@@ -37353,7 +37356,7 @@
         <v>2571</v>
       </c>
       <c r="B2572">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2572" t="s">
         <v>2560</v>
@@ -37386,7 +37389,7 @@
         <v>2574</v>
       </c>
       <c r="B2575">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2575" t="s">
         <v>2563</v>
@@ -37397,7 +37400,7 @@
         <v>2575</v>
       </c>
       <c r="B2576">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2576" t="s">
         <v>2564</v>
@@ -37463,7 +37466,7 @@
         <v>2581</v>
       </c>
       <c r="B2582">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C2582" t="s">
         <v>2570</v>
@@ -37474,7 +37477,7 @@
         <v>2582</v>
       </c>
       <c r="B2583">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C2583" t="s">
         <v>2571</v>
@@ -37529,7 +37532,7 @@
         <v>2587</v>
       </c>
       <c r="B2588">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C2588" t="s">
         <v>2576</v>
@@ -37595,7 +37598,7 @@
         <v>2593</v>
       </c>
       <c r="B2594">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C2594" t="s">
         <v>2582</v>
@@ -37639,7 +37642,7 @@
         <v>2597</v>
       </c>
       <c r="B2598">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C2598" t="s">
         <v>2586</v>
@@ -37683,7 +37686,7 @@
         <v>2601</v>
       </c>
       <c r="B2602">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C2602" t="s">
         <v>2590</v>
@@ -37771,7 +37774,7 @@
         <v>2609</v>
       </c>
       <c r="B2610">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C2610" t="s">
         <v>2598</v>
@@ -37815,7 +37818,7 @@
         <v>2613</v>
       </c>
       <c r="B2614">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C2614" t="s">
         <v>2602</v>
@@ -37837,7 +37840,7 @@
         <v>2615</v>
       </c>
       <c r="B2616">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C2616" t="s">
         <v>2604</v>
@@ -37892,7 +37895,7 @@
         <v>2620</v>
       </c>
       <c r="B2621">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2621" t="s">
         <v>2609</v>
@@ -37914,7 +37917,7 @@
         <v>2622</v>
       </c>
       <c r="B2623">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C2623" t="s">
         <v>2611</v>
@@ -37925,7 +37928,7 @@
         <v>2623</v>
       </c>
       <c r="B2624">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2624" t="s">
         <v>2612</v>
@@ -37947,7 +37950,7 @@
         <v>2625</v>
       </c>
       <c r="B2626">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2626" t="s">
         <v>2614</v>
@@ -37969,7 +37972,7 @@
         <v>2627</v>
       </c>
       <c r="B2628">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2628" t="s">
         <v>2616</v>
@@ -38002,7 +38005,7 @@
         <v>2630</v>
       </c>
       <c r="B2631">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2631" t="s">
         <v>2619</v>
@@ -38046,7 +38049,7 @@
         <v>2634</v>
       </c>
       <c r="B2635">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C2635" t="s">
         <v>2623</v>
@@ -38079,7 +38082,7 @@
         <v>2637</v>
       </c>
       <c r="B2638">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C2638" t="s">
         <v>2626</v>
@@ -38112,7 +38115,7 @@
         <v>2640</v>
       </c>
       <c r="B2641">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2641" t="s">
         <v>2629</v>
@@ -38156,7 +38159,7 @@
         <v>2644</v>
       </c>
       <c r="B2645">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2645" t="s">
         <v>2633</v>
@@ -38200,7 +38203,7 @@
         <v>2648</v>
       </c>
       <c r="B2649">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2649" t="s">
         <v>2637</v>
@@ -38277,7 +38280,7 @@
         <v>2655</v>
       </c>
       <c r="B2656">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C2656" t="s">
         <v>2644</v>
@@ -38288,7 +38291,7 @@
         <v>2656</v>
       </c>
       <c r="B2657">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2657" t="s">
         <v>2645</v>
@@ -38332,7 +38335,7 @@
         <v>2660</v>
       </c>
       <c r="B2661">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C2661" t="s">
         <v>2649</v>
@@ -38376,7 +38379,7 @@
         <v>2664</v>
       </c>
       <c r="B2665">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C2665" t="s">
         <v>2653</v>
@@ -38398,7 +38401,7 @@
         <v>2666</v>
       </c>
       <c r="B2667">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C2667" t="s">
         <v>2655</v>
@@ -38420,7 +38423,7 @@
         <v>2668</v>
       </c>
       <c r="B2669">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C2669" t="s">
         <v>2657</v>
@@ -38464,7 +38467,7 @@
         <v>2672</v>
       </c>
       <c r="B2673">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C2673" t="s">
         <v>2661</v>
@@ -38508,7 +38511,7 @@
         <v>2676</v>
       </c>
       <c r="B2677">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C2677" t="s">
         <v>2665</v>
@@ -38552,7 +38555,7 @@
         <v>2680</v>
       </c>
       <c r="B2681">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2681" t="s">
         <v>2669</v>
@@ -38574,7 +38577,7 @@
         <v>2682</v>
       </c>
       <c r="B2683">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2683" t="s">
         <v>2671</v>
@@ -38585,7 +38588,7 @@
         <v>2683</v>
       </c>
       <c r="B2684">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2684" t="s">
         <v>2672</v>
@@ -38596,7 +38599,7 @@
         <v>2684</v>
       </c>
       <c r="B2685">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2685" t="s">
         <v>2673</v>
@@ -38640,7 +38643,7 @@
         <v>2688</v>
       </c>
       <c r="B2689">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C2689" t="s">
         <v>2677</v>
@@ -38706,7 +38709,7 @@
         <v>2694</v>
       </c>
       <c r="B2695">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C2695" t="s">
         <v>2683</v>
@@ -38739,7 +38742,7 @@
         <v>2697</v>
       </c>
       <c r="B2698">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C2698" t="s">
         <v>2686</v>
@@ -38761,7 +38764,7 @@
         <v>2699</v>
       </c>
       <c r="B2700">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2700" t="s">
         <v>2688</v>
@@ -38783,7 +38786,7 @@
         <v>2701</v>
       </c>
       <c r="B2702">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2702" t="s">
         <v>2690</v>
@@ -38794,7 +38797,7 @@
         <v>2702</v>
       </c>
       <c r="B2703">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2703" t="s">
         <v>2691</v>
@@ -38838,7 +38841,7 @@
         <v>2706</v>
       </c>
       <c r="B2707">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C2707" t="s">
         <v>2695</v>
@@ -38871,7 +38874,7 @@
         <v>2709</v>
       </c>
       <c r="B2710">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2710" t="s">
         <v>2698</v>
@@ -38882,7 +38885,7 @@
         <v>2710</v>
       </c>
       <c r="B2711">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2711" t="s">
         <v>2699</v>
@@ -38937,7 +38940,7 @@
         <v>2715</v>
       </c>
       <c r="B2716">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C2716" t="s">
         <v>2704</v>
@@ -38948,7 +38951,7 @@
         <v>2716</v>
       </c>
       <c r="B2717">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2717" t="s">
         <v>2705</v>
@@ -38970,7 +38973,7 @@
         <v>2718</v>
       </c>
       <c r="B2719">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C2719" t="s">
         <v>2707</v>
@@ -38981,7 +38984,7 @@
         <v>2719</v>
       </c>
       <c r="B2720">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C2720" t="s">
         <v>2708</v>
@@ -39003,7 +39006,7 @@
         <v>2721</v>
       </c>
       <c r="B2722">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2722" t="s">
         <v>2710</v>
@@ -39047,7 +39050,7 @@
         <v>2725</v>
       </c>
       <c r="B2726">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2726" t="s">
         <v>2714</v>
@@ -39072,7 +39075,7 @@
         <v>770</v>
       </c>
       <c r="C2728" t="s">
-        <v>225</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="2729" spans="1:3" x14ac:dyDescent="0.3">
@@ -39080,10 +39083,10 @@
         <v>2728</v>
       </c>
       <c r="B2729">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C2729" t="s">
-        <v>2716</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2730" spans="1:3" x14ac:dyDescent="0.3">
@@ -39091,10 +39094,10 @@
         <v>2729</v>
       </c>
       <c r="B2730">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C2730" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="2731" spans="1:3" x14ac:dyDescent="0.3">
@@ -39102,10 +39105,10 @@
         <v>2730</v>
       </c>
       <c r="B2731">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2731" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="2732" spans="1:3" x14ac:dyDescent="0.3">
@@ -39124,7 +39127,7 @@
         <v>2732</v>
       </c>
       <c r="B2733">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2733" t="s">
         <v>2719</v>
@@ -39146,7 +39149,7 @@
         <v>2734</v>
       </c>
       <c r="B2735">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2735" t="s">
         <v>2721</v>
@@ -39157,7 +39160,7 @@
         <v>2735</v>
       </c>
       <c r="B2736">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C2736" t="s">
         <v>2722</v>
@@ -39179,7 +39182,7 @@
         <v>2737</v>
       </c>
       <c r="B2738">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C2738" t="s">
         <v>2724</v>
@@ -39212,7 +39215,7 @@
         <v>2740</v>
       </c>
       <c r="B2741">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C2741" t="s">
         <v>2727</v>
@@ -39234,7 +39237,7 @@
         <v>2742</v>
       </c>
       <c r="B2743">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C2743" t="s">
         <v>2729</v>
@@ -39256,7 +39259,7 @@
         <v>2744</v>
       </c>
       <c r="B2745">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2745" t="s">
         <v>2731</v>
@@ -39300,7 +39303,7 @@
         <v>2748</v>
       </c>
       <c r="B2749">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2749" t="s">
         <v>2735</v>
@@ -39333,7 +39336,7 @@
         <v>2751</v>
       </c>
       <c r="B2752">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2752" t="s">
         <v>2738</v>
@@ -39388,7 +39391,7 @@
         <v>2756</v>
       </c>
       <c r="B2757">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C2757" t="s">
         <v>2743</v>
@@ -39399,7 +39402,7 @@
         <v>2757</v>
       </c>
       <c r="B2758">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C2758" t="s">
         <v>2744</v>
@@ -39410,7 +39413,7 @@
         <v>2758</v>
       </c>
       <c r="B2759">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C2759" t="s">
         <v>2745</v>
@@ -39421,7 +39424,7 @@
         <v>2759</v>
       </c>
       <c r="B2760">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C2760" t="s">
         <v>2746</v>
@@ -39432,7 +39435,7 @@
         <v>2760</v>
       </c>
       <c r="B2761">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C2761" t="s">
         <v>2747</v>
@@ -39443,7 +39446,7 @@
         <v>2761</v>
       </c>
       <c r="B2762">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C2762" t="s">
         <v>2748</v>
@@ -39476,7 +39479,7 @@
         <v>2764</v>
       </c>
       <c r="B2765">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C2765" t="s">
         <v>2751</v>
@@ -39487,7 +39490,7 @@
         <v>2765</v>
       </c>
       <c r="B2766">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C2766" t="s">
         <v>2752</v>
@@ -39498,7 +39501,7 @@
         <v>2766</v>
       </c>
       <c r="B2767">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C2767" t="s">
         <v>2753</v>
@@ -39520,7 +39523,7 @@
         <v>2768</v>
       </c>
       <c r="B2769">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C2769" t="s">
         <v>2755</v>
@@ -39531,7 +39534,7 @@
         <v>2769</v>
       </c>
       <c r="B2770">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C2770" t="s">
         <v>2756</v>
@@ -39553,7 +39556,7 @@
         <v>2771</v>
       </c>
       <c r="B2772">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2772" t="s">
         <v>2758</v>
@@ -39564,7 +39567,7 @@
         <v>2772</v>
       </c>
       <c r="B2773">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C2773" t="s">
         <v>2759</v>
@@ -39630,7 +39633,7 @@
         <v>2778</v>
       </c>
       <c r="B2779">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C2779" t="s">
         <v>2765</v>
@@ -39652,7 +39655,7 @@
         <v>2780</v>
       </c>
       <c r="B2781">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C2781" t="s">
         <v>2767</v>
@@ -39696,7 +39699,7 @@
         <v>2784</v>
       </c>
       <c r="B2785">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C2785" t="s">
         <v>2771</v>
@@ -39707,7 +39710,7 @@
         <v>2785</v>
       </c>
       <c r="B2786">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C2786" t="s">
         <v>2772</v>
@@ -39718,7 +39721,7 @@
         <v>2786</v>
       </c>
       <c r="B2787">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C2787" t="s">
         <v>2773</v>
@@ -39729,7 +39732,7 @@
         <v>2787</v>
       </c>
       <c r="B2788">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C2788" t="s">
         <v>2774</v>
@@ -39740,7 +39743,7 @@
         <v>2788</v>
       </c>
       <c r="B2789">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C2789" t="s">
         <v>2775</v>
@@ -39751,7 +39754,7 @@
         <v>2789</v>
       </c>
       <c r="B2790">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C2790" t="s">
         <v>2776</v>
@@ -39784,7 +39787,7 @@
         <v>2792</v>
       </c>
       <c r="B2793">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C2793" t="s">
         <v>2779</v>
@@ -39806,7 +39809,7 @@
         <v>2794</v>
       </c>
       <c r="B2795">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C2795" t="s">
         <v>2781</v>
@@ -39817,7 +39820,7 @@
         <v>2795</v>
       </c>
       <c r="B2796">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C2796" t="s">
         <v>2782</v>
@@ -39828,7 +39831,7 @@
         <v>2796</v>
       </c>
       <c r="B2797">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C2797" t="s">
         <v>2783</v>
@@ -39839,7 +39842,7 @@
         <v>2797</v>
       </c>
       <c r="B2798">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C2798" t="s">
         <v>2784</v>
@@ -39861,7 +39864,7 @@
         <v>2799</v>
       </c>
       <c r="B2800">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C2800" t="s">
         <v>2786</v>
@@ -39872,7 +39875,7 @@
         <v>2800</v>
       </c>
       <c r="B2801">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C2801" t="s">
         <v>2787</v>
@@ -39894,7 +39897,7 @@
         <v>2802</v>
       </c>
       <c r="B2803">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C2803" t="s">
         <v>2789</v>
@@ -39938,7 +39941,7 @@
         <v>2806</v>
       </c>
       <c r="B2807">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C2807" t="s">
         <v>2793</v>
@@ -39949,7 +39952,7 @@
         <v>2807</v>
       </c>
       <c r="B2808">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C2808" t="s">
         <v>2794</v>
@@ -39960,7 +39963,7 @@
         <v>2808</v>
       </c>
       <c r="B2809">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2809" t="s">
         <v>2795</v>
@@ -39982,7 +39985,7 @@
         <v>2810</v>
       </c>
       <c r="B2811">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C2811" t="s">
         <v>2797</v>
@@ -40004,7 +40007,7 @@
         <v>2812</v>
       </c>
       <c r="B2813">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C2813" t="s">
         <v>2799</v>
@@ -40026,7 +40029,7 @@
         <v>2814</v>
       </c>
       <c r="B2815">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C2815" t="s">
         <v>2801</v>
@@ -40048,7 +40051,7 @@
         <v>2816</v>
       </c>
       <c r="B2817">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C2817" t="s">
         <v>2803</v>
@@ -40070,7 +40073,7 @@
         <v>2818</v>
       </c>
       <c r="B2819">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C2819" t="s">
         <v>2805</v>
@@ -40092,7 +40095,7 @@
         <v>2820</v>
       </c>
       <c r="B2821">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C2821" t="s">
         <v>2807</v>
@@ -40103,7 +40106,7 @@
         <v>2821</v>
       </c>
       <c r="B2822">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C2822" t="s">
         <v>2808</v>
@@ -40114,7 +40117,7 @@
         <v>2822</v>
       </c>
       <c r="B2823">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C2823" t="s">
         <v>2809</v>
@@ -40125,7 +40128,7 @@
         <v>2823</v>
       </c>
       <c r="B2824">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C2824" t="s">
         <v>2810</v>
@@ -40158,7 +40161,7 @@
         <v>2826</v>
       </c>
       <c r="B2827">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C2827" t="s">
         <v>2813</v>
@@ -40202,7 +40205,7 @@
         <v>2830</v>
       </c>
       <c r="B2831">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C2831" t="s">
         <v>2817</v>
@@ -40246,7 +40249,7 @@
         <v>2834</v>
       </c>
       <c r="B2835">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C2835" t="s">
         <v>2821</v>
@@ -40257,7 +40260,7 @@
         <v>2835</v>
       </c>
       <c r="B2836">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C2836" t="s">
         <v>2822</v>
@@ -40268,7 +40271,7 @@
         <v>2836</v>
       </c>
       <c r="B2837">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C2837" t="s">
         <v>2823</v>
@@ -40290,7 +40293,7 @@
         <v>2838</v>
       </c>
       <c r="B2839">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C2839" t="s">
         <v>2825</v>
@@ -40301,7 +40304,7 @@
         <v>2839</v>
       </c>
       <c r="B2840">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C2840" t="s">
         <v>2826</v>
@@ -40334,7 +40337,7 @@
         <v>2842</v>
       </c>
       <c r="B2843">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C2843" t="s">
         <v>2829</v>
@@ -40356,7 +40359,7 @@
         <v>2844</v>
       </c>
       <c r="B2845">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C2845" t="s">
         <v>2831</v>
@@ -40389,7 +40392,7 @@
         <v>2847</v>
       </c>
       <c r="B2848">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C2848" t="s">
         <v>2834</v>
@@ -40411,7 +40414,7 @@
         <v>2849</v>
       </c>
       <c r="B2850">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C2850" t="s">
         <v>2836</v>
@@ -40422,7 +40425,7 @@
         <v>2850</v>
       </c>
       <c r="B2851">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C2851" t="s">
         <v>2837</v>
@@ -40433,7 +40436,7 @@
         <v>2851</v>
       </c>
       <c r="B2852">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C2852" t="s">
         <v>2838</v>
@@ -40477,7 +40480,7 @@
         <v>2855</v>
       </c>
       <c r="B2856">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C2856" t="s">
         <v>2842</v>
@@ -40488,7 +40491,7 @@
         <v>2856</v>
       </c>
       <c r="B2857">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C2857" t="s">
         <v>2843</v>
@@ -40499,7 +40502,7 @@
         <v>2857</v>
       </c>
       <c r="B2858">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C2858" t="s">
         <v>2844</v>
@@ -40543,7 +40546,7 @@
         <v>2861</v>
       </c>
       <c r="B2862">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C2862" t="s">
         <v>2848</v>
@@ -40576,7 +40579,7 @@
         <v>2864</v>
       </c>
       <c r="B2865">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C2865" t="s">
         <v>2851</v>
@@ -40587,7 +40590,7 @@
         <v>2865</v>
       </c>
       <c r="B2866">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C2866" t="s">
         <v>2852</v>
@@ -40686,7 +40689,7 @@
         <v>2874</v>
       </c>
       <c r="B2875">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C2875" t="s">
         <v>2861</v>
@@ -40697,7 +40700,7 @@
         <v>2875</v>
       </c>
       <c r="B2876">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C2876" t="s">
         <v>2862</v>
@@ -40719,7 +40722,7 @@
         <v>2877</v>
       </c>
       <c r="B2878">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C2878" t="s">
         <v>2864</v>
@@ -40741,7 +40744,7 @@
         <v>2879</v>
       </c>
       <c r="B2880">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C2880" t="s">
         <v>2866</v>
@@ -40752,7 +40755,7 @@
         <v>2880</v>
       </c>
       <c r="B2881">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C2881" t="s">
         <v>2867</v>
@@ -40774,7 +40777,7 @@
         <v>2882</v>
       </c>
       <c r="B2883">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C2883" t="s">
         <v>2869</v>
@@ -40796,7 +40799,7 @@
         <v>2884</v>
       </c>
       <c r="B2885">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C2885" t="s">
         <v>2871</v>
@@ -40818,7 +40821,7 @@
         <v>2886</v>
       </c>
       <c r="B2887">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C2887" t="s">
         <v>2873</v>
@@ -40840,7 +40843,7 @@
         <v>2888</v>
       </c>
       <c r="B2889">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C2889" t="s">
         <v>2875</v>
@@ -40862,7 +40865,7 @@
         <v>2890</v>
       </c>
       <c r="B2891">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C2891" t="s">
         <v>2877</v>
@@ -40873,7 +40876,7 @@
         <v>2891</v>
       </c>
       <c r="B2892">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C2892" t="s">
         <v>2878</v>
@@ -40884,7 +40887,7 @@
         <v>2892</v>
       </c>
       <c r="B2893">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C2893" t="s">
         <v>2879</v>
@@ -40906,7 +40909,7 @@
         <v>2894</v>
       </c>
       <c r="B2895">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C2895" t="s">
         <v>2881</v>
@@ -40917,7 +40920,7 @@
         <v>2895</v>
       </c>
       <c r="B2896">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C2896" t="s">
         <v>2882</v>
@@ -40972,7 +40975,7 @@
         <v>2900</v>
       </c>
       <c r="B2901">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C2901" t="s">
         <v>2887</v>
@@ -40983,7 +40986,7 @@
         <v>2901</v>
       </c>
       <c r="B2902">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C2902" t="s">
         <v>2888</v>
@@ -41005,7 +41008,7 @@
         <v>2903</v>
       </c>
       <c r="B2904">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C2904" t="s">
         <v>2890</v>
@@ -41016,7 +41019,7 @@
         <v>2904</v>
       </c>
       <c r="B2905">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C2905" t="s">
         <v>2891</v>
@@ -41027,7 +41030,7 @@
         <v>2905</v>
       </c>
       <c r="B2906">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C2906" t="s">
         <v>2892</v>
@@ -41060,7 +41063,7 @@
         <v>2908</v>
       </c>
       <c r="B2909">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C2909" t="s">
         <v>2895</v>
@@ -41093,7 +41096,7 @@
         <v>2911</v>
       </c>
       <c r="B2912">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C2912" t="s">
         <v>2898</v>
@@ -41115,7 +41118,7 @@
         <v>2913</v>
       </c>
       <c r="B2914">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C2914" t="s">
         <v>2900</v>
@@ -41126,10 +41129,21 @@
         <v>2914</v>
       </c>
       <c r="B2915">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C2915" t="s">
         <v>2901</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2916">
+        <v>2915</v>
+      </c>
+      <c r="B2916">
+        <v>865</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>2902</v>
       </c>
     </row>
   </sheetData>
